--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2453B3-7665-4772-8788-BFBAEC3382B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D43D097-1496-4469-BB20-889B5E7B8E66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="278">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -874,7 +874,49 @@
     <t>Kết nối giao diện với API tra cứu kết quả xổ số bằng số trên vé dò</t>
   </si>
   <si>
-    <t>Viết automatic test cho API tra cứu kết quả xổ số bằng số trên vé dò</t>
+    <t>Vẽ workflow sửa tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t>Viết function requirement sửa tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t>Code UpdateAreaDAO</t>
+  </si>
+  <si>
+    <t>Code UpdateAreaService</t>
+  </si>
+  <si>
+    <t>Code UpdateAreaController và tạo API route</t>
+  </si>
+  <si>
+    <t>Thiết kế mockup giao diện sửa tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t>Kết nối giao diện với API sửa tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t>Viết automatic test cho API sửa tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t>Vẽ workflow xóa tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t>Viết function requirement xóa tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t>Code DeleteAreaService</t>
+  </si>
+  <si>
+    <t>Code DeleteAreaController và tạo API route</t>
+  </si>
+  <si>
+    <t>Kết nối giao diện với API xóa tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t>Viết automatic test cho API xóa tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viết automatic test cho API tra cứu kết quả xổ số bằng số trên vé dò </t>
   </si>
 </sst>
 </file>
@@ -1909,14 +1951,14 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2904,7 +2946,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G230" sqref="G230"/>
+      <selection pane="bottomLeft" activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2958,24 +3000,24 @@
       <c r="B3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="128"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="126">
+      <c r="F3" s="128">
         <v>44851</v>
       </c>
-      <c r="G3" s="126"/>
+      <c r="G3" s="128"/>
     </row>
     <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="128"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="36"/>
       <c r="F4" s="7">
         <v>1</v>
@@ -22125,7 +22167,7 @@
     <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="26"/>
       <c r="B103" s="67" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="C103" s="55" t="s">
         <v>51</v>
@@ -22309,7 +22351,7 @@
     <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="26"/>
       <c r="B104" s="67" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="C104" s="55" t="s">
         <v>51</v>
@@ -22493,7 +22535,7 @@
     <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="26"/>
       <c r="B105" s="67" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="C105" s="55" t="s">
         <v>50</v>
@@ -22677,7 +22719,7 @@
     <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="26"/>
       <c r="B106" s="67" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="C106" s="55" t="s">
         <v>50</v>
@@ -22861,7 +22903,7 @@
     <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="26"/>
       <c r="B107" s="67" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="C107" s="55" t="s">
         <v>50</v>
@@ -23045,7 +23087,7 @@
     <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="26"/>
       <c r="B108" s="67" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="C108" s="55" t="s">
         <v>52</v>
@@ -23413,7 +23455,7 @@
     <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="26"/>
       <c r="B110" s="67" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="C110" s="55" t="s">
         <v>52</v>
@@ -23597,7 +23639,7 @@
     <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="26"/>
       <c r="B111" s="67" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="C111" s="55" t="s">
         <v>51</v>
@@ -23957,7 +23999,7 @@
     <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="26"/>
       <c r="B113" s="97" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="C113" s="98" t="s">
         <v>51</v>
@@ -24141,7 +24183,7 @@
     <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="26"/>
       <c r="B114" s="97" t="s">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="C114" s="98" t="s">
         <v>51</v>
@@ -24325,7 +24367,7 @@
     <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="26"/>
       <c r="B115" s="97" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="C115" s="98" t="s">
         <v>50</v>
@@ -24509,7 +24551,7 @@
     <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="26"/>
       <c r="B116" s="97" t="s">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="C116" s="98" t="s">
         <v>50</v>
@@ -24693,7 +24735,7 @@
     <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="26"/>
       <c r="B117" s="97" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="C117" s="98" t="s">
         <v>52</v>
@@ -24877,7 +24919,7 @@
     <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="26"/>
       <c r="B118" s="97" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="C118" s="98" t="s">
         <v>51</v>
@@ -43715,7 +43757,7 @@
         <v>44991</v>
       </c>
       <c r="G221" s="58">
-        <f>F221</f>
+        <f t="shared" ref="G221:G229" si="54">F221</f>
         <v>44991</v>
       </c>
       <c r="H221" s="15"/>
@@ -43899,7 +43941,7 @@
         <v>44991</v>
       </c>
       <c r="G222" s="58">
-        <f>F222</f>
+        <f t="shared" si="54"/>
         <v>44991</v>
       </c>
       <c r="H222" s="15"/>
@@ -44083,7 +44125,7 @@
         <v>44992</v>
       </c>
       <c r="G223" s="58">
-        <f>F223</f>
+        <f t="shared" si="54"/>
         <v>44992</v>
       </c>
       <c r="H223" s="15"/>
@@ -44267,7 +44309,7 @@
         <v>44992</v>
       </c>
       <c r="G224" s="58">
-        <f>F224</f>
+        <f t="shared" si="54"/>
         <v>44992</v>
       </c>
       <c r="H224" s="15"/>
@@ -44451,7 +44493,7 @@
         <v>44993</v>
       </c>
       <c r="G225" s="58">
-        <f>F225</f>
+        <f t="shared" si="54"/>
         <v>44993</v>
       </c>
       <c r="H225" s="15"/>
@@ -44635,7 +44677,7 @@
         <v>44992</v>
       </c>
       <c r="G226" s="58">
-        <f>F226</f>
+        <f t="shared" si="54"/>
         <v>44992</v>
       </c>
       <c r="H226" s="15"/>
@@ -44819,7 +44861,7 @@
         <v>44993</v>
       </c>
       <c r="G227" s="58">
-        <f>F227</f>
+        <f t="shared" si="54"/>
         <v>44993</v>
       </c>
       <c r="H227" s="15"/>
@@ -45003,7 +45045,7 @@
         <v>44994</v>
       </c>
       <c r="G228" s="58">
-        <f>F228</f>
+        <f t="shared" si="54"/>
         <v>44994</v>
       </c>
       <c r="H228" s="15"/>
@@ -45173,7 +45215,7 @@
     <row r="229" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="26"/>
       <c r="B229" s="67" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C229" s="55" t="s">
         <v>51</v>
@@ -45187,7 +45229,7 @@
         <v>44992</v>
       </c>
       <c r="G229" s="58">
-        <f>F229</f>
+        <f t="shared" si="54"/>
         <v>44992</v>
       </c>
       <c r="H229" s="15"/>
@@ -45545,32 +45587,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
-    <mergeCell ref="FH4:FN4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="BN4:BT4"/>
-    <mergeCell ref="BU4:CA4"/>
-    <mergeCell ref="CB4:CH4"/>
-    <mergeCell ref="CI4:CO4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="BU4:CA4"/>
+    <mergeCell ref="CB4:CH4"/>
+    <mergeCell ref="CI4:CO4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
+    <mergeCell ref="FH4:FN4"/>
   </mergeCells>
   <conditionalFormatting sqref="D230:E230 D7:E48">
     <cfRule type="dataBar" priority="39">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB5449-F665-48B0-B688-1BCB1A3C7153}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44DFA3C-0452-46C9-A923-3D935ABD5A6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="199">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Cập nhật lại start day, end day và cập nhật histories</t>
-  </si>
-  <si>
-    <t>Sprint 2 (31/10/2022 - 12/11/2022)</t>
   </si>
   <si>
     <t>Sprint 1</t>
@@ -674,6 +671,15 @@
   </si>
   <si>
     <t>Sinh viên xóa câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>bùi Nhật Hào</t>
+  </si>
+  <si>
+    <t>Tạo bảng Student và Teacher trong database</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
   </si>
 </sst>
 </file>
@@ -2681,8 +2687,8 @@
   <dimension ref="A1:FN171"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
+      <pane ySplit="6" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K157" sqref="K157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4490,7 +4496,7 @@
     </row>
     <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="93"/>
@@ -4664,12 +4670,12 @@
         <v>22</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="47"/>
       <c r="E9" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -4845,7 +4851,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>46</v>
@@ -5034,7 +5040,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>46</v>
@@ -5221,10 +5227,10 @@
     <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="48">
         <v>0</v>
@@ -5408,7 +5414,7 @@
     <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>45</v>
@@ -5592,7 +5598,7 @@
     <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>45</v>
@@ -5776,7 +5782,7 @@
     <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>45</v>
@@ -5960,7 +5966,7 @@
     <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>47</v>
@@ -6144,7 +6150,7 @@
     <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>47</v>
@@ -6328,7 +6334,7 @@
     <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>47</v>
@@ -6512,7 +6518,7 @@
     <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>46</v>
@@ -6698,7 +6704,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="47"/>
@@ -6877,7 +6883,7 @@
     <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27"/>
       <c r="B21" s="97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>46</v>
@@ -7064,10 +7070,10 @@
     <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -7251,7 +7257,7 @@
     <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
       <c r="B23" s="97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>45</v>
@@ -7438,10 +7444,10 @@
     <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -7622,10 +7628,10 @@
     <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="48">
         <v>0</v>
@@ -7806,12 +7812,12 @@
     <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="47"/>
       <c r="E26" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
@@ -7982,9 +7988,11 @@
     <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="31"/>
+        <v>79</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="D27" s="48"/>
       <c r="E27" s="41"/>
       <c r="F27" s="75">
@@ -7992,7 +8000,7 @@
         <v>44882</v>
       </c>
       <c r="G27" s="75">
-        <f>F27</f>
+        <f t="shared" ref="G27:G33" si="45">F27</f>
         <v>44882</v>
       </c>
       <c r="H27" s="15"/>
@@ -8161,12 +8169,14 @@
     </row>
     <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="31"/>
+        <v>80</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>45</v>
+      </c>
       <c r="D28" s="48"/>
       <c r="E28" s="41"/>
       <c r="F28" s="75">
@@ -8174,7 +8184,7 @@
         <v>44883</v>
       </c>
       <c r="G28" s="75">
-        <f>F28</f>
+        <f t="shared" si="45"/>
         <v>44883</v>
       </c>
       <c r="H28" s="15"/>
@@ -8344,9 +8354,11 @@
     <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="31"/>
+        <v>81</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>45</v>
+      </c>
       <c r="D29" s="48"/>
       <c r="E29" s="41"/>
       <c r="F29" s="75">
@@ -8354,7 +8366,7 @@
         <v>44883</v>
       </c>
       <c r="G29" s="75">
-        <f>F29</f>
+        <f t="shared" si="45"/>
         <v>44883</v>
       </c>
       <c r="H29" s="15"/>
@@ -8524,9 +8536,11 @@
     <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="D30" s="48"/>
       <c r="E30" s="41"/>
       <c r="F30" s="75">
@@ -8534,7 +8548,7 @@
         <v>44883</v>
       </c>
       <c r="G30" s="75">
-        <f>F30</f>
+        <f t="shared" si="45"/>
         <v>44883</v>
       </c>
       <c r="H30" s="15"/>
@@ -8704,9 +8718,11 @@
     <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
       <c r="B31" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="31"/>
+        <v>83</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="D31" s="48"/>
       <c r="E31" s="41"/>
       <c r="F31" s="75">
@@ -8714,7 +8730,7 @@
         <v>44883</v>
       </c>
       <c r="G31" s="75">
-        <f>F31</f>
+        <f t="shared" si="45"/>
         <v>44883</v>
       </c>
       <c r="H31" s="15"/>
@@ -8884,9 +8900,11 @@
     <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
       <c r="B32" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="31"/>
+        <v>84</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="D32" s="48"/>
       <c r="E32" s="41"/>
       <c r="F32" s="75">
@@ -8894,7 +8912,7 @@
         <v>44884</v>
       </c>
       <c r="G32" s="75">
-        <f>F32</f>
+        <f t="shared" si="45"/>
         <v>44884</v>
       </c>
       <c r="H32" s="15"/>
@@ -9064,9 +9082,11 @@
     <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
       <c r="B33" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="31"/>
+        <v>85</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="D33" s="48"/>
       <c r="E33" s="41"/>
       <c r="F33" s="75">
@@ -9074,7 +9094,7 @@
         <v>44883</v>
       </c>
       <c r="G33" s="75">
-        <f>F33</f>
+        <f t="shared" si="45"/>
         <v>44883</v>
       </c>
       <c r="H33" s="15"/>
@@ -9244,7 +9264,7 @@
     <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
       <c r="B34" s="86" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="C34" s="87"/>
       <c r="D34" s="88"/>
@@ -9420,12 +9440,12 @@
         <v>15</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="47"/>
       <c r="E35" s="39">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
@@ -9599,7 +9619,7 @@
     <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26"/>
       <c r="B36" s="97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>46</v>
@@ -9613,7 +9633,7 @@
         <v>44886</v>
       </c>
       <c r="G36" s="75">
-        <f>F36</f>
+        <f t="shared" ref="G36:G44" si="46">F36</f>
         <v>44886</v>
       </c>
       <c r="H36" s="15"/>
@@ -9786,7 +9806,7 @@
     <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="26"/>
       <c r="B37" s="97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>46</v>
@@ -9800,7 +9820,7 @@
         <v>44886</v>
       </c>
       <c r="G37" s="75">
-        <f>F37</f>
+        <f t="shared" si="46"/>
         <v>44886</v>
       </c>
       <c r="H37" s="15"/>
@@ -9973,7 +9993,7 @@
     <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="26"/>
       <c r="B38" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>45</v>
@@ -9987,7 +10007,7 @@
         <v>44887</v>
       </c>
       <c r="G38" s="75">
-        <f>F38</f>
+        <f t="shared" si="46"/>
         <v>44887</v>
       </c>
       <c r="H38" s="15"/>
@@ -10160,7 +10180,7 @@
     <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="26"/>
       <c r="B39" s="97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>45</v>
@@ -10174,7 +10194,7 @@
         <v>44887</v>
       </c>
       <c r="G39" s="75">
-        <f>F39</f>
+        <f t="shared" si="46"/>
         <v>44887</v>
       </c>
       <c r="H39" s="15"/>
@@ -10344,7 +10364,7 @@
     <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="26"/>
       <c r="B40" s="97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>45</v>
@@ -10358,7 +10378,7 @@
         <v>44888</v>
       </c>
       <c r="G40" s="75">
-        <f>F40</f>
+        <f t="shared" si="46"/>
         <v>44888</v>
       </c>
       <c r="H40" s="15"/>
@@ -10528,10 +10548,10 @@
     <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="26"/>
       <c r="B41" s="97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D41" s="48">
         <v>0</v>
@@ -10542,7 +10562,7 @@
         <v>44887</v>
       </c>
       <c r="G41" s="75">
-        <f>F41</f>
+        <f t="shared" si="46"/>
         <v>44887</v>
       </c>
       <c r="H41" s="15"/>
@@ -10712,7 +10732,7 @@
     <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="26"/>
       <c r="B42" s="97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>47</v>
@@ -10726,7 +10746,7 @@
         <v>44887</v>
       </c>
       <c r="G42" s="75">
-        <f>F42</f>
+        <f t="shared" si="46"/>
         <v>44887</v>
       </c>
       <c r="H42" s="15"/>
@@ -10896,7 +10916,7 @@
     <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="26"/>
       <c r="B43" s="97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>47</v>
@@ -10910,7 +10930,7 @@
         <v>44889</v>
       </c>
       <c r="G43" s="75">
-        <f>F43</f>
+        <f t="shared" si="46"/>
         <v>44889</v>
       </c>
       <c r="H43" s="15"/>
@@ -11080,7 +11100,7 @@
     <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="26"/>
       <c r="B44" s="97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>46</v>
@@ -11094,7 +11114,7 @@
         <v>44887</v>
       </c>
       <c r="G44" s="75">
-        <f>F44</f>
+        <f t="shared" si="46"/>
         <v>44887</v>
       </c>
       <c r="H44" s="15"/>
@@ -11266,12 +11286,12 @@
         <v>15</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="47"/>
       <c r="E45" s="39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="17"/>
@@ -11445,7 +11465,7 @@
     <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="26"/>
       <c r="B46" s="97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>46</v>
@@ -11459,7 +11479,7 @@
         <v>44890</v>
       </c>
       <c r="G46" s="75">
-        <f>F46</f>
+        <f t="shared" ref="G46:G52" si="47">F46</f>
         <v>44890</v>
       </c>
       <c r="H46" s="15"/>
@@ -11632,10 +11652,10 @@
     <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26"/>
       <c r="B47" s="97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="48">
         <v>0</v>
@@ -11646,7 +11666,7 @@
         <v>44891</v>
       </c>
       <c r="G47" s="75">
-        <f>F47</f>
+        <f t="shared" si="47"/>
         <v>44891</v>
       </c>
       <c r="H47" s="15"/>
@@ -11819,7 +11839,7 @@
     <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="26"/>
       <c r="B48" s="97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="31" t="s">
         <v>45</v>
@@ -11833,7 +11853,7 @@
         <v>44891</v>
       </c>
       <c r="G48" s="75">
-        <f>F48</f>
+        <f t="shared" si="47"/>
         <v>44891</v>
       </c>
       <c r="H48" s="15"/>
@@ -12006,10 +12026,10 @@
     <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="26"/>
       <c r="B49" s="97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D49" s="48">
         <v>0</v>
@@ -12020,7 +12040,7 @@
         <v>44891</v>
       </c>
       <c r="G49" s="75">
-        <f>F49</f>
+        <f t="shared" si="47"/>
         <v>44891</v>
       </c>
       <c r="H49" s="15"/>
@@ -12190,10 +12210,10 @@
     <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="26"/>
       <c r="B50" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D50" s="48">
         <v>0</v>
@@ -12204,7 +12224,7 @@
         <v>44891</v>
       </c>
       <c r="G50" s="75">
-        <f>F50</f>
+        <f t="shared" si="47"/>
         <v>44891</v>
       </c>
       <c r="H50" s="15"/>
@@ -12374,7 +12394,7 @@
     <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="26"/>
       <c r="B51" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>47</v>
@@ -12388,7 +12408,7 @@
         <v>44893</v>
       </c>
       <c r="G51" s="75">
-        <f>F51</f>
+        <f t="shared" si="47"/>
         <v>44893</v>
       </c>
       <c r="H51" s="15"/>
@@ -12558,10 +12578,10 @@
     <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="26"/>
       <c r="B52" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="48">
         <v>0</v>
@@ -12572,7 +12592,7 @@
         <v>44891</v>
       </c>
       <c r="G52" s="75">
-        <f>F52</f>
+        <f t="shared" si="47"/>
         <v>44891</v>
       </c>
       <c r="H52" s="15"/>
@@ -12742,12 +12762,12 @@
     <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="26"/>
       <c r="B53" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="47"/>
       <c r="E53" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="17"/>
@@ -12918,9 +12938,11 @@
     <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="26"/>
       <c r="B54" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="D54" s="48"/>
       <c r="E54" s="41"/>
       <c r="F54" s="75">
@@ -12928,7 +12950,7 @@
         <v>44894</v>
       </c>
       <c r="G54" s="75">
-        <f>F54</f>
+        <f t="shared" ref="G54:G60" si="48">F54</f>
         <v>44894</v>
       </c>
       <c r="H54" s="15"/>
@@ -13098,9 +13120,11 @@
     <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="26"/>
       <c r="B55" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="31"/>
+        <v>105</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>45</v>
+      </c>
       <c r="D55" s="48"/>
       <c r="E55" s="41"/>
       <c r="F55" s="75">
@@ -13108,7 +13132,7 @@
         <v>44895</v>
       </c>
       <c r="G55" s="75">
-        <f>F55</f>
+        <f t="shared" si="48"/>
         <v>44895</v>
       </c>
       <c r="H55" s="15"/>
@@ -13278,9 +13302,11 @@
     <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="26"/>
       <c r="B56" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="31"/>
+        <v>106</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>45</v>
+      </c>
       <c r="D56" s="48"/>
       <c r="E56" s="41"/>
       <c r="F56" s="75">
@@ -13288,7 +13314,7 @@
         <v>44895</v>
       </c>
       <c r="G56" s="75">
-        <f>F56</f>
+        <f t="shared" si="48"/>
         <v>44895</v>
       </c>
       <c r="H56" s="15"/>
@@ -13458,9 +13484,11 @@
     <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="26"/>
       <c r="B57" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="D57" s="48"/>
       <c r="E57" s="41"/>
       <c r="F57" s="75">
@@ -13468,7 +13496,7 @@
         <v>44895</v>
       </c>
       <c r="G57" s="75">
-        <f>F57</f>
+        <f t="shared" si="48"/>
         <v>44895</v>
       </c>
       <c r="H57" s="15"/>
@@ -13638,9 +13666,11 @@
     <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="26"/>
       <c r="B58" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="31"/>
+        <v>107</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="D58" s="48"/>
       <c r="E58" s="41"/>
       <c r="F58" s="75">
@@ -13648,7 +13678,7 @@
         <v>44895</v>
       </c>
       <c r="G58" s="75">
-        <f>F58</f>
+        <f t="shared" si="48"/>
         <v>44895</v>
       </c>
       <c r="H58" s="15"/>
@@ -13818,9 +13848,11 @@
     <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26"/>
       <c r="B59" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="31"/>
+        <v>108</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="D59" s="48"/>
       <c r="E59" s="41"/>
       <c r="F59" s="75">
@@ -13828,7 +13860,7 @@
         <v>44896</v>
       </c>
       <c r="G59" s="75">
-        <f>F59</f>
+        <f t="shared" si="48"/>
         <v>44896</v>
       </c>
       <c r="H59" s="15"/>
@@ -13998,9 +14030,11 @@
     <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26"/>
       <c r="B60" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="31"/>
+        <v>111</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="D60" s="48"/>
       <c r="E60" s="41"/>
       <c r="F60" s="75">
@@ -14008,7 +14042,7 @@
         <v>44895</v>
       </c>
       <c r="G60" s="75">
-        <f>F60</f>
+        <f t="shared" si="48"/>
         <v>44895</v>
       </c>
       <c r="H60" s="15"/>
@@ -14178,12 +14212,12 @@
     <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26"/>
       <c r="B61" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="47"/>
       <c r="E61" s="39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="17"/>
@@ -14354,9 +14388,11 @@
     <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26"/>
       <c r="B62" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="31"/>
+        <v>112</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="D62" s="48"/>
       <c r="E62" s="41"/>
       <c r="F62" s="75">
@@ -14534,9 +14570,11 @@
     <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26"/>
       <c r="B63" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="31"/>
+        <v>113</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>45</v>
+      </c>
       <c r="D63" s="48"/>
       <c r="E63" s="41"/>
       <c r="F63" s="75">
@@ -14714,9 +14752,11 @@
     <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26"/>
       <c r="B64" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="31"/>
+        <v>114</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>45</v>
+      </c>
       <c r="D64" s="48"/>
       <c r="E64" s="41"/>
       <c r="F64" s="75">
@@ -14894,9 +14934,11 @@
     <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26"/>
       <c r="B65" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="31"/>
+        <v>115</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="D65" s="48"/>
       <c r="E65" s="41"/>
       <c r="F65" s="75">
@@ -15074,9 +15116,11 @@
     <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="26"/>
       <c r="B66" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="D66" s="48"/>
       <c r="E66" s="41"/>
       <c r="F66" s="75">
@@ -15254,7 +15298,7 @@
     <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="26"/>
       <c r="B67" s="86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="87"/>
       <c r="D67" s="88"/>
@@ -15430,7 +15474,7 @@
         <v>17</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="76"/>
@@ -15609,7 +15653,7 @@
     <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="26"/>
       <c r="B69" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="55" t="s">
         <v>46</v>
@@ -15793,7 +15837,7 @@
     <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26"/>
       <c r="B70" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="55" t="s">
         <v>46</v>
@@ -15977,7 +16021,7 @@
     <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26"/>
       <c r="B71" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="55" t="s">
         <v>45</v>
@@ -15991,7 +16035,7 @@
         <v>44901</v>
       </c>
       <c r="G71" s="58">
-        <f t="shared" ref="G71:G77" si="45">F71</f>
+        <f t="shared" ref="G71:G77" si="49">F71</f>
         <v>44901</v>
       </c>
       <c r="H71" s="15"/>
@@ -16161,9 +16205,11 @@
     <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="26"/>
       <c r="B72" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="55"/>
+        <v>120</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D72" s="56"/>
       <c r="E72" s="57"/>
       <c r="F72" s="58">
@@ -16341,7 +16387,7 @@
     <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="26"/>
       <c r="B73" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="55" t="s">
         <v>45</v>
@@ -16355,7 +16401,7 @@
         <v>44902</v>
       </c>
       <c r="G73" s="58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>44902</v>
       </c>
       <c r="H73" s="15"/>
@@ -16525,10 +16571,10 @@
     <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="26"/>
       <c r="B74" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D74" s="56">
         <v>0</v>
@@ -16539,7 +16585,7 @@
         <v>44901</v>
       </c>
       <c r="G74" s="58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>44901</v>
       </c>
       <c r="H74" s="15"/>
@@ -16709,7 +16755,7 @@
     <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="26"/>
       <c r="B75" s="66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="55" t="s">
         <v>47</v>
@@ -16723,7 +16769,7 @@
         <v>44901</v>
       </c>
       <c r="G75" s="58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>44901</v>
       </c>
       <c r="H75" s="15"/>
@@ -16893,7 +16939,7 @@
     <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="26"/>
       <c r="B76" s="66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" s="55" t="s">
         <v>47</v>
@@ -16907,7 +16953,7 @@
         <v>44903</v>
       </c>
       <c r="G76" s="58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>44903</v>
       </c>
       <c r="H76" s="15"/>
@@ -17077,10 +17123,10 @@
     <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="26"/>
       <c r="B77" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D77" s="56">
         <v>0</v>
@@ -17091,7 +17137,7 @@
         <v>44901</v>
       </c>
       <c r="G77" s="58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>44901</v>
       </c>
       <c r="H77" s="15"/>
@@ -17261,12 +17307,12 @@
     <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="26"/>
       <c r="B78" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="53"/>
       <c r="E78" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F78" s="52"/>
       <c r="G78" s="52"/>
@@ -17437,7 +17483,7 @@
     <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="26"/>
       <c r="B79" s="66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="55" t="s">
         <v>46</v>
@@ -17451,7 +17497,7 @@
         <v>44904</v>
       </c>
       <c r="G79" s="58">
-        <f t="shared" ref="G79:G85" si="46">F79</f>
+        <f t="shared" ref="G79:G85" si="50">F79</f>
         <v>44904</v>
       </c>
       <c r="H79" s="15"/>
@@ -17621,10 +17667,10 @@
     <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="26"/>
       <c r="B80" s="66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D80" s="56">
         <v>0</v>
@@ -17635,7 +17681,7 @@
         <v>44905</v>
       </c>
       <c r="G80" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44905</v>
       </c>
       <c r="H80" s="15"/>
@@ -17805,7 +17851,7 @@
     <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26"/>
       <c r="B81" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="55" t="s">
         <v>45</v>
@@ -17819,7 +17865,7 @@
         <v>44905</v>
       </c>
       <c r="G81" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44905</v>
       </c>
       <c r="H81" s="15"/>
@@ -17989,10 +18035,10 @@
     <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="26"/>
       <c r="B82" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D82" s="56">
         <v>0</v>
@@ -18003,7 +18049,7 @@
         <v>44905</v>
       </c>
       <c r="G82" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44905</v>
       </c>
       <c r="H82" s="15"/>
@@ -18173,10 +18219,10 @@
     <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="26"/>
       <c r="B83" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D83" s="56">
         <v>0</v>
@@ -18187,7 +18233,7 @@
         <v>44905</v>
       </c>
       <c r="G83" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44905</v>
       </c>
       <c r="H83" s="15"/>
@@ -18357,7 +18403,7 @@
     <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="26"/>
       <c r="B84" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="55" t="s">
         <v>47</v>
@@ -18371,7 +18417,7 @@
         <v>44907</v>
       </c>
       <c r="G84" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44907</v>
       </c>
       <c r="H84" s="15"/>
@@ -18541,10 +18587,10 @@
     <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="26"/>
       <c r="B85" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D85" s="56">
         <v>0</v>
@@ -18555,7 +18601,7 @@
         <v>44905</v>
       </c>
       <c r="G85" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44905</v>
       </c>
       <c r="H85" s="15"/>
@@ -18725,7 +18771,7 @@
     <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="26"/>
       <c r="B86" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" s="52"/>
       <c r="D86" s="53"/>
@@ -18901,7 +18947,7 @@
     <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="26"/>
       <c r="B87" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" s="55" t="s">
         <v>46</v>
@@ -18915,7 +18961,7 @@
         <v>44908</v>
       </c>
       <c r="G87" s="58">
-        <f>F87</f>
+        <f t="shared" ref="G87:G93" si="51">F87</f>
         <v>44908</v>
       </c>
       <c r="H87" s="15"/>
@@ -19085,10 +19131,10 @@
     <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="26"/>
       <c r="B88" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D88" s="56">
         <v>0</v>
@@ -19099,7 +19145,7 @@
         <v>44909</v>
       </c>
       <c r="G88" s="58">
-        <f>F88</f>
+        <f t="shared" si="51"/>
         <v>44909</v>
       </c>
       <c r="H88" s="15"/>
@@ -19269,7 +19315,7 @@
     <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="26"/>
       <c r="B89" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" s="55" t="s">
         <v>45</v>
@@ -19283,7 +19329,7 @@
         <v>44909</v>
       </c>
       <c r="G89" s="58">
-        <f>F89</f>
+        <f t="shared" si="51"/>
         <v>44909</v>
       </c>
       <c r="H89" s="15"/>
@@ -19453,10 +19499,10 @@
     <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="26"/>
       <c r="B90" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D90" s="56">
         <v>0</v>
@@ -19467,7 +19513,7 @@
         <v>44909</v>
       </c>
       <c r="G90" s="58">
-        <f>F90</f>
+        <f t="shared" si="51"/>
         <v>44909</v>
       </c>
       <c r="H90" s="15"/>
@@ -19637,7 +19683,7 @@
     <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="26"/>
       <c r="B91" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="55" t="s">
         <v>47</v>
@@ -19651,7 +19697,7 @@
         <v>44909</v>
       </c>
       <c r="G91" s="58">
-        <f>F91</f>
+        <f t="shared" si="51"/>
         <v>44909</v>
       </c>
       <c r="H91" s="15"/>
@@ -19821,10 +19867,10 @@
     <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="26"/>
       <c r="B92" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D92" s="56">
         <v>0</v>
@@ -19835,7 +19881,7 @@
         <v>44910</v>
       </c>
       <c r="G92" s="58">
-        <f>F92</f>
+        <f t="shared" si="51"/>
         <v>44910</v>
       </c>
       <c r="H92" s="15"/>
@@ -20005,9 +20051,11 @@
     <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="26"/>
       <c r="B93" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="55"/>
+        <v>103</v>
+      </c>
+      <c r="C93" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D93" s="56"/>
       <c r="E93" s="57"/>
       <c r="F93" s="58">
@@ -20015,7 +20063,7 @@
         <v>44909</v>
       </c>
       <c r="G93" s="58">
-        <f>F93</f>
+        <f t="shared" si="51"/>
         <v>44909</v>
       </c>
       <c r="H93" s="15"/>
@@ -20185,12 +20233,12 @@
     <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="26"/>
       <c r="B94" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="52"/>
       <c r="D94" s="53"/>
       <c r="E94" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F94" s="54"/>
       <c r="G94" s="54"/>
@@ -20361,9 +20409,11 @@
     <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="26"/>
       <c r="B95" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="C95" s="55"/>
+        <v>112</v>
+      </c>
+      <c r="C95" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D95" s="56"/>
       <c r="E95" s="57"/>
       <c r="F95" s="58">
@@ -20541,9 +20591,11 @@
     <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="26"/>
       <c r="B96" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" s="55"/>
+        <v>113</v>
+      </c>
+      <c r="C96" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D96" s="56"/>
       <c r="E96" s="57"/>
       <c r="F96" s="58">
@@ -20721,9 +20773,11 @@
     <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="26"/>
       <c r="B97" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="55"/>
+        <v>114</v>
+      </c>
+      <c r="C97" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D97" s="56"/>
       <c r="E97" s="57"/>
       <c r="F97" s="58">
@@ -20901,9 +20955,11 @@
     <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="26"/>
       <c r="B98" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="55"/>
+        <v>115</v>
+      </c>
+      <c r="C98" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="D98" s="56"/>
       <c r="E98" s="57"/>
       <c r="F98" s="58">
@@ -21081,9 +21137,11 @@
     <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="26"/>
       <c r="B99" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="55"/>
+        <v>116</v>
+      </c>
+      <c r="C99" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D99" s="56"/>
       <c r="E99" s="57"/>
       <c r="F99" s="58">
@@ -21261,7 +21319,7 @@
     <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="26"/>
       <c r="B100" s="86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C100" s="87"/>
       <c r="D100" s="88"/>
@@ -21435,12 +21493,12 @@
     <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="26"/>
       <c r="B101" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C101" s="52"/>
       <c r="D101" s="53"/>
       <c r="E101" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
@@ -21611,7 +21669,7 @@
     <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="26"/>
       <c r="B102" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102" s="55" t="s">
         <v>46</v>
@@ -21625,7 +21683,7 @@
         <v>44914</v>
       </c>
       <c r="G102" s="58">
-        <f>F102</f>
+        <f t="shared" ref="G102:G108" si="52">F102</f>
         <v>44914</v>
       </c>
       <c r="H102" s="15"/>
@@ -21795,10 +21853,10 @@
     <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="26"/>
       <c r="B103" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D103" s="56">
         <v>0</v>
@@ -21809,7 +21867,7 @@
         <v>44915</v>
       </c>
       <c r="G103" s="58">
-        <f>F103</f>
+        <f t="shared" si="52"/>
         <v>44915</v>
       </c>
       <c r="H103" s="15"/>
@@ -21979,10 +22037,10 @@
     <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="26"/>
       <c r="B104" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C104" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D104" s="56">
         <v>0</v>
@@ -21993,7 +22051,7 @@
         <v>44915</v>
       </c>
       <c r="G104" s="58">
-        <f>F104</f>
+        <f t="shared" si="52"/>
         <v>44915</v>
       </c>
       <c r="H104" s="15"/>
@@ -22163,10 +22221,10 @@
     <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="26"/>
       <c r="B105" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D105" s="56">
         <v>0</v>
@@ -22177,7 +22235,7 @@
         <v>44915</v>
       </c>
       <c r="G105" s="58">
-        <f>F105</f>
+        <f t="shared" si="52"/>
         <v>44915</v>
       </c>
       <c r="H105" s="15"/>
@@ -22347,10 +22405,10 @@
     <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="26"/>
       <c r="B106" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D106" s="56">
         <v>0</v>
@@ -22361,7 +22419,7 @@
         <v>44915</v>
       </c>
       <c r="G106" s="58">
-        <f>F106</f>
+        <f t="shared" si="52"/>
         <v>44915</v>
       </c>
       <c r="H106" s="15"/>
@@ -22531,10 +22589,10 @@
     <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="26"/>
       <c r="B107" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D107" s="56">
         <v>0</v>
@@ -22545,7 +22603,7 @@
         <v>44916</v>
       </c>
       <c r="G107" s="58">
-        <f>F107</f>
+        <f t="shared" si="52"/>
         <v>44916</v>
       </c>
       <c r="H107" s="15"/>
@@ -22715,10 +22773,10 @@
     <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="26"/>
       <c r="B108" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D108" s="56">
         <v>0</v>
@@ -22729,7 +22787,7 @@
         <v>44915</v>
       </c>
       <c r="G108" s="58">
-        <f>F108</f>
+        <f t="shared" si="52"/>
         <v>44915</v>
       </c>
       <c r="H108" s="15"/>
@@ -22899,12 +22957,12 @@
     <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="26"/>
       <c r="B109" s="65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="53"/>
       <c r="E109" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F109" s="54"/>
       <c r="G109" s="54"/>
@@ -23075,9 +23133,11 @@
     <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="26"/>
       <c r="B110" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" s="55"/>
+        <v>145</v>
+      </c>
+      <c r="C110" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D110" s="56"/>
       <c r="E110" s="57"/>
       <c r="F110" s="58">
@@ -23085,7 +23145,7 @@
         <v>44917</v>
       </c>
       <c r="G110" s="58">
-        <f>F110</f>
+        <f t="shared" ref="G110:G116" si="53">F110</f>
         <v>44917</v>
       </c>
       <c r="H110" s="15"/>
@@ -23255,9 +23315,11 @@
     <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="26"/>
       <c r="B111" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C111" s="55"/>
+        <v>146</v>
+      </c>
+      <c r="C111" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D111" s="56"/>
       <c r="E111" s="57"/>
       <c r="F111" s="58">
@@ -23265,7 +23327,7 @@
         <v>44918</v>
       </c>
       <c r="G111" s="58">
-        <f>F111</f>
+        <f t="shared" si="53"/>
         <v>44918</v>
       </c>
       <c r="H111" s="15"/>
@@ -23435,9 +23497,11 @@
     <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="26"/>
       <c r="B112" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C112" s="55"/>
+        <v>147</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>196</v>
+      </c>
       <c r="D112" s="56"/>
       <c r="E112" s="57"/>
       <c r="F112" s="58">
@@ -23445,7 +23509,7 @@
         <v>44918</v>
       </c>
       <c r="G112" s="58">
-        <f>F112</f>
+        <f t="shared" si="53"/>
         <v>44918</v>
       </c>
       <c r="H112" s="15"/>
@@ -23615,9 +23679,11 @@
     <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="26"/>
       <c r="B113" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" s="55"/>
+        <v>148</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="D113" s="56"/>
       <c r="E113" s="57"/>
       <c r="F113" s="58">
@@ -23625,7 +23691,7 @@
         <v>44918</v>
       </c>
       <c r="G113" s="58">
-        <f>F113</f>
+        <f t="shared" si="53"/>
         <v>44918</v>
       </c>
       <c r="H113" s="15"/>
@@ -23795,9 +23861,11 @@
     <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="26"/>
       <c r="B114" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C114" s="55"/>
+        <v>149</v>
+      </c>
+      <c r="C114" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="D114" s="56"/>
       <c r="E114" s="57"/>
       <c r="F114" s="58">
@@ -23805,7 +23873,7 @@
         <v>44918</v>
       </c>
       <c r="G114" s="58">
-        <f>F114</f>
+        <f t="shared" si="53"/>
         <v>44918</v>
       </c>
       <c r="H114" s="15"/>
@@ -23975,9 +24043,11 @@
     <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="26"/>
       <c r="B115" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="C115" s="55"/>
+        <v>150</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="D115" s="56"/>
       <c r="E115" s="57"/>
       <c r="F115" s="58">
@@ -23985,7 +24055,7 @@
         <v>44919</v>
       </c>
       <c r="G115" s="58">
-        <f>F115</f>
+        <f t="shared" si="53"/>
         <v>44919</v>
       </c>
       <c r="H115" s="15"/>
@@ -24155,9 +24225,11 @@
     <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="26"/>
       <c r="B116" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116" s="55"/>
+        <v>151</v>
+      </c>
+      <c r="C116" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D116" s="56"/>
       <c r="E116" s="57"/>
       <c r="F116" s="58">
@@ -24165,7 +24237,7 @@
         <v>44918</v>
       </c>
       <c r="G116" s="58">
-        <f>F116</f>
+        <f t="shared" si="53"/>
         <v>44918</v>
       </c>
       <c r="H116" s="15"/>
@@ -24335,12 +24407,12 @@
     <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="26"/>
       <c r="B117" s="65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="53"/>
       <c r="E117" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F117" s="54"/>
       <c r="G117" s="54"/>
@@ -24511,9 +24583,11 @@
     <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="26"/>
       <c r="B118" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C118" s="55"/>
+        <v>153</v>
+      </c>
+      <c r="C118" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D118" s="56"/>
       <c r="E118" s="57"/>
       <c r="F118" s="58">
@@ -24521,7 +24595,7 @@
         <v>44921</v>
       </c>
       <c r="G118" s="58">
-        <f>F118</f>
+        <f t="shared" ref="G118:G126" si="54">F118</f>
         <v>44921</v>
       </c>
       <c r="H118" s="15"/>
@@ -24691,9 +24765,11 @@
     <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="26"/>
       <c r="B119" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" s="55"/>
+        <v>154</v>
+      </c>
+      <c r="C119" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D119" s="56"/>
       <c r="E119" s="57"/>
       <c r="F119" s="58">
@@ -24701,7 +24777,7 @@
         <v>44921</v>
       </c>
       <c r="G119" s="58">
-        <f>F119</f>
+        <f t="shared" si="54"/>
         <v>44921</v>
       </c>
       <c r="H119" s="15"/>
@@ -24871,9 +24947,11 @@
     <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="26"/>
       <c r="B120" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C120" s="55"/>
+        <v>155</v>
+      </c>
+      <c r="C120" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D120" s="56"/>
       <c r="E120" s="57"/>
       <c r="F120" s="58">
@@ -24881,7 +24959,7 @@
         <v>44922</v>
       </c>
       <c r="G120" s="58">
-        <f>F120</f>
+        <f t="shared" si="54"/>
         <v>44922</v>
       </c>
       <c r="H120" s="15"/>
@@ -25051,9 +25129,11 @@
     <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="26"/>
       <c r="B121" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" s="55"/>
+        <v>156</v>
+      </c>
+      <c r="C121" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D121" s="56"/>
       <c r="E121" s="57"/>
       <c r="F121" s="58">
@@ -25061,7 +25141,7 @@
         <v>44922</v>
       </c>
       <c r="G121" s="58">
-        <f>F121</f>
+        <f t="shared" si="54"/>
         <v>44922</v>
       </c>
       <c r="H121" s="15"/>
@@ -25231,9 +25311,11 @@
     <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="26"/>
       <c r="B122" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C122" s="55"/>
+        <v>157</v>
+      </c>
+      <c r="C122" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D122" s="56"/>
       <c r="E122" s="57"/>
       <c r="F122" s="58">
@@ -25241,7 +25323,7 @@
         <v>44923</v>
       </c>
       <c r="G122" s="58">
-        <f>F122</f>
+        <f t="shared" si="54"/>
         <v>44923</v>
       </c>
       <c r="H122" s="15"/>
@@ -25410,12 +25492,14 @@
     </row>
     <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B123" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C123" s="55"/>
+        <v>158</v>
+      </c>
+      <c r="C123" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="D123" s="56"/>
       <c r="E123" s="57"/>
       <c r="F123" s="58">
@@ -25423,7 +25507,7 @@
         <v>44922</v>
       </c>
       <c r="G123" s="58">
-        <f>F123</f>
+        <f t="shared" si="54"/>
         <v>44922</v>
       </c>
       <c r="H123" s="15"/>
@@ -25593,9 +25677,11 @@
     <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="26"/>
       <c r="B124" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C124" s="55"/>
+        <v>159</v>
+      </c>
+      <c r="C124" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="D124" s="56"/>
       <c r="E124" s="57"/>
       <c r="F124" s="58">
@@ -25603,7 +25689,7 @@
         <v>44922</v>
       </c>
       <c r="G124" s="58">
-        <f>F124</f>
+        <f t="shared" si="54"/>
         <v>44922</v>
       </c>
       <c r="H124" s="15"/>
@@ -25773,9 +25859,11 @@
     <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="26"/>
       <c r="B125" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="C125" s="55"/>
+        <v>160</v>
+      </c>
+      <c r="C125" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="D125" s="56"/>
       <c r="E125" s="57"/>
       <c r="F125" s="58">
@@ -25783,7 +25871,7 @@
         <v>44924</v>
       </c>
       <c r="G125" s="58">
-        <f>F125</f>
+        <f t="shared" si="54"/>
         <v>44924</v>
       </c>
       <c r="H125" s="15"/>
@@ -25953,9 +26041,11 @@
     <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="26"/>
       <c r="B126" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="C126" s="55"/>
+        <v>161</v>
+      </c>
+      <c r="C126" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D126" s="56"/>
       <c r="E126" s="57"/>
       <c r="F126" s="58">
@@ -25963,7 +26053,7 @@
         <v>44922</v>
       </c>
       <c r="G126" s="58">
-        <f>F126</f>
+        <f t="shared" si="54"/>
         <v>44922</v>
       </c>
       <c r="H126" s="15"/>
@@ -26133,12 +26223,12 @@
     <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="26"/>
       <c r="B127" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C127" s="52"/>
       <c r="D127" s="53"/>
       <c r="E127" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F127" s="54"/>
       <c r="G127" s="54"/>
@@ -26309,9 +26399,11 @@
     <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="26"/>
       <c r="B128" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="C128" s="55"/>
+        <v>163</v>
+      </c>
+      <c r="C128" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D128" s="56"/>
       <c r="E128" s="57"/>
       <c r="F128" s="58">
@@ -26489,9 +26581,11 @@
     <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="26"/>
       <c r="B129" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="C129" s="55"/>
+        <v>164</v>
+      </c>
+      <c r="C129" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D129" s="56"/>
       <c r="E129" s="57"/>
       <c r="F129" s="58">
@@ -26669,9 +26763,11 @@
     <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="26"/>
       <c r="B130" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="C130" s="55"/>
+        <v>165</v>
+      </c>
+      <c r="C130" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D130" s="56"/>
       <c r="E130" s="57"/>
       <c r="F130" s="58">
@@ -26849,9 +26945,11 @@
     <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="26"/>
       <c r="B131" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="C131" s="55"/>
+        <v>166</v>
+      </c>
+      <c r="C131" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="D131" s="56"/>
       <c r="E131" s="57"/>
       <c r="F131" s="58">
@@ -27029,9 +27127,11 @@
     <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="26"/>
       <c r="B132" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C132" s="55"/>
+        <v>167</v>
+      </c>
+      <c r="C132" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D132" s="56"/>
       <c r="E132" s="57"/>
       <c r="F132" s="58">
@@ -27209,7 +27309,7 @@
     <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="26"/>
       <c r="B133" s="86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C133" s="87"/>
       <c r="D133" s="88"/>
@@ -27383,12 +27483,12 @@
     <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="26"/>
       <c r="B134" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="53"/>
       <c r="E134" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F134" s="54"/>
       <c r="G134" s="54"/>
@@ -27559,7 +27659,7 @@
     <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="26"/>
       <c r="B135" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C135" s="55" t="s">
         <v>46</v>
@@ -27573,7 +27673,7 @@
         <v>44928</v>
       </c>
       <c r="G135" s="58">
-        <f t="shared" ref="G135:G141" si="47">F135</f>
+        <f t="shared" ref="G135:G141" si="55">F135</f>
         <v>44928</v>
       </c>
       <c r="H135" s="15"/>
@@ -27743,10 +27843,10 @@
     <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="26"/>
       <c r="B136" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C136" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D136" s="56">
         <v>0</v>
@@ -27757,7 +27857,7 @@
         <v>44929</v>
       </c>
       <c r="G136" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44929</v>
       </c>
       <c r="H136" s="15"/>
@@ -27927,7 +28027,7 @@
     <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="26"/>
       <c r="B137" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C137" s="55" t="s">
         <v>45</v>
@@ -27941,7 +28041,7 @@
         <v>44929</v>
       </c>
       <c r="G137" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44929</v>
       </c>
       <c r="H137" s="15"/>
@@ -28111,10 +28211,10 @@
     <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26"/>
       <c r="B138" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C138" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D138" s="56">
         <v>0</v>
@@ -28125,7 +28225,7 @@
         <v>44929</v>
       </c>
       <c r="G138" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44929</v>
       </c>
       <c r="H138" s="15"/>
@@ -28295,10 +28395,10 @@
     <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="26"/>
       <c r="B139" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D139" s="56">
         <v>0</v>
@@ -28309,7 +28409,7 @@
         <v>44929</v>
       </c>
       <c r="G139" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44929</v>
       </c>
       <c r="H139" s="15"/>
@@ -28479,7 +28579,7 @@
     <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="26"/>
       <c r="B140" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C140" s="55" t="s">
         <v>47</v>
@@ -28493,7 +28593,7 @@
         <v>44930</v>
       </c>
       <c r="G140" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44930</v>
       </c>
       <c r="H140" s="15"/>
@@ -28663,10 +28763,10 @@
     <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="26"/>
       <c r="B141" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C141" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D141" s="56">
         <v>0</v>
@@ -28677,7 +28777,7 @@
         <v>44929</v>
       </c>
       <c r="G141" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44929</v>
       </c>
       <c r="H141" s="15"/>
@@ -28847,7 +28947,7 @@
     <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="26"/>
       <c r="B142" s="65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C142" s="52"/>
       <c r="D142" s="53"/>
@@ -29023,7 +29123,7 @@
     <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="26"/>
       <c r="B143" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C143" s="55" t="s">
         <v>46</v>
@@ -29037,7 +29137,7 @@
         <v>44931</v>
       </c>
       <c r="G143" s="58">
-        <f t="shared" ref="G143:G149" si="48">F143</f>
+        <f t="shared" ref="G143:G149" si="56">F143</f>
         <v>44931</v>
       </c>
       <c r="H143" s="15"/>
@@ -29207,10 +29307,10 @@
     <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="26"/>
       <c r="B144" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D144" s="56">
         <v>0</v>
@@ -29221,7 +29321,7 @@
         <v>44932</v>
       </c>
       <c r="G144" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44932</v>
       </c>
       <c r="H144" s="15"/>
@@ -29391,7 +29491,7 @@
     <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="26"/>
       <c r="B145" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C145" s="55" t="s">
         <v>45</v>
@@ -29405,7 +29505,7 @@
         <v>44932</v>
       </c>
       <c r="G145" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44932</v>
       </c>
       <c r="H145" s="15"/>
@@ -29575,10 +29675,10 @@
     <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="26"/>
       <c r="B146" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C146" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D146" s="56">
         <v>0</v>
@@ -29589,7 +29689,7 @@
         <v>44932</v>
       </c>
       <c r="G146" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44932</v>
       </c>
       <c r="H146" s="15"/>
@@ -29759,10 +29859,10 @@
     <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="26"/>
       <c r="B147" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C147" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D147" s="56">
         <v>0</v>
@@ -29773,7 +29873,7 @@
         <v>44932</v>
       </c>
       <c r="G147" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44932</v>
       </c>
       <c r="H147" s="15"/>
@@ -29943,7 +30043,7 @@
     <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="26"/>
       <c r="B148" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C148" s="55" t="s">
         <v>47</v>
@@ -29957,7 +30057,7 @@
         <v>44933</v>
       </c>
       <c r="G148" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44933</v>
       </c>
       <c r="H148" s="15"/>
@@ -30127,10 +30227,10 @@
     <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="26"/>
       <c r="B149" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C149" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D149" s="56">
         <v>0</v>
@@ -30141,7 +30241,7 @@
         <v>44932</v>
       </c>
       <c r="G149" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44932</v>
       </c>
       <c r="H149" s="15"/>
@@ -30311,12 +30411,12 @@
     <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="26"/>
       <c r="B150" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C150" s="52"/>
       <c r="D150" s="53"/>
       <c r="E150" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F150" s="54"/>
       <c r="G150" s="54"/>
@@ -30487,7 +30587,7 @@
     <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="26"/>
       <c r="B151" s="85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C151" s="96" t="s">
         <v>46</v>
@@ -30671,10 +30771,10 @@
     <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="26"/>
       <c r="B152" s="85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C152" s="96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D152" s="56">
         <v>0</v>
@@ -30855,7 +30955,7 @@
     <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="26"/>
       <c r="B153" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C153" s="96" t="s">
         <v>45</v>
@@ -31039,10 +31139,10 @@
     <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="26"/>
       <c r="B154" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C154" s="96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D154" s="56">
         <v>0</v>
@@ -31223,7 +31323,7 @@
     <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="26"/>
       <c r="B155" s="85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C155" s="96" t="s">
         <v>47</v>
@@ -31407,10 +31507,10 @@
     <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="26"/>
       <c r="B156" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C156" s="96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D156" s="56">
         <v>0</v>
@@ -31591,10 +31691,14 @@
     <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="26"/>
       <c r="B157" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="C157" s="96"/>
-      <c r="D157" s="56"/>
+        <v>183</v>
+      </c>
+      <c r="C157" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D157" s="56">
+        <v>0</v>
+      </c>
       <c r="E157" s="57"/>
       <c r="F157" s="58">
         <f>G155</f>
@@ -31771,12 +31875,12 @@
     <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="26"/>
       <c r="B158" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C158" s="52"/>
-      <c r="D158" s="53"/>
+      <c r="D158" s="52"/>
       <c r="E158" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F158" s="54"/>
       <c r="G158" s="54"/>
@@ -31947,17 +32051,21 @@
     <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="26"/>
       <c r="B159" s="85" t="s">
-        <v>187</v>
-      </c>
-      <c r="C159" s="96"/>
-      <c r="D159" s="56"/>
+        <v>186</v>
+      </c>
+      <c r="C159" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D159" s="56">
+        <v>0</v>
+      </c>
       <c r="E159" s="57"/>
       <c r="F159" s="58">
         <f>G157 + 2</f>
         <v>44938</v>
       </c>
       <c r="G159" s="58">
-        <f>F159</f>
+        <f t="shared" ref="G159:G167" si="57">F159</f>
         <v>44938</v>
       </c>
       <c r="H159" s="15"/>
@@ -32127,17 +32235,21 @@
     <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="26"/>
       <c r="B160" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="C160" s="96"/>
-      <c r="D160" s="56"/>
+        <v>187</v>
+      </c>
+      <c r="C160" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D160" s="56">
+        <v>0</v>
+      </c>
       <c r="E160" s="57"/>
       <c r="F160" s="58">
         <f>G159</f>
         <v>44938</v>
       </c>
       <c r="G160" s="58">
-        <f>F160</f>
+        <f t="shared" si="57"/>
         <v>44938</v>
       </c>
       <c r="H160" s="15"/>
@@ -32307,17 +32419,21 @@
     <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="26"/>
       <c r="B161" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="C161" s="96"/>
-      <c r="D161" s="56"/>
+        <v>188</v>
+      </c>
+      <c r="C161" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D161" s="56">
+        <v>0</v>
+      </c>
       <c r="E161" s="57"/>
       <c r="F161" s="58">
         <f>G160 + 1</f>
         <v>44939</v>
       </c>
       <c r="G161" s="58">
-        <f>F161</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H161" s="15"/>
@@ -32487,17 +32603,21 @@
     <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="26"/>
       <c r="B162" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C162" s="96"/>
-      <c r="D162" s="56"/>
+        <v>189</v>
+      </c>
+      <c r="C162" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D162" s="56">
+        <v>0</v>
+      </c>
       <c r="E162" s="57"/>
       <c r="F162" s="58">
         <f>G161</f>
         <v>44939</v>
       </c>
       <c r="G162" s="58">
-        <f>F162</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H162" s="15"/>
@@ -32667,17 +32787,21 @@
     <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="26"/>
       <c r="B163" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="C163" s="96"/>
-      <c r="D163" s="56"/>
+        <v>190</v>
+      </c>
+      <c r="C163" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D163" s="56">
+        <v>0</v>
+      </c>
       <c r="E163" s="57"/>
       <c r="F163" s="58">
         <f>G162</f>
         <v>44939</v>
       </c>
       <c r="G163" s="58">
-        <f>F163</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H163" s="15"/>
@@ -32847,17 +32971,21 @@
     <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="26"/>
       <c r="B164" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="C164" s="96"/>
-      <c r="D164" s="56"/>
+        <v>191</v>
+      </c>
+      <c r="C164" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D164" s="56">
+        <v>0</v>
+      </c>
       <c r="E164" s="57"/>
       <c r="F164" s="58">
         <f>G163</f>
         <v>44939</v>
       </c>
       <c r="G164" s="58">
-        <f>F164</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H164" s="15"/>
@@ -33027,17 +33155,21 @@
     <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="26"/>
       <c r="B165" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="C165" s="96"/>
-      <c r="D165" s="56"/>
+        <v>192</v>
+      </c>
+      <c r="C165" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165" s="56">
+        <v>0</v>
+      </c>
       <c r="E165" s="57"/>
       <c r="F165" s="58">
         <f>G164</f>
         <v>44939</v>
       </c>
       <c r="G165" s="58">
-        <f>F165</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H165" s="15"/>
@@ -33207,17 +33339,21 @@
     <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="26"/>
       <c r="B166" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="C166" s="96"/>
-      <c r="D166" s="56"/>
+        <v>193</v>
+      </c>
+      <c r="C166" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" s="56">
+        <v>0</v>
+      </c>
       <c r="E166" s="57"/>
       <c r="F166" s="58">
         <f>G165 + 1</f>
         <v>44940</v>
       </c>
       <c r="G166" s="58">
-        <f>F166</f>
+        <f t="shared" si="57"/>
         <v>44940</v>
       </c>
       <c r="H166" s="15"/>
@@ -33387,17 +33523,21 @@
     <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="26"/>
       <c r="B167" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C167" s="96"/>
-      <c r="D167" s="56"/>
+        <v>194</v>
+      </c>
+      <c r="C167" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D167" s="56">
+        <v>0</v>
+      </c>
       <c r="E167" s="57"/>
       <c r="F167" s="58">
         <f>G165</f>
         <v>44939</v>
       </c>
       <c r="G167" s="58">
-        <f>F167</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H167" s="15"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44DFA3C-0452-46C9-A923-3D935ABD5A6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348475FA-76EE-49C0-9D14-3DFA75DC0EFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="204">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -50,9 +50,6 @@
   <si>
     <t>ASSIGNED
 TO</t>
-  </si>
-  <si>
-    <t>PROJECT TITLE</t>
   </si>
   <si>
     <t>START</t>
@@ -68,18 +65,6 @@
   </si>
   <si>
     <t>TASK</t>
-  </si>
-  <si>
-    <t>SIMPLE GANTT CHART by Vertex42.com</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Project Lead</t>
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
@@ -170,15 +155,6 @@
     <t xml:space="preserve">End Date: </t>
   </si>
   <si>
-    <t>Ứng dụng tra cứu vé số online</t>
-  </si>
-  <si>
-    <t>20/10/2022</t>
-  </si>
-  <si>
-    <t>23/03/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">GANTT CHART </t>
   </si>
   <si>
@@ -229,25 +205,10 @@
     <t>Nguyễn Hoàng Tấn</t>
   </si>
   <si>
-    <t>Viết task Quản trị viên hệ thống và Quản lý danh sách tỉnh/thành phố</t>
-  </si>
-  <si>
-    <t>Viết Task Quản lý kết quả sổ xố</t>
-  </si>
-  <si>
-    <t>Viết task Quản lý chính sách đổi thưởng và Chức năng người dùng</t>
-  </si>
-  <si>
     <t>Tạo sheet Cover, Histories, References và cập nhật các sheet</t>
   </si>
   <si>
-    <t>Chỉnh sửa task Quản trị viên hệ thống và Chức năng người dùng</t>
-  </si>
-  <si>
     <t>Cập nhật lại Histories</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa point của task Quản lý danh sách tỉnh/thành phố và cập nhật lại Histories</t>
   </si>
   <si>
     <t>Bùi Nhật Hào, Nguyễn Hoàng Tấn, Lê Chí Huy</t>
@@ -680,6 +641,60 @@
   </si>
   <si>
     <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>ỨNG DỤNG BLOG TRẢO ĐỔI HỌC TẬP CỦA KHOA CNTT</t>
+  </si>
+  <si>
+    <t>TEAM 5</t>
+  </si>
+  <si>
+    <t>Project lead: Nguyễn Hoàng Tấn</t>
+  </si>
+  <si>
+    <t>Ứng dụng blog trao đổi học tập của khoa CNTT</t>
+  </si>
+  <si>
+    <t>15/01/2023</t>
+  </si>
+  <si>
+    <t>Tạo template file Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viết các chức năng của ứng dụng </t>
+  </si>
+  <si>
+    <t>Viết task sinh viên và giảng viên đăng nhập thông qua tài khoản Outlook, sinh viên và giảng viên đăng xuất tài khoản và sinh viên và giảng viên xem hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Viết task sinh viên đặt câu hỏi và sinh viên xem danh sách câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>Viết task cho sinh viên chỉnh sửa câu hỏi của mình và sinh viên xóa câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>Cập nhật và chỉnh sửa lại task sinh viên và giảng viên đăng xuất tài khoản và sinh viên và giảng viên xem hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Cập nhật và chỉnh sửa lại task sinh viên đặt câu hỏi</t>
+  </si>
+  <si>
+    <t>Cập nhật và chỉnh sửa task sinh viên chỉnh sửa câu hỏi của mình và sinh viên xóa câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Viết task sinh viên xóa câu hỏi của mình, giảng viên trả lời câu hỏi trên hệ thống, giảng viên xem danh sách câu trả lời của mình và giảng viên chỉnh sửa câu trả lời của mình</t>
+  </si>
+  <si>
+    <t>Viết task giảng viên xóa câu trả lời của mình, sinh viên và giảng viên xem danh sách câu hỏi trên hệ thống và giảng viên phê duyệt câu hỏi của sinh viên trên hệ thống</t>
+  </si>
+  <si>
+    <t>Viết task giảng viên đăng bài viết, giảng viên xem danh sách bài viết của mình và giảng viên chỉnh sửa bài viết của mình</t>
+  </si>
+  <si>
+    <t>Viết task Giảng viên xóa bài viết của mình, sinh viên xem danh sách bài viết trên hệ thống và sinh viên bookmark bài viết trên hệ thống</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1384,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1693,13 +1708,22 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2362,7 +2386,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,7 +2405,7 @@
     </row>
     <row r="2" spans="1:4" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="102" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
@@ -2395,26 +2419,26 @@
     </row>
     <row r="4" spans="1:4" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="C4" s="104"/>
       <c r="D4" s="105"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="72">
+        <v>44753</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2431,15 +2455,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12" style="126" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="69.33203125" customWidth="1"/>
@@ -2447,7 +2471,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="106" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -2455,16 +2479,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2472,13 +2496,13 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="82">
-        <v>44850</v>
+        <v>44868</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2486,27 +2510,27 @@
         <v>0.2</v>
       </c>
       <c r="B4" s="82">
-        <v>44851</v>
+        <v>44870</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="81">
         <v>0.3</v>
       </c>
       <c r="B5" s="82">
-        <v>44851</v>
+        <v>44873</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2514,13 +2538,13 @@
         <v>0.4</v>
       </c>
       <c r="B6" s="82">
-        <v>44852</v>
+        <v>44874</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2528,13 +2552,13 @@
         <v>0.5</v>
       </c>
       <c r="B7" s="82">
-        <v>44852</v>
+        <v>44874</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2542,27 +2566,27 @@
         <v>0.6</v>
       </c>
       <c r="B8" s="82">
-        <v>44853</v>
+        <v>44875</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="81">
         <v>0.7</v>
       </c>
       <c r="B9" s="82">
-        <v>44853</v>
+        <v>44875</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
@@ -2570,13 +2594,13 @@
         <v>0.8</v>
       </c>
       <c r="B10" s="82">
-        <v>44853</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>56</v>
+        <v>44876</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2584,27 +2608,139 @@
         <v>0.9</v>
       </c>
       <c r="B11" s="82">
-        <v>44854</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>57</v>
+        <v>44876</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108" t="s">
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="82">
+        <v>44876</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="81">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13" s="82">
+        <v>44877</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="81">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="82">
+        <v>44877</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="81">
+        <v>1.3</v>
+      </c>
+      <c r="B15" s="82">
+        <v>44878</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="124" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="81">
+        <v>1.4</v>
+      </c>
+      <c r="B16" s="82">
+        <v>44879</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="B17" s="82">
+        <v>44879</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="81">
+        <v>1.6</v>
+      </c>
+      <c r="B18" s="82">
+        <v>44880</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="81">
+        <v>1.7</v>
+      </c>
+      <c r="B19" s="82">
+        <v>44880</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2616,7 +2752,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2627,26 +2763,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" s="113"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="114" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B3" s="115"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
-        <v>44</v>
-      </c>
+      <c r="A4" s="114"/>
       <c r="B4" s="116"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2671,10 +2805,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A4:B4" r:id="rId2" display="Individual Estimate.xlsx" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2687,8 +2817,8 @@
   <dimension ref="A1:FN171"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K157" sqref="K157"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2709,10 +2839,10 @@
   <sheetData>
     <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="44"/>
@@ -2720,46 +2850,42 @@
       <c r="F1" s="4"/>
       <c r="G1" s="25"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="33" t="s">
-        <v>10</v>
-      </c>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>11</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="123">
+      <c r="F3" s="121">
         <v>44872</v>
       </c>
-      <c r="G3" s="123"/>
+      <c r="G3" s="121"/>
     </row>
     <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="122"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="123"/>
       <c r="E4" s="36"/>
       <c r="F4" s="7">
         <v>1</v>
@@ -2997,7 +3123,7 @@
     </row>
     <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="63"/>
       <c r="C5" s="32"/>
@@ -3653,10 +3779,10 @@
     </row>
     <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>3</v>
@@ -3665,17 +3791,17 @@
         <v>2</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>LEFT(TEXT(J5,"ddd"),1)</f>
@@ -4324,7 +4450,7 @@
     </row>
     <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="29"/>
       <c r="F7"/>
@@ -4496,7 +4622,7 @@
     </row>
     <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="91" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="93"/>
@@ -4667,10 +4793,10 @@
     </row>
     <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="47"/>
@@ -4848,13 +4974,13 @@
     </row>
     <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D10" s="48">
         <v>0</v>
@@ -5037,13 +5163,13 @@
     </row>
     <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D11" s="48">
         <v>0</v>
@@ -5227,10 +5353,10 @@
     <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="97" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D12" s="48">
         <v>0</v>
@@ -5414,10 +5540,10 @@
     <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="97" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D13" s="48">
         <v>0</v>
@@ -5598,10 +5724,10 @@
     <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="97" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D14" s="48">
         <v>0</v>
@@ -5782,10 +5908,10 @@
     <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="97" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D15" s="48">
         <v>0</v>
@@ -5966,10 +6092,10 @@
     <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="97" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D16" s="48">
         <v>0</v>
@@ -6150,10 +6276,10 @@
     <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="97" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D17" s="48">
         <v>0</v>
@@ -6334,10 +6460,10 @@
     <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="97" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D18" s="48">
         <v>0</v>
@@ -6518,10 +6644,10 @@
     <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="97" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D19" s="48">
         <v>0</v>
@@ -6701,10 +6827,10 @@
     </row>
     <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="47"/>
@@ -6883,10 +7009,10 @@
     <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27"/>
       <c r="B21" s="97" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D21" s="48">
         <v>0</v>
@@ -7070,10 +7196,10 @@
     <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="97" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -7257,10 +7383,10 @@
     <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
       <c r="B23" s="97" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D23" s="48">
         <v>0</v>
@@ -7444,10 +7570,10 @@
     <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="97" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -7628,10 +7754,10 @@
     <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="97" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D25" s="48">
         <v>0</v>
@@ -7812,7 +7938,7 @@
     <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="65" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="47"/>
@@ -7988,10 +8114,10 @@
     <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="97" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="41"/>
@@ -8169,13 +8295,13 @@
     </row>
     <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="41"/>
@@ -8354,10 +8480,10 @@
     <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="97" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="41"/>
@@ -8536,10 +8662,10 @@
     <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="97" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="41"/>
@@ -8718,10 +8844,10 @@
     <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
       <c r="B31" s="97" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="41"/>
@@ -8900,10 +9026,10 @@
     <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
       <c r="B32" s="97" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="41"/>
@@ -9082,10 +9208,10 @@
     <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
       <c r="B33" s="97" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="41"/>
@@ -9264,7 +9390,7 @@
     <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
       <c r="B34" s="86" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C34" s="87"/>
       <c r="D34" s="88"/>
@@ -9437,10 +9563,10 @@
     </row>
     <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="47"/>
@@ -9619,10 +9745,10 @@
     <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26"/>
       <c r="B36" s="97" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D36" s="48">
         <v>0</v>
@@ -9806,10 +9932,10 @@
     <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="26"/>
       <c r="B37" s="97" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D37" s="48">
         <v>0</v>
@@ -9993,10 +10119,10 @@
     <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="26"/>
       <c r="B38" s="97" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D38" s="48">
         <v>0</v>
@@ -10180,10 +10306,10 @@
     <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="26"/>
       <c r="B39" s="97" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D39" s="48">
         <v>0</v>
@@ -10364,10 +10490,10 @@
     <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="26"/>
       <c r="B40" s="97" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D40" s="48">
         <v>0</v>
@@ -10548,10 +10674,10 @@
     <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="26"/>
       <c r="B41" s="97" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D41" s="48">
         <v>0</v>
@@ -10732,10 +10858,10 @@
     <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="26"/>
       <c r="B42" s="97" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D42" s="48">
         <v>0</v>
@@ -10916,10 +11042,10 @@
     <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="26"/>
       <c r="B43" s="97" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D43" s="48">
         <v>0</v>
@@ -11100,10 +11226,10 @@
     <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="26"/>
       <c r="B44" s="97" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D44" s="48">
         <v>0</v>
@@ -11283,10 +11409,10 @@
     </row>
     <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="47"/>
@@ -11465,10 +11591,10 @@
     <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="26"/>
       <c r="B46" s="97" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D46" s="48">
         <v>0</v>
@@ -11652,10 +11778,10 @@
     <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26"/>
       <c r="B47" s="97" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D47" s="48">
         <v>0</v>
@@ -11839,10 +11965,10 @@
     <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="26"/>
       <c r="B48" s="97" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D48" s="48">
         <v>0</v>
@@ -12026,10 +12152,10 @@
     <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="26"/>
       <c r="B49" s="97" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D49" s="48">
         <v>0</v>
@@ -12210,10 +12336,10 @@
     <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="26"/>
       <c r="B50" s="97" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D50" s="48">
         <v>0</v>
@@ -12394,10 +12520,10 @@
     <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="26"/>
       <c r="B51" s="97" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D51" s="48">
         <v>0</v>
@@ -12578,10 +12704,10 @@
     <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="26"/>
       <c r="B52" s="97" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D52" s="48">
         <v>0</v>
@@ -12762,7 +12888,7 @@
     <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="26"/>
       <c r="B53" s="65" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="47"/>
@@ -12938,10 +13064,10 @@
     <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="26"/>
       <c r="B54" s="97" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D54" s="48"/>
       <c r="E54" s="41"/>
@@ -13120,10 +13246,10 @@
     <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="26"/>
       <c r="B55" s="97" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D55" s="48"/>
       <c r="E55" s="41"/>
@@ -13302,10 +13428,10 @@
     <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="26"/>
       <c r="B56" s="97" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D56" s="48"/>
       <c r="E56" s="41"/>
@@ -13484,10 +13610,10 @@
     <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="26"/>
       <c r="B57" s="97" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D57" s="48"/>
       <c r="E57" s="41"/>
@@ -13666,10 +13792,10 @@
     <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="26"/>
       <c r="B58" s="97" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D58" s="48"/>
       <c r="E58" s="41"/>
@@ -13848,10 +13974,10 @@
     <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26"/>
       <c r="B59" s="97" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D59" s="48"/>
       <c r="E59" s="41"/>
@@ -14030,10 +14156,10 @@
     <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26"/>
       <c r="B60" s="97" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D60" s="48"/>
       <c r="E60" s="41"/>
@@ -14212,7 +14338,7 @@
     <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26"/>
       <c r="B61" s="65" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="47"/>
@@ -14388,10 +14514,10 @@
     <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26"/>
       <c r="B62" s="97" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D62" s="48"/>
       <c r="E62" s="41"/>
@@ -14570,10 +14696,10 @@
     <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26"/>
       <c r="B63" s="97" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D63" s="48"/>
       <c r="E63" s="41"/>
@@ -14752,10 +14878,10 @@
     <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26"/>
       <c r="B64" s="97" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D64" s="48"/>
       <c r="E64" s="41"/>
@@ -14934,10 +15060,10 @@
     <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26"/>
       <c r="B65" s="97" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D65" s="48"/>
       <c r="E65" s="41"/>
@@ -15116,10 +15242,10 @@
     <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="26"/>
       <c r="B66" s="97" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D66" s="48"/>
       <c r="E66" s="41"/>
@@ -15298,7 +15424,7 @@
     <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="26"/>
       <c r="B67" s="86" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C67" s="87"/>
       <c r="D67" s="88"/>
@@ -15471,10 +15597,10 @@
     </row>
     <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="76"/>
@@ -15653,10 +15779,10 @@
     <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="26"/>
       <c r="B69" s="66" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D69" s="56">
         <v>0</v>
@@ -15837,10 +15963,10 @@
     <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26"/>
       <c r="B70" s="66" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D70" s="56">
         <v>0</v>
@@ -16021,10 +16147,10 @@
     <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26"/>
       <c r="B71" s="66" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D71" s="56">
         <v>0</v>
@@ -16205,10 +16331,10 @@
     <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="26"/>
       <c r="B72" s="66" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D72" s="56"/>
       <c r="E72" s="57"/>
@@ -16387,10 +16513,10 @@
     <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="26"/>
       <c r="B73" s="66" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D73" s="56">
         <v>0</v>
@@ -16571,10 +16697,10 @@
     <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="26"/>
       <c r="B74" s="66" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D74" s="56">
         <v>0</v>
@@ -16755,10 +16881,10 @@
     <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="26"/>
       <c r="B75" s="66" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D75" s="56">
         <v>0</v>
@@ -16939,10 +17065,10 @@
     <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="26"/>
       <c r="B76" s="66" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C76" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D76" s="56">
         <v>0</v>
@@ -17123,10 +17249,10 @@
     <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="26"/>
       <c r="B77" s="66" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D77" s="56">
         <v>0</v>
@@ -17307,7 +17433,7 @@
     <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="26"/>
       <c r="B78" s="65" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="53"/>
@@ -17483,10 +17609,10 @@
     <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="26"/>
       <c r="B79" s="66" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D79" s="56">
         <v>0</v>
@@ -17667,10 +17793,10 @@
     <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="26"/>
       <c r="B80" s="66" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D80" s="56">
         <v>0</v>
@@ -17851,10 +17977,10 @@
     <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26"/>
       <c r="B81" s="66" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D81" s="56">
         <v>0</v>
@@ -18035,10 +18161,10 @@
     <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="26"/>
       <c r="B82" s="66" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D82" s="56">
         <v>0</v>
@@ -18219,10 +18345,10 @@
     <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="26"/>
       <c r="B83" s="66" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D83" s="56">
         <v>0</v>
@@ -18403,10 +18529,10 @@
     <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="26"/>
       <c r="B84" s="66" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D84" s="56">
         <v>0</v>
@@ -18587,10 +18713,10 @@
     <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="26"/>
       <c r="B85" s="66" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D85" s="56">
         <v>0</v>
@@ -18771,7 +18897,7 @@
     <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="26"/>
       <c r="B86" s="65" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C86" s="52"/>
       <c r="D86" s="53"/>
@@ -18947,10 +19073,10 @@
     <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="26"/>
       <c r="B87" s="66" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D87" s="56">
         <v>0</v>
@@ -19131,10 +19257,10 @@
     <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="26"/>
       <c r="B88" s="66" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D88" s="56">
         <v>0</v>
@@ -19315,10 +19441,10 @@
     <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="26"/>
       <c r="B89" s="66" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D89" s="56">
         <v>0</v>
@@ -19499,10 +19625,10 @@
     <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="26"/>
       <c r="B90" s="66" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D90" s="56">
         <v>0</v>
@@ -19683,10 +19809,10 @@
     <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="26"/>
       <c r="B91" s="66" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D91" s="56">
         <v>0</v>
@@ -19867,10 +19993,10 @@
     <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="26"/>
       <c r="B92" s="66" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D92" s="56">
         <v>0</v>
@@ -20051,10 +20177,10 @@
     <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="26"/>
       <c r="B93" s="66" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C93" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D93" s="56"/>
       <c r="E93" s="57"/>
@@ -20233,7 +20359,7 @@
     <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="26"/>
       <c r="B94" s="65" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C94" s="52"/>
       <c r="D94" s="53"/>
@@ -20409,10 +20535,10 @@
     <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="26"/>
       <c r="B95" s="66" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C95" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D95" s="56"/>
       <c r="E95" s="57"/>
@@ -20591,10 +20717,10 @@
     <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="26"/>
       <c r="B96" s="66" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C96" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D96" s="56"/>
       <c r="E96" s="57"/>
@@ -20773,10 +20899,10 @@
     <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="26"/>
       <c r="B97" s="66" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C97" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D97" s="56"/>
       <c r="E97" s="57"/>
@@ -20955,10 +21081,10 @@
     <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="26"/>
       <c r="B98" s="66" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C98" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D98" s="56"/>
       <c r="E98" s="57"/>
@@ -21137,10 +21263,10 @@
     <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="26"/>
       <c r="B99" s="66" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C99" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D99" s="56"/>
       <c r="E99" s="57"/>
@@ -21319,7 +21445,7 @@
     <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="26"/>
       <c r="B100" s="86" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C100" s="87"/>
       <c r="D100" s="88"/>
@@ -21493,7 +21619,7 @@
     <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="26"/>
       <c r="B101" s="65" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C101" s="52"/>
       <c r="D101" s="53"/>
@@ -21669,10 +21795,10 @@
     <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="26"/>
       <c r="B102" s="66" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D102" s="56">
         <v>0</v>
@@ -21853,10 +21979,10 @@
     <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="26"/>
       <c r="B103" s="66" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D103" s="56">
         <v>0</v>
@@ -22037,10 +22163,10 @@
     <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="26"/>
       <c r="B104" s="66" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C104" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D104" s="56">
         <v>0</v>
@@ -22221,10 +22347,10 @@
     <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="26"/>
       <c r="B105" s="66" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C105" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D105" s="56">
         <v>0</v>
@@ -22405,10 +22531,10 @@
     <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="26"/>
       <c r="B106" s="66" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D106" s="56">
         <v>0</v>
@@ -22589,10 +22715,10 @@
     <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="26"/>
       <c r="B107" s="66" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D107" s="56">
         <v>0</v>
@@ -22773,10 +22899,10 @@
     <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="26"/>
       <c r="B108" s="66" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D108" s="56">
         <v>0</v>
@@ -22957,7 +23083,7 @@
     <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="26"/>
       <c r="B109" s="65" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="53"/>
@@ -23133,10 +23259,10 @@
     <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="26"/>
       <c r="B110" s="66" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C110" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D110" s="56"/>
       <c r="E110" s="57"/>
@@ -23315,10 +23441,10 @@
     <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="26"/>
       <c r="B111" s="66" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C111" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D111" s="56"/>
       <c r="E111" s="57"/>
@@ -23497,10 +23623,10 @@
     <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="26"/>
       <c r="B112" s="66" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D112" s="56"/>
       <c r="E112" s="57"/>
@@ -23679,10 +23805,10 @@
     <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="26"/>
       <c r="B113" s="66" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D113" s="56"/>
       <c r="E113" s="57"/>
@@ -23861,10 +23987,10 @@
     <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="26"/>
       <c r="B114" s="66" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C114" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D114" s="56"/>
       <c r="E114" s="57"/>
@@ -24043,10 +24169,10 @@
     <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="26"/>
       <c r="B115" s="66" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C115" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D115" s="56"/>
       <c r="E115" s="57"/>
@@ -24225,10 +24351,10 @@
     <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="26"/>
       <c r="B116" s="66" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D116" s="56"/>
       <c r="E116" s="57"/>
@@ -24407,7 +24533,7 @@
     <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="26"/>
       <c r="B117" s="65" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="53"/>
@@ -24583,10 +24709,10 @@
     <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="26"/>
       <c r="B118" s="66" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C118" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D118" s="56"/>
       <c r="E118" s="57"/>
@@ -24765,10 +24891,10 @@
     <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="26"/>
       <c r="B119" s="66" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C119" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D119" s="56"/>
       <c r="E119" s="57"/>
@@ -24947,10 +25073,10 @@
     <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="26"/>
       <c r="B120" s="66" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C120" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D120" s="56"/>
       <c r="E120" s="57"/>
@@ -25129,10 +25255,10 @@
     <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="26"/>
       <c r="B121" s="66" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C121" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D121" s="56"/>
       <c r="E121" s="57"/>
@@ -25311,10 +25437,10 @@
     <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="26"/>
       <c r="B122" s="66" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C122" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D122" s="56"/>
       <c r="E122" s="57"/>
@@ -25492,13 +25618,13 @@
     </row>
     <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B123" s="66" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C123" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D123" s="56"/>
       <c r="E123" s="57"/>
@@ -25677,10 +25803,10 @@
     <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="26"/>
       <c r="B124" s="66" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C124" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D124" s="56"/>
       <c r="E124" s="57"/>
@@ -25859,10 +25985,10 @@
     <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="26"/>
       <c r="B125" s="66" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C125" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D125" s="56"/>
       <c r="E125" s="57"/>
@@ -26041,10 +26167,10 @@
     <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="26"/>
       <c r="B126" s="66" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C126" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D126" s="56"/>
       <c r="E126" s="57"/>
@@ -26223,7 +26349,7 @@
     <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="26"/>
       <c r="B127" s="65" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C127" s="52"/>
       <c r="D127" s="53"/>
@@ -26399,10 +26525,10 @@
     <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="26"/>
       <c r="B128" s="66" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C128" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D128" s="56"/>
       <c r="E128" s="57"/>
@@ -26581,10 +26707,10 @@
     <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="26"/>
       <c r="B129" s="66" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C129" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D129" s="56"/>
       <c r="E129" s="57"/>
@@ -26763,10 +26889,10 @@
     <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="26"/>
       <c r="B130" s="66" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C130" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D130" s="56"/>
       <c r="E130" s="57"/>
@@ -26945,10 +27071,10 @@
     <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="26"/>
       <c r="B131" s="66" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C131" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D131" s="56"/>
       <c r="E131" s="57"/>
@@ -27127,10 +27253,10 @@
     <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="26"/>
       <c r="B132" s="66" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C132" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D132" s="56"/>
       <c r="E132" s="57"/>
@@ -27309,7 +27435,7 @@
     <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="26"/>
       <c r="B133" s="86" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C133" s="87"/>
       <c r="D133" s="88"/>
@@ -27483,7 +27609,7 @@
     <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="26"/>
       <c r="B134" s="65" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="53"/>
@@ -27659,10 +27785,10 @@
     <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="26"/>
       <c r="B135" s="66" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C135" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D135" s="56">
         <v>0</v>
@@ -27843,10 +27969,10 @@
     <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="26"/>
       <c r="B136" s="85" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C136" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D136" s="56">
         <v>0</v>
@@ -28027,10 +28153,10 @@
     <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="26"/>
       <c r="B137" s="66" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C137" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D137" s="56">
         <v>0</v>
@@ -28211,10 +28337,10 @@
     <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26"/>
       <c r="B138" s="66" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C138" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D138" s="56">
         <v>0</v>
@@ -28395,10 +28521,10 @@
     <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="26"/>
       <c r="B139" s="66" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D139" s="56">
         <v>0</v>
@@ -28579,10 +28705,10 @@
     <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="26"/>
       <c r="B140" s="66" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C140" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D140" s="56">
         <v>0</v>
@@ -28763,10 +28889,10 @@
     <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="26"/>
       <c r="B141" s="66" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C141" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D141" s="56">
         <v>0</v>
@@ -28947,7 +29073,7 @@
     <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="26"/>
       <c r="B142" s="65" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C142" s="52"/>
       <c r="D142" s="53"/>
@@ -29123,10 +29249,10 @@
     <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="26"/>
       <c r="B143" s="66" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C143" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D143" s="56">
         <v>0</v>
@@ -29307,10 +29433,10 @@
     <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="26"/>
       <c r="B144" s="66" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D144" s="56">
         <v>0</v>
@@ -29491,10 +29617,10 @@
     <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="26"/>
       <c r="B145" s="66" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C145" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D145" s="56">
         <v>0</v>
@@ -29675,10 +29801,10 @@
     <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="26"/>
       <c r="B146" s="66" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C146" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D146" s="56">
         <v>0</v>
@@ -29859,10 +29985,10 @@
     <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="26"/>
       <c r="B147" s="66" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C147" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D147" s="56">
         <v>0</v>
@@ -30043,10 +30169,10 @@
     <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="26"/>
       <c r="B148" s="66" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C148" s="55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D148" s="56">
         <v>0</v>
@@ -30227,10 +30353,10 @@
     <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="26"/>
       <c r="B149" s="66" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C149" s="55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D149" s="56">
         <v>0</v>
@@ -30411,7 +30537,7 @@
     <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="26"/>
       <c r="B150" s="65" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C150" s="52"/>
       <c r="D150" s="53"/>
@@ -30587,10 +30713,10 @@
     <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="26"/>
       <c r="B151" s="85" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C151" s="96" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D151" s="56">
         <v>0</v>
@@ -30771,10 +30897,10 @@
     <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="26"/>
       <c r="B152" s="85" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C152" s="96" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D152" s="56">
         <v>0</v>
@@ -30955,10 +31081,10 @@
     <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="26"/>
       <c r="B153" s="85" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C153" s="96" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D153" s="56">
         <v>0</v>
@@ -31139,10 +31265,10 @@
     <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="26"/>
       <c r="B154" s="85" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C154" s="96" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D154" s="56">
         <v>0</v>
@@ -31323,10 +31449,10 @@
     <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="26"/>
       <c r="B155" s="85" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C155" s="96" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D155" s="56">
         <v>0</v>
@@ -31507,10 +31633,10 @@
     <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="26"/>
       <c r="B156" s="85" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C156" s="96" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D156" s="56">
         <v>0</v>
@@ -31691,10 +31817,10 @@
     <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="26"/>
       <c r="B157" s="85" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C157" s="96" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D157" s="56">
         <v>0</v>
@@ -31875,7 +32001,7 @@
     <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="26"/>
       <c r="B158" s="65" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C158" s="52"/>
       <c r="D158" s="52"/>
@@ -32051,10 +32177,10 @@
     <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="26"/>
       <c r="B159" s="85" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C159" s="96" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D159" s="56">
         <v>0</v>
@@ -32235,10 +32361,10 @@
     <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="26"/>
       <c r="B160" s="85" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C160" s="96" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D160" s="56">
         <v>0</v>
@@ -32419,10 +32545,10 @@
     <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="26"/>
       <c r="B161" s="85" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C161" s="96" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D161" s="56">
         <v>0</v>
@@ -32603,10 +32729,10 @@
     <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="26"/>
       <c r="B162" s="85" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C162" s="96" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D162" s="56">
         <v>0</v>
@@ -32787,10 +32913,10 @@
     <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="26"/>
       <c r="B163" s="85" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C163" s="96" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D163" s="56">
         <v>0</v>
@@ -32971,10 +33097,10 @@
     <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="26"/>
       <c r="B164" s="85" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C164" s="96" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D164" s="56">
         <v>0</v>
@@ -33155,10 +33281,10 @@
     <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="26"/>
       <c r="B165" s="85" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C165" s="96" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D165" s="56">
         <v>0</v>
@@ -33339,10 +33465,10 @@
     <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="26"/>
       <c r="B166" s="85" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C166" s="96" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D166" s="56">
         <v>0</v>
@@ -33523,10 +33649,10 @@
     <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="26"/>
       <c r="B167" s="85" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C167" s="96" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D167" s="56">
         <v>0</v>
@@ -33706,7 +33832,7 @@
     </row>
     <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B168" s="67" t="s">
         <v>0</v>
@@ -33895,32 +34021,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
+    <mergeCell ref="FH4:FN4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="BU4:CA4"/>
+    <mergeCell ref="CB4:CH4"/>
+    <mergeCell ref="CI4:CO4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
-    <mergeCell ref="BN4:BT4"/>
-    <mergeCell ref="BU4:CA4"/>
-    <mergeCell ref="CB4:CH4"/>
-    <mergeCell ref="CI4:CO4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
-    <mergeCell ref="FH4:FN4"/>
   </mergeCells>
   <conditionalFormatting sqref="D168:E168 D7:E25 D27:E52 D54:E60 D62:E66">
     <cfRule type="dataBar" priority="47">
@@ -34201,13 +34327,9 @@
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="J1" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83710482-9E35-2B4E-B208-FF5661D2AE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="13" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="task_start" localSheetId="3">ProjectSchedule!$F1</definedName>
     <definedName name="today" localSheetId="3">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -205,9 +212,6 @@
   </si>
   <si>
     <t>Description of Changes</t>
-  </si>
-  <si>
-    <t>This document has been generated from template ST-FunctionalTestCase-Template, version 1.1</t>
   </si>
   <si>
     <t>Document Name</t>
@@ -671,11 +675,38 @@
   <si>
     <t>Code kịch bản automatic test cho chức năng sinh viên bookmark bài viết trên hệ thống</t>
   </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
@@ -1611,6 +1642,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1680,33 +1714,30 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="10"/>
+    <cellStyle name="Date" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11"/>
+    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="9"/>
-    <cellStyle name="Task" xfId="12"/>
+    <cellStyle name="Project Start" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Task" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1822,7 +1853,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
@@ -2348,52 +2379,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
+    <row r="1" spans="1:4" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="101"/>
     </row>
-    <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
+    <row r="2" spans="1:4" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
     </row>
-    <row r="4" spans="1:4" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
         <v>30</v>
       </c>
@@ -2420,30 +2451,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="69.28515625" customWidth="1"/>
+    <col min="4" max="4" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
         <v>37</v>
       </c>
@@ -2457,139 +2488,137 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="81">
-        <v>0.1</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="81" t="s">
+        <v>195</v>
       </c>
       <c r="B3" s="82">
         <v>44850</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
-        <v>0.2</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
+        <v>196</v>
       </c>
       <c r="B4" s="82">
         <v>44851</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
-        <v>0.3</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>197</v>
       </c>
       <c r="B5" s="82">
         <v>44851</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
-        <v>0.4</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="81" t="s">
+        <v>198</v>
       </c>
       <c r="B6" s="82">
         <v>44852</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
-        <v>0.5</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="81" t="s">
+        <v>199</v>
       </c>
       <c r="B7" s="82">
         <v>44852</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
-        <v>0.6</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="81" t="s">
+        <v>200</v>
       </c>
       <c r="B8" s="82">
         <v>44853</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
-        <v>0.7</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="81" t="s">
+        <v>201</v>
       </c>
       <c r="B9" s="82">
         <v>44853</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
-        <v>0.8</v>
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="81" t="s">
+        <v>202</v>
       </c>
       <c r="B10" s="82">
         <v>44853</v>
       </c>
       <c r="C10" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="83" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
-        <v>0.9</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="81" t="s">
+        <v>203</v>
       </c>
       <c r="B11" s="82">
         <v>44854</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2602,54 +2631,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="111"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="113"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="115"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B4" s="116"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="112"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="117"/>
+      <c r="B5" s="115"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="114"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="117"/>
+      <c r="B6" s="115"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="115"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="114"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="114"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2662,42 +2691,42 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4:B4" r:id="rId2" display="Individual Estimate.xlsx"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A4:B4" r:id="rId2" display="Individual Estimate.xlsx" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:FN171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="99.85546875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="121" width="2.5703125" customWidth="1"/>
-    <col min="122" max="142" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="99.83203125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="121" width="2.5" customWidth="1"/>
+    <col min="122" max="142" width="2.6640625" customWidth="1"/>
     <col min="143" max="170" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
@@ -2714,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
@@ -2725,7 +2754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>25</v>
       </c>
@@ -2737,12 +2766,12 @@
       </c>
       <c r="D3" s="122"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="120">
+      <c r="F3" s="123">
         <v>44851</v>
       </c>
-      <c r="G3" s="120"/>
+      <c r="G3" s="123"/>
     </row>
-    <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>19</v>
       </c>
@@ -2754,238 +2783,238 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="117">
+      <c r="J4" s="118">
         <f>J5</f>
         <v>44851</v>
       </c>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="117">
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="118">
         <f>Q5</f>
         <v>44858</v>
       </c>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="117">
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="118">
         <f>X5</f>
         <v>44865</v>
       </c>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="117">
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="120"/>
+      <c r="AE4" s="118">
         <f>AE5</f>
         <v>44872</v>
       </c>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="117">
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="120"/>
+      <c r="AL4" s="118">
         <f>AL5</f>
         <v>44879</v>
       </c>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="117">
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="120"/>
+      <c r="AS4" s="118">
         <f>AS5</f>
         <v>44886</v>
       </c>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="117">
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="120"/>
+      <c r="AZ4" s="118">
         <f>AZ5</f>
         <v>44893</v>
       </c>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="117">
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="119"/>
+      <c r="BD4" s="119"/>
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="120"/>
+      <c r="BG4" s="118">
         <f>BG5</f>
         <v>44900</v>
       </c>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="118"/>
-      <c r="BM4" s="119"/>
-      <c r="BN4" s="117">
+      <c r="BH4" s="119"/>
+      <c r="BI4" s="119"/>
+      <c r="BJ4" s="119"/>
+      <c r="BK4" s="119"/>
+      <c r="BL4" s="119"/>
+      <c r="BM4" s="120"/>
+      <c r="BN4" s="118">
         <f>BN5</f>
         <v>44907</v>
       </c>
-      <c r="BO4" s="118"/>
-      <c r="BP4" s="118"/>
-      <c r="BQ4" s="118"/>
-      <c r="BR4" s="118"/>
-      <c r="BS4" s="118"/>
-      <c r="BT4" s="119"/>
-      <c r="BU4" s="117">
+      <c r="BO4" s="119"/>
+      <c r="BP4" s="119"/>
+      <c r="BQ4" s="119"/>
+      <c r="BR4" s="119"/>
+      <c r="BS4" s="119"/>
+      <c r="BT4" s="120"/>
+      <c r="BU4" s="118">
         <f>BU5</f>
         <v>44914</v>
       </c>
-      <c r="BV4" s="118"/>
-      <c r="BW4" s="118"/>
-      <c r="BX4" s="118"/>
-      <c r="BY4" s="118"/>
-      <c r="BZ4" s="118"/>
-      <c r="CA4" s="119"/>
-      <c r="CB4" s="117">
+      <c r="BV4" s="119"/>
+      <c r="BW4" s="119"/>
+      <c r="BX4" s="119"/>
+      <c r="BY4" s="119"/>
+      <c r="BZ4" s="119"/>
+      <c r="CA4" s="120"/>
+      <c r="CB4" s="118">
         <f>CB5</f>
         <v>44921</v>
       </c>
-      <c r="CC4" s="118"/>
-      <c r="CD4" s="118"/>
-      <c r="CE4" s="118"/>
-      <c r="CF4" s="118"/>
-      <c r="CG4" s="118"/>
-      <c r="CH4" s="119"/>
-      <c r="CI4" s="117">
+      <c r="CC4" s="119"/>
+      <c r="CD4" s="119"/>
+      <c r="CE4" s="119"/>
+      <c r="CF4" s="119"/>
+      <c r="CG4" s="119"/>
+      <c r="CH4" s="120"/>
+      <c r="CI4" s="118">
         <f>CI5</f>
         <v>44928</v>
       </c>
-      <c r="CJ4" s="118"/>
-      <c r="CK4" s="118"/>
-      <c r="CL4" s="118"/>
-      <c r="CM4" s="118"/>
-      <c r="CN4" s="118"/>
-      <c r="CO4" s="119"/>
-      <c r="CP4" s="117">
+      <c r="CJ4" s="119"/>
+      <c r="CK4" s="119"/>
+      <c r="CL4" s="119"/>
+      <c r="CM4" s="119"/>
+      <c r="CN4" s="119"/>
+      <c r="CO4" s="120"/>
+      <c r="CP4" s="118">
         <f t="shared" ref="CP4" si="0">CP5</f>
         <v>44935</v>
       </c>
-      <c r="CQ4" s="118"/>
-      <c r="CR4" s="118"/>
-      <c r="CS4" s="118"/>
-      <c r="CT4" s="118"/>
-      <c r="CU4" s="118"/>
-      <c r="CV4" s="119"/>
-      <c r="CW4" s="117">
+      <c r="CQ4" s="119"/>
+      <c r="CR4" s="119"/>
+      <c r="CS4" s="119"/>
+      <c r="CT4" s="119"/>
+      <c r="CU4" s="119"/>
+      <c r="CV4" s="120"/>
+      <c r="CW4" s="118">
         <f t="shared" ref="CW4" si="1">CW5</f>
         <v>44942</v>
       </c>
-      <c r="CX4" s="118"/>
-      <c r="CY4" s="118"/>
-      <c r="CZ4" s="118"/>
-      <c r="DA4" s="118"/>
-      <c r="DB4" s="118"/>
-      <c r="DC4" s="119"/>
-      <c r="DD4" s="117">
+      <c r="CX4" s="119"/>
+      <c r="CY4" s="119"/>
+      <c r="CZ4" s="119"/>
+      <c r="DA4" s="119"/>
+      <c r="DB4" s="119"/>
+      <c r="DC4" s="120"/>
+      <c r="DD4" s="118">
         <f t="shared" ref="DD4" si="2">DD5</f>
         <v>44949</v>
       </c>
-      <c r="DE4" s="118"/>
-      <c r="DF4" s="118"/>
-      <c r="DG4" s="118"/>
-      <c r="DH4" s="118"/>
-      <c r="DI4" s="118"/>
-      <c r="DJ4" s="119"/>
-      <c r="DK4" s="117">
+      <c r="DE4" s="119"/>
+      <c r="DF4" s="119"/>
+      <c r="DG4" s="119"/>
+      <c r="DH4" s="119"/>
+      <c r="DI4" s="119"/>
+      <c r="DJ4" s="120"/>
+      <c r="DK4" s="118">
         <f t="shared" ref="DK4" si="3">DK5</f>
         <v>44956</v>
       </c>
-      <c r="DL4" s="118"/>
-      <c r="DM4" s="118"/>
-      <c r="DN4" s="118"/>
-      <c r="DO4" s="118"/>
-      <c r="DP4" s="118"/>
-      <c r="DQ4" s="119"/>
-      <c r="DR4" s="117">
+      <c r="DL4" s="119"/>
+      <c r="DM4" s="119"/>
+      <c r="DN4" s="119"/>
+      <c r="DO4" s="119"/>
+      <c r="DP4" s="119"/>
+      <c r="DQ4" s="120"/>
+      <c r="DR4" s="118">
         <f t="shared" ref="DR4" si="4">DR5</f>
         <v>44963</v>
       </c>
-      <c r="DS4" s="118"/>
-      <c r="DT4" s="118"/>
-      <c r="DU4" s="118"/>
-      <c r="DV4" s="118"/>
-      <c r="DW4" s="118"/>
-      <c r="DX4" s="119"/>
-      <c r="DY4" s="117">
+      <c r="DS4" s="119"/>
+      <c r="DT4" s="119"/>
+      <c r="DU4" s="119"/>
+      <c r="DV4" s="119"/>
+      <c r="DW4" s="119"/>
+      <c r="DX4" s="120"/>
+      <c r="DY4" s="118">
         <f t="shared" ref="DY4" si="5">DY5</f>
         <v>44970</v>
       </c>
-      <c r="DZ4" s="118"/>
-      <c r="EA4" s="118"/>
-      <c r="EB4" s="118"/>
-      <c r="EC4" s="118"/>
-      <c r="ED4" s="118"/>
-      <c r="EE4" s="119"/>
-      <c r="EF4" s="117">
+      <c r="DZ4" s="119"/>
+      <c r="EA4" s="119"/>
+      <c r="EB4" s="119"/>
+      <c r="EC4" s="119"/>
+      <c r="ED4" s="119"/>
+      <c r="EE4" s="120"/>
+      <c r="EF4" s="118">
         <f t="shared" ref="EF4" si="6">EF5</f>
         <v>44977</v>
       </c>
-      <c r="EG4" s="118"/>
-      <c r="EH4" s="118"/>
-      <c r="EI4" s="118"/>
-      <c r="EJ4" s="118"/>
-      <c r="EK4" s="118"/>
-      <c r="EL4" s="119"/>
-      <c r="EM4" s="117">
+      <c r="EG4" s="119"/>
+      <c r="EH4" s="119"/>
+      <c r="EI4" s="119"/>
+      <c r="EJ4" s="119"/>
+      <c r="EK4" s="119"/>
+      <c r="EL4" s="120"/>
+      <c r="EM4" s="118">
         <f t="shared" ref="EM4" si="7">EM5</f>
         <v>44984</v>
       </c>
-      <c r="EN4" s="118"/>
-      <c r="EO4" s="118"/>
-      <c r="EP4" s="118"/>
-      <c r="EQ4" s="118"/>
-      <c r="ER4" s="118"/>
-      <c r="ES4" s="119"/>
-      <c r="ET4" s="117">
+      <c r="EN4" s="119"/>
+      <c r="EO4" s="119"/>
+      <c r="EP4" s="119"/>
+      <c r="EQ4" s="119"/>
+      <c r="ER4" s="119"/>
+      <c r="ES4" s="120"/>
+      <c r="ET4" s="118">
         <f t="shared" ref="ET4" si="8">ET5</f>
         <v>44991</v>
       </c>
-      <c r="EU4" s="118"/>
-      <c r="EV4" s="118"/>
-      <c r="EW4" s="118"/>
-      <c r="EX4" s="118"/>
-      <c r="EY4" s="118"/>
-      <c r="EZ4" s="119"/>
-      <c r="FA4" s="117">
+      <c r="EU4" s="119"/>
+      <c r="EV4" s="119"/>
+      <c r="EW4" s="119"/>
+      <c r="EX4" s="119"/>
+      <c r="EY4" s="119"/>
+      <c r="EZ4" s="120"/>
+      <c r="FA4" s="118">
         <f t="shared" ref="FA4" si="9">FA5</f>
         <v>44998</v>
       </c>
-      <c r="FB4" s="118"/>
-      <c r="FC4" s="118"/>
-      <c r="FD4" s="118"/>
-      <c r="FE4" s="118"/>
-      <c r="FF4" s="118"/>
-      <c r="FG4" s="119"/>
-      <c r="FH4" s="117">
+      <c r="FB4" s="119"/>
+      <c r="FC4" s="119"/>
+      <c r="FD4" s="119"/>
+      <c r="FE4" s="119"/>
+      <c r="FF4" s="119"/>
+      <c r="FG4" s="120"/>
+      <c r="FH4" s="118">
         <f t="shared" ref="FH4" si="10">FH5</f>
         <v>45005</v>
       </c>
-      <c r="FI4" s="118"/>
-      <c r="FJ4" s="118"/>
-      <c r="FK4" s="118"/>
-      <c r="FL4" s="118"/>
-      <c r="FM4" s="118"/>
-      <c r="FN4" s="119"/>
+      <c r="FI4" s="119"/>
+      <c r="FJ4" s="119"/>
+      <c r="FK4" s="119"/>
+      <c r="FL4" s="119"/>
+      <c r="FM4" s="119"/>
+      <c r="FN4" s="120"/>
     </row>
-    <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>20</v>
       </c>
@@ -3641,7 +3670,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>21</v>
       </c>
@@ -4312,7 +4341,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>26</v>
       </c>
@@ -4484,9 +4513,9 @@
       <c r="FM7" s="22"/>
       <c r="FN7" s="22"/>
     </row>
-    <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="93"/>
@@ -4655,12 +4684,12 @@
       <c r="FM8" s="22"/>
       <c r="FN8" s="22"/>
     </row>
-    <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="47"/>
@@ -4836,15 +4865,15 @@
       <c r="FM9" s="22"/>
       <c r="FN9" s="22"/>
     </row>
-    <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="123" t="s">
-        <v>63</v>
+      <c r="B10" s="97" t="s">
+        <v>62</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="48">
         <v>0</v>
@@ -5025,15 +5054,15 @@
       <c r="FM10" s="22"/>
       <c r="FN10" s="22"/>
     </row>
-    <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="123" t="s">
-        <v>64</v>
+      <c r="B11" s="97" t="s">
+        <v>63</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="48">
         <v>0</v>
@@ -5214,13 +5243,13 @@
       <c r="FM11" s="22"/>
       <c r="FN11" s="22"/>
     </row>
-    <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
-      <c r="B12" s="123" t="s">
-        <v>65</v>
+      <c r="B12" s="97" t="s">
+        <v>64</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="48">
         <v>0</v>
@@ -5401,13 +5430,13 @@
       <c r="FM12" s="22"/>
       <c r="FN12" s="22"/>
     </row>
-    <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
-      <c r="B13" s="123" t="s">
-        <v>66</v>
+      <c r="B13" s="97" t="s">
+        <v>65</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="48">
         <v>0</v>
@@ -5585,13 +5614,13 @@
       <c r="FM13" s="22"/>
       <c r="FN13" s="22"/>
     </row>
-    <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
-      <c r="B14" s="123" t="s">
-        <v>67</v>
+      <c r="B14" s="97" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="48">
         <v>0</v>
@@ -5769,13 +5798,13 @@
       <c r="FM14" s="22"/>
       <c r="FN14" s="22"/>
     </row>
-    <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
-      <c r="B15" s="123" t="s">
-        <v>68</v>
+      <c r="B15" s="97" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="48">
         <v>0</v>
@@ -5953,13 +5982,13 @@
       <c r="FM15" s="22"/>
       <c r="FN15" s="22"/>
     </row>
-    <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="123" t="s">
-        <v>69</v>
+      <c r="B16" s="97" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="48">
         <v>0</v>
@@ -6137,13 +6166,13 @@
       <c r="FM16" s="22"/>
       <c r="FN16" s="22"/>
     </row>
-    <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="123" t="s">
-        <v>70</v>
+      <c r="B17" s="97" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="48">
         <v>0</v>
@@ -6321,13 +6350,13 @@
       <c r="FM17" s="22"/>
       <c r="FN17" s="22"/>
     </row>
-    <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="123" t="s">
-        <v>71</v>
+      <c r="B18" s="97" t="s">
+        <v>70</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="48">
         <v>0</v>
@@ -6505,13 +6534,13 @@
       <c r="FM18" s="22"/>
       <c r="FN18" s="22"/>
     </row>
-    <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="123" t="s">
-        <v>72</v>
+      <c r="B19" s="97" t="s">
+        <v>71</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="48">
         <v>0</v>
@@ -6689,12 +6718,12 @@
       <c r="FM19" s="22"/>
       <c r="FN19" s="22"/>
     </row>
-    <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="47"/>
@@ -6870,13 +6899,13 @@
       <c r="FM20" s="22"/>
       <c r="FN20" s="22"/>
     </row>
-    <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
-      <c r="B21" s="123" t="s">
-        <v>74</v>
+      <c r="B21" s="97" t="s">
+        <v>73</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="48">
         <v>0</v>
@@ -7057,13 +7086,13 @@
       <c r="FM21" s="22"/>
       <c r="FN21" s="22"/>
     </row>
-    <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
-      <c r="B22" s="123" t="s">
-        <v>75</v>
+      <c r="B22" s="97" t="s">
+        <v>74</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -7244,13 +7273,13 @@
       <c r="FM22" s="22"/>
       <c r="FN22" s="22"/>
     </row>
-    <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="123" t="s">
-        <v>76</v>
+      <c r="B23" s="97" t="s">
+        <v>75</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="48">
         <v>0</v>
@@ -7431,13 +7460,13 @@
       <c r="FM23" s="22"/>
       <c r="FN23" s="22"/>
     </row>
-    <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
-      <c r="B24" s="123" t="s">
-        <v>77</v>
+      <c r="B24" s="97" t="s">
+        <v>76</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -7615,13 +7644,13 @@
       <c r="FM24" s="22"/>
       <c r="FN24" s="22"/>
     </row>
-    <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
-      <c r="B25" s="123" t="s">
-        <v>78</v>
+      <c r="B25" s="97" t="s">
+        <v>77</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="48">
         <v>0</v>
@@ -7799,10 +7828,10 @@
       <c r="FM25" s="22"/>
       <c r="FN25" s="22"/>
     </row>
-    <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="47"/>
@@ -7975,10 +8004,10 @@
       <c r="FM26" s="22"/>
       <c r="FN26" s="22"/>
     </row>
-    <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="123" t="s">
-        <v>80</v>
+      <c r="B27" s="97" t="s">
+        <v>79</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="48"/>
@@ -8149,12 +8178,12 @@
       <c r="FM27" s="22"/>
       <c r="FN27" s="22"/>
     </row>
-    <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="123" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="B28" s="97" t="s">
+        <v>80</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="48"/>
@@ -8325,10 +8354,10 @@
       <c r="FM28" s="22"/>
       <c r="FN28" s="22"/>
     </row>
-    <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
-      <c r="B29" s="123" t="s">
-        <v>82</v>
+      <c r="B29" s="97" t="s">
+        <v>81</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="48"/>
@@ -8499,10 +8528,10 @@
       <c r="FM29" s="22"/>
       <c r="FN29" s="22"/>
     </row>
-    <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
-      <c r="B30" s="123" t="s">
-        <v>83</v>
+      <c r="B30" s="97" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="48"/>
@@ -8673,10 +8702,10 @@
       <c r="FM30" s="22"/>
       <c r="FN30" s="22"/>
     </row>
-    <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
-      <c r="B31" s="123" t="s">
-        <v>84</v>
+      <c r="B31" s="97" t="s">
+        <v>83</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="48"/>
@@ -8847,10 +8876,10 @@
       <c r="FM31" s="22"/>
       <c r="FN31" s="22"/>
     </row>
-    <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
-      <c r="B32" s="123" t="s">
-        <v>85</v>
+      <c r="B32" s="97" t="s">
+        <v>84</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="48"/>
@@ -9021,10 +9050,10 @@
       <c r="FM32" s="22"/>
       <c r="FN32" s="22"/>
     </row>
-    <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
-      <c r="B33" s="123" t="s">
-        <v>86</v>
+      <c r="B33" s="97" t="s">
+        <v>85</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="48"/>
@@ -9195,10 +9224,10 @@
       <c r="FM33" s="22"/>
       <c r="FN33" s="22"/>
     </row>
-    <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="87"/>
       <c r="D34" s="88"/>
@@ -9369,12 +9398,12 @@
       <c r="FM34" s="22"/>
       <c r="FN34" s="22"/>
     </row>
-    <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="47"/>
@@ -9550,13 +9579,13 @@
       <c r="FM35" s="22"/>
       <c r="FN35" s="22"/>
     </row>
-    <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="123" t="s">
-        <v>88</v>
+      <c r="B36" s="97" t="s">
+        <v>87</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="48">
         <v>0</v>
@@ -9737,13 +9766,13 @@
       <c r="FM36" s="22"/>
       <c r="FN36" s="22"/>
     </row>
-    <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="123" t="s">
-        <v>89</v>
+      <c r="B37" s="97" t="s">
+        <v>88</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="48">
         <v>0</v>
@@ -9924,13 +9953,13 @@
       <c r="FM37" s="22"/>
       <c r="FN37" s="22"/>
     </row>
-    <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
-      <c r="B38" s="123" t="s">
-        <v>96</v>
+      <c r="B38" s="97" t="s">
+        <v>95</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="48">
         <v>0</v>
@@ -10111,13 +10140,13 @@
       <c r="FM38" s="22"/>
       <c r="FN38" s="22"/>
     </row>
-    <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
-      <c r="B39" s="123" t="s">
-        <v>90</v>
+      <c r="B39" s="97" t="s">
+        <v>89</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="48">
         <v>0</v>
@@ -10295,13 +10324,13 @@
       <c r="FM39" s="22"/>
       <c r="FN39" s="22"/>
     </row>
-    <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
-      <c r="B40" s="123" t="s">
-        <v>91</v>
+      <c r="B40" s="97" t="s">
+        <v>90</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="48">
         <v>0</v>
@@ -10479,13 +10508,13 @@
       <c r="FM40" s="22"/>
       <c r="FN40" s="22"/>
     </row>
-    <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
-      <c r="B41" s="123" t="s">
-        <v>92</v>
+      <c r="B41" s="97" t="s">
+        <v>91</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="48">
         <v>0</v>
@@ -10663,13 +10692,13 @@
       <c r="FM41" s="22"/>
       <c r="FN41" s="22"/>
     </row>
-    <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
-      <c r="B42" s="123" t="s">
-        <v>93</v>
+      <c r="B42" s="97" t="s">
+        <v>92</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="48">
         <v>0</v>
@@ -10847,13 +10876,13 @@
       <c r="FM42" s="22"/>
       <c r="FN42" s="22"/>
     </row>
-    <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
-      <c r="B43" s="123" t="s">
-        <v>94</v>
+      <c r="B43" s="97" t="s">
+        <v>93</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="48">
         <v>0</v>
@@ -11031,13 +11060,13 @@
       <c r="FM43" s="22"/>
       <c r="FN43" s="22"/>
     </row>
-    <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
-      <c r="B44" s="123" t="s">
-        <v>95</v>
+      <c r="B44" s="97" t="s">
+        <v>94</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="48">
         <v>0</v>
@@ -11215,12 +11244,12 @@
       <c r="FM44" s="22"/>
       <c r="FN44" s="22"/>
     </row>
-    <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="47"/>
@@ -11396,13 +11425,13 @@
       <c r="FM45" s="22"/>
       <c r="FN45" s="22"/>
     </row>
-    <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
-      <c r="B46" s="123" t="s">
-        <v>98</v>
+      <c r="B46" s="97" t="s">
+        <v>97</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="48">
         <v>0</v>
@@ -11583,13 +11612,13 @@
       <c r="FM46" s="22"/>
       <c r="FN46" s="22"/>
     </row>
-    <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
-      <c r="B47" s="123" t="s">
-        <v>99</v>
+      <c r="B47" s="97" t="s">
+        <v>98</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="48">
         <v>0</v>
@@ -11770,13 +11799,13 @@
       <c r="FM47" s="22"/>
       <c r="FN47" s="22"/>
     </row>
-    <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
-      <c r="B48" s="123" t="s">
-        <v>100</v>
+      <c r="B48" s="97" t="s">
+        <v>99</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="48">
         <v>0</v>
@@ -11957,13 +11986,13 @@
       <c r="FM48" s="22"/>
       <c r="FN48" s="22"/>
     </row>
-    <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
-      <c r="B49" s="123" t="s">
-        <v>101</v>
+      <c r="B49" s="97" t="s">
+        <v>100</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="48">
         <v>0</v>
@@ -12141,13 +12170,13 @@
       <c r="FM49" s="22"/>
       <c r="FN49" s="22"/>
     </row>
-    <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
-      <c r="B50" s="123" t="s">
-        <v>102</v>
+      <c r="B50" s="97" t="s">
+        <v>101</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="48">
         <v>0</v>
@@ -12325,13 +12354,13 @@
       <c r="FM50" s="22"/>
       <c r="FN50" s="22"/>
     </row>
-    <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
-      <c r="B51" s="123" t="s">
-        <v>103</v>
+      <c r="B51" s="97" t="s">
+        <v>102</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="48">
         <v>0</v>
@@ -12509,13 +12538,13 @@
       <c r="FM51" s="22"/>
       <c r="FN51" s="22"/>
     </row>
-    <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
-      <c r="B52" s="123" t="s">
-        <v>104</v>
+      <c r="B52" s="97" t="s">
+        <v>103</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="48">
         <v>0</v>
@@ -12693,10 +12722,10 @@
       <c r="FM52" s="22"/>
       <c r="FN52" s="22"/>
     </row>
-    <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="47"/>
@@ -12869,10 +12898,10 @@
       <c r="FM53" s="22"/>
       <c r="FN53" s="22"/>
     </row>
-    <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
-      <c r="B54" s="123" t="s">
-        <v>110</v>
+      <c r="B54" s="97" t="s">
+        <v>109</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="48"/>
@@ -13043,10 +13072,10 @@
       <c r="FM54" s="22"/>
       <c r="FN54" s="22"/>
     </row>
-    <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
-      <c r="B55" s="123" t="s">
-        <v>106</v>
+      <c r="B55" s="97" t="s">
+        <v>105</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="48"/>
@@ -13217,10 +13246,10 @@
       <c r="FM55" s="22"/>
       <c r="FN55" s="22"/>
     </row>
-    <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
-      <c r="B56" s="123" t="s">
-        <v>107</v>
+      <c r="B56" s="97" t="s">
+        <v>106</v>
       </c>
       <c r="C56" s="31"/>
       <c r="D56" s="48"/>
@@ -13391,10 +13420,10 @@
       <c r="FM56" s="22"/>
       <c r="FN56" s="22"/>
     </row>
-    <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
-      <c r="B57" s="123" t="s">
-        <v>111</v>
+      <c r="B57" s="97" t="s">
+        <v>110</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="48"/>
@@ -13565,10 +13594,10 @@
       <c r="FM57" s="22"/>
       <c r="FN57" s="22"/>
     </row>
-    <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
-      <c r="B58" s="123" t="s">
-        <v>108</v>
+      <c r="B58" s="97" t="s">
+        <v>107</v>
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="48"/>
@@ -13739,10 +13768,10 @@
       <c r="FM58" s="22"/>
       <c r="FN58" s="22"/>
     </row>
-    <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
-      <c r="B59" s="123" t="s">
-        <v>109</v>
+      <c r="B59" s="97" t="s">
+        <v>108</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="48"/>
@@ -13913,10 +13942,10 @@
       <c r="FM59" s="22"/>
       <c r="FN59" s="22"/>
     </row>
-    <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
-      <c r="B60" s="123" t="s">
-        <v>112</v>
+      <c r="B60" s="97" t="s">
+        <v>111</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="48"/>
@@ -14087,10 +14116,10 @@
       <c r="FM60" s="22"/>
       <c r="FN60" s="22"/>
     </row>
-    <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="47"/>
@@ -14263,10 +14292,10 @@
       <c r="FM61" s="22"/>
       <c r="FN61" s="22"/>
     </row>
-    <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
-      <c r="B62" s="123" t="s">
-        <v>113</v>
+      <c r="B62" s="97" t="s">
+        <v>112</v>
       </c>
       <c r="C62" s="31"/>
       <c r="D62" s="48"/>
@@ -14437,10 +14466,10 @@
       <c r="FM62" s="22"/>
       <c r="FN62" s="22"/>
     </row>
-    <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
-      <c r="B63" s="123" t="s">
-        <v>114</v>
+      <c r="B63" s="97" t="s">
+        <v>113</v>
       </c>
       <c r="C63" s="31"/>
       <c r="D63" s="48"/>
@@ -14611,10 +14640,10 @@
       <c r="FM63" s="22"/>
       <c r="FN63" s="22"/>
     </row>
-    <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
-      <c r="B64" s="123" t="s">
-        <v>115</v>
+      <c r="B64" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="48"/>
@@ -14785,10 +14814,10 @@
       <c r="FM64" s="22"/>
       <c r="FN64" s="22"/>
     </row>
-    <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
-      <c r="B65" s="123" t="s">
-        <v>116</v>
+      <c r="B65" s="97" t="s">
+        <v>115</v>
       </c>
       <c r="C65" s="31"/>
       <c r="D65" s="48"/>
@@ -14959,10 +14988,10 @@
       <c r="FM65" s="22"/>
       <c r="FN65" s="22"/>
     </row>
-    <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
-      <c r="B66" s="123" t="s">
-        <v>117</v>
+      <c r="B66" s="97" t="s">
+        <v>116</v>
       </c>
       <c r="C66" s="31"/>
       <c r="D66" s="48"/>
@@ -15133,10 +15162,10 @@
       <c r="FM66" s="22"/>
       <c r="FN66" s="22"/>
     </row>
-    <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
       <c r="B67" s="86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="87"/>
       <c r="D67" s="88"/>
@@ -15307,12 +15336,12 @@
       <c r="FM67" s="22"/>
       <c r="FN67" s="22"/>
     </row>
-    <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="76"/>
@@ -15488,13 +15517,13 @@
       <c r="FM68" s="22"/>
       <c r="FN68" s="22"/>
     </row>
-    <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D69" s="56">
         <v>0</v>
@@ -15672,13 +15701,13 @@
       <c r="FM69" s="22"/>
       <c r="FN69" s="22"/>
     </row>
-    <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
       <c r="B70" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D70" s="56">
         <v>0</v>
@@ -15856,13 +15885,13 @@
       <c r="FM70" s="22"/>
       <c r="FN70" s="22"/>
     </row>
-    <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D71" s="56">
         <v>0</v>
@@ -16040,10 +16069,10 @@
       <c r="FM71" s="22"/>
       <c r="FN71" s="22"/>
     </row>
-    <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
       <c r="B72" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="56"/>
@@ -16214,13 +16243,13 @@
       <c r="FM72" s="22"/>
       <c r="FN72" s="22"/>
     </row>
-    <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D73" s="56">
         <v>0</v>
@@ -16398,13 +16427,13 @@
       <c r="FM73" s="22"/>
       <c r="FN73" s="22"/>
     </row>
-    <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D74" s="56">
         <v>0</v>
@@ -16582,13 +16611,13 @@
       <c r="FM74" s="22"/>
       <c r="FN74" s="22"/>
     </row>
-    <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26"/>
       <c r="B75" s="66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D75" s="56">
         <v>0</v>
@@ -16766,13 +16795,13 @@
       <c r="FM75" s="22"/>
       <c r="FN75" s="22"/>
     </row>
-    <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D76" s="56">
         <v>0</v>
@@ -16950,13 +16979,13 @@
       <c r="FM76" s="22"/>
       <c r="FN76" s="22"/>
     </row>
-    <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D77" s="56">
         <v>0</v>
@@ -17134,10 +17163,10 @@
       <c r="FM77" s="22"/>
       <c r="FN77" s="22"/>
     </row>
-    <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="53"/>
@@ -17310,13 +17339,13 @@
       <c r="FM78" s="22"/>
       <c r="FN78" s="22"/>
     </row>
-    <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26"/>
       <c r="B79" s="66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D79" s="56">
         <v>0</v>
@@ -17494,13 +17523,13 @@
       <c r="FM79" s="22"/>
       <c r="FN79" s="22"/>
     </row>
-    <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D80" s="56">
         <v>0</v>
@@ -17678,13 +17707,13 @@
       <c r="FM80" s="22"/>
       <c r="FN80" s="22"/>
     </row>
-    <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D81" s="56">
         <v>0</v>
@@ -17862,13 +17891,13 @@
       <c r="FM81" s="22"/>
       <c r="FN81" s="22"/>
     </row>
-    <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D82" s="56">
         <v>0</v>
@@ -18046,13 +18075,13 @@
       <c r="FM82" s="22"/>
       <c r="FN82" s="22"/>
     </row>
-    <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D83" s="56">
         <v>0</v>
@@ -18230,13 +18259,13 @@
       <c r="FM83" s="22"/>
       <c r="FN83" s="22"/>
     </row>
-    <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26"/>
       <c r="B84" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D84" s="56">
         <v>0</v>
@@ -18414,13 +18443,13 @@
       <c r="FM84" s="22"/>
       <c r="FN84" s="22"/>
     </row>
-    <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26"/>
       <c r="B85" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D85" s="56">
         <v>0</v>
@@ -18598,10 +18627,10 @@
       <c r="FM85" s="22"/>
       <c r="FN85" s="22"/>
     </row>
-    <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" s="52"/>
       <c r="D86" s="53"/>
@@ -18774,13 +18803,13 @@
       <c r="FM86" s="22"/>
       <c r="FN86" s="22"/>
     </row>
-    <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26"/>
       <c r="B87" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D87" s="56">
         <v>0</v>
@@ -18958,13 +18987,13 @@
       <c r="FM87" s="22"/>
       <c r="FN87" s="22"/>
     </row>
-    <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
       <c r="B88" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D88" s="56">
         <v>0</v>
@@ -19142,13 +19171,13 @@
       <c r="FM88" s="22"/>
       <c r="FN88" s="22"/>
     </row>
-    <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D89" s="56">
         <v>0</v>
@@ -19326,13 +19355,13 @@
       <c r="FM89" s="22"/>
       <c r="FN89" s="22"/>
     </row>
-    <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26"/>
       <c r="B90" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D90" s="56">
         <v>0</v>
@@ -19510,13 +19539,13 @@
       <c r="FM90" s="22"/>
       <c r="FN90" s="22"/>
     </row>
-    <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
       <c r="B91" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D91" s="56">
         <v>0</v>
@@ -19694,13 +19723,13 @@
       <c r="FM91" s="22"/>
       <c r="FN91" s="22"/>
     </row>
-    <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26"/>
       <c r="B92" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D92" s="56">
         <v>0</v>
@@ -19878,10 +19907,10 @@
       <c r="FM92" s="22"/>
       <c r="FN92" s="22"/>
     </row>
-    <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" s="55"/>
       <c r="D93" s="56"/>
@@ -20052,10 +20081,10 @@
       <c r="FM93" s="22"/>
       <c r="FN93" s="22"/>
     </row>
-    <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="52"/>
       <c r="D94" s="53"/>
@@ -20228,10 +20257,10 @@
       <c r="FM94" s="22"/>
       <c r="FN94" s="22"/>
     </row>
-    <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26"/>
       <c r="B95" s="66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="56"/>
@@ -20402,10 +20431,10 @@
       <c r="FM95" s="22"/>
       <c r="FN95" s="22"/>
     </row>
-    <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
       <c r="B96" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="55"/>
       <c r="D96" s="56"/>
@@ -20576,10 +20605,10 @@
       <c r="FM96" s="22"/>
       <c r="FN96" s="22"/>
     </row>
-    <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C97" s="55"/>
       <c r="D97" s="56"/>
@@ -20750,10 +20779,10 @@
       <c r="FM97" s="22"/>
       <c r="FN97" s="22"/>
     </row>
-    <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="56"/>
@@ -20924,10 +20953,10 @@
       <c r="FM98" s="22"/>
       <c r="FN98" s="22"/>
     </row>
-    <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="55"/>
       <c r="D99" s="56"/>
@@ -21098,10 +21127,10 @@
       <c r="FM99" s="22"/>
       <c r="FN99" s="22"/>
     </row>
-    <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" s="86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C100" s="87"/>
       <c r="D100" s="88"/>
@@ -21272,10 +21301,10 @@
       <c r="FM100" s="22"/>
       <c r="FN100" s="22"/>
     </row>
-    <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C101" s="52"/>
       <c r="D101" s="53"/>
@@ -21448,13 +21477,13 @@
       <c r="FM101" s="22"/>
       <c r="FN101" s="22"/>
     </row>
-    <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D102" s="56">
         <v>0</v>
@@ -21632,13 +21661,13 @@
       <c r="FM102" s="22"/>
       <c r="FN102" s="22"/>
     </row>
-    <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D103" s="56">
         <v>0</v>
@@ -21816,13 +21845,13 @@
       <c r="FM103" s="22"/>
       <c r="FN103" s="22"/>
     </row>
-    <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C104" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D104" s="56">
         <v>0</v>
@@ -22000,13 +22029,13 @@
       <c r="FM104" s="22"/>
       <c r="FN104" s="22"/>
     </row>
-    <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D105" s="56">
         <v>0</v>
@@ -22184,13 +22213,13 @@
       <c r="FM105" s="22"/>
       <c r="FN105" s="22"/>
     </row>
-    <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D106" s="56">
         <v>0</v>
@@ -22368,13 +22397,13 @@
       <c r="FM106" s="22"/>
       <c r="FN106" s="22"/>
     </row>
-    <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D107" s="56">
         <v>0</v>
@@ -22552,13 +22581,13 @@
       <c r="FM107" s="22"/>
       <c r="FN107" s="22"/>
     </row>
-    <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D108" s="56">
         <v>0</v>
@@ -22736,10 +22765,10 @@
       <c r="FM108" s="22"/>
       <c r="FN108" s="22"/>
     </row>
-    <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="53"/>
@@ -22912,10 +22941,10 @@
       <c r="FM109" s="22"/>
       <c r="FN109" s="22"/>
     </row>
-    <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C110" s="55"/>
       <c r="D110" s="56"/>
@@ -23086,10 +23115,10 @@
       <c r="FM110" s="22"/>
       <c r="FN110" s="22"/>
     </row>
-    <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C111" s="55"/>
       <c r="D111" s="56"/>
@@ -23260,10 +23289,10 @@
       <c r="FM111" s="22"/>
       <c r="FN111" s="22"/>
     </row>
-    <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="56"/>
@@ -23434,10 +23463,10 @@
       <c r="FM112" s="22"/>
       <c r="FN112" s="22"/>
     </row>
-    <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26"/>
       <c r="B113" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C113" s="55"/>
       <c r="D113" s="56"/>
@@ -23608,10 +23637,10 @@
       <c r="FM113" s="22"/>
       <c r="FN113" s="22"/>
     </row>
-    <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26"/>
       <c r="B114" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C114" s="55"/>
       <c r="D114" s="56"/>
@@ -23782,10 +23811,10 @@
       <c r="FM114" s="22"/>
       <c r="FN114" s="22"/>
     </row>
-    <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26"/>
       <c r="B115" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" s="55"/>
       <c r="D115" s="56"/>
@@ -23956,10 +23985,10 @@
       <c r="FM115" s="22"/>
       <c r="FN115" s="22"/>
     </row>
-    <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C116" s="55"/>
       <c r="D116" s="56"/>
@@ -24130,10 +24159,10 @@
       <c r="FM116" s="22"/>
       <c r="FN116" s="22"/>
     </row>
-    <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="53"/>
@@ -24306,10 +24335,10 @@
       <c r="FM117" s="22"/>
       <c r="FN117" s="22"/>
     </row>
-    <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C118" s="55"/>
       <c r="D118" s="56"/>
@@ -24480,10 +24509,10 @@
       <c r="FM118" s="22"/>
       <c r="FN118" s="22"/>
     </row>
-    <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C119" s="55"/>
       <c r="D119" s="56"/>
@@ -24654,10 +24683,10 @@
       <c r="FM119" s="22"/>
       <c r="FN119" s="22"/>
     </row>
-    <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C120" s="55"/>
       <c r="D120" s="56"/>
@@ -24828,10 +24857,10 @@
       <c r="FM120" s="22"/>
       <c r="FN120" s="22"/>
     </row>
-    <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C121" s="55"/>
       <c r="D121" s="56"/>
@@ -25002,10 +25031,10 @@
       <c r="FM121" s="22"/>
       <c r="FN121" s="22"/>
     </row>
-    <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C122" s="55"/>
       <c r="D122" s="56"/>
@@ -25176,12 +25205,12 @@
       <c r="FM122" s="22"/>
       <c r="FN122" s="22"/>
     </row>
-    <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B123" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C123" s="55"/>
       <c r="D123" s="56"/>
@@ -25352,10 +25381,10 @@
       <c r="FM123" s="22"/>
       <c r="FN123" s="22"/>
     </row>
-    <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C124" s="55"/>
       <c r="D124" s="56"/>
@@ -25526,10 +25555,10 @@
       <c r="FM124" s="22"/>
       <c r="FN124" s="22"/>
     </row>
-    <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C125" s="55"/>
       <c r="D125" s="56"/>
@@ -25700,10 +25729,10 @@
       <c r="FM125" s="22"/>
       <c r="FN125" s="22"/>
     </row>
-    <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C126" s="55"/>
       <c r="D126" s="56"/>
@@ -25874,10 +25903,10 @@
       <c r="FM126" s="22"/>
       <c r="FN126" s="22"/>
     </row>
-    <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="26"/>
       <c r="B127" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C127" s="52"/>
       <c r="D127" s="53"/>
@@ -26050,10 +26079,10 @@
       <c r="FM127" s="22"/>
       <c r="FN127" s="22"/>
     </row>
-    <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26"/>
       <c r="B128" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C128" s="55"/>
       <c r="D128" s="56"/>
@@ -26224,10 +26253,10 @@
       <c r="FM128" s="22"/>
       <c r="FN128" s="22"/>
     </row>
-    <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="26"/>
       <c r="B129" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C129" s="55"/>
       <c r="D129" s="56"/>
@@ -26398,10 +26427,10 @@
       <c r="FM129" s="22"/>
       <c r="FN129" s="22"/>
     </row>
-    <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C130" s="55"/>
       <c r="D130" s="56"/>
@@ -26572,10 +26601,10 @@
       <c r="FM130" s="22"/>
       <c r="FN130" s="22"/>
     </row>
-    <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C131" s="55"/>
       <c r="D131" s="56"/>
@@ -26746,10 +26775,10 @@
       <c r="FM131" s="22"/>
       <c r="FN131" s="22"/>
     </row>
-    <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C132" s="55"/>
       <c r="D132" s="56"/>
@@ -26920,10 +26949,10 @@
       <c r="FM132" s="22"/>
       <c r="FN132" s="22"/>
     </row>
-    <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
       <c r="B133" s="86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C133" s="87"/>
       <c r="D133" s="88"/>
@@ -27094,10 +27123,10 @@
       <c r="FM133" s="22"/>
       <c r="FN133" s="22"/>
     </row>
-    <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="53"/>
@@ -27270,13 +27299,13 @@
       <c r="FM134" s="22"/>
       <c r="FN134" s="22"/>
     </row>
-    <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C135" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D135" s="56">
         <v>0</v>
@@ -27454,13 +27483,13 @@
       <c r="FM135" s="22"/>
       <c r="FN135" s="22"/>
     </row>
-    <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
       <c r="B136" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C136" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D136" s="56">
         <v>0</v>
@@ -27638,13 +27667,13 @@
       <c r="FM136" s="22"/>
       <c r="FN136" s="22"/>
     </row>
-    <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
       <c r="B137" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C137" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D137" s="56">
         <v>0</v>
@@ -27822,13 +27851,13 @@
       <c r="FM137" s="22"/>
       <c r="FN137" s="22"/>
     </row>
-    <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="26"/>
       <c r="B138" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C138" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D138" s="56">
         <v>0</v>
@@ -28006,13 +28035,13 @@
       <c r="FM138" s="22"/>
       <c r="FN138" s="22"/>
     </row>
-    <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
       <c r="B139" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D139" s="56">
         <v>0</v>
@@ -28190,13 +28219,13 @@
       <c r="FM139" s="22"/>
       <c r="FN139" s="22"/>
     </row>
-    <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="26"/>
       <c r="B140" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C140" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D140" s="56">
         <v>0</v>
@@ -28374,13 +28403,13 @@
       <c r="FM140" s="22"/>
       <c r="FN140" s="22"/>
     </row>
-    <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="26"/>
       <c r="B141" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C141" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D141" s="56">
         <v>0</v>
@@ -28558,10 +28587,10 @@
       <c r="FM141" s="22"/>
       <c r="FN141" s="22"/>
     </row>
-    <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="26"/>
       <c r="B142" s="65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C142" s="52"/>
       <c r="D142" s="53"/>
@@ -28734,13 +28763,13 @@
       <c r="FM142" s="22"/>
       <c r="FN142" s="22"/>
     </row>
-    <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="26"/>
       <c r="B143" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C143" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D143" s="56">
         <v>0</v>
@@ -28918,13 +28947,13 @@
       <c r="FM143" s="22"/>
       <c r="FN143" s="22"/>
     </row>
-    <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="26"/>
       <c r="B144" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D144" s="56">
         <v>0</v>
@@ -29102,13 +29131,13 @@
       <c r="FM144" s="22"/>
       <c r="FN144" s="22"/>
     </row>
-    <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="26"/>
       <c r="B145" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C145" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D145" s="56">
         <v>0</v>
@@ -29286,13 +29315,13 @@
       <c r="FM145" s="22"/>
       <c r="FN145" s="22"/>
     </row>
-    <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="26"/>
       <c r="B146" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C146" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D146" s="56">
         <v>0</v>
@@ -29470,13 +29499,13 @@
       <c r="FM146" s="22"/>
       <c r="FN146" s="22"/>
     </row>
-    <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="26"/>
       <c r="B147" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C147" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D147" s="56">
         <v>0</v>
@@ -29654,13 +29683,13 @@
       <c r="FM147" s="22"/>
       <c r="FN147" s="22"/>
     </row>
-    <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="26"/>
       <c r="B148" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C148" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D148" s="56">
         <v>0</v>
@@ -29838,13 +29867,13 @@
       <c r="FM148" s="22"/>
       <c r="FN148" s="22"/>
     </row>
-    <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="26"/>
       <c r="B149" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C149" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D149" s="56">
         <v>0</v>
@@ -30022,10 +30051,10 @@
       <c r="FM149" s="22"/>
       <c r="FN149" s="22"/>
     </row>
-    <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="26"/>
       <c r="B150" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C150" s="52"/>
       <c r="D150" s="53"/>
@@ -30198,13 +30227,13 @@
       <c r="FM150" s="22"/>
       <c r="FN150" s="22"/>
     </row>
-    <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="26"/>
       <c r="B151" s="85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C151" s="96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D151" s="56">
         <v>0</v>
@@ -30382,13 +30411,13 @@
       <c r="FM151" s="22"/>
       <c r="FN151" s="22"/>
     </row>
-    <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="26"/>
       <c r="B152" s="85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C152" s="96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D152" s="56">
         <v>0</v>
@@ -30566,13 +30595,13 @@
       <c r="FM152" s="22"/>
       <c r="FN152" s="22"/>
     </row>
-    <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="26"/>
       <c r="B153" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C153" s="96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D153" s="56">
         <v>0</v>
@@ -30750,13 +30779,13 @@
       <c r="FM153" s="22"/>
       <c r="FN153" s="22"/>
     </row>
-    <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="26"/>
       <c r="B154" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C154" s="96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D154" s="56">
         <v>0</v>
@@ -30934,13 +30963,13 @@
       <c r="FM154" s="22"/>
       <c r="FN154" s="22"/>
     </row>
-    <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="26"/>
       <c r="B155" s="85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C155" s="96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D155" s="56">
         <v>0</v>
@@ -31118,13 +31147,13 @@
       <c r="FM155" s="22"/>
       <c r="FN155" s="22"/>
     </row>
-    <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="26"/>
       <c r="B156" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C156" s="96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D156" s="56">
         <v>0</v>
@@ -31302,10 +31331,10 @@
       <c r="FM156" s="22"/>
       <c r="FN156" s="22"/>
     </row>
-    <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="26"/>
       <c r="B157" s="85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C157" s="96"/>
       <c r="D157" s="56"/>
@@ -31476,10 +31505,10 @@
       <c r="FM157" s="22"/>
       <c r="FN157" s="22"/>
     </row>
-    <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="26"/>
       <c r="B158" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C158" s="52"/>
       <c r="D158" s="53"/>
@@ -31652,10 +31681,10 @@
       <c r="FM158" s="22"/>
       <c r="FN158" s="22"/>
     </row>
-    <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
       <c r="B159" s="85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C159" s="96"/>
       <c r="D159" s="56"/>
@@ -31826,10 +31855,10 @@
       <c r="FM159" s="22"/>
       <c r="FN159" s="22"/>
     </row>
-    <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="26"/>
       <c r="B160" s="85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C160" s="96"/>
       <c r="D160" s="56"/>
@@ -32000,10 +32029,10 @@
       <c r="FM160" s="22"/>
       <c r="FN160" s="22"/>
     </row>
-    <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="26"/>
       <c r="B161" s="85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C161" s="96"/>
       <c r="D161" s="56"/>
@@ -32174,10 +32203,10 @@
       <c r="FM161" s="22"/>
       <c r="FN161" s="22"/>
     </row>
-    <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="26"/>
       <c r="B162" s="85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C162" s="96"/>
       <c r="D162" s="56"/>
@@ -32348,10 +32377,10 @@
       <c r="FM162" s="22"/>
       <c r="FN162" s="22"/>
     </row>
-    <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C163" s="96"/>
       <c r="D163" s="56"/>
@@ -32522,10 +32551,10 @@
       <c r="FM163" s="22"/>
       <c r="FN163" s="22"/>
     </row>
-    <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="26"/>
       <c r="B164" s="85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C164" s="96"/>
       <c r="D164" s="56"/>
@@ -32696,10 +32725,10 @@
       <c r="FM164" s="22"/>
       <c r="FN164" s="22"/>
     </row>
-    <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="26"/>
       <c r="B165" s="85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C165" s="96"/>
       <c r="D165" s="56"/>
@@ -32870,10 +32899,10 @@
       <c r="FM165" s="22"/>
       <c r="FN165" s="22"/>
     </row>
-    <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="26"/>
       <c r="B166" s="85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C166" s="96"/>
       <c r="D166" s="56"/>
@@ -33044,10 +33073,10 @@
       <c r="FM166" s="22"/>
       <c r="FN166" s="22"/>
     </row>
-    <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="26"/>
       <c r="B167" s="85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C167" s="96"/>
       <c r="D167" s="56"/>
@@ -33218,7 +33247,7 @@
       <c r="FM167" s="22"/>
       <c r="FN167" s="22"/>
     </row>
-    <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
         <v>16</v>
       </c>
@@ -33397,44 +33426,44 @@
       <c r="FM168" s="24"/>
       <c r="FN168" s="24"/>
     </row>
-    <row r="169" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="13"/>
       <c r="G170" s="28"/>
     </row>
-    <row r="171" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
-    <mergeCell ref="FH4:FN4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="BN4:BT4"/>
-    <mergeCell ref="BU4:CA4"/>
-    <mergeCell ref="CB4:CH4"/>
-    <mergeCell ref="CI4:CO4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="BU4:CA4"/>
+    <mergeCell ref="CB4:CH4"/>
+    <mergeCell ref="CI4:CO4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
+    <mergeCell ref="FH4:FN4"/>
   </mergeCells>
   <conditionalFormatting sqref="D168:E168 D7:E25 D27:E52 D54:E60 D62:E66">
     <cfRule type="dataBar" priority="47">
@@ -33711,13 +33740,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J1" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J1" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348475FA-76EE-49C0-9D14-3DFA75DC0EFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83710482-9E35-2B4E-B208-FF5661D2AE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="13" r:id="rId1"/>
@@ -30,6 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -50,6 +56,9 @@
   <si>
     <t>ASSIGNED
 TO</t>
+  </si>
+  <si>
+    <t>PROJECT TITLE</t>
   </si>
   <si>
     <t>START</t>
@@ -65,6 +74,18 @@
   </si>
   <si>
     <t>TASK</t>
+  </si>
+  <si>
+    <t>SIMPLE GANTT CHART by Vertex42.com</t>
+  </si>
+  <si>
+    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Project Lead</t>
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
@@ -155,6 +176,15 @@
     <t xml:space="preserve">End Date: </t>
   </si>
   <si>
+    <t>Ứng dụng tra cứu vé số online</t>
+  </si>
+  <si>
+    <t>20/10/2022</t>
+  </si>
+  <si>
+    <t>23/03/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">GANTT CHART </t>
   </si>
   <si>
@@ -184,9 +214,6 @@
     <t>Description of Changes</t>
   </si>
   <si>
-    <t>This document has been generated from template ST-FunctionalTestCase-Template, version 1.1</t>
-  </si>
-  <si>
     <t>Document Name</t>
   </si>
   <si>
@@ -205,10 +232,25 @@
     <t>Nguyễn Hoàng Tấn</t>
   </si>
   <si>
+    <t>Viết task Quản trị viên hệ thống và Quản lý danh sách tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t>Viết Task Quản lý kết quả sổ xố</t>
+  </si>
+  <si>
+    <t>Viết task Quản lý chính sách đổi thưởng và Chức năng người dùng</t>
+  </si>
+  <si>
     <t>Tạo sheet Cover, Histories, References và cập nhật các sheet</t>
   </si>
   <si>
+    <t>Chỉnh sửa task Quản trị viên hệ thống và Chức năng người dùng</t>
+  </si>
+  <si>
     <t>Cập nhật lại Histories</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa point của task Quản lý danh sách tỉnh/thành phố và cập nhật lại Histories</t>
   </si>
   <si>
     <t>Bùi Nhật Hào, Nguyễn Hoàng Tấn, Lê Chí Huy</t>
@@ -218,6 +260,9 @@
   </si>
   <si>
     <t>Cập nhật lại start day, end day và cập nhật histories</t>
+  </si>
+  <si>
+    <t>Sprint 2 (31/10/2022 - 12/11/2022)</t>
   </si>
   <si>
     <t>Sprint 1</t>
@@ -631,70 +676,31 @@
     <t>Code kịch bản automatic test cho chức năng sinh viên bookmark bài viết trên hệ thống</t>
   </si>
   <si>
-    <t>Sinh viên xóa câu hỏi của mình</t>
+    <t>0.1</t>
   </si>
   <si>
-    <t>bùi Nhật Hào</t>
+    <t>0.2</t>
   </si>
   <si>
-    <t>Tạo bảng Student và Teacher trong database</t>
+    <t>0.3</t>
   </si>
   <si>
-    <t>Sprint 2</t>
+    <t>0.4</t>
   </si>
   <si>
-    <t>ỨNG DỤNG BLOG TRẢO ĐỔI HỌC TẬP CỦA KHOA CNTT</t>
+    <t>0.5</t>
   </si>
   <si>
-    <t>TEAM 5</t>
+    <t>0.6</t>
   </si>
   <si>
-    <t>Project lead: Nguyễn Hoàng Tấn</t>
+    <t>0.7</t>
   </si>
   <si>
-    <t>Ứng dụng blog trao đổi học tập của khoa CNTT</t>
+    <t>0.8</t>
   </si>
   <si>
-    <t>15/01/2023</t>
-  </si>
-  <si>
-    <t>Tạo template file Gantt Chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viết các chức năng của ứng dụng </t>
-  </si>
-  <si>
-    <t>Viết task sinh viên và giảng viên đăng nhập thông qua tài khoản Outlook, sinh viên và giảng viên đăng xuất tài khoản và sinh viên và giảng viên xem hồ sơ cá nhân</t>
-  </si>
-  <si>
-    <t>Viết task sinh viên đặt câu hỏi và sinh viên xem danh sách câu hỏi của mình</t>
-  </si>
-  <si>
-    <t>Viết task cho sinh viên chỉnh sửa câu hỏi của mình và sinh viên xóa câu hỏi của mình</t>
-  </si>
-  <si>
-    <t>Cập nhật và chỉnh sửa lại task sinh viên và giảng viên đăng xuất tài khoản và sinh viên và giảng viên xem hồ sơ cá nhân</t>
-  </si>
-  <si>
-    <t>Cập nhật và chỉnh sửa lại task sinh viên đặt câu hỏi</t>
-  </si>
-  <si>
-    <t>Cập nhật và chỉnh sửa task sinh viên chỉnh sửa câu hỏi của mình và sinh viên xóa câu hỏi của mình</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Viết task sinh viên xóa câu hỏi của mình, giảng viên trả lời câu hỏi trên hệ thống, giảng viên xem danh sách câu trả lời của mình và giảng viên chỉnh sửa câu trả lời của mình</t>
-  </si>
-  <si>
-    <t>Viết task giảng viên xóa câu trả lời của mình, sinh viên và giảng viên xem danh sách câu hỏi trên hệ thống và giảng viên phê duyệt câu hỏi của sinh viên trên hệ thống</t>
-  </si>
-  <si>
-    <t>Viết task giảng viên đăng bài viết, giảng viên xem danh sách bài viết của mình và giảng viên chỉnh sửa bài viết của mình</t>
-  </si>
-  <si>
-    <t>Viết task Giảng viên xóa bài viết của mình, sinh viên xem danh sách bài viết trên hệ thống và sinh viên bookmark bài viết trên hệ thống</t>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1390,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1708,22 +1714,13 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2386,59 +2383,59 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="61.44140625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98"/>
       <c r="B1" s="99"/>
       <c r="C1" s="100"/>
       <c r="D1" s="101"/>
     </row>
-    <row r="2" spans="1:4" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="26" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
       <c r="D2" s="102"/>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
     </row>
-    <row r="4" spans="1:4" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="70" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="C4" s="104"/>
       <c r="D4" s="105"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="72">
-        <v>44753</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2455,292 +2452,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="126" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
       <c r="D1" s="107"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="81">
-        <v>0.1</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="81" t="s">
+        <v>195</v>
       </c>
       <c r="B3" s="82">
-        <v>44868</v>
+        <v>44850</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="81">
-        <v>0.2</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
+        <v>196</v>
       </c>
       <c r="B4" s="82">
-        <v>44870</v>
+        <v>44851</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="81">
-        <v>0.3</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>197</v>
       </c>
       <c r="B5" s="82">
-        <v>44873</v>
+        <v>44851</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>193</v>
+        <v>46</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="81">
-        <v>0.4</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="81" t="s">
+        <v>198</v>
       </c>
       <c r="B6" s="82">
-        <v>44874</v>
+        <v>44852</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="81">
-        <v>0.5</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="81" t="s">
+        <v>199</v>
       </c>
       <c r="B7" s="82">
-        <v>44874</v>
+        <v>44852</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="81">
-        <v>0.6</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="81" t="s">
+        <v>200</v>
       </c>
       <c r="B8" s="82">
-        <v>44875</v>
+        <v>44853</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="81">
-        <v>0.7</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="81" t="s">
+        <v>201</v>
       </c>
       <c r="B9" s="82">
-        <v>44875</v>
+        <v>44853</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="124" t="s">
-        <v>195</v>
+        <v>44</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="81">
-        <v>0.8</v>
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="81" t="s">
+        <v>202</v>
       </c>
       <c r="B10" s="82">
-        <v>44876</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="124" t="s">
-        <v>196</v>
+        <v>44853</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="81">
-        <v>0.9</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="81" t="s">
+        <v>203</v>
       </c>
       <c r="B11" s="82">
-        <v>44876</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="124" t="s">
-        <v>197</v>
+        <v>44854</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="82">
-        <v>44876</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="124" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="81">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B13" s="82">
-        <v>44877</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="124" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="81">
-        <v>1.2</v>
-      </c>
-      <c r="B14" s="82">
-        <v>44877</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="81">
-        <v>1.3</v>
-      </c>
-      <c r="B15" s="82">
-        <v>44878</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="81">
-        <v>1.4</v>
-      </c>
-      <c r="B16" s="82">
-        <v>44879</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="81">
-        <v>1.5</v>
-      </c>
-      <c r="B17" s="82">
-        <v>44879</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="81">
-        <v>1.6</v>
-      </c>
-      <c r="B18" s="82">
-        <v>44880</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="83" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="81">
-        <v>1.7</v>
-      </c>
-      <c r="B19" s="82">
-        <v>44880</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2752,46 +2635,48 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="111" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" s="111"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="112" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B2" s="113"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="114" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B3" s="115"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="114"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="114" t="s">
+        <v>43</v>
+      </c>
       <c r="B4" s="116"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="117"/>
       <c r="B5" s="115"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="117"/>
       <c r="B6" s="115"/>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="110"/>
     </row>
@@ -2805,6 +2690,10 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A4:B4" r:id="rId2" display="Individual Estimate.xlsx" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2816,33 +2705,33 @@
   </sheetPr>
   <dimension ref="A1:FN171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="99.88671875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="99.83203125" style="62" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="45" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="121" width="2.5546875" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="121" width="2.5" customWidth="1"/>
     <col min="122" max="142" width="2.6640625" customWidth="1"/>
     <col min="143" max="170" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="44"/>
@@ -2850,49 +2739,53 @@
       <c r="F1" s="4"/>
       <c r="G1" s="25"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="33"/>
+      <c r="J1" s="33" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="50"/>
+        <v>12</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="123"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="121">
-        <v>44872</v>
-      </c>
-      <c r="G3" s="121"/>
+      <c r="F3" s="123">
+        <v>44851</v>
+      </c>
+      <c r="G3" s="123"/>
     </row>
-    <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="123"/>
+        <v>19</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="122"/>
       <c r="E4" s="36"/>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="J4" s="118">
         <f>J5</f>
-        <v>44872</v>
+        <v>44851</v>
       </c>
       <c r="K4" s="119"/>
       <c r="L4" s="119"/>
@@ -2902,7 +2795,7 @@
       <c r="P4" s="120"/>
       <c r="Q4" s="118">
         <f>Q5</f>
-        <v>44879</v>
+        <v>44858</v>
       </c>
       <c r="R4" s="119"/>
       <c r="S4" s="119"/>
@@ -2912,7 +2805,7 @@
       <c r="W4" s="120"/>
       <c r="X4" s="118">
         <f>X5</f>
-        <v>44886</v>
+        <v>44865</v>
       </c>
       <c r="Y4" s="119"/>
       <c r="Z4" s="119"/>
@@ -2922,7 +2815,7 @@
       <c r="AD4" s="120"/>
       <c r="AE4" s="118">
         <f>AE5</f>
-        <v>44893</v>
+        <v>44872</v>
       </c>
       <c r="AF4" s="119"/>
       <c r="AG4" s="119"/>
@@ -2932,7 +2825,7 @@
       <c r="AK4" s="120"/>
       <c r="AL4" s="118">
         <f>AL5</f>
-        <v>44900</v>
+        <v>44879</v>
       </c>
       <c r="AM4" s="119"/>
       <c r="AN4" s="119"/>
@@ -2942,7 +2835,7 @@
       <c r="AR4" s="120"/>
       <c r="AS4" s="118">
         <f>AS5</f>
-        <v>44907</v>
+        <v>44886</v>
       </c>
       <c r="AT4" s="119"/>
       <c r="AU4" s="119"/>
@@ -2952,7 +2845,7 @@
       <c r="AY4" s="120"/>
       <c r="AZ4" s="118">
         <f>AZ5</f>
-        <v>44914</v>
+        <v>44893</v>
       </c>
       <c r="BA4" s="119"/>
       <c r="BB4" s="119"/>
@@ -2962,7 +2855,7 @@
       <c r="BF4" s="120"/>
       <c r="BG4" s="118">
         <f>BG5</f>
-        <v>44921</v>
+        <v>44900</v>
       </c>
       <c r="BH4" s="119"/>
       <c r="BI4" s="119"/>
@@ -2972,7 +2865,7 @@
       <c r="BM4" s="120"/>
       <c r="BN4" s="118">
         <f>BN5</f>
-        <v>44928</v>
+        <v>44907</v>
       </c>
       <c r="BO4" s="119"/>
       <c r="BP4" s="119"/>
@@ -2982,7 +2875,7 @@
       <c r="BT4" s="120"/>
       <c r="BU4" s="118">
         <f>BU5</f>
-        <v>44935</v>
+        <v>44914</v>
       </c>
       <c r="BV4" s="119"/>
       <c r="BW4" s="119"/>
@@ -2992,7 +2885,7 @@
       <c r="CA4" s="120"/>
       <c r="CB4" s="118">
         <f>CB5</f>
-        <v>44942</v>
+        <v>44921</v>
       </c>
       <c r="CC4" s="119"/>
       <c r="CD4" s="119"/>
@@ -3002,7 +2895,7 @@
       <c r="CH4" s="120"/>
       <c r="CI4" s="118">
         <f>CI5</f>
-        <v>44949</v>
+        <v>44928</v>
       </c>
       <c r="CJ4" s="119"/>
       <c r="CK4" s="119"/>
@@ -3012,7 +2905,7 @@
       <c r="CO4" s="120"/>
       <c r="CP4" s="118">
         <f t="shared" ref="CP4" si="0">CP5</f>
-        <v>44956</v>
+        <v>44935</v>
       </c>
       <c r="CQ4" s="119"/>
       <c r="CR4" s="119"/>
@@ -3022,7 +2915,7 @@
       <c r="CV4" s="120"/>
       <c r="CW4" s="118">
         <f t="shared" ref="CW4" si="1">CW5</f>
-        <v>44963</v>
+        <v>44942</v>
       </c>
       <c r="CX4" s="119"/>
       <c r="CY4" s="119"/>
@@ -3032,7 +2925,7 @@
       <c r="DC4" s="120"/>
       <c r="DD4" s="118">
         <f t="shared" ref="DD4" si="2">DD5</f>
-        <v>44970</v>
+        <v>44949</v>
       </c>
       <c r="DE4" s="119"/>
       <c r="DF4" s="119"/>
@@ -3042,7 +2935,7 @@
       <c r="DJ4" s="120"/>
       <c r="DK4" s="118">
         <f t="shared" ref="DK4" si="3">DK5</f>
-        <v>44977</v>
+        <v>44956</v>
       </c>
       <c r="DL4" s="119"/>
       <c r="DM4" s="119"/>
@@ -3052,7 +2945,7 @@
       <c r="DQ4" s="120"/>
       <c r="DR4" s="118">
         <f t="shared" ref="DR4" si="4">DR5</f>
-        <v>44984</v>
+        <v>44963</v>
       </c>
       <c r="DS4" s="119"/>
       <c r="DT4" s="119"/>
@@ -3062,7 +2955,7 @@
       <c r="DX4" s="120"/>
       <c r="DY4" s="118">
         <f t="shared" ref="DY4" si="5">DY5</f>
-        <v>44991</v>
+        <v>44970</v>
       </c>
       <c r="DZ4" s="119"/>
       <c r="EA4" s="119"/>
@@ -3072,7 +2965,7 @@
       <c r="EE4" s="120"/>
       <c r="EF4" s="118">
         <f t="shared" ref="EF4" si="6">EF5</f>
-        <v>44998</v>
+        <v>44977</v>
       </c>
       <c r="EG4" s="119"/>
       <c r="EH4" s="119"/>
@@ -3082,7 +2975,7 @@
       <c r="EL4" s="120"/>
       <c r="EM4" s="118">
         <f t="shared" ref="EM4" si="7">EM5</f>
-        <v>45005</v>
+        <v>44984</v>
       </c>
       <c r="EN4" s="119"/>
       <c r="EO4" s="119"/>
@@ -3092,7 +2985,7 @@
       <c r="ES4" s="120"/>
       <c r="ET4" s="118">
         <f t="shared" ref="ET4" si="8">ET5</f>
-        <v>45012</v>
+        <v>44991</v>
       </c>
       <c r="EU4" s="119"/>
       <c r="EV4" s="119"/>
@@ -3102,7 +2995,7 @@
       <c r="EZ4" s="120"/>
       <c r="FA4" s="118">
         <f t="shared" ref="FA4" si="9">FA5</f>
-        <v>45019</v>
+        <v>44998</v>
       </c>
       <c r="FB4" s="119"/>
       <c r="FC4" s="119"/>
@@ -3112,7 +3005,7 @@
       <c r="FG4" s="120"/>
       <c r="FH4" s="118">
         <f t="shared" ref="FH4" si="10">FH5</f>
-        <v>45026</v>
+        <v>45005</v>
       </c>
       <c r="FI4" s="119"/>
       <c r="FJ4" s="119"/>
@@ -3121,9 +3014,9 @@
       <c r="FM4" s="119"/>
       <c r="FN4" s="120"/>
     </row>
-    <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="63"/>
       <c r="C5" s="32"/>
@@ -3134,655 +3027,655 @@
       <c r="H5" s="32"/>
       <c r="J5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44872</v>
+        <v>44851</v>
       </c>
       <c r="K5" s="9">
         <f>J5+1</f>
-        <v>44873</v>
+        <v>44852</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" ref="L5:AY5" si="11">K5+1</f>
-        <v>44874</v>
+        <v>44853</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="11"/>
-        <v>44875</v>
+        <v>44854</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="11"/>
-        <v>44876</v>
+        <v>44855</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="11"/>
-        <v>44877</v>
+        <v>44856</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" si="11"/>
-        <v>44878</v>
+        <v>44857</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44879</v>
+        <v>44858</v>
       </c>
       <c r="R5" s="9">
         <f>Q5+1</f>
-        <v>44880</v>
+        <v>44859</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="11"/>
-        <v>44881</v>
+        <v>44860</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="11"/>
-        <v>44882</v>
+        <v>44861</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="11"/>
-        <v>44883</v>
+        <v>44862</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="11"/>
-        <v>44884</v>
+        <v>44863</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="11"/>
-        <v>44885</v>
+        <v>44864</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44886</v>
+        <v>44865</v>
       </c>
       <c r="Y5" s="9">
         <f>X5+1</f>
-        <v>44887</v>
+        <v>44866</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="11"/>
-        <v>44888</v>
+        <v>44867</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="11"/>
-        <v>44889</v>
+        <v>44868</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="11"/>
-        <v>44890</v>
+        <v>44869</v>
       </c>
       <c r="AC5" s="9">
         <f t="shared" si="11"/>
-        <v>44891</v>
+        <v>44870</v>
       </c>
       <c r="AD5" s="11">
         <f t="shared" si="11"/>
-        <v>44892</v>
+        <v>44871</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44893</v>
+        <v>44872</v>
       </c>
       <c r="AF5" s="9">
         <f>AE5+1</f>
-        <v>44894</v>
+        <v>44873</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="11"/>
-        <v>44895</v>
+        <v>44874</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="11"/>
-        <v>44896</v>
+        <v>44875</v>
       </c>
       <c r="AI5" s="9">
         <f t="shared" si="11"/>
-        <v>44897</v>
+        <v>44876</v>
       </c>
       <c r="AJ5" s="9">
         <f t="shared" si="11"/>
-        <v>44898</v>
+        <v>44877</v>
       </c>
       <c r="AK5" s="11">
         <f t="shared" si="11"/>
-        <v>44899</v>
+        <v>44878</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44900</v>
+        <v>44879</v>
       </c>
       <c r="AM5" s="9">
         <f>AL5+1</f>
-        <v>44901</v>
+        <v>44880</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="11"/>
-        <v>44902</v>
+        <v>44881</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="11"/>
-        <v>44903</v>
+        <v>44882</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" si="11"/>
-        <v>44904</v>
+        <v>44883</v>
       </c>
       <c r="AQ5" s="9">
         <f t="shared" si="11"/>
-        <v>44905</v>
+        <v>44884</v>
       </c>
       <c r="AR5" s="11">
         <f t="shared" si="11"/>
-        <v>44906</v>
+        <v>44885</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44907</v>
+        <v>44886</v>
       </c>
       <c r="AT5" s="9">
         <f>AS5+1</f>
-        <v>44908</v>
+        <v>44887</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" si="11"/>
-        <v>44909</v>
+        <v>44888</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" si="11"/>
-        <v>44910</v>
+        <v>44889</v>
       </c>
       <c r="AW5" s="9">
         <f t="shared" si="11"/>
-        <v>44911</v>
+        <v>44890</v>
       </c>
       <c r="AX5" s="9">
         <f t="shared" si="11"/>
-        <v>44912</v>
+        <v>44891</v>
       </c>
       <c r="AY5" s="11">
         <f t="shared" si="11"/>
-        <v>44913</v>
+        <v>44892</v>
       </c>
       <c r="AZ5" s="10">
         <f t="shared" ref="AZ5:BM5" si="12">AY5+1</f>
-        <v>44914</v>
+        <v>44893</v>
       </c>
       <c r="BA5" s="9">
         <f t="shared" si="12"/>
-        <v>44915</v>
+        <v>44894</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" si="12"/>
-        <v>44916</v>
+        <v>44895</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" si="12"/>
-        <v>44917</v>
+        <v>44896</v>
       </c>
       <c r="BD5" s="9">
         <f t="shared" si="12"/>
-        <v>44918</v>
+        <v>44897</v>
       </c>
       <c r="BE5" s="9">
         <f t="shared" si="12"/>
-        <v>44919</v>
+        <v>44898</v>
       </c>
       <c r="BF5" s="11">
         <f t="shared" si="12"/>
-        <v>44920</v>
+        <v>44899</v>
       </c>
       <c r="BG5" s="10">
         <f t="shared" si="12"/>
-        <v>44921</v>
+        <v>44900</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" si="12"/>
-        <v>44922</v>
+        <v>44901</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" si="12"/>
-        <v>44923</v>
+        <v>44902</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" si="12"/>
-        <v>44924</v>
+        <v>44903</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" si="12"/>
-        <v>44925</v>
+        <v>44904</v>
       </c>
       <c r="BL5" s="9">
         <f t="shared" si="12"/>
-        <v>44926</v>
+        <v>44905</v>
       </c>
       <c r="BM5" s="11">
         <f t="shared" si="12"/>
-        <v>44927</v>
+        <v>44906</v>
       </c>
       <c r="BN5" s="10">
         <f t="shared" ref="BN5:BT5" si="13">BM5+1</f>
-        <v>44928</v>
+        <v>44907</v>
       </c>
       <c r="BO5" s="9">
         <f t="shared" si="13"/>
-        <v>44929</v>
+        <v>44908</v>
       </c>
       <c r="BP5" s="9">
         <f t="shared" si="13"/>
-        <v>44930</v>
+        <v>44909</v>
       </c>
       <c r="BQ5" s="9">
         <f t="shared" si="13"/>
-        <v>44931</v>
+        <v>44910</v>
       </c>
       <c r="BR5" s="9">
         <f t="shared" si="13"/>
-        <v>44932</v>
+        <v>44911</v>
       </c>
       <c r="BS5" s="9">
         <f t="shared" si="13"/>
-        <v>44933</v>
+        <v>44912</v>
       </c>
       <c r="BT5" s="11">
         <f t="shared" si="13"/>
-        <v>44934</v>
+        <v>44913</v>
       </c>
       <c r="BU5" s="10">
         <f t="shared" ref="BU5:CH5" si="14">BT5+1</f>
-        <v>44935</v>
+        <v>44914</v>
       </c>
       <c r="BV5" s="9">
         <f t="shared" si="14"/>
-        <v>44936</v>
+        <v>44915</v>
       </c>
       <c r="BW5" s="9">
         <f t="shared" si="14"/>
-        <v>44937</v>
+        <v>44916</v>
       </c>
       <c r="BX5" s="9">
         <f t="shared" si="14"/>
-        <v>44938</v>
+        <v>44917</v>
       </c>
       <c r="BY5" s="9">
         <f t="shared" si="14"/>
-        <v>44939</v>
+        <v>44918</v>
       </c>
       <c r="BZ5" s="9">
         <f t="shared" si="14"/>
-        <v>44940</v>
+        <v>44919</v>
       </c>
       <c r="CA5" s="11">
         <f t="shared" si="14"/>
-        <v>44941</v>
+        <v>44920</v>
       </c>
       <c r="CB5" s="10">
         <f t="shared" si="14"/>
-        <v>44942</v>
+        <v>44921</v>
       </c>
       <c r="CC5" s="9">
         <f t="shared" si="14"/>
-        <v>44943</v>
+        <v>44922</v>
       </c>
       <c r="CD5" s="9">
         <f t="shared" si="14"/>
-        <v>44944</v>
+        <v>44923</v>
       </c>
       <c r="CE5" s="9">
         <f t="shared" si="14"/>
-        <v>44945</v>
+        <v>44924</v>
       </c>
       <c r="CF5" s="9">
         <f t="shared" si="14"/>
-        <v>44946</v>
+        <v>44925</v>
       </c>
       <c r="CG5" s="9">
         <f t="shared" si="14"/>
-        <v>44947</v>
+        <v>44926</v>
       </c>
       <c r="CH5" s="11">
         <f t="shared" si="14"/>
-        <v>44948</v>
+        <v>44927</v>
       </c>
       <c r="CI5" s="10">
         <f t="shared" ref="CI5:CO5" si="15">CH5+1</f>
-        <v>44949</v>
+        <v>44928</v>
       </c>
       <c r="CJ5" s="9">
         <f t="shared" si="15"/>
-        <v>44950</v>
+        <v>44929</v>
       </c>
       <c r="CK5" s="9">
         <f t="shared" si="15"/>
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="CL5" s="9">
         <f t="shared" si="15"/>
-        <v>44952</v>
+        <v>44931</v>
       </c>
       <c r="CM5" s="9">
         <f t="shared" si="15"/>
-        <v>44953</v>
+        <v>44932</v>
       </c>
       <c r="CN5" s="9">
         <f t="shared" si="15"/>
-        <v>44954</v>
+        <v>44933</v>
       </c>
       <c r="CO5" s="11">
         <f t="shared" si="15"/>
-        <v>44955</v>
+        <v>44934</v>
       </c>
       <c r="CP5" s="10">
         <f t="shared" ref="CP5:DC5" si="16">CO5+1</f>
-        <v>44956</v>
+        <v>44935</v>
       </c>
       <c r="CQ5" s="9">
         <f t="shared" si="16"/>
-        <v>44957</v>
+        <v>44936</v>
       </c>
       <c r="CR5" s="9">
         <f t="shared" si="16"/>
-        <v>44958</v>
+        <v>44937</v>
       </c>
       <c r="CS5" s="9">
         <f t="shared" si="16"/>
-        <v>44959</v>
+        <v>44938</v>
       </c>
       <c r="CT5" s="9">
         <f t="shared" si="16"/>
-        <v>44960</v>
+        <v>44939</v>
       </c>
       <c r="CU5" s="9">
         <f t="shared" si="16"/>
-        <v>44961</v>
+        <v>44940</v>
       </c>
       <c r="CV5" s="11">
         <f t="shared" si="16"/>
-        <v>44962</v>
+        <v>44941</v>
       </c>
       <c r="CW5" s="10">
         <f t="shared" si="16"/>
-        <v>44963</v>
+        <v>44942</v>
       </c>
       <c r="CX5" s="9">
         <f t="shared" si="16"/>
-        <v>44964</v>
+        <v>44943</v>
       </c>
       <c r="CY5" s="9">
         <f t="shared" si="16"/>
-        <v>44965</v>
+        <v>44944</v>
       </c>
       <c r="CZ5" s="9">
         <f t="shared" si="16"/>
-        <v>44966</v>
+        <v>44945</v>
       </c>
       <c r="DA5" s="9">
         <f t="shared" si="16"/>
-        <v>44967</v>
+        <v>44946</v>
       </c>
       <c r="DB5" s="9">
         <f t="shared" si="16"/>
-        <v>44968</v>
+        <v>44947</v>
       </c>
       <c r="DC5" s="11">
         <f t="shared" si="16"/>
-        <v>44969</v>
+        <v>44948</v>
       </c>
       <c r="DD5" s="10">
         <f t="shared" ref="DD5:DJ5" si="17">DC5+1</f>
-        <v>44970</v>
+        <v>44949</v>
       </c>
       <c r="DE5" s="9">
         <f t="shared" si="17"/>
-        <v>44971</v>
+        <v>44950</v>
       </c>
       <c r="DF5" s="9">
         <f t="shared" si="17"/>
-        <v>44972</v>
+        <v>44951</v>
       </c>
       <c r="DG5" s="9">
         <f t="shared" si="17"/>
-        <v>44973</v>
+        <v>44952</v>
       </c>
       <c r="DH5" s="9">
         <f t="shared" si="17"/>
-        <v>44974</v>
+        <v>44953</v>
       </c>
       <c r="DI5" s="9">
         <f t="shared" si="17"/>
-        <v>44975</v>
+        <v>44954</v>
       </c>
       <c r="DJ5" s="11">
         <f t="shared" si="17"/>
-        <v>44976</v>
+        <v>44955</v>
       </c>
       <c r="DK5" s="10">
         <f t="shared" ref="DK5:DQ5" si="18">DJ5+1</f>
-        <v>44977</v>
+        <v>44956</v>
       </c>
       <c r="DL5" s="9">
         <f t="shared" si="18"/>
-        <v>44978</v>
+        <v>44957</v>
       </c>
       <c r="DM5" s="9">
         <f t="shared" si="18"/>
-        <v>44979</v>
+        <v>44958</v>
       </c>
       <c r="DN5" s="9">
         <f t="shared" si="18"/>
-        <v>44980</v>
+        <v>44959</v>
       </c>
       <c r="DO5" s="9">
         <f t="shared" si="18"/>
-        <v>44981</v>
+        <v>44960</v>
       </c>
       <c r="DP5" s="9">
         <f t="shared" si="18"/>
-        <v>44982</v>
+        <v>44961</v>
       </c>
       <c r="DQ5" s="11">
         <f t="shared" si="18"/>
-        <v>44983</v>
+        <v>44962</v>
       </c>
       <c r="DR5" s="10">
         <f t="shared" ref="DR5:DX5" si="19">DQ5+1</f>
-        <v>44984</v>
+        <v>44963</v>
       </c>
       <c r="DS5" s="9">
         <f t="shared" si="19"/>
-        <v>44985</v>
+        <v>44964</v>
       </c>
       <c r="DT5" s="9">
         <f t="shared" si="19"/>
-        <v>44986</v>
+        <v>44965</v>
       </c>
       <c r="DU5" s="9">
         <f t="shared" si="19"/>
-        <v>44987</v>
+        <v>44966</v>
       </c>
       <c r="DV5" s="9">
         <f t="shared" si="19"/>
-        <v>44988</v>
+        <v>44967</v>
       </c>
       <c r="DW5" s="9">
         <f t="shared" si="19"/>
-        <v>44989</v>
+        <v>44968</v>
       </c>
       <c r="DX5" s="11">
         <f t="shared" si="19"/>
-        <v>44990</v>
+        <v>44969</v>
       </c>
       <c r="DY5" s="10">
         <f t="shared" ref="DY5:EE5" si="20">DX5+1</f>
-        <v>44991</v>
+        <v>44970</v>
       </c>
       <c r="DZ5" s="9">
         <f t="shared" si="20"/>
-        <v>44992</v>
+        <v>44971</v>
       </c>
       <c r="EA5" s="9">
         <f t="shared" si="20"/>
-        <v>44993</v>
+        <v>44972</v>
       </c>
       <c r="EB5" s="9">
         <f t="shared" si="20"/>
-        <v>44994</v>
+        <v>44973</v>
       </c>
       <c r="EC5" s="9">
         <f t="shared" si="20"/>
-        <v>44995</v>
+        <v>44974</v>
       </c>
       <c r="ED5" s="9">
         <f t="shared" si="20"/>
-        <v>44996</v>
+        <v>44975</v>
       </c>
       <c r="EE5" s="11">
         <f t="shared" si="20"/>
-        <v>44997</v>
+        <v>44976</v>
       </c>
       <c r="EF5" s="10">
         <f t="shared" ref="EF5:EL5" si="21">EE5+1</f>
-        <v>44998</v>
+        <v>44977</v>
       </c>
       <c r="EG5" s="9">
         <f t="shared" si="21"/>
-        <v>44999</v>
+        <v>44978</v>
       </c>
       <c r="EH5" s="9">
         <f t="shared" si="21"/>
-        <v>45000</v>
+        <v>44979</v>
       </c>
       <c r="EI5" s="9">
         <f t="shared" si="21"/>
-        <v>45001</v>
+        <v>44980</v>
       </c>
       <c r="EJ5" s="9">
         <f t="shared" si="21"/>
-        <v>45002</v>
+        <v>44981</v>
       </c>
       <c r="EK5" s="9">
         <f t="shared" si="21"/>
-        <v>45003</v>
+        <v>44982</v>
       </c>
       <c r="EL5" s="11">
         <f t="shared" si="21"/>
-        <v>45004</v>
+        <v>44983</v>
       </c>
       <c r="EM5" s="10">
         <f t="shared" ref="EM5:ES5" si="22">EL5+1</f>
-        <v>45005</v>
+        <v>44984</v>
       </c>
       <c r="EN5" s="9">
         <f t="shared" si="22"/>
-        <v>45006</v>
+        <v>44985</v>
       </c>
       <c r="EO5" s="9">
         <f t="shared" si="22"/>
-        <v>45007</v>
+        <v>44986</v>
       </c>
       <c r="EP5" s="9">
         <f t="shared" si="22"/>
-        <v>45008</v>
+        <v>44987</v>
       </c>
       <c r="EQ5" s="9">
         <f t="shared" si="22"/>
-        <v>45009</v>
+        <v>44988</v>
       </c>
       <c r="ER5" s="9">
         <f t="shared" si="22"/>
-        <v>45010</v>
+        <v>44989</v>
       </c>
       <c r="ES5" s="11">
         <f t="shared" si="22"/>
-        <v>45011</v>
+        <v>44990</v>
       </c>
       <c r="ET5" s="10">
         <f t="shared" ref="ET5:EZ5" si="23">ES5+1</f>
-        <v>45012</v>
+        <v>44991</v>
       </c>
       <c r="EU5" s="9">
         <f t="shared" si="23"/>
-        <v>45013</v>
+        <v>44992</v>
       </c>
       <c r="EV5" s="9">
         <f t="shared" si="23"/>
-        <v>45014</v>
+        <v>44993</v>
       </c>
       <c r="EW5" s="9">
         <f t="shared" si="23"/>
-        <v>45015</v>
+        <v>44994</v>
       </c>
       <c r="EX5" s="9">
         <f t="shared" si="23"/>
-        <v>45016</v>
+        <v>44995</v>
       </c>
       <c r="EY5" s="9">
         <f t="shared" si="23"/>
-        <v>45017</v>
+        <v>44996</v>
       </c>
       <c r="EZ5" s="11">
         <f t="shared" si="23"/>
-        <v>45018</v>
+        <v>44997</v>
       </c>
       <c r="FA5" s="10">
         <f t="shared" ref="FA5:FG5" si="24">EZ5+1</f>
-        <v>45019</v>
+        <v>44998</v>
       </c>
       <c r="FB5" s="9">
         <f t="shared" si="24"/>
-        <v>45020</v>
+        <v>44999</v>
       </c>
       <c r="FC5" s="9">
         <f t="shared" si="24"/>
-        <v>45021</v>
+        <v>45000</v>
       </c>
       <c r="FD5" s="9">
         <f t="shared" si="24"/>
-        <v>45022</v>
+        <v>45001</v>
       </c>
       <c r="FE5" s="9">
         <f t="shared" si="24"/>
-        <v>45023</v>
+        <v>45002</v>
       </c>
       <c r="FF5" s="9">
         <f t="shared" si="24"/>
-        <v>45024</v>
+        <v>45003</v>
       </c>
       <c r="FG5" s="11">
         <f t="shared" si="24"/>
-        <v>45025</v>
+        <v>45004</v>
       </c>
       <c r="FH5" s="10">
         <f t="shared" ref="FH5:FN5" si="25">FG5+1</f>
-        <v>45026</v>
+        <v>45005</v>
       </c>
       <c r="FI5" s="9">
         <f t="shared" si="25"/>
-        <v>45027</v>
+        <v>45006</v>
       </c>
       <c r="FJ5" s="9">
         <f t="shared" si="25"/>
-        <v>45028</v>
+        <v>45007</v>
       </c>
       <c r="FK5" s="9">
         <f t="shared" si="25"/>
-        <v>45029</v>
+        <v>45008</v>
       </c>
       <c r="FL5" s="9">
         <f t="shared" si="25"/>
-        <v>45030</v>
+        <v>45009</v>
       </c>
       <c r="FM5" s="9">
         <f t="shared" si="25"/>
-        <v>45031</v>
+        <v>45010</v>
       </c>
       <c r="FN5" s="11">
         <f t="shared" si="25"/>
-        <v>45032</v>
+        <v>45011</v>
       </c>
     </row>
-    <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>3</v>
@@ -3791,17 +3684,17 @@
         <v>2</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>LEFT(TEXT(J5,"ddd"),1)</f>
@@ -4448,9 +4341,9 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" s="29"/>
       <c r="F7"/>
@@ -4620,9 +4513,9 @@
       <c r="FM7" s="22"/>
       <c r="FN7" s="22"/>
     </row>
-    <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="91" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="93"/>
@@ -4791,17 +4684,17 @@
       <c r="FM8" s="22"/>
       <c r="FN8" s="22"/>
     </row>
-    <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="47"/>
       <c r="E9" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -4972,15 +4865,15 @@
       <c r="FM9" s="22"/>
       <c r="FN9" s="22"/>
     </row>
-    <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D10" s="48">
         <v>0</v>
@@ -4988,11 +4881,11 @@
       <c r="E10" s="40"/>
       <c r="F10" s="75">
         <f>Project_Start</f>
-        <v>44872</v>
+        <v>44851</v>
       </c>
       <c r="G10" s="75">
         <f t="shared" ref="G10:G15" si="43">F10</f>
-        <v>44872</v>
+        <v>44851</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15">
@@ -5161,15 +5054,15 @@
       <c r="FM10" s="22"/>
       <c r="FN10" s="22"/>
     </row>
-    <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D11" s="48">
         <v>0</v>
@@ -5177,11 +5070,11 @@
       <c r="E11" s="41"/>
       <c r="F11" s="75">
         <f>G10</f>
-        <v>44872</v>
+        <v>44851</v>
       </c>
       <c r="G11" s="75">
         <f t="shared" si="43"/>
-        <v>44872</v>
+        <v>44851</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15">
@@ -5350,25 +5243,25 @@
       <c r="FM11" s="22"/>
       <c r="FN11" s="22"/>
     </row>
-    <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="97" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D12" s="48">
         <v>0</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="75">
-        <f>G11</f>
-        <v>44872</v>
+        <f>G11 + 1</f>
+        <v>44852</v>
       </c>
       <c r="G12" s="75">
         <f t="shared" si="43"/>
-        <v>44872</v>
+        <v>44852</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15">
@@ -5537,13 +5430,13 @@
       <c r="FM12" s="22"/>
       <c r="FN12" s="22"/>
     </row>
-    <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="97" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D13" s="48">
         <v>0</v>
@@ -5551,11 +5444,11 @@
       <c r="E13" s="41"/>
       <c r="F13" s="75">
         <f>G12 + 1</f>
-        <v>44873</v>
+        <v>44853</v>
       </c>
       <c r="G13" s="75">
         <f t="shared" si="43"/>
-        <v>44873</v>
+        <v>44853</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -5721,13 +5614,13 @@
       <c r="FM13" s="22"/>
       <c r="FN13" s="22"/>
     </row>
-    <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="97" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D14" s="48">
         <v>0</v>
@@ -5735,11 +5628,11 @@
       <c r="E14" s="41"/>
       <c r="F14" s="75">
         <f>G13 + 1</f>
-        <v>44874</v>
+        <v>44854</v>
       </c>
       <c r="G14" s="75">
-        <f>F14 + 1</f>
-        <v>44875</v>
+        <f t="shared" si="43"/>
+        <v>44854</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -5905,13 +5798,13 @@
       <c r="FM14" s="22"/>
       <c r="FN14" s="22"/>
     </row>
-    <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="97" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D15" s="48">
         <v>0</v>
@@ -5919,11 +5812,11 @@
       <c r="E15" s="41"/>
       <c r="F15" s="75">
         <f>G14 + 1</f>
-        <v>44876</v>
+        <v>44855</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" si="43"/>
-        <v>44876</v>
+        <v>44855</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -6089,13 +5982,13 @@
       <c r="FM15" s="22"/>
       <c r="FN15" s="22"/>
     </row>
-    <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="97" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D16" s="48">
         <v>0</v>
@@ -6103,11 +5996,11 @@
       <c r="E16" s="41"/>
       <c r="F16" s="75">
         <f>F13</f>
-        <v>44873</v>
+        <v>44853</v>
       </c>
       <c r="G16" s="75">
-        <f>F16</f>
-        <v>44873</v>
+        <f>F16 + 1</f>
+        <v>44854</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -6273,13 +6166,13 @@
       <c r="FM16" s="22"/>
       <c r="FN16" s="22"/>
     </row>
-    <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="97" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D17" s="48">
         <v>0</v>
@@ -6287,11 +6180,11 @@
       <c r="E17" s="41"/>
       <c r="F17" s="75">
         <f>G16 + 1</f>
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="G17" s="75">
-        <f>F17</f>
-        <v>44874</v>
+        <f>F17 + 1</f>
+        <v>44856</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -6457,25 +6350,25 @@
       <c r="FM17" s="22"/>
       <c r="FN17" s="22"/>
     </row>
-    <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="97" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D18" s="48">
         <v>0</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="75">
-        <f>G17 + 3</f>
-        <v>44877</v>
+        <f>G17 + 2</f>
+        <v>44858</v>
       </c>
       <c r="G18" s="75">
         <f>F18</f>
-        <v>44877</v>
+        <v>44858</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -6641,25 +6534,25 @@
       <c r="FM18" s="22"/>
       <c r="FN18" s="22"/>
     </row>
-    <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="97" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D19" s="48">
         <v>0</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="75">
-        <f>F12 + 1</f>
-        <v>44873</v>
+        <f>F12</f>
+        <v>44852</v>
       </c>
       <c r="G19" s="75">
-        <f>F19</f>
-        <v>44873</v>
+        <f>F19 + 1</f>
+        <v>44853</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -6825,12 +6718,12 @@
       <c r="FM19" s="22"/>
       <c r="FN19" s="22"/>
     </row>
-    <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="47"/>
@@ -7006,25 +6899,25 @@
       <c r="FM20" s="22"/>
       <c r="FN20" s="22"/>
     </row>
-    <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="97" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D21" s="48">
         <v>0</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="75">
-        <f>F18 +  2</f>
-        <v>44879</v>
+        <f>F18 + 1</f>
+        <v>44859</v>
       </c>
       <c r="G21" s="75">
         <f t="shared" ref="G21:G25" si="44">F21</f>
-        <v>44879</v>
+        <v>44859</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15">
@@ -7193,13 +7086,13 @@
       <c r="FM21" s="22"/>
       <c r="FN21" s="22"/>
     </row>
-    <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="97" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -7207,11 +7100,11 @@
       <c r="E22" s="41"/>
       <c r="F22" s="75">
         <f>G21 + 1</f>
-        <v>44880</v>
+        <v>44860</v>
       </c>
       <c r="G22" s="75">
         <f t="shared" si="44"/>
-        <v>44880</v>
+        <v>44860</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15">
@@ -7380,25 +7273,25 @@
       <c r="FM22" s="22"/>
       <c r="FN22" s="22"/>
     </row>
-    <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="97" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D23" s="48">
         <v>0</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="75">
-        <f>G22</f>
-        <v>44880</v>
+        <f>G22 + 1</f>
+        <v>44861</v>
       </c>
       <c r="G23" s="75">
         <f t="shared" si="44"/>
-        <v>44880</v>
+        <v>44861</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15">
@@ -7567,13 +7460,13 @@
       <c r="FM23" s="22"/>
       <c r="FN23" s="22"/>
     </row>
-    <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="97" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -7581,11 +7474,11 @@
       <c r="E24" s="41"/>
       <c r="F24" s="75">
         <f>G23 + 1</f>
-        <v>44881</v>
+        <v>44862</v>
       </c>
       <c r="G24" s="75">
         <f t="shared" si="44"/>
-        <v>44881</v>
+        <v>44862</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -7751,25 +7644,25 @@
       <c r="FM24" s="22"/>
       <c r="FN24" s="22"/>
     </row>
-    <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="97" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D25" s="48">
         <v>0</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="75">
-        <f>G23</f>
-        <v>44880</v>
+        <f>G24 + 1</f>
+        <v>44863</v>
       </c>
       <c r="G25" s="75">
         <f t="shared" si="44"/>
-        <v>44880</v>
+        <v>44863</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -7935,15 +7828,15 @@
       <c r="FM25" s="22"/>
       <c r="FN25" s="22"/>
     </row>
-    <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="65" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="47"/>
       <c r="E26" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
@@ -8111,24 +8004,16 @@
       <c r="FM26" s="22"/>
       <c r="FN26" s="22"/>
     </row>
-    <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>38</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C27" s="31"/>
       <c r="D27" s="48"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="75">
-        <f>G25 + 2</f>
-        <v>44882</v>
-      </c>
-      <c r="G27" s="75">
-        <f t="shared" ref="G27:G33" si="45">F27</f>
-        <v>44882</v>
-      </c>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="22"/>
@@ -8293,26 +8178,18 @@
       <c r="FM27" s="22"/>
       <c r="FN27" s="22"/>
     </row>
-    <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>37</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C28" s="31"/>
       <c r="D28" s="48"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="75">
-        <f>G27 + 1</f>
-        <v>44883</v>
-      </c>
-      <c r="G28" s="75">
-        <f t="shared" si="45"/>
-        <v>44883</v>
-      </c>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="22"/>
@@ -8477,24 +8354,16 @@
       <c r="FM28" s="22"/>
       <c r="FN28" s="22"/>
     </row>
-    <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>37</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C29" s="31"/>
       <c r="D29" s="48"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="75">
-        <f>G28</f>
-        <v>44883</v>
-      </c>
-      <c r="G29" s="75">
-        <f t="shared" si="45"/>
-        <v>44883</v>
-      </c>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="22"/>
@@ -8659,24 +8528,16 @@
       <c r="FM29" s="22"/>
       <c r="FN29" s="22"/>
     </row>
-    <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>39</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C30" s="31"/>
       <c r="D30" s="48"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="75">
-        <f>G29</f>
-        <v>44883</v>
-      </c>
-      <c r="G30" s="75">
-        <f t="shared" si="45"/>
-        <v>44883</v>
-      </c>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="22"/>
@@ -8841,24 +8702,16 @@
       <c r="FM30" s="22"/>
       <c r="FN30" s="22"/>
     </row>
-    <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>39</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C31" s="31"/>
       <c r="D31" s="48"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="75">
-        <f>G30</f>
-        <v>44883</v>
-      </c>
-      <c r="G31" s="75">
-        <f t="shared" si="45"/>
-        <v>44883</v>
-      </c>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="22"/>
@@ -9023,24 +8876,16 @@
       <c r="FM31" s="22"/>
       <c r="FN31" s="22"/>
     </row>
-    <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>39</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C32" s="31"/>
       <c r="D32" s="48"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="75">
-        <f>G31 + 1</f>
-        <v>44884</v>
-      </c>
-      <c r="G32" s="75">
-        <f t="shared" si="45"/>
-        <v>44884</v>
-      </c>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="22"/>
@@ -9205,24 +9050,16 @@
       <c r="FM32" s="22"/>
       <c r="FN32" s="22"/>
     </row>
-    <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>38</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C33" s="31"/>
       <c r="D33" s="48"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="75">
-        <f>G31</f>
-        <v>44883</v>
-      </c>
-      <c r="G33" s="75">
-        <f t="shared" si="45"/>
-        <v>44883</v>
-      </c>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="22"/>
@@ -9387,10 +9224,10 @@
       <c r="FM33" s="22"/>
       <c r="FN33" s="22"/>
     </row>
-    <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="86" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="C34" s="87"/>
       <c r="D34" s="88"/>
@@ -9561,17 +9398,17 @@
       <c r="FM34" s="22"/>
       <c r="FN34" s="22"/>
     </row>
-    <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="47"/>
       <c r="E35" s="39">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
@@ -9742,25 +9579,25 @@
       <c r="FM35" s="22"/>
       <c r="FN35" s="22"/>
     </row>
-    <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="97" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D36" s="48">
         <v>0</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="75">
-        <f>G33 + 3</f>
-        <v>44886</v>
+        <f>G23 + 4</f>
+        <v>44865</v>
       </c>
       <c r="G36" s="75">
-        <f t="shared" ref="G36:G44" si="46">F36</f>
-        <v>44886</v>
+        <f>F36</f>
+        <v>44865</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15">
@@ -9929,13 +9766,13 @@
       <c r="FM36" s="22"/>
       <c r="FN36" s="22"/>
     </row>
-    <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="97" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D37" s="48">
         <v>0</v>
@@ -9943,11 +9780,11 @@
       <c r="E37" s="41"/>
       <c r="F37" s="75">
         <f>G36</f>
-        <v>44886</v>
+        <v>44865</v>
       </c>
       <c r="G37" s="75">
-        <f t="shared" si="46"/>
-        <v>44886</v>
+        <f>F37</f>
+        <v>44865</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15">
@@ -10116,25 +9953,25 @@
       <c r="FM37" s="22"/>
       <c r="FN37" s="22"/>
     </row>
-    <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="97" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D38" s="48">
         <v>0</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="75">
-        <f>G36 + 1</f>
-        <v>44887</v>
+        <f>G36</f>
+        <v>44865</v>
       </c>
       <c r="G38" s="75">
-        <f t="shared" si="46"/>
-        <v>44887</v>
+        <f>F38</f>
+        <v>44865</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15">
@@ -10303,25 +10140,25 @@
       <c r="FM38" s="22"/>
       <c r="FN38" s="22"/>
     </row>
-    <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="97" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D39" s="48">
         <v>0</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="75">
-        <f>G38</f>
-        <v>44887</v>
+        <f>G38 + 1</f>
+        <v>44866</v>
       </c>
       <c r="G39" s="75">
-        <f t="shared" si="46"/>
-        <v>44887</v>
+        <f>F39</f>
+        <v>44866</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -10487,13 +10324,13 @@
       <c r="FM39" s="22"/>
       <c r="FN39" s="22"/>
     </row>
-    <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="97" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D40" s="48">
         <v>0</v>
@@ -10501,11 +10338,11 @@
       <c r="E40" s="41"/>
       <c r="F40" s="75">
         <f>G39 + 1</f>
-        <v>44888</v>
+        <v>44867</v>
       </c>
       <c r="G40" s="75">
-        <f t="shared" si="46"/>
-        <v>44888</v>
+        <f>F40 + 1</f>
+        <v>44868</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -10671,25 +10508,25 @@
       <c r="FM40" s="22"/>
       <c r="FN40" s="22"/>
     </row>
-    <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="97" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D41" s="48">
         <v>0</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="75">
-        <f>G39</f>
-        <v>44887</v>
+        <f>G40 + 1</f>
+        <v>44869</v>
       </c>
       <c r="G41" s="75">
-        <f t="shared" si="46"/>
-        <v>44887</v>
+        <f>F41</f>
+        <v>44869</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
@@ -10855,25 +10692,25 @@
       <c r="FM41" s="22"/>
       <c r="FN41" s="22"/>
     </row>
-    <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="97" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D42" s="48">
         <v>0</v>
       </c>
       <c r="E42" s="41"/>
-      <c r="F42" s="75">
-        <f>G39</f>
-        <v>44887</v>
-      </c>
-      <c r="G42" s="75">
-        <f t="shared" si="46"/>
-        <v>44887</v>
+      <c r="F42" s="75" t="e">
+        <f>#REF! + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G42" s="75" t="e">
+        <f>F42 + 1</f>
+        <v>#REF!</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -11039,25 +10876,25 @@
       <c r="FM42" s="22"/>
       <c r="FN42" s="22"/>
     </row>
-    <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="97" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D43" s="48">
         <v>0</v>
       </c>
       <c r="E43" s="41"/>
-      <c r="F43" s="75">
-        <f>G42 + 2</f>
-        <v>44889</v>
-      </c>
-      <c r="G43" s="75">
-        <f t="shared" si="46"/>
-        <v>44889</v>
+      <c r="F43" s="75" t="e">
+        <f>G42 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G43" s="75" t="e">
+        <f>F43</f>
+        <v>#REF!</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
@@ -11223,25 +11060,25 @@
       <c r="FM43" s="22"/>
       <c r="FN43" s="22"/>
     </row>
-    <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="97" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D44" s="48">
         <v>0</v>
       </c>
       <c r="E44" s="41"/>
-      <c r="F44" s="75">
-        <f>G42</f>
-        <v>44887</v>
-      </c>
-      <c r="G44" s="75">
-        <f t="shared" si="46"/>
-        <v>44887</v>
+      <c r="F44" s="75" t="e">
+        <f>#REF! + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G44" s="75" t="e">
+        <f>F44 + 1</f>
+        <v>#REF!</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -11407,17 +11244,17 @@
       <c r="FM44" s="22"/>
       <c r="FN44" s="22"/>
     </row>
-    <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="47"/>
       <c r="E45" s="39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="17"/>
@@ -11588,30 +11425,30 @@
       <c r="FM45" s="22"/>
       <c r="FN45" s="22"/>
     </row>
-    <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="97" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D46" s="48">
         <v>0</v>
       </c>
       <c r="E46" s="41"/>
-      <c r="F46" s="75">
-        <f>G43 + 1</f>
-        <v>44890</v>
-      </c>
-      <c r="G46" s="75">
-        <f t="shared" ref="G46:G52" si="47">F46</f>
-        <v>44890</v>
+      <c r="F46" s="75" t="e">
+        <f>G43 + 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G46" s="75" t="e">
+        <f>F46</f>
+        <v>#REF!</v>
       </c>
       <c r="H46" s="15"/>
-      <c r="I46" s="15">
+      <c r="I46" s="15" t="e">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
@@ -11775,30 +11612,30 @@
       <c r="FM46" s="22"/>
       <c r="FN46" s="22"/>
     </row>
-    <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="97" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D47" s="48">
         <v>0</v>
       </c>
       <c r="E47" s="41"/>
-      <c r="F47" s="75">
-        <f>G46 + 1</f>
-        <v>44891</v>
-      </c>
-      <c r="G47" s="75">
-        <f t="shared" si="47"/>
-        <v>44891</v>
+      <c r="F47" s="75" t="e">
+        <f>G46</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G47" s="75" t="e">
+        <f>G46</f>
+        <v>#REF!</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="15">
+      <c r="I47" s="15" t="e">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
@@ -11962,30 +11799,30 @@
       <c r="FM47" s="22"/>
       <c r="FN47" s="22"/>
     </row>
-    <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="97" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D48" s="48">
         <v>0</v>
       </c>
       <c r="E48" s="41"/>
-      <c r="F48" s="75">
+      <c r="F48" s="75" t="e">
         <f>G46 + 1</f>
-        <v>44891</v>
-      </c>
-      <c r="G48" s="75">
-        <f t="shared" si="47"/>
-        <v>44891</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G48" s="75" t="e">
+        <f>F48</f>
+        <v>#REF!</v>
       </c>
       <c r="H48" s="15"/>
-      <c r="I48" s="15">
+      <c r="I48" s="15" t="e">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
@@ -12149,25 +11986,25 @@
       <c r="FM48" s="22"/>
       <c r="FN48" s="22"/>
     </row>
-    <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="97" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D49" s="48">
         <v>0</v>
       </c>
       <c r="E49" s="41"/>
-      <c r="F49" s="75">
+      <c r="F49" s="75" t="e">
         <f>G48</f>
-        <v>44891</v>
-      </c>
-      <c r="G49" s="75">
-        <f t="shared" si="47"/>
-        <v>44891</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G49" s="75" t="e">
+        <f>F49 + 1</f>
+        <v>#REF!</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
@@ -12333,25 +12170,25 @@
       <c r="FM49" s="22"/>
       <c r="FN49" s="22"/>
     </row>
-    <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="97" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D50" s="48">
         <v>0</v>
       </c>
       <c r="E50" s="41"/>
-      <c r="F50" s="75">
-        <f>G49</f>
-        <v>44891</v>
-      </c>
-      <c r="G50" s="75">
-        <f t="shared" si="47"/>
-        <v>44891</v>
+      <c r="F50" s="75" t="e">
+        <f>G49 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G50" s="75" t="e">
+        <f>F50</f>
+        <v>#REF!</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -12517,25 +12354,25 @@
       <c r="FM50" s="22"/>
       <c r="FN50" s="22"/>
     </row>
-    <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="97" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D51" s="48">
         <v>0</v>
       </c>
       <c r="E51" s="41"/>
-      <c r="F51" s="75">
-        <f>F49 + 2</f>
-        <v>44893</v>
-      </c>
-      <c r="G51" s="75">
-        <f t="shared" si="47"/>
-        <v>44893</v>
+      <c r="F51" s="75" t="e">
+        <f>F49</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G51" s="75" t="e">
+        <f>F51 + 1</f>
+        <v>#REF!</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -12701,25 +12538,25 @@
       <c r="FM51" s="22"/>
       <c r="FN51" s="22"/>
     </row>
-    <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="97" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D52" s="48">
         <v>0</v>
       </c>
       <c r="E52" s="41"/>
-      <c r="F52" s="75">
-        <f>G48</f>
-        <v>44891</v>
-      </c>
-      <c r="G52" s="75">
-        <f t="shared" si="47"/>
-        <v>44891</v>
+      <c r="F52" s="75" t="e">
+        <f>G51 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G52" s="75" t="e">
+        <f>F52 + 1</f>
+        <v>#REF!</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -12885,15 +12722,15 @@
       <c r="FM52" s="22"/>
       <c r="FN52" s="22"/>
     </row>
-    <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="65" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="47"/>
       <c r="E53" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="17"/>
@@ -13061,24 +12898,16 @@
       <c r="FM53" s="22"/>
       <c r="FN53" s="22"/>
     </row>
-    <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>38</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C54" s="31"/>
       <c r="D54" s="48"/>
       <c r="E54" s="41"/>
-      <c r="F54" s="75">
-        <f>G52 + 3</f>
-        <v>44894</v>
-      </c>
-      <c r="G54" s="75">
-        <f t="shared" ref="G54:G60" si="48">F54</f>
-        <v>44894</v>
-      </c>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="22"/>
@@ -13243,24 +13072,16 @@
       <c r="FM54" s="22"/>
       <c r="FN54" s="22"/>
     </row>
-    <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>37</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C55" s="31"/>
       <c r="D55" s="48"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="75">
-        <f>G54 + 1</f>
-        <v>44895</v>
-      </c>
-      <c r="G55" s="75">
-        <f t="shared" si="48"/>
-        <v>44895</v>
-      </c>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="22"/>
@@ -13425,24 +13246,16 @@
       <c r="FM55" s="22"/>
       <c r="FN55" s="22"/>
     </row>
-    <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>37</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C56" s="31"/>
       <c r="D56" s="48"/>
       <c r="E56" s="41"/>
-      <c r="F56" s="75">
-        <f>G55</f>
-        <v>44895</v>
-      </c>
-      <c r="G56" s="75">
-        <f t="shared" si="48"/>
-        <v>44895</v>
-      </c>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="22"/>
@@ -13607,24 +13420,16 @@
       <c r="FM56" s="22"/>
       <c r="FN56" s="22"/>
     </row>
-    <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>39</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C57" s="31"/>
       <c r="D57" s="48"/>
       <c r="E57" s="41"/>
-      <c r="F57" s="75">
-        <f>G56</f>
-        <v>44895</v>
-      </c>
-      <c r="G57" s="75">
-        <f t="shared" si="48"/>
-        <v>44895</v>
-      </c>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="22"/>
@@ -13789,24 +13594,16 @@
       <c r="FM57" s="22"/>
       <c r="FN57" s="22"/>
     </row>
-    <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>39</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C58" s="31"/>
       <c r="D58" s="48"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="75">
-        <f>G57</f>
-        <v>44895</v>
-      </c>
-      <c r="G58" s="75">
-        <f t="shared" si="48"/>
-        <v>44895</v>
-      </c>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="22"/>
@@ -13971,24 +13768,16 @@
       <c r="FM58" s="22"/>
       <c r="FN58" s="22"/>
     </row>
-    <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>39</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C59" s="31"/>
       <c r="D59" s="48"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="75">
-        <f>G58 + 1</f>
-        <v>44896</v>
-      </c>
-      <c r="G59" s="75">
-        <f t="shared" si="48"/>
-        <v>44896</v>
-      </c>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="22"/>
@@ -14153,24 +13942,16 @@
       <c r="FM59" s="22"/>
       <c r="FN59" s="22"/>
     </row>
-    <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
       <c r="B60" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>38</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C60" s="31"/>
       <c r="D60" s="48"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="75">
-        <f>G58</f>
-        <v>44895</v>
-      </c>
-      <c r="G60" s="75">
-        <f t="shared" si="48"/>
-        <v>44895</v>
-      </c>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="22"/>
@@ -14335,15 +14116,15 @@
       <c r="FM60" s="22"/>
       <c r="FN60" s="22"/>
     </row>
-    <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="65" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="47"/>
       <c r="E61" s="39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="17"/>
@@ -14511,24 +14292,16 @@
       <c r="FM61" s="22"/>
       <c r="FN61" s="22"/>
     </row>
-    <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
       <c r="B62" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>38</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C62" s="31"/>
       <c r="D62" s="48"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="75">
-        <f>G60  + 2</f>
-        <v>44897</v>
-      </c>
-      <c r="G62" s="75">
-        <f>F62</f>
-        <v>44897</v>
-      </c>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="22"/>
@@ -14693,24 +14466,16 @@
       <c r="FM62" s="22"/>
       <c r="FN62" s="22"/>
     </row>
-    <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>37</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C63" s="31"/>
       <c r="D63" s="48"/>
       <c r="E63" s="41"/>
-      <c r="F63" s="75">
-        <f>G62 + 1</f>
-        <v>44898</v>
-      </c>
-      <c r="G63" s="75">
-        <f>F63</f>
-        <v>44898</v>
-      </c>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="22"/>
@@ -14875,24 +14640,16 @@
       <c r="FM63" s="22"/>
       <c r="FN63" s="22"/>
     </row>
-    <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>37</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C64" s="31"/>
       <c r="D64" s="48"/>
       <c r="E64" s="41"/>
-      <c r="F64" s="75">
-        <f>G63</f>
-        <v>44898</v>
-      </c>
-      <c r="G64" s="75">
-        <f>F64</f>
-        <v>44898</v>
-      </c>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="22"/>
@@ -15057,24 +14814,16 @@
       <c r="FM64" s="22"/>
       <c r="FN64" s="22"/>
     </row>
-    <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
       <c r="B65" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>39</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C65" s="31"/>
       <c r="D65" s="48"/>
       <c r="E65" s="41"/>
-      <c r="F65" s="75">
-        <f>G64</f>
-        <v>44898</v>
-      </c>
-      <c r="G65" s="75">
-        <f>F65</f>
-        <v>44898</v>
-      </c>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="22"/>
@@ -15239,24 +14988,16 @@
       <c r="FM65" s="22"/>
       <c r="FN65" s="22"/>
     </row>
-    <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>38</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C66" s="31"/>
       <c r="D66" s="48"/>
       <c r="E66" s="41"/>
-      <c r="F66" s="75">
-        <f>G65</f>
-        <v>44898</v>
-      </c>
-      <c r="G66" s="75">
-        <f>F66</f>
-        <v>44898</v>
-      </c>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="22"/>
@@ -15421,10 +15162,10 @@
       <c r="FM66" s="22"/>
       <c r="FN66" s="22"/>
     </row>
-    <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
       <c r="B67" s="86" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C67" s="87"/>
       <c r="D67" s="88"/>
@@ -15595,12 +15336,12 @@
       <c r="FM67" s="22"/>
       <c r="FN67" s="22"/>
     </row>
-    <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="76"/>
@@ -15776,25 +15517,25 @@
       <c r="FM68" s="22"/>
       <c r="FN68" s="22"/>
     </row>
-    <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="66" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D69" s="56">
         <v>0</v>
       </c>
       <c r="E69" s="57"/>
-      <c r="F69" s="58">
-        <f>G66 + 2</f>
-        <v>44900</v>
-      </c>
-      <c r="G69" s="58">
+      <c r="F69" s="58" t="e">
+        <f>#REF! + 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G69" s="58" t="e">
         <f>F69</f>
-        <v>44900</v>
+        <v>#REF!</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
@@ -15960,25 +15701,25 @@
       <c r="FM69" s="22"/>
       <c r="FN69" s="22"/>
     </row>
-    <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
       <c r="B70" s="66" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D70" s="56">
         <v>0</v>
       </c>
       <c r="E70" s="57"/>
-      <c r="F70" s="58">
+      <c r="F70" s="58" t="e">
         <f>G69</f>
-        <v>44900</v>
-      </c>
-      <c r="G70" s="58">
+        <v>#REF!</v>
+      </c>
+      <c r="G70" s="58" t="e">
         <f>G69</f>
-        <v>44900</v>
+        <v>#REF!</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
@@ -16144,25 +15885,25 @@
       <c r="FM70" s="22"/>
       <c r="FN70" s="22"/>
     </row>
-    <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="66" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D71" s="56">
         <v>0</v>
       </c>
       <c r="E71" s="57"/>
-      <c r="F71" s="58">
+      <c r="F71" s="58" t="e">
         <f>G69 + 1</f>
-        <v>44901</v>
-      </c>
-      <c r="G71" s="58">
-        <f t="shared" ref="G71:G77" si="49">F71</f>
-        <v>44901</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G71" s="58" t="e">
+        <f t="shared" ref="G71:G77" si="45">F71</f>
+        <v>#REF!</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
@@ -16328,24 +16069,16 @@
       <c r="FM71" s="22"/>
       <c r="FN71" s="22"/>
     </row>
-    <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
       <c r="B72" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="55" t="s">
-        <v>37</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C72" s="55"/>
       <c r="D72" s="56"/>
       <c r="E72" s="57"/>
-      <c r="F72" s="58">
-        <f>G71</f>
-        <v>44901</v>
-      </c>
-      <c r="G72" s="58">
-        <f>F72</f>
-        <v>44901</v>
-      </c>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="22"/>
@@ -16510,25 +16243,25 @@
       <c r="FM72" s="22"/>
       <c r="FN72" s="22"/>
     </row>
-    <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="66" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D73" s="56">
         <v>0</v>
       </c>
       <c r="E73" s="57"/>
-      <c r="F73" s="58">
-        <f>G71 + 1</f>
-        <v>44902</v>
-      </c>
-      <c r="G73" s="58">
-        <f t="shared" si="49"/>
-        <v>44902</v>
+      <c r="F73" s="58" t="e">
+        <f>G71</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G73" s="58" t="e">
+        <f t="shared" si="45"/>
+        <v>#REF!</v>
       </c>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
@@ -16694,25 +16427,25 @@
       <c r="FM73" s="22"/>
       <c r="FN73" s="22"/>
     </row>
-    <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="66" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D74" s="56">
         <v>0</v>
       </c>
       <c r="E74" s="57"/>
-      <c r="F74" s="58">
-        <f>G72</f>
-        <v>44901</v>
-      </c>
-      <c r="G74" s="58">
-        <f t="shared" si="49"/>
-        <v>44901</v>
+      <c r="F74" s="58" t="e">
+        <f>G73 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G74" s="58" t="e">
+        <f t="shared" si="45"/>
+        <v>#REF!</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
@@ -16878,25 +16611,25 @@
       <c r="FM74" s="22"/>
       <c r="FN74" s="22"/>
     </row>
-    <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26"/>
       <c r="B75" s="66" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D75" s="56">
         <v>0</v>
       </c>
       <c r="E75" s="57"/>
-      <c r="F75" s="58">
-        <f>G74</f>
-        <v>44901</v>
-      </c>
-      <c r="G75" s="58">
-        <f t="shared" si="49"/>
-        <v>44901</v>
+      <c r="F75" s="58" t="e">
+        <f>F73</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G75" s="58" t="e">
+        <f t="shared" si="45"/>
+        <v>#REF!</v>
       </c>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
@@ -17062,25 +16795,25 @@
       <c r="FM75" s="22"/>
       <c r="FN75" s="22"/>
     </row>
-    <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="66" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C76" s="55" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D76" s="56">
         <v>0</v>
       </c>
       <c r="E76" s="57"/>
-      <c r="F76" s="58">
-        <f>G75 + 2</f>
-        <v>44903</v>
-      </c>
-      <c r="G76" s="58">
-        <f t="shared" si="49"/>
-        <v>44903</v>
+      <c r="F76" s="58" t="e">
+        <f>G75 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G76" s="58" t="e">
+        <f t="shared" si="45"/>
+        <v>#REF!</v>
       </c>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
@@ -17246,25 +16979,25 @@
       <c r="FM76" s="22"/>
       <c r="FN76" s="22"/>
     </row>
-    <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="66" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D77" s="56">
         <v>0</v>
       </c>
       <c r="E77" s="57"/>
-      <c r="F77" s="58">
-        <f>G72</f>
-        <v>44901</v>
-      </c>
-      <c r="G77" s="58">
-        <f t="shared" si="49"/>
-        <v>44901</v>
+      <c r="F77" s="58" t="e">
+        <f>G76 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G77" s="58" t="e">
+        <f t="shared" si="45"/>
+        <v>#REF!</v>
       </c>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
@@ -17430,15 +17163,15 @@
       <c r="FM77" s="22"/>
       <c r="FN77" s="22"/>
     </row>
-    <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="65" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="53"/>
       <c r="E78" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F78" s="52"/>
       <c r="G78" s="52"/>
@@ -17606,25 +17339,25 @@
       <c r="FM78" s="22"/>
       <c r="FN78" s="22"/>
     </row>
-    <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26"/>
       <c r="B79" s="66" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D79" s="56">
         <v>0</v>
       </c>
       <c r="E79" s="57"/>
-      <c r="F79" s="58">
+      <c r="F79" s="58" t="e">
         <f>G71 + 3</f>
-        <v>44904</v>
-      </c>
-      <c r="G79" s="58">
-        <f t="shared" ref="G79:G85" si="50">F79</f>
-        <v>44904</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G79" s="58" t="e">
+        <f t="shared" ref="G79:G85" si="46">F79</f>
+        <v>#REF!</v>
       </c>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
@@ -17790,25 +17523,25 @@
       <c r="FM79" s="22"/>
       <c r="FN79" s="22"/>
     </row>
-    <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="66" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D80" s="56">
         <v>0</v>
       </c>
       <c r="E80" s="57"/>
-      <c r="F80" s="58">
-        <f>G79 + 1</f>
-        <v>44905</v>
-      </c>
-      <c r="G80" s="58">
-        <f t="shared" si="50"/>
-        <v>44905</v>
+      <c r="F80" s="58" t="e">
+        <f>G79</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G80" s="58" t="e">
+        <f t="shared" si="46"/>
+        <v>#REF!</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
@@ -17974,25 +17707,25 @@
       <c r="FM80" s="22"/>
       <c r="FN80" s="22"/>
     </row>
-    <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="66" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D81" s="56">
         <v>0</v>
       </c>
       <c r="E81" s="57"/>
-      <c r="F81" s="58">
+      <c r="F81" s="58" t="e">
         <f>G79 + 1</f>
-        <v>44905</v>
-      </c>
-      <c r="G81" s="58">
-        <f t="shared" si="50"/>
-        <v>44905</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G81" s="58" t="e">
+        <f t="shared" si="46"/>
+        <v>#REF!</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
@@ -18158,25 +17891,25 @@
       <c r="FM81" s="22"/>
       <c r="FN81" s="22"/>
     </row>
-    <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="66" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D82" s="56">
         <v>0</v>
       </c>
       <c r="E82" s="57"/>
-      <c r="F82" s="58">
+      <c r="F82" s="58" t="e">
         <f>G81</f>
-        <v>44905</v>
-      </c>
-      <c r="G82" s="58">
-        <f t="shared" si="50"/>
-        <v>44905</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G82" s="58" t="e">
+        <f t="shared" si="46"/>
+        <v>#REF!</v>
       </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
@@ -18342,25 +18075,25 @@
       <c r="FM82" s="22"/>
       <c r="FN82" s="22"/>
     </row>
-    <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="66" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D83" s="56">
         <v>0</v>
       </c>
       <c r="E83" s="57"/>
-      <c r="F83" s="58">
-        <f>G82</f>
-        <v>44905</v>
-      </c>
-      <c r="G83" s="58">
-        <f t="shared" si="50"/>
-        <v>44905</v>
+      <c r="F83" s="58" t="e">
+        <f>G82 + 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G83" s="58" t="e">
+        <f t="shared" si="46"/>
+        <v>#REF!</v>
       </c>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
@@ -18526,25 +18259,25 @@
       <c r="FM83" s="22"/>
       <c r="FN83" s="22"/>
     </row>
-    <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26"/>
       <c r="B84" s="66" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D84" s="56">
         <v>0</v>
       </c>
       <c r="E84" s="57"/>
-      <c r="F84" s="58">
-        <f>F82 + 2</f>
-        <v>44907</v>
-      </c>
-      <c r="G84" s="58">
-        <f t="shared" si="50"/>
-        <v>44907</v>
+      <c r="F84" s="58" t="e">
+        <f>F82</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G84" s="58" t="e">
+        <f t="shared" si="46"/>
+        <v>#REF!</v>
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
@@ -18710,25 +18443,25 @@
       <c r="FM84" s="22"/>
       <c r="FN84" s="22"/>
     </row>
-    <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26"/>
       <c r="B85" s="66" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D85" s="56">
         <v>0</v>
       </c>
       <c r="E85" s="57"/>
-      <c r="F85" s="58">
-        <f>G83</f>
-        <v>44905</v>
-      </c>
-      <c r="G85" s="58">
-        <f t="shared" si="50"/>
-        <v>44905</v>
+      <c r="F85" s="58" t="e">
+        <f>G84 + 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G85" s="58" t="e">
+        <f t="shared" si="46"/>
+        <v>#REF!</v>
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
@@ -18894,10 +18627,10 @@
       <c r="FM85" s="22"/>
       <c r="FN85" s="22"/>
     </row>
-    <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="65" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C86" s="52"/>
       <c r="D86" s="53"/>
@@ -19070,25 +18803,25 @@
       <c r="FM86" s="22"/>
       <c r="FN86" s="22"/>
     </row>
-    <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26"/>
       <c r="B87" s="66" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D87" s="56">
         <v>0</v>
       </c>
       <c r="E87" s="57"/>
-      <c r="F87" s="58">
-        <f>G85 + 3</f>
-        <v>44908</v>
-      </c>
-      <c r="G87" s="58">
-        <f t="shared" ref="G87:G93" si="51">F87</f>
-        <v>44908</v>
+      <c r="F87" s="58" t="e">
+        <f>#REF! + 3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G87" s="58" t="e">
+        <f>F87</f>
+        <v>#REF!</v>
       </c>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
@@ -19254,25 +18987,25 @@
       <c r="FM87" s="22"/>
       <c r="FN87" s="22"/>
     </row>
-    <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
       <c r="B88" s="66" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D88" s="56">
         <v>0</v>
       </c>
       <c r="E88" s="57"/>
-      <c r="F88" s="58">
-        <f>G87  + 1</f>
-        <v>44909</v>
-      </c>
-      <c r="G88" s="58">
-        <f t="shared" si="51"/>
-        <v>44909</v>
+      <c r="F88" s="58" t="e">
+        <f>G87</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G88" s="58" t="e">
+        <f>F88</f>
+        <v>#REF!</v>
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
@@ -19438,25 +19171,25 @@
       <c r="FM88" s="22"/>
       <c r="FN88" s="22"/>
     </row>
-    <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="66" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D89" s="56">
         <v>0</v>
       </c>
       <c r="E89" s="57"/>
-      <c r="F89" s="58">
+      <c r="F89" s="58" t="e">
         <f>G87 + 1</f>
-        <v>44909</v>
-      </c>
-      <c r="G89" s="58">
-        <f t="shared" si="51"/>
-        <v>44909</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G89" s="58" t="e">
+        <f>F89</f>
+        <v>#REF!</v>
       </c>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
@@ -19622,25 +19355,25 @@
       <c r="FM89" s="22"/>
       <c r="FN89" s="22"/>
     </row>
-    <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26"/>
       <c r="B90" s="66" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D90" s="56">
         <v>0</v>
       </c>
       <c r="E90" s="57"/>
-      <c r="F90" s="58">
-        <f>G89</f>
-        <v>44909</v>
-      </c>
-      <c r="G90" s="58">
-        <f t="shared" si="51"/>
-        <v>44909</v>
+      <c r="F90" s="58" t="e">
+        <f>G89 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G90" s="58" t="e">
+        <f>F90</f>
+        <v>#REF!</v>
       </c>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
@@ -19806,25 +19539,25 @@
       <c r="FM90" s="22"/>
       <c r="FN90" s="22"/>
     </row>
-    <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
       <c r="B91" s="66" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D91" s="56">
         <v>0</v>
       </c>
       <c r="E91" s="57"/>
-      <c r="F91" s="58">
-        <f>G90</f>
-        <v>44909</v>
-      </c>
-      <c r="G91" s="58">
-        <f t="shared" si="51"/>
-        <v>44909</v>
+      <c r="F91" s="58" t="e">
+        <f>G90 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G91" s="58" t="e">
+        <f>F91</f>
+        <v>#REF!</v>
       </c>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
@@ -19990,25 +19723,25 @@
       <c r="FM91" s="22"/>
       <c r="FN91" s="22"/>
     </row>
-    <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26"/>
       <c r="B92" s="66" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D92" s="56">
         <v>0</v>
       </c>
       <c r="E92" s="57"/>
-      <c r="F92" s="58">
-        <f>F89 + 1</f>
-        <v>44910</v>
-      </c>
-      <c r="G92" s="58">
-        <f t="shared" si="51"/>
-        <v>44910</v>
+      <c r="F92" s="58" t="e">
+        <f>F89</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G92" s="58" t="e">
+        <f>F92 + 1</f>
+        <v>#REF!</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
@@ -20174,24 +19907,16 @@
       <c r="FM92" s="22"/>
       <c r="FN92" s="22"/>
     </row>
-    <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="55" t="s">
-        <v>38</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C93" s="55"/>
       <c r="D93" s="56"/>
       <c r="E93" s="57"/>
-      <c r="F93" s="58">
-        <f>G91</f>
-        <v>44909</v>
-      </c>
-      <c r="G93" s="58">
-        <f t="shared" si="51"/>
-        <v>44909</v>
-      </c>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="22"/>
@@ -20356,15 +20081,15 @@
       <c r="FM93" s="22"/>
       <c r="FN93" s="22"/>
     </row>
-    <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="65" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C94" s="52"/>
       <c r="D94" s="53"/>
       <c r="E94" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F94" s="54"/>
       <c r="G94" s="54"/>
@@ -20532,24 +20257,16 @@
       <c r="FM94" s="22"/>
       <c r="FN94" s="22"/>
     </row>
-    <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26"/>
       <c r="B95" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C95" s="55" t="s">
-        <v>38</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C95" s="55"/>
       <c r="D95" s="56"/>
       <c r="E95" s="57"/>
-      <c r="F95" s="58">
-        <f>G93 + 2</f>
-        <v>44911</v>
-      </c>
-      <c r="G95" s="58">
-        <f>F95</f>
-        <v>44911</v>
-      </c>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="22"/>
@@ -20714,24 +20431,16 @@
       <c r="FM95" s="22"/>
       <c r="FN95" s="22"/>
     </row>
-    <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
       <c r="B96" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" s="55" t="s">
-        <v>37</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C96" s="55"/>
       <c r="D96" s="56"/>
       <c r="E96" s="57"/>
-      <c r="F96" s="58">
-        <f>G95 + 1</f>
-        <v>44912</v>
-      </c>
-      <c r="G96" s="58">
-        <f>F96</f>
-        <v>44912</v>
-      </c>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="22"/>
@@ -20896,24 +20605,16 @@
       <c r="FM96" s="22"/>
       <c r="FN96" s="22"/>
     </row>
-    <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="55" t="s">
-        <v>37</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C97" s="55"/>
       <c r="D97" s="56"/>
       <c r="E97" s="57"/>
-      <c r="F97" s="58">
-        <f>G96</f>
-        <v>44912</v>
-      </c>
-      <c r="G97" s="58">
-        <f>F97</f>
-        <v>44912</v>
-      </c>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="22"/>
@@ -21078,24 +20779,16 @@
       <c r="FM97" s="22"/>
       <c r="FN97" s="22"/>
     </row>
-    <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="55" t="s">
-        <v>39</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C98" s="55"/>
       <c r="D98" s="56"/>
       <c r="E98" s="57"/>
-      <c r="F98" s="58">
-        <f>G97</f>
-        <v>44912</v>
-      </c>
-      <c r="G98" s="58">
-        <f>F98</f>
-        <v>44912</v>
-      </c>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="22"/>
@@ -21260,24 +20953,16 @@
       <c r="FM98" s="22"/>
       <c r="FN98" s="22"/>
     </row>
-    <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="55" t="s">
-        <v>38</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C99" s="55"/>
       <c r="D99" s="56"/>
       <c r="E99" s="57"/>
-      <c r="F99" s="58">
-        <f>G98</f>
-        <v>44912</v>
-      </c>
-      <c r="G99" s="58">
-        <f>F99</f>
-        <v>44912</v>
-      </c>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="22"/>
@@ -21442,10 +21127,10 @@
       <c r="FM99" s="22"/>
       <c r="FN99" s="22"/>
     </row>
-    <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" s="86" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C100" s="87"/>
       <c r="D100" s="88"/>
@@ -21616,15 +21301,15 @@
       <c r="FM100" s="22"/>
       <c r="FN100" s="22"/>
     </row>
-    <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="65" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C101" s="52"/>
       <c r="D101" s="53"/>
       <c r="E101" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
@@ -21792,25 +21477,25 @@
       <c r="FM101" s="22"/>
       <c r="FN101" s="22"/>
     </row>
-    <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" s="66" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D102" s="56">
         <v>0</v>
       </c>
       <c r="E102" s="57"/>
-      <c r="F102" s="58">
-        <f>G99 + 2</f>
-        <v>44914</v>
-      </c>
-      <c r="G102" s="58">
-        <f t="shared" ref="G102:G108" si="52">F102</f>
-        <v>44914</v>
+      <c r="F102" s="58" t="e">
+        <f>G92 + 3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G102" s="58" t="e">
+        <f>F102</f>
+        <v>#REF!</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
@@ -21976,25 +21661,25 @@
       <c r="FM102" s="22"/>
       <c r="FN102" s="22"/>
     </row>
-    <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="66" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D103" s="56">
         <v>0</v>
       </c>
       <c r="E103" s="57"/>
-      <c r="F103" s="58">
+      <c r="F103" s="58" t="e">
         <f>G102 + 1</f>
-        <v>44915</v>
-      </c>
-      <c r="G103" s="58">
-        <f t="shared" si="52"/>
-        <v>44915</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G103" s="58" t="e">
+        <f>F103</f>
+        <v>#REF!</v>
       </c>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
@@ -22160,25 +21845,25 @@
       <c r="FM103" s="22"/>
       <c r="FN103" s="22"/>
     </row>
-    <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" s="66" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C104" s="55" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D104" s="56">
         <v>0</v>
       </c>
       <c r="E104" s="57"/>
-      <c r="F104" s="58">
-        <f>G103</f>
-        <v>44915</v>
-      </c>
-      <c r="G104" s="58">
-        <f t="shared" si="52"/>
-        <v>44915</v>
+      <c r="F104" s="58" t="e">
+        <f>G103 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G104" s="58" t="e">
+        <f>F104</f>
+        <v>#REF!</v>
       </c>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
@@ -22344,25 +22029,25 @@
       <c r="FM104" s="22"/>
       <c r="FN104" s="22"/>
     </row>
-    <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="66" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C105" s="55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D105" s="56">
         <v>0</v>
       </c>
       <c r="E105" s="57"/>
-      <c r="F105" s="58">
-        <f>G104</f>
-        <v>44915</v>
-      </c>
-      <c r="G105" s="58">
-        <f t="shared" si="52"/>
-        <v>44915</v>
+      <c r="F105" s="58" t="e">
+        <f>G104 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G105" s="58" t="e">
+        <f>F105 + 1</f>
+        <v>#REF!</v>
       </c>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
@@ -22528,25 +22213,25 @@
       <c r="FM105" s="22"/>
       <c r="FN105" s="22"/>
     </row>
-    <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="66" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D106" s="56">
         <v>0</v>
       </c>
       <c r="E106" s="57"/>
-      <c r="F106" s="58">
-        <f>G105</f>
-        <v>44915</v>
-      </c>
-      <c r="G106" s="58">
-        <f t="shared" si="52"/>
-        <v>44915</v>
+      <c r="F106" s="58" t="e">
+        <f>G105 +1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G106" s="58" t="e">
+        <f>F106 + 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
@@ -22712,25 +22397,25 @@
       <c r="FM106" s="22"/>
       <c r="FN106" s="22"/>
     </row>
-    <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="66" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D107" s="56">
         <v>0</v>
       </c>
       <c r="E107" s="57"/>
-      <c r="F107" s="58">
+      <c r="F107" s="58" t="e">
         <f>G106 + 1</f>
-        <v>44916</v>
-      </c>
-      <c r="G107" s="58">
-        <f t="shared" si="52"/>
-        <v>44916</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G107" s="58" t="e">
+        <f>F107</f>
+        <v>#REF!</v>
       </c>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
@@ -22896,25 +22581,25 @@
       <c r="FM107" s="22"/>
       <c r="FN107" s="22"/>
     </row>
-    <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="66" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D108" s="56">
         <v>0</v>
       </c>
       <c r="E108" s="57"/>
-      <c r="F108" s="58">
-        <f>G106</f>
-        <v>44915</v>
-      </c>
-      <c r="G108" s="58">
-        <f t="shared" si="52"/>
-        <v>44915</v>
+      <c r="F108" s="58" t="e">
+        <f>G107 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G108" s="58" t="e">
+        <f>F108 + 1</f>
+        <v>#REF!</v>
       </c>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
@@ -23080,15 +22765,15 @@
       <c r="FM108" s="22"/>
       <c r="FN108" s="22"/>
     </row>
-    <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="65" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="53"/>
       <c r="E109" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F109" s="54"/>
       <c r="G109" s="54"/>
@@ -23256,24 +22941,16 @@
       <c r="FM109" s="22"/>
       <c r="FN109" s="22"/>
     </row>
-    <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="C110" s="55" t="s">
-        <v>38</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C110" s="55"/>
       <c r="D110" s="56"/>
       <c r="E110" s="57"/>
-      <c r="F110" s="58">
-        <f>G108 + 2</f>
-        <v>44917</v>
-      </c>
-      <c r="G110" s="58">
-        <f t="shared" ref="G110:G116" si="53">F110</f>
-        <v>44917</v>
-      </c>
+      <c r="F110" s="58"/>
+      <c r="G110" s="58"/>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="22"/>
@@ -23438,24 +23115,16 @@
       <c r="FM110" s="22"/>
       <c r="FN110" s="22"/>
     </row>
-    <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C111" s="55" t="s">
-        <v>37</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C111" s="55"/>
       <c r="D111" s="56"/>
       <c r="E111" s="57"/>
-      <c r="F111" s="58">
-        <f>G110 + 1</f>
-        <v>44918</v>
-      </c>
-      <c r="G111" s="58">
-        <f t="shared" si="53"/>
-        <v>44918</v>
-      </c>
+      <c r="F111" s="58"/>
+      <c r="G111" s="58"/>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="22"/>
@@ -23620,24 +23289,16 @@
       <c r="FM111" s="22"/>
       <c r="FN111" s="22"/>
     </row>
-    <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" s="55" t="s">
-        <v>183</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C112" s="55"/>
       <c r="D112" s="56"/>
       <c r="E112" s="57"/>
-      <c r="F112" s="58">
-        <f>G111</f>
-        <v>44918</v>
-      </c>
-      <c r="G112" s="58">
-        <f t="shared" si="53"/>
-        <v>44918</v>
-      </c>
+      <c r="F112" s="58"/>
+      <c r="G112" s="58"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="22"/>
@@ -23802,24 +23463,16 @@
       <c r="FM112" s="22"/>
       <c r="FN112" s="22"/>
     </row>
-    <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26"/>
       <c r="B113" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="55" t="s">
-        <v>39</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C113" s="55"/>
       <c r="D113" s="56"/>
       <c r="E113" s="57"/>
-      <c r="F113" s="58">
-        <f>G112</f>
-        <v>44918</v>
-      </c>
-      <c r="G113" s="58">
-        <f t="shared" si="53"/>
-        <v>44918</v>
-      </c>
+      <c r="F113" s="58"/>
+      <c r="G113" s="58"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="22"/>
@@ -23984,24 +23637,16 @@
       <c r="FM113" s="22"/>
       <c r="FN113" s="22"/>
     </row>
-    <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26"/>
       <c r="B114" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C114" s="55" t="s">
-        <v>39</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C114" s="55"/>
       <c r="D114" s="56"/>
       <c r="E114" s="57"/>
-      <c r="F114" s="58">
-        <f>G113</f>
-        <v>44918</v>
-      </c>
-      <c r="G114" s="58">
-        <f t="shared" si="53"/>
-        <v>44918</v>
-      </c>
+      <c r="F114" s="58"/>
+      <c r="G114" s="58"/>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="22"/>
@@ -24166,24 +23811,16 @@
       <c r="FM114" s="22"/>
       <c r="FN114" s="22"/>
     </row>
-    <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26"/>
       <c r="B115" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C115" s="55" t="s">
-        <v>39</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C115" s="55"/>
       <c r="D115" s="56"/>
       <c r="E115" s="57"/>
-      <c r="F115" s="58">
-        <f>G114 + 1</f>
-        <v>44919</v>
-      </c>
-      <c r="G115" s="58">
-        <f t="shared" si="53"/>
-        <v>44919</v>
-      </c>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
       <c r="J115" s="22"/>
@@ -24348,24 +23985,16 @@
       <c r="FM115" s="22"/>
       <c r="FN115" s="22"/>
     </row>
-    <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="C116" s="55" t="s">
-        <v>38</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C116" s="55"/>
       <c r="D116" s="56"/>
       <c r="E116" s="57"/>
-      <c r="F116" s="58">
-        <f>G114</f>
-        <v>44918</v>
-      </c>
-      <c r="G116" s="58">
-        <f t="shared" si="53"/>
-        <v>44918</v>
-      </c>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="22"/>
@@ -24530,15 +24159,15 @@
       <c r="FM116" s="22"/>
       <c r="FN116" s="22"/>
     </row>
-    <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="65" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="53"/>
       <c r="E117" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F117" s="54"/>
       <c r="G117" s="54"/>
@@ -24706,24 +24335,16 @@
       <c r="FM117" s="22"/>
       <c r="FN117" s="22"/>
     </row>
-    <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C118" s="55" t="s">
-        <v>38</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C118" s="55"/>
       <c r="D118" s="56"/>
       <c r="E118" s="57"/>
-      <c r="F118" s="58">
-        <f>G116 + 3</f>
-        <v>44921</v>
-      </c>
-      <c r="G118" s="58">
-        <f t="shared" ref="G118:G126" si="54">F118</f>
-        <v>44921</v>
-      </c>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="22"/>
@@ -24888,24 +24509,16 @@
       <c r="FM118" s="22"/>
       <c r="FN118" s="22"/>
     </row>
-    <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="C119" s="55" t="s">
-        <v>38</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C119" s="55"/>
       <c r="D119" s="56"/>
       <c r="E119" s="57"/>
-      <c r="F119" s="58">
-        <f>G118</f>
-        <v>44921</v>
-      </c>
-      <c r="G119" s="58">
-        <f t="shared" si="54"/>
-        <v>44921</v>
-      </c>
+      <c r="F119" s="58"/>
+      <c r="G119" s="58"/>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="22"/>
@@ -25070,24 +24683,16 @@
       <c r="FM119" s="22"/>
       <c r="FN119" s="22"/>
     </row>
-    <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" s="55" t="s">
-        <v>37</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C120" s="55"/>
       <c r="D120" s="56"/>
       <c r="E120" s="57"/>
-      <c r="F120" s="58">
-        <f>G119 + 1</f>
-        <v>44922</v>
-      </c>
-      <c r="G120" s="58">
-        <f t="shared" si="54"/>
-        <v>44922</v>
-      </c>
+      <c r="F120" s="58"/>
+      <c r="G120" s="58"/>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
       <c r="J120" s="22"/>
@@ -25252,24 +24857,16 @@
       <c r="FM120" s="22"/>
       <c r="FN120" s="22"/>
     </row>
-    <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C121" s="55" t="s">
-        <v>37</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C121" s="55"/>
       <c r="D121" s="56"/>
       <c r="E121" s="57"/>
-      <c r="F121" s="58">
-        <f>G120</f>
-        <v>44922</v>
-      </c>
-      <c r="G121" s="58">
-        <f t="shared" si="54"/>
-        <v>44922</v>
-      </c>
+      <c r="F121" s="58"/>
+      <c r="G121" s="58"/>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="22"/>
@@ -25434,24 +25031,16 @@
       <c r="FM121" s="22"/>
       <c r="FN121" s="22"/>
     </row>
-    <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" s="55" t="s">
-        <v>37</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C122" s="55"/>
       <c r="D122" s="56"/>
       <c r="E122" s="57"/>
-      <c r="F122" s="58">
-        <f>G121 + 1</f>
-        <v>44923</v>
-      </c>
-      <c r="G122" s="58">
-        <f t="shared" si="54"/>
-        <v>44923</v>
-      </c>
+      <c r="F122" s="58"/>
+      <c r="G122" s="58"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="22"/>
@@ -25616,26 +25205,18 @@
       <c r="FM122" s="22"/>
       <c r="FN122" s="22"/>
     </row>
-    <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B123" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C123" s="55" t="s">
-        <v>39</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C123" s="55"/>
       <c r="D123" s="56"/>
       <c r="E123" s="57"/>
-      <c r="F123" s="58">
-        <f>G121</f>
-        <v>44922</v>
-      </c>
-      <c r="G123" s="58">
-        <f t="shared" si="54"/>
-        <v>44922</v>
-      </c>
+      <c r="F123" s="58"/>
+      <c r="G123" s="58"/>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="22"/>
@@ -25800,24 +25381,16 @@
       <c r="FM123" s="22"/>
       <c r="FN123" s="22"/>
     </row>
-    <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" s="55" t="s">
-        <v>39</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C124" s="55"/>
       <c r="D124" s="56"/>
       <c r="E124" s="57"/>
-      <c r="F124" s="58">
-        <f>G123</f>
-        <v>44922</v>
-      </c>
-      <c r="G124" s="58">
-        <f t="shared" si="54"/>
-        <v>44922</v>
-      </c>
+      <c r="F124" s="58"/>
+      <c r="G124" s="58"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="22"/>
@@ -25982,24 +25555,16 @@
       <c r="FM124" s="22"/>
       <c r="FN124" s="22"/>
     </row>
-    <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C125" s="55" t="s">
-        <v>39</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C125" s="55"/>
       <c r="D125" s="56"/>
       <c r="E125" s="57"/>
-      <c r="F125" s="58">
-        <f>G124 + 2</f>
-        <v>44924</v>
-      </c>
-      <c r="G125" s="58">
-        <f t="shared" si="54"/>
-        <v>44924</v>
-      </c>
+      <c r="F125" s="58"/>
+      <c r="G125" s="58"/>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="22"/>
@@ -26164,24 +25729,16 @@
       <c r="FM125" s="22"/>
       <c r="FN125" s="22"/>
     </row>
-    <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C126" s="55" t="s">
-        <v>38</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C126" s="55"/>
       <c r="D126" s="56"/>
       <c r="E126" s="57"/>
-      <c r="F126" s="58">
-        <f>G124</f>
-        <v>44922</v>
-      </c>
-      <c r="G126" s="58">
-        <f t="shared" si="54"/>
-        <v>44922</v>
-      </c>
+      <c r="F126" s="58"/>
+      <c r="G126" s="58"/>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="22"/>
@@ -26346,15 +25903,15 @@
       <c r="FM126" s="22"/>
       <c r="FN126" s="22"/>
     </row>
-    <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="26"/>
       <c r="B127" s="65" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C127" s="52"/>
       <c r="D127" s="53"/>
       <c r="E127" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F127" s="54"/>
       <c r="G127" s="54"/>
@@ -26522,24 +26079,16 @@
       <c r="FM127" s="22"/>
       <c r="FN127" s="22"/>
     </row>
-    <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26"/>
       <c r="B128" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C128" s="55" t="s">
-        <v>38</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C128" s="55"/>
       <c r="D128" s="56"/>
       <c r="E128" s="57"/>
-      <c r="F128" s="58">
-        <f>G126 + 3</f>
-        <v>44925</v>
-      </c>
-      <c r="G128" s="58">
-        <f>F128</f>
-        <v>44925</v>
-      </c>
+      <c r="F128" s="58"/>
+      <c r="G128" s="58"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="22"/>
@@ -26704,24 +26253,16 @@
       <c r="FM128" s="22"/>
       <c r="FN128" s="22"/>
     </row>
-    <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="26"/>
       <c r="B129" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="C129" s="55" t="s">
-        <v>37</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C129" s="55"/>
       <c r="D129" s="56"/>
       <c r="E129" s="57"/>
-      <c r="F129" s="58">
-        <f>G128 + 1</f>
-        <v>44926</v>
-      </c>
-      <c r="G129" s="58">
-        <f>F129</f>
-        <v>44926</v>
-      </c>
+      <c r="F129" s="58"/>
+      <c r="G129" s="58"/>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
       <c r="J129" s="22"/>
@@ -26886,24 +26427,16 @@
       <c r="FM129" s="22"/>
       <c r="FN129" s="22"/>
     </row>
-    <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C130" s="55" t="s">
-        <v>37</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C130" s="55"/>
       <c r="D130" s="56"/>
       <c r="E130" s="57"/>
-      <c r="F130" s="58">
-        <f>G129</f>
-        <v>44926</v>
-      </c>
-      <c r="G130" s="58">
-        <f>F130</f>
-        <v>44926</v>
-      </c>
+      <c r="F130" s="58"/>
+      <c r="G130" s="58"/>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="22"/>
@@ -27068,24 +26601,16 @@
       <c r="FM130" s="22"/>
       <c r="FN130" s="22"/>
     </row>
-    <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C131" s="55" t="s">
-        <v>39</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C131" s="55"/>
       <c r="D131" s="56"/>
       <c r="E131" s="57"/>
-      <c r="F131" s="58">
-        <f>G130</f>
-        <v>44926</v>
-      </c>
-      <c r="G131" s="58">
-        <f>F131</f>
-        <v>44926</v>
-      </c>
+      <c r="F131" s="58"/>
+      <c r="G131" s="58"/>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
       <c r="J131" s="22"/>
@@ -27250,24 +26775,16 @@
       <c r="FM131" s="22"/>
       <c r="FN131" s="22"/>
     </row>
-    <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C132" s="55" t="s">
-        <v>38</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C132" s="55"/>
       <c r="D132" s="56"/>
       <c r="E132" s="57"/>
-      <c r="F132" s="58">
-        <f>G128</f>
-        <v>44925</v>
-      </c>
-      <c r="G132" s="58">
-        <f>F132</f>
-        <v>44925</v>
-      </c>
+      <c r="F132" s="58"/>
+      <c r="G132" s="58"/>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
       <c r="J132" s="22"/>
@@ -27432,10 +26949,10 @@
       <c r="FM132" s="22"/>
       <c r="FN132" s="22"/>
     </row>
-    <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
       <c r="B133" s="86" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C133" s="87"/>
       <c r="D133" s="88"/>
@@ -27606,15 +27123,15 @@
       <c r="FM133" s="22"/>
       <c r="FN133" s="22"/>
     </row>
-    <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="65" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="53"/>
       <c r="E134" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F134" s="54"/>
       <c r="G134" s="54"/>
@@ -27782,25 +27299,25 @@
       <c r="FM134" s="22"/>
       <c r="FN134" s="22"/>
     </row>
-    <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="66" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C135" s="55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D135" s="56">
         <v>0</v>
       </c>
       <c r="E135" s="57"/>
-      <c r="F135" s="58">
-        <f>G132 + 3</f>
-        <v>44928</v>
-      </c>
-      <c r="G135" s="58">
-        <f t="shared" ref="G135:G141" si="55">F135</f>
-        <v>44928</v>
+      <c r="F135" s="58" t="e">
+        <f>#REF! + 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G135" s="58" t="e">
+        <f t="shared" ref="G135:G141" si="47">F135</f>
+        <v>#REF!</v>
       </c>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
@@ -27966,25 +27483,25 @@
       <c r="FM135" s="22"/>
       <c r="FN135" s="22"/>
     </row>
-    <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
       <c r="B136" s="85" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C136" s="55" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D136" s="56">
         <v>0</v>
       </c>
       <c r="E136" s="57"/>
-      <c r="F136" s="58">
-        <f>G135 +1</f>
-        <v>44929</v>
-      </c>
-      <c r="G136" s="58">
-        <f t="shared" si="55"/>
-        <v>44929</v>
+      <c r="F136" s="58" t="e">
+        <f>G135</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G136" s="58" t="e">
+        <f t="shared" si="47"/>
+        <v>#REF!</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
@@ -28150,25 +27667,25 @@
       <c r="FM136" s="22"/>
       <c r="FN136" s="22"/>
     </row>
-    <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
       <c r="B137" s="66" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C137" s="55" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D137" s="56">
         <v>0</v>
       </c>
       <c r="E137" s="57"/>
-      <c r="F137" s="58">
+      <c r="F137" s="58" t="e">
         <f>G135 + 1</f>
-        <v>44929</v>
-      </c>
-      <c r="G137" s="58">
-        <f t="shared" si="55"/>
-        <v>44929</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G137" s="58" t="e">
+        <f t="shared" si="47"/>
+        <v>#REF!</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
@@ -28334,25 +27851,25 @@
       <c r="FM137" s="22"/>
       <c r="FN137" s="22"/>
     </row>
-    <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="26"/>
       <c r="B138" s="66" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C138" s="55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D138" s="56">
         <v>0</v>
       </c>
       <c r="E138" s="57"/>
-      <c r="F138" s="58">
+      <c r="F138" s="58" t="e">
         <f>G137</f>
-        <v>44929</v>
-      </c>
-      <c r="G138" s="58">
-        <f t="shared" si="55"/>
-        <v>44929</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G138" s="58" t="e">
+        <f t="shared" si="47"/>
+        <v>#REF!</v>
       </c>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
@@ -28518,25 +28035,25 @@
       <c r="FM138" s="22"/>
       <c r="FN138" s="22"/>
     </row>
-    <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
       <c r="B139" s="66" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D139" s="56">
         <v>0</v>
       </c>
       <c r="E139" s="57"/>
-      <c r="F139" s="58">
-        <f>G138</f>
-        <v>44929</v>
-      </c>
-      <c r="G139" s="58">
-        <f t="shared" si="55"/>
-        <v>44929</v>
+      <c r="F139" s="58" t="e">
+        <f>G138 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G139" s="58" t="e">
+        <f t="shared" si="47"/>
+        <v>#REF!</v>
       </c>
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
@@ -28702,25 +28219,25 @@
       <c r="FM139" s="22"/>
       <c r="FN139" s="22"/>
     </row>
-    <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="26"/>
       <c r="B140" s="66" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C140" s="55" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D140" s="56">
         <v>0</v>
       </c>
       <c r="E140" s="57"/>
-      <c r="F140" s="58">
-        <f>G138 + 1</f>
-        <v>44930</v>
-      </c>
-      <c r="G140" s="58">
-        <f t="shared" si="55"/>
-        <v>44930</v>
+      <c r="F140" s="58" t="e">
+        <f>G138</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G140" s="58" t="e">
+        <f t="shared" si="47"/>
+        <v>#REF!</v>
       </c>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
@@ -28886,25 +28403,25 @@
       <c r="FM140" s="22"/>
       <c r="FN140" s="22"/>
     </row>
-    <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="26"/>
       <c r="B141" s="66" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C141" s="55" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D141" s="56">
         <v>0</v>
       </c>
       <c r="E141" s="57"/>
-      <c r="F141" s="58">
-        <f>G139</f>
-        <v>44929</v>
-      </c>
-      <c r="G141" s="58">
-        <f t="shared" si="55"/>
-        <v>44929</v>
+      <c r="F141" s="58" t="e">
+        <f>G140 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G141" s="58" t="e">
+        <f t="shared" si="47"/>
+        <v>#REF!</v>
       </c>
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
@@ -29070,10 +28587,10 @@
       <c r="FM141" s="22"/>
       <c r="FN141" s="22"/>
     </row>
-    <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="26"/>
       <c r="B142" s="65" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C142" s="52"/>
       <c r="D142" s="53"/>
@@ -29246,25 +28763,25 @@
       <c r="FM142" s="22"/>
       <c r="FN142" s="22"/>
     </row>
-    <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="26"/>
       <c r="B143" s="66" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C143" s="55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D143" s="56">
         <v>0</v>
       </c>
       <c r="E143" s="57"/>
-      <c r="F143" s="58">
-        <f>G141 + 2</f>
-        <v>44931</v>
-      </c>
-      <c r="G143" s="58">
-        <f t="shared" ref="G143:G149" si="56">F143</f>
-        <v>44931</v>
+      <c r="F143" s="58" t="e">
+        <f>#REF! + 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G143" s="58" t="e">
+        <f t="shared" ref="G143:G149" si="48">F143</f>
+        <v>#REF!</v>
       </c>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
@@ -29430,25 +28947,25 @@
       <c r="FM143" s="22"/>
       <c r="FN143" s="22"/>
     </row>
-    <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="26"/>
       <c r="B144" s="66" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D144" s="56">
         <v>0</v>
       </c>
       <c r="E144" s="57"/>
-      <c r="F144" s="58">
-        <f>G143 + 1</f>
-        <v>44932</v>
-      </c>
-      <c r="G144" s="58">
-        <f t="shared" si="56"/>
-        <v>44932</v>
+      <c r="F144" s="58" t="e">
+        <f>G143</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G144" s="58" t="e">
+        <f t="shared" si="48"/>
+        <v>#REF!</v>
       </c>
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
@@ -29614,25 +29131,25 @@
       <c r="FM144" s="22"/>
       <c r="FN144" s="22"/>
     </row>
-    <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="26"/>
       <c r="B145" s="66" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C145" s="55" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D145" s="56">
         <v>0</v>
       </c>
       <c r="E145" s="57"/>
-      <c r="F145" s="58">
+      <c r="F145" s="58" t="e">
         <f>G143 + 1</f>
-        <v>44932</v>
-      </c>
-      <c r="G145" s="58">
-        <f t="shared" si="56"/>
-        <v>44932</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G145" s="58" t="e">
+        <f t="shared" si="48"/>
+        <v>#REF!</v>
       </c>
       <c r="H145" s="15"/>
       <c r="I145" s="15"/>
@@ -29798,25 +29315,25 @@
       <c r="FM145" s="22"/>
       <c r="FN145" s="22"/>
     </row>
-    <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="26"/>
       <c r="B146" s="66" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C146" s="55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D146" s="56">
         <v>0</v>
       </c>
       <c r="E146" s="57"/>
-      <c r="F146" s="58">
+      <c r="F146" s="58" t="e">
         <f>G145</f>
-        <v>44932</v>
-      </c>
-      <c r="G146" s="58">
-        <f t="shared" si="56"/>
-        <v>44932</v>
+        <v>#REF!</v>
+      </c>
+      <c r="G146" s="58" t="e">
+        <f t="shared" si="48"/>
+        <v>#REF!</v>
       </c>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
@@ -29982,25 +29499,25 @@
       <c r="FM146" s="22"/>
       <c r="FN146" s="22"/>
     </row>
-    <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="26"/>
       <c r="B147" s="66" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C147" s="55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D147" s="56">
         <v>0</v>
       </c>
       <c r="E147" s="57"/>
-      <c r="F147" s="58">
-        <f>G146</f>
-        <v>44932</v>
-      </c>
-      <c r="G147" s="58">
-        <f t="shared" si="56"/>
-        <v>44932</v>
+      <c r="F147" s="58" t="e">
+        <f>G146 + 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G147" s="58" t="e">
+        <f t="shared" si="48"/>
+        <v>#REF!</v>
       </c>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
@@ -30166,25 +29683,25 @@
       <c r="FM147" s="22"/>
       <c r="FN147" s="22"/>
     </row>
-    <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="26"/>
       <c r="B148" s="66" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C148" s="55" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D148" s="56">
         <v>0</v>
       </c>
       <c r="E148" s="57"/>
-      <c r="F148" s="58">
-        <f>G146 + 1</f>
-        <v>44933</v>
-      </c>
-      <c r="G148" s="58">
-        <f t="shared" si="56"/>
-        <v>44933</v>
+      <c r="F148" s="58" t="e">
+        <f>G146</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G148" s="58" t="e">
+        <f t="shared" si="48"/>
+        <v>#REF!</v>
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
@@ -30350,25 +29867,25 @@
       <c r="FM148" s="22"/>
       <c r="FN148" s="22"/>
     </row>
-    <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="26"/>
       <c r="B149" s="66" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C149" s="55" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D149" s="56">
         <v>0</v>
       </c>
       <c r="E149" s="57"/>
-      <c r="F149" s="58">
-        <f>G147</f>
-        <v>44932</v>
-      </c>
-      <c r="G149" s="58">
-        <f t="shared" si="56"/>
-        <v>44932</v>
+      <c r="F149" s="58" t="e">
+        <f>G148 + 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G149" s="58" t="e">
+        <f t="shared" si="48"/>
+        <v>#REF!</v>
       </c>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
@@ -30534,15 +30051,15 @@
       <c r="FM149" s="22"/>
       <c r="FN149" s="22"/>
     </row>
-    <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="26"/>
       <c r="B150" s="65" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C150" s="52"/>
       <c r="D150" s="53"/>
       <c r="E150" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F150" s="54"/>
       <c r="G150" s="54"/>
@@ -30710,25 +30227,25 @@
       <c r="FM150" s="22"/>
       <c r="FN150" s="22"/>
     </row>
-    <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="26"/>
       <c r="B151" s="85" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C151" s="96" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D151" s="56">
         <v>0</v>
       </c>
       <c r="E151" s="57"/>
-      <c r="F151" s="58">
-        <f>G149 + 3</f>
-        <v>44935</v>
-      </c>
-      <c r="G151" s="58">
+      <c r="F151" s="58" t="e">
+        <f>#REF! + 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G151" s="58" t="e">
         <f>F151</f>
-        <v>44935</v>
+        <v>#REF!</v>
       </c>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
@@ -30894,25 +30411,25 @@
       <c r="FM151" s="22"/>
       <c r="FN151" s="22"/>
     </row>
-    <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="26"/>
       <c r="B152" s="85" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C152" s="96" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D152" s="56">
         <v>0</v>
       </c>
       <c r="E152" s="57"/>
-      <c r="F152" s="58">
-        <f>G151 + 1</f>
-        <v>44936</v>
-      </c>
-      <c r="G152" s="58">
+      <c r="F152" s="58" t="e">
+        <f>G151</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G152" s="58" t="e">
         <f>F152</f>
-        <v>44936</v>
+        <v>#REF!</v>
       </c>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
@@ -31078,25 +30595,25 @@
       <c r="FM152" s="22"/>
       <c r="FN152" s="22"/>
     </row>
-    <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="26"/>
       <c r="B153" s="85" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C153" s="96" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D153" s="56">
         <v>0</v>
       </c>
       <c r="E153" s="57"/>
-      <c r="F153" s="58">
-        <f>G152</f>
-        <v>44936</v>
-      </c>
-      <c r="G153" s="58">
+      <c r="F153" s="58" t="e">
+        <f>G152 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G153" s="58" t="e">
         <f>F153</f>
-        <v>44936</v>
+        <v>#REF!</v>
       </c>
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
@@ -31262,25 +30779,25 @@
       <c r="FM153" s="22"/>
       <c r="FN153" s="22"/>
     </row>
-    <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="26"/>
       <c r="B154" s="85" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C154" s="96" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D154" s="56">
         <v>0</v>
       </c>
       <c r="E154" s="57"/>
-      <c r="F154" s="58">
-        <f>G153</f>
-        <v>44936</v>
-      </c>
-      <c r="G154" s="58">
+      <c r="F154" s="58" t="e">
+        <f>G153 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G154" s="58" t="e">
         <f>F154</f>
-        <v>44936</v>
+        <v>#REF!</v>
       </c>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
@@ -31446,25 +30963,25 @@
       <c r="FM154" s="22"/>
       <c r="FN154" s="22"/>
     </row>
-    <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="26"/>
       <c r="B155" s="85" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C155" s="96" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D155" s="56">
         <v>0</v>
       </c>
       <c r="E155" s="57"/>
-      <c r="F155" s="58">
-        <f>G154</f>
-        <v>44936</v>
-      </c>
-      <c r="G155" s="58">
+      <c r="F155" s="58" t="e">
+        <f>G154 + 1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G155" s="58" t="e">
         <f>F155</f>
-        <v>44936</v>
+        <v>#REF!</v>
       </c>
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
@@ -31630,25 +31147,25 @@
       <c r="FM155" s="22"/>
       <c r="FN155" s="22"/>
     </row>
-    <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="26"/>
       <c r="B156" s="85" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C156" s="96" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D156" s="56">
         <v>0</v>
       </c>
       <c r="E156" s="57"/>
-      <c r="F156" s="58">
-        <f>F153 + 1</f>
-        <v>44937</v>
-      </c>
-      <c r="G156" s="58">
+      <c r="F156" s="58" t="e">
+        <f>F153</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G156" s="58" t="e">
         <f>F156 + 1</f>
-        <v>44938</v>
+        <v>#REF!</v>
       </c>
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
@@ -31814,26 +31331,16 @@
       <c r="FM156" s="22"/>
       <c r="FN156" s="22"/>
     </row>
-    <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="26"/>
       <c r="B157" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="C157" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="D157" s="56">
-        <v>0</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C157" s="96"/>
+      <c r="D157" s="56"/>
       <c r="E157" s="57"/>
-      <c r="F157" s="58">
-        <f>G155</f>
-        <v>44936</v>
-      </c>
-      <c r="G157" s="58">
-        <f>F157</f>
-        <v>44936</v>
-      </c>
+      <c r="F157" s="58"/>
+      <c r="G157" s="58"/>
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
       <c r="J157" s="22"/>
@@ -31998,15 +31505,15 @@
       <c r="FM157" s="22"/>
       <c r="FN157" s="22"/>
     </row>
-    <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="26"/>
       <c r="B158" s="65" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C158" s="52"/>
-      <c r="D158" s="52"/>
+      <c r="D158" s="53"/>
       <c r="E158" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F158" s="54"/>
       <c r="G158" s="54"/>
@@ -32174,26 +31681,16 @@
       <c r="FM158" s="22"/>
       <c r="FN158" s="22"/>
     </row>
-    <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
       <c r="B159" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="C159" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="D159" s="56">
-        <v>0</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C159" s="96"/>
+      <c r="D159" s="56"/>
       <c r="E159" s="57"/>
-      <c r="F159" s="58">
-        <f>G157 + 2</f>
-        <v>44938</v>
-      </c>
-      <c r="G159" s="58">
-        <f t="shared" ref="G159:G167" si="57">F159</f>
-        <v>44938</v>
-      </c>
+      <c r="F159" s="58"/>
+      <c r="G159" s="58"/>
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
       <c r="J159" s="22"/>
@@ -32358,26 +31855,16 @@
       <c r="FM159" s="22"/>
       <c r="FN159" s="22"/>
     </row>
-    <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="26"/>
       <c r="B160" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="C160" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="D160" s="56">
-        <v>0</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C160" s="96"/>
+      <c r="D160" s="56"/>
       <c r="E160" s="57"/>
-      <c r="F160" s="58">
-        <f>G159</f>
-        <v>44938</v>
-      </c>
-      <c r="G160" s="58">
-        <f t="shared" si="57"/>
-        <v>44938</v>
-      </c>
+      <c r="F160" s="58"/>
+      <c r="G160" s="58"/>
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
       <c r="J160" s="22"/>
@@ -32542,26 +32029,16 @@
       <c r="FM160" s="22"/>
       <c r="FN160" s="22"/>
     </row>
-    <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="26"/>
       <c r="B161" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="C161" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="D161" s="56">
-        <v>0</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C161" s="96"/>
+      <c r="D161" s="56"/>
       <c r="E161" s="57"/>
-      <c r="F161" s="58">
-        <f>G160 + 1</f>
-        <v>44939</v>
-      </c>
-      <c r="G161" s="58">
-        <f t="shared" si="57"/>
-        <v>44939</v>
-      </c>
+      <c r="F161" s="58"/>
+      <c r="G161" s="58"/>
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
       <c r="J161" s="22"/>
@@ -32726,26 +32203,16 @@
       <c r="FM161" s="22"/>
       <c r="FN161" s="22"/>
     </row>
-    <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="26"/>
       <c r="B162" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="C162" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="D162" s="56">
-        <v>0</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C162" s="96"/>
+      <c r="D162" s="56"/>
       <c r="E162" s="57"/>
-      <c r="F162" s="58">
-        <f>G161</f>
-        <v>44939</v>
-      </c>
-      <c r="G162" s="58">
-        <f t="shared" si="57"/>
-        <v>44939</v>
-      </c>
+      <c r="F162" s="58"/>
+      <c r="G162" s="58"/>
       <c r="H162" s="15"/>
       <c r="I162" s="15"/>
       <c r="J162" s="22"/>
@@ -32910,26 +32377,16 @@
       <c r="FM162" s="22"/>
       <c r="FN162" s="22"/>
     </row>
-    <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="85" t="s">
-        <v>177</v>
-      </c>
-      <c r="C163" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="D163" s="56">
-        <v>0</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C163" s="96"/>
+      <c r="D163" s="56"/>
       <c r="E163" s="57"/>
-      <c r="F163" s="58">
-        <f>G162</f>
-        <v>44939</v>
-      </c>
-      <c r="G163" s="58">
-        <f t="shared" si="57"/>
-        <v>44939</v>
-      </c>
+      <c r="F163" s="58"/>
+      <c r="G163" s="58"/>
       <c r="H163" s="15"/>
       <c r="I163" s="15"/>
       <c r="J163" s="22"/>
@@ -33094,26 +32551,16 @@
       <c r="FM163" s="22"/>
       <c r="FN163" s="22"/>
     </row>
-    <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="26"/>
       <c r="B164" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="C164" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" s="56">
-        <v>0</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C164" s="96"/>
+      <c r="D164" s="56"/>
       <c r="E164" s="57"/>
-      <c r="F164" s="58">
-        <f>G163</f>
-        <v>44939</v>
-      </c>
-      <c r="G164" s="58">
-        <f t="shared" si="57"/>
-        <v>44939</v>
-      </c>
+      <c r="F164" s="58"/>
+      <c r="G164" s="58"/>
       <c r="H164" s="15"/>
       <c r="I164" s="15"/>
       <c r="J164" s="22"/>
@@ -33278,26 +32725,16 @@
       <c r="FM164" s="22"/>
       <c r="FN164" s="22"/>
     </row>
-    <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="26"/>
       <c r="B165" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="C165" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D165" s="56">
-        <v>0</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C165" s="96"/>
+      <c r="D165" s="56"/>
       <c r="E165" s="57"/>
-      <c r="F165" s="58">
-        <f>G164</f>
-        <v>44939</v>
-      </c>
-      <c r="G165" s="58">
-        <f t="shared" si="57"/>
-        <v>44939</v>
-      </c>
+      <c r="F165" s="58"/>
+      <c r="G165" s="58"/>
       <c r="H165" s="15"/>
       <c r="I165" s="15"/>
       <c r="J165" s="22"/>
@@ -33462,26 +32899,16 @@
       <c r="FM165" s="22"/>
       <c r="FN165" s="22"/>
     </row>
-    <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="26"/>
       <c r="B166" s="85" t="s">
-        <v>180</v>
-      </c>
-      <c r="C166" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D166" s="56">
-        <v>0</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C166" s="96"/>
+      <c r="D166" s="56"/>
       <c r="E166" s="57"/>
-      <c r="F166" s="58">
-        <f>G165 + 1</f>
-        <v>44940</v>
-      </c>
-      <c r="G166" s="58">
-        <f t="shared" si="57"/>
-        <v>44940</v>
-      </c>
+      <c r="F166" s="58"/>
+      <c r="G166" s="58"/>
       <c r="H166" s="15"/>
       <c r="I166" s="15"/>
       <c r="J166" s="22"/>
@@ -33646,26 +33073,16 @@
       <c r="FM166" s="22"/>
       <c r="FN166" s="22"/>
     </row>
-    <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="26"/>
       <c r="B167" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="C167" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="D167" s="56">
-        <v>0</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C167" s="96"/>
+      <c r="D167" s="56"/>
       <c r="E167" s="57"/>
-      <c r="F167" s="58">
-        <f>G165</f>
-        <v>44939</v>
-      </c>
-      <c r="G167" s="58">
-        <f t="shared" si="57"/>
-        <v>44939</v>
-      </c>
+      <c r="F167" s="58"/>
+      <c r="G167" s="58"/>
       <c r="H167" s="15"/>
       <c r="I167" s="15"/>
       <c r="J167" s="22"/>
@@ -33830,9 +33247,9 @@
       <c r="FM167" s="22"/>
       <c r="FN167" s="22"/>
     </row>
-    <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B168" s="67" t="s">
         <v>0</v>
@@ -34009,44 +33426,44 @@
       <c r="FM168" s="24"/>
       <c r="FN168" s="24"/>
     </row>
-    <row r="169" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="13"/>
       <c r="G170" s="28"/>
     </row>
-    <row r="171" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
-    <mergeCell ref="FH4:FN4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="BN4:BT4"/>
-    <mergeCell ref="BU4:CA4"/>
-    <mergeCell ref="CB4:CH4"/>
-    <mergeCell ref="CI4:CO4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="BU4:CA4"/>
+    <mergeCell ref="CB4:CH4"/>
+    <mergeCell ref="CI4:CO4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
+    <mergeCell ref="FH4:FN4"/>
   </mergeCells>
   <conditionalFormatting sqref="D168:E168 D7:E25 D27:E52 D54:E60 D62:E66">
     <cfRule type="dataBar" priority="47">
@@ -34327,9 +33744,13 @@
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J1" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83710482-9E35-2B4E-B208-FF5661D2AE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB5449-F665-48B0-B688-1BCB1A3C7153}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="13" r:id="rId1"/>
@@ -30,12 +30,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="197">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -212,6 +206,9 @@
   </si>
   <si>
     <t>Description of Changes</t>
+  </si>
+  <si>
+    <t>This document has been generated from template ST-FunctionalTestCase-Template, version 1.1</t>
   </si>
   <si>
     <t>Document Name</t>
@@ -676,31 +673,7 @@
     <t>Code kịch bản automatic test cho chức năng sinh viên bookmark bài viết trên hệ thống</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.9</t>
+    <t>Sinh viên xóa câu hỏi của mình</t>
   </si>
 </sst>
 </file>
@@ -2386,21 +2359,21 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="4" max="4" width="61.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98"/>
       <c r="B1" s="99"/>
       <c r="C1" s="100"/>
       <c r="D1" s="101"/>
     </row>
-    <row r="2" spans="1:4" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="102" t="s">
         <v>35</v>
       </c>
@@ -2408,13 +2381,13 @@
       <c r="C2" s="102"/>
       <c r="D2" s="102"/>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
     </row>
-    <row r="4" spans="1:4" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>29</v>
       </c>
@@ -2424,7 +2397,7 @@
       <c r="C4" s="104"/>
       <c r="D4" s="105"/>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="71" t="s">
         <v>30</v>
       </c>
@@ -2454,19 +2427,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="106" t="s">
         <v>36</v>
       </c>
@@ -2474,7 +2447,7 @@
       <c r="C1" s="107"/>
       <c r="D1" s="107"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>37</v>
       </c>
@@ -2488,134 +2461,136 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
-        <v>195</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="81">
+        <v>0.1</v>
       </c>
       <c r="B3" s="82">
         <v>44850</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
-        <v>196</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="81">
+        <v>0.2</v>
       </c>
       <c r="B4" s="82">
         <v>44851</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
-        <v>197</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="81">
+        <v>0.3</v>
       </c>
       <c r="B5" s="82">
         <v>44851</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="81" t="s">
-        <v>198</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="81">
+        <v>0.4</v>
       </c>
       <c r="B6" s="82">
         <v>44852</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="81" t="s">
-        <v>199</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="81">
+        <v>0.5</v>
       </c>
       <c r="B7" s="82">
         <v>44852</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="81" t="s">
-        <v>200</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="81">
+        <v>0.6</v>
       </c>
       <c r="B8" s="82">
         <v>44853</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>201</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="81">
+        <v>0.7</v>
       </c>
       <c r="B9" s="82">
         <v>44853</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
-        <v>202</v>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="81">
+        <v>0.8</v>
       </c>
       <c r="B10" s="82">
         <v>44853</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
-        <v>203</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="81">
+        <v>0.9</v>
       </c>
       <c r="B11" s="82">
         <v>44854</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="108" t="s">
+        <v>41</v>
+      </c>
       <c r="B12" s="109"/>
       <c r="C12" s="109"/>
       <c r="D12" s="109"/>
@@ -2638,45 +2613,45 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="111"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="113"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="114" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="115"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="116"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="117"/>
       <c r="B5" s="115"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="117"/>
       <c r="B6" s="115"/>
     </row>
-    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="110"/>
       <c r="B7" s="110"/>
     </row>
@@ -2705,28 +2680,28 @@
   </sheetPr>
   <dimension ref="A1:FN171"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="99.83203125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="99.88671875" style="62" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="45" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="121" width="2.5" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="121" width="2.5546875" customWidth="1"/>
     <col min="122" max="142" width="2.6640625" customWidth="1"/>
     <col min="143" max="170" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
@@ -2743,7 +2718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
@@ -2754,7 +2729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>25</v>
       </c>
@@ -2767,11 +2742,11 @@
       <c r="D3" s="122"/>
       <c r="E3" s="36"/>
       <c r="F3" s="123">
-        <v>44851</v>
+        <v>44872</v>
       </c>
       <c r="G3" s="123"/>
     </row>
-    <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>19</v>
       </c>
@@ -2785,7 +2760,7 @@
       </c>
       <c r="J4" s="118">
         <f>J5</f>
-        <v>44851</v>
+        <v>44872</v>
       </c>
       <c r="K4" s="119"/>
       <c r="L4" s="119"/>
@@ -2795,7 +2770,7 @@
       <c r="P4" s="120"/>
       <c r="Q4" s="118">
         <f>Q5</f>
-        <v>44858</v>
+        <v>44879</v>
       </c>
       <c r="R4" s="119"/>
       <c r="S4" s="119"/>
@@ -2805,7 +2780,7 @@
       <c r="W4" s="120"/>
       <c r="X4" s="118">
         <f>X5</f>
-        <v>44865</v>
+        <v>44886</v>
       </c>
       <c r="Y4" s="119"/>
       <c r="Z4" s="119"/>
@@ -2815,7 +2790,7 @@
       <c r="AD4" s="120"/>
       <c r="AE4" s="118">
         <f>AE5</f>
-        <v>44872</v>
+        <v>44893</v>
       </c>
       <c r="AF4" s="119"/>
       <c r="AG4" s="119"/>
@@ -2825,7 +2800,7 @@
       <c r="AK4" s="120"/>
       <c r="AL4" s="118">
         <f>AL5</f>
-        <v>44879</v>
+        <v>44900</v>
       </c>
       <c r="AM4" s="119"/>
       <c r="AN4" s="119"/>
@@ -2835,7 +2810,7 @@
       <c r="AR4" s="120"/>
       <c r="AS4" s="118">
         <f>AS5</f>
-        <v>44886</v>
+        <v>44907</v>
       </c>
       <c r="AT4" s="119"/>
       <c r="AU4" s="119"/>
@@ -2845,7 +2820,7 @@
       <c r="AY4" s="120"/>
       <c r="AZ4" s="118">
         <f>AZ5</f>
-        <v>44893</v>
+        <v>44914</v>
       </c>
       <c r="BA4" s="119"/>
       <c r="BB4" s="119"/>
@@ -2855,7 +2830,7 @@
       <c r="BF4" s="120"/>
       <c r="BG4" s="118">
         <f>BG5</f>
-        <v>44900</v>
+        <v>44921</v>
       </c>
       <c r="BH4" s="119"/>
       <c r="BI4" s="119"/>
@@ -2865,7 +2840,7 @@
       <c r="BM4" s="120"/>
       <c r="BN4" s="118">
         <f>BN5</f>
-        <v>44907</v>
+        <v>44928</v>
       </c>
       <c r="BO4" s="119"/>
       <c r="BP4" s="119"/>
@@ -2875,7 +2850,7 @@
       <c r="BT4" s="120"/>
       <c r="BU4" s="118">
         <f>BU5</f>
-        <v>44914</v>
+        <v>44935</v>
       </c>
       <c r="BV4" s="119"/>
       <c r="BW4" s="119"/>
@@ -2885,7 +2860,7 @@
       <c r="CA4" s="120"/>
       <c r="CB4" s="118">
         <f>CB5</f>
-        <v>44921</v>
+        <v>44942</v>
       </c>
       <c r="CC4" s="119"/>
       <c r="CD4" s="119"/>
@@ -2895,7 +2870,7 @@
       <c r="CH4" s="120"/>
       <c r="CI4" s="118">
         <f>CI5</f>
-        <v>44928</v>
+        <v>44949</v>
       </c>
       <c r="CJ4" s="119"/>
       <c r="CK4" s="119"/>
@@ -2905,7 +2880,7 @@
       <c r="CO4" s="120"/>
       <c r="CP4" s="118">
         <f t="shared" ref="CP4" si="0">CP5</f>
-        <v>44935</v>
+        <v>44956</v>
       </c>
       <c r="CQ4" s="119"/>
       <c r="CR4" s="119"/>
@@ -2915,7 +2890,7 @@
       <c r="CV4" s="120"/>
       <c r="CW4" s="118">
         <f t="shared" ref="CW4" si="1">CW5</f>
-        <v>44942</v>
+        <v>44963</v>
       </c>
       <c r="CX4" s="119"/>
       <c r="CY4" s="119"/>
@@ -2925,7 +2900,7 @@
       <c r="DC4" s="120"/>
       <c r="DD4" s="118">
         <f t="shared" ref="DD4" si="2">DD5</f>
-        <v>44949</v>
+        <v>44970</v>
       </c>
       <c r="DE4" s="119"/>
       <c r="DF4" s="119"/>
@@ -2935,7 +2910,7 @@
       <c r="DJ4" s="120"/>
       <c r="DK4" s="118">
         <f t="shared" ref="DK4" si="3">DK5</f>
-        <v>44956</v>
+        <v>44977</v>
       </c>
       <c r="DL4" s="119"/>
       <c r="DM4" s="119"/>
@@ -2945,7 +2920,7 @@
       <c r="DQ4" s="120"/>
       <c r="DR4" s="118">
         <f t="shared" ref="DR4" si="4">DR5</f>
-        <v>44963</v>
+        <v>44984</v>
       </c>
       <c r="DS4" s="119"/>
       <c r="DT4" s="119"/>
@@ -2955,7 +2930,7 @@
       <c r="DX4" s="120"/>
       <c r="DY4" s="118">
         <f t="shared" ref="DY4" si="5">DY5</f>
-        <v>44970</v>
+        <v>44991</v>
       </c>
       <c r="DZ4" s="119"/>
       <c r="EA4" s="119"/>
@@ -2965,7 +2940,7 @@
       <c r="EE4" s="120"/>
       <c r="EF4" s="118">
         <f t="shared" ref="EF4" si="6">EF5</f>
-        <v>44977</v>
+        <v>44998</v>
       </c>
       <c r="EG4" s="119"/>
       <c r="EH4" s="119"/>
@@ -2975,7 +2950,7 @@
       <c r="EL4" s="120"/>
       <c r="EM4" s="118">
         <f t="shared" ref="EM4" si="7">EM5</f>
-        <v>44984</v>
+        <v>45005</v>
       </c>
       <c r="EN4" s="119"/>
       <c r="EO4" s="119"/>
@@ -2985,7 +2960,7 @@
       <c r="ES4" s="120"/>
       <c r="ET4" s="118">
         <f t="shared" ref="ET4" si="8">ET5</f>
-        <v>44991</v>
+        <v>45012</v>
       </c>
       <c r="EU4" s="119"/>
       <c r="EV4" s="119"/>
@@ -2995,7 +2970,7 @@
       <c r="EZ4" s="120"/>
       <c r="FA4" s="118">
         <f t="shared" ref="FA4" si="9">FA5</f>
-        <v>44998</v>
+        <v>45019</v>
       </c>
       <c r="FB4" s="119"/>
       <c r="FC4" s="119"/>
@@ -3005,7 +2980,7 @@
       <c r="FG4" s="120"/>
       <c r="FH4" s="118">
         <f t="shared" ref="FH4" si="10">FH5</f>
-        <v>45005</v>
+        <v>45026</v>
       </c>
       <c r="FI4" s="119"/>
       <c r="FJ4" s="119"/>
@@ -3014,7 +2989,7 @@
       <c r="FM4" s="119"/>
       <c r="FN4" s="120"/>
     </row>
-    <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>20</v>
       </c>
@@ -3027,650 +3002,650 @@
       <c r="H5" s="32"/>
       <c r="J5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44851</v>
+        <v>44872</v>
       </c>
       <c r="K5" s="9">
         <f>J5+1</f>
-        <v>44852</v>
+        <v>44873</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" ref="L5:AY5" si="11">K5+1</f>
-        <v>44853</v>
+        <v>44874</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="11"/>
-        <v>44854</v>
+        <v>44875</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="11"/>
-        <v>44855</v>
+        <v>44876</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="11"/>
-        <v>44856</v>
+        <v>44877</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" si="11"/>
-        <v>44857</v>
+        <v>44878</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44858</v>
+        <v>44879</v>
       </c>
       <c r="R5" s="9">
         <f>Q5+1</f>
-        <v>44859</v>
+        <v>44880</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="11"/>
-        <v>44860</v>
+        <v>44881</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="11"/>
-        <v>44861</v>
+        <v>44882</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="11"/>
-        <v>44862</v>
+        <v>44883</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="11"/>
-        <v>44863</v>
+        <v>44884</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="11"/>
-        <v>44864</v>
+        <v>44885</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44865</v>
+        <v>44886</v>
       </c>
       <c r="Y5" s="9">
         <f>X5+1</f>
-        <v>44866</v>
+        <v>44887</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="11"/>
-        <v>44867</v>
+        <v>44888</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="11"/>
-        <v>44868</v>
+        <v>44889</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="11"/>
-        <v>44869</v>
+        <v>44890</v>
       </c>
       <c r="AC5" s="9">
         <f t="shared" si="11"/>
-        <v>44870</v>
+        <v>44891</v>
       </c>
       <c r="AD5" s="11">
         <f t="shared" si="11"/>
-        <v>44871</v>
+        <v>44892</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44872</v>
+        <v>44893</v>
       </c>
       <c r="AF5" s="9">
         <f>AE5+1</f>
-        <v>44873</v>
+        <v>44894</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="11"/>
-        <v>44874</v>
+        <v>44895</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="11"/>
-        <v>44875</v>
+        <v>44896</v>
       </c>
       <c r="AI5" s="9">
         <f t="shared" si="11"/>
-        <v>44876</v>
+        <v>44897</v>
       </c>
       <c r="AJ5" s="9">
         <f t="shared" si="11"/>
-        <v>44877</v>
+        <v>44898</v>
       </c>
       <c r="AK5" s="11">
         <f t="shared" si="11"/>
-        <v>44878</v>
+        <v>44899</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44879</v>
+        <v>44900</v>
       </c>
       <c r="AM5" s="9">
         <f>AL5+1</f>
-        <v>44880</v>
+        <v>44901</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="11"/>
-        <v>44881</v>
+        <v>44902</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="11"/>
-        <v>44882</v>
+        <v>44903</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" si="11"/>
-        <v>44883</v>
+        <v>44904</v>
       </c>
       <c r="AQ5" s="9">
         <f t="shared" si="11"/>
-        <v>44884</v>
+        <v>44905</v>
       </c>
       <c r="AR5" s="11">
         <f t="shared" si="11"/>
-        <v>44885</v>
+        <v>44906</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44886</v>
+        <v>44907</v>
       </c>
       <c r="AT5" s="9">
         <f>AS5+1</f>
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" si="11"/>
-        <v>44888</v>
+        <v>44909</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" si="11"/>
-        <v>44889</v>
+        <v>44910</v>
       </c>
       <c r="AW5" s="9">
         <f t="shared" si="11"/>
-        <v>44890</v>
+        <v>44911</v>
       </c>
       <c r="AX5" s="9">
         <f t="shared" si="11"/>
-        <v>44891</v>
+        <v>44912</v>
       </c>
       <c r="AY5" s="11">
         <f t="shared" si="11"/>
-        <v>44892</v>
+        <v>44913</v>
       </c>
       <c r="AZ5" s="10">
         <f t="shared" ref="AZ5:BM5" si="12">AY5+1</f>
-        <v>44893</v>
+        <v>44914</v>
       </c>
       <c r="BA5" s="9">
         <f t="shared" si="12"/>
-        <v>44894</v>
+        <v>44915</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" si="12"/>
-        <v>44895</v>
+        <v>44916</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" si="12"/>
-        <v>44896</v>
+        <v>44917</v>
       </c>
       <c r="BD5" s="9">
         <f t="shared" si="12"/>
-        <v>44897</v>
+        <v>44918</v>
       </c>
       <c r="BE5" s="9">
         <f t="shared" si="12"/>
-        <v>44898</v>
+        <v>44919</v>
       </c>
       <c r="BF5" s="11">
         <f t="shared" si="12"/>
-        <v>44899</v>
+        <v>44920</v>
       </c>
       <c r="BG5" s="10">
         <f t="shared" si="12"/>
-        <v>44900</v>
+        <v>44921</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" si="12"/>
-        <v>44901</v>
+        <v>44922</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" si="12"/>
-        <v>44902</v>
+        <v>44923</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" si="12"/>
-        <v>44903</v>
+        <v>44924</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" si="12"/>
-        <v>44904</v>
+        <v>44925</v>
       </c>
       <c r="BL5" s="9">
         <f t="shared" si="12"/>
-        <v>44905</v>
+        <v>44926</v>
       </c>
       <c r="BM5" s="11">
         <f t="shared" si="12"/>
-        <v>44906</v>
+        <v>44927</v>
       </c>
       <c r="BN5" s="10">
         <f t="shared" ref="BN5:BT5" si="13">BM5+1</f>
-        <v>44907</v>
+        <v>44928</v>
       </c>
       <c r="BO5" s="9">
         <f t="shared" si="13"/>
-        <v>44908</v>
+        <v>44929</v>
       </c>
       <c r="BP5" s="9">
         <f t="shared" si="13"/>
-        <v>44909</v>
+        <v>44930</v>
       </c>
       <c r="BQ5" s="9">
         <f t="shared" si="13"/>
-        <v>44910</v>
+        <v>44931</v>
       </c>
       <c r="BR5" s="9">
         <f t="shared" si="13"/>
-        <v>44911</v>
+        <v>44932</v>
       </c>
       <c r="BS5" s="9">
         <f t="shared" si="13"/>
-        <v>44912</v>
+        <v>44933</v>
       </c>
       <c r="BT5" s="11">
         <f t="shared" si="13"/>
-        <v>44913</v>
+        <v>44934</v>
       </c>
       <c r="BU5" s="10">
         <f t="shared" ref="BU5:CH5" si="14">BT5+1</f>
-        <v>44914</v>
+        <v>44935</v>
       </c>
       <c r="BV5" s="9">
         <f t="shared" si="14"/>
-        <v>44915</v>
+        <v>44936</v>
       </c>
       <c r="BW5" s="9">
         <f t="shared" si="14"/>
-        <v>44916</v>
+        <v>44937</v>
       </c>
       <c r="BX5" s="9">
         <f t="shared" si="14"/>
-        <v>44917</v>
+        <v>44938</v>
       </c>
       <c r="BY5" s="9">
         <f t="shared" si="14"/>
-        <v>44918</v>
+        <v>44939</v>
       </c>
       <c r="BZ5" s="9">
         <f t="shared" si="14"/>
-        <v>44919</v>
+        <v>44940</v>
       </c>
       <c r="CA5" s="11">
         <f t="shared" si="14"/>
-        <v>44920</v>
+        <v>44941</v>
       </c>
       <c r="CB5" s="10">
         <f t="shared" si="14"/>
-        <v>44921</v>
+        <v>44942</v>
       </c>
       <c r="CC5" s="9">
         <f t="shared" si="14"/>
-        <v>44922</v>
+        <v>44943</v>
       </c>
       <c r="CD5" s="9">
         <f t="shared" si="14"/>
-        <v>44923</v>
+        <v>44944</v>
       </c>
       <c r="CE5" s="9">
         <f t="shared" si="14"/>
-        <v>44924</v>
+        <v>44945</v>
       </c>
       <c r="CF5" s="9">
         <f t="shared" si="14"/>
-        <v>44925</v>
+        <v>44946</v>
       </c>
       <c r="CG5" s="9">
         <f t="shared" si="14"/>
-        <v>44926</v>
+        <v>44947</v>
       </c>
       <c r="CH5" s="11">
         <f t="shared" si="14"/>
-        <v>44927</v>
+        <v>44948</v>
       </c>
       <c r="CI5" s="10">
         <f t="shared" ref="CI5:CO5" si="15">CH5+1</f>
-        <v>44928</v>
+        <v>44949</v>
       </c>
       <c r="CJ5" s="9">
         <f t="shared" si="15"/>
-        <v>44929</v>
+        <v>44950</v>
       </c>
       <c r="CK5" s="9">
         <f t="shared" si="15"/>
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="CL5" s="9">
         <f t="shared" si="15"/>
-        <v>44931</v>
+        <v>44952</v>
       </c>
       <c r="CM5" s="9">
         <f t="shared" si="15"/>
-        <v>44932</v>
+        <v>44953</v>
       </c>
       <c r="CN5" s="9">
         <f t="shared" si="15"/>
-        <v>44933</v>
+        <v>44954</v>
       </c>
       <c r="CO5" s="11">
         <f t="shared" si="15"/>
-        <v>44934</v>
+        <v>44955</v>
       </c>
       <c r="CP5" s="10">
         <f t="shared" ref="CP5:DC5" si="16">CO5+1</f>
-        <v>44935</v>
+        <v>44956</v>
       </c>
       <c r="CQ5" s="9">
         <f t="shared" si="16"/>
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="CR5" s="9">
         <f t="shared" si="16"/>
-        <v>44937</v>
+        <v>44958</v>
       </c>
       <c r="CS5" s="9">
         <f t="shared" si="16"/>
-        <v>44938</v>
+        <v>44959</v>
       </c>
       <c r="CT5" s="9">
         <f t="shared" si="16"/>
-        <v>44939</v>
+        <v>44960</v>
       </c>
       <c r="CU5" s="9">
         <f t="shared" si="16"/>
-        <v>44940</v>
+        <v>44961</v>
       </c>
       <c r="CV5" s="11">
         <f t="shared" si="16"/>
-        <v>44941</v>
+        <v>44962</v>
       </c>
       <c r="CW5" s="10">
         <f t="shared" si="16"/>
-        <v>44942</v>
+        <v>44963</v>
       </c>
       <c r="CX5" s="9">
         <f t="shared" si="16"/>
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="CY5" s="9">
         <f t="shared" si="16"/>
-        <v>44944</v>
+        <v>44965</v>
       </c>
       <c r="CZ5" s="9">
         <f t="shared" si="16"/>
-        <v>44945</v>
+        <v>44966</v>
       </c>
       <c r="DA5" s="9">
         <f t="shared" si="16"/>
-        <v>44946</v>
+        <v>44967</v>
       </c>
       <c r="DB5" s="9">
         <f t="shared" si="16"/>
-        <v>44947</v>
+        <v>44968</v>
       </c>
       <c r="DC5" s="11">
         <f t="shared" si="16"/>
-        <v>44948</v>
+        <v>44969</v>
       </c>
       <c r="DD5" s="10">
         <f t="shared" ref="DD5:DJ5" si="17">DC5+1</f>
-        <v>44949</v>
+        <v>44970</v>
       </c>
       <c r="DE5" s="9">
         <f t="shared" si="17"/>
-        <v>44950</v>
+        <v>44971</v>
       </c>
       <c r="DF5" s="9">
         <f t="shared" si="17"/>
-        <v>44951</v>
+        <v>44972</v>
       </c>
       <c r="DG5" s="9">
         <f t="shared" si="17"/>
-        <v>44952</v>
+        <v>44973</v>
       </c>
       <c r="DH5" s="9">
         <f t="shared" si="17"/>
-        <v>44953</v>
+        <v>44974</v>
       </c>
       <c r="DI5" s="9">
         <f t="shared" si="17"/>
-        <v>44954</v>
+        <v>44975</v>
       </c>
       <c r="DJ5" s="11">
         <f t="shared" si="17"/>
-        <v>44955</v>
+        <v>44976</v>
       </c>
       <c r="DK5" s="10">
         <f t="shared" ref="DK5:DQ5" si="18">DJ5+1</f>
-        <v>44956</v>
+        <v>44977</v>
       </c>
       <c r="DL5" s="9">
         <f t="shared" si="18"/>
-        <v>44957</v>
+        <v>44978</v>
       </c>
       <c r="DM5" s="9">
         <f t="shared" si="18"/>
-        <v>44958</v>
+        <v>44979</v>
       </c>
       <c r="DN5" s="9">
         <f t="shared" si="18"/>
-        <v>44959</v>
+        <v>44980</v>
       </c>
       <c r="DO5" s="9">
         <f t="shared" si="18"/>
-        <v>44960</v>
+        <v>44981</v>
       </c>
       <c r="DP5" s="9">
         <f t="shared" si="18"/>
-        <v>44961</v>
+        <v>44982</v>
       </c>
       <c r="DQ5" s="11">
         <f t="shared" si="18"/>
-        <v>44962</v>
+        <v>44983</v>
       </c>
       <c r="DR5" s="10">
         <f t="shared" ref="DR5:DX5" si="19">DQ5+1</f>
-        <v>44963</v>
+        <v>44984</v>
       </c>
       <c r="DS5" s="9">
         <f t="shared" si="19"/>
-        <v>44964</v>
+        <v>44985</v>
       </c>
       <c r="DT5" s="9">
         <f t="shared" si="19"/>
-        <v>44965</v>
+        <v>44986</v>
       </c>
       <c r="DU5" s="9">
         <f t="shared" si="19"/>
-        <v>44966</v>
+        <v>44987</v>
       </c>
       <c r="DV5" s="9">
         <f t="shared" si="19"/>
-        <v>44967</v>
+        <v>44988</v>
       </c>
       <c r="DW5" s="9">
         <f t="shared" si="19"/>
-        <v>44968</v>
+        <v>44989</v>
       </c>
       <c r="DX5" s="11">
         <f t="shared" si="19"/>
-        <v>44969</v>
+        <v>44990</v>
       </c>
       <c r="DY5" s="10">
         <f t="shared" ref="DY5:EE5" si="20">DX5+1</f>
-        <v>44970</v>
+        <v>44991</v>
       </c>
       <c r="DZ5" s="9">
         <f t="shared" si="20"/>
-        <v>44971</v>
+        <v>44992</v>
       </c>
       <c r="EA5" s="9">
         <f t="shared" si="20"/>
-        <v>44972</v>
+        <v>44993</v>
       </c>
       <c r="EB5" s="9">
         <f t="shared" si="20"/>
-        <v>44973</v>
+        <v>44994</v>
       </c>
       <c r="EC5" s="9">
         <f t="shared" si="20"/>
-        <v>44974</v>
+        <v>44995</v>
       </c>
       <c r="ED5" s="9">
         <f t="shared" si="20"/>
-        <v>44975</v>
+        <v>44996</v>
       </c>
       <c r="EE5" s="11">
         <f t="shared" si="20"/>
-        <v>44976</v>
+        <v>44997</v>
       </c>
       <c r="EF5" s="10">
         <f t="shared" ref="EF5:EL5" si="21">EE5+1</f>
-        <v>44977</v>
+        <v>44998</v>
       </c>
       <c r="EG5" s="9">
         <f t="shared" si="21"/>
-        <v>44978</v>
+        <v>44999</v>
       </c>
       <c r="EH5" s="9">
         <f t="shared" si="21"/>
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="EI5" s="9">
         <f t="shared" si="21"/>
-        <v>44980</v>
+        <v>45001</v>
       </c>
       <c r="EJ5" s="9">
         <f t="shared" si="21"/>
-        <v>44981</v>
+        <v>45002</v>
       </c>
       <c r="EK5" s="9">
         <f t="shared" si="21"/>
-        <v>44982</v>
+        <v>45003</v>
       </c>
       <c r="EL5" s="11">
         <f t="shared" si="21"/>
-        <v>44983</v>
+        <v>45004</v>
       </c>
       <c r="EM5" s="10">
         <f t="shared" ref="EM5:ES5" si="22">EL5+1</f>
-        <v>44984</v>
+        <v>45005</v>
       </c>
       <c r="EN5" s="9">
         <f t="shared" si="22"/>
-        <v>44985</v>
+        <v>45006</v>
       </c>
       <c r="EO5" s="9">
         <f t="shared" si="22"/>
-        <v>44986</v>
+        <v>45007</v>
       </c>
       <c r="EP5" s="9">
         <f t="shared" si="22"/>
-        <v>44987</v>
+        <v>45008</v>
       </c>
       <c r="EQ5" s="9">
         <f t="shared" si="22"/>
-        <v>44988</v>
+        <v>45009</v>
       </c>
       <c r="ER5" s="9">
         <f t="shared" si="22"/>
-        <v>44989</v>
+        <v>45010</v>
       </c>
       <c r="ES5" s="11">
         <f t="shared" si="22"/>
-        <v>44990</v>
+        <v>45011</v>
       </c>
       <c r="ET5" s="10">
         <f t="shared" ref="ET5:EZ5" si="23">ES5+1</f>
-        <v>44991</v>
+        <v>45012</v>
       </c>
       <c r="EU5" s="9">
         <f t="shared" si="23"/>
-        <v>44992</v>
+        <v>45013</v>
       </c>
       <c r="EV5" s="9">
         <f t="shared" si="23"/>
-        <v>44993</v>
+        <v>45014</v>
       </c>
       <c r="EW5" s="9">
         <f t="shared" si="23"/>
-        <v>44994</v>
+        <v>45015</v>
       </c>
       <c r="EX5" s="9">
         <f t="shared" si="23"/>
-        <v>44995</v>
+        <v>45016</v>
       </c>
       <c r="EY5" s="9">
         <f t="shared" si="23"/>
-        <v>44996</v>
+        <v>45017</v>
       </c>
       <c r="EZ5" s="11">
         <f t="shared" si="23"/>
-        <v>44997</v>
+        <v>45018</v>
       </c>
       <c r="FA5" s="10">
         <f t="shared" ref="FA5:FG5" si="24">EZ5+1</f>
-        <v>44998</v>
+        <v>45019</v>
       </c>
       <c r="FB5" s="9">
         <f t="shared" si="24"/>
-        <v>44999</v>
+        <v>45020</v>
       </c>
       <c r="FC5" s="9">
         <f t="shared" si="24"/>
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="FD5" s="9">
         <f t="shared" si="24"/>
-        <v>45001</v>
+        <v>45022</v>
       </c>
       <c r="FE5" s="9">
         <f t="shared" si="24"/>
-        <v>45002</v>
+        <v>45023</v>
       </c>
       <c r="FF5" s="9">
         <f t="shared" si="24"/>
-        <v>45003</v>
+        <v>45024</v>
       </c>
       <c r="FG5" s="11">
         <f t="shared" si="24"/>
-        <v>45004</v>
+        <v>45025</v>
       </c>
       <c r="FH5" s="10">
         <f t="shared" ref="FH5:FN5" si="25">FG5+1</f>
-        <v>45005</v>
+        <v>45026</v>
       </c>
       <c r="FI5" s="9">
         <f t="shared" si="25"/>
-        <v>45006</v>
+        <v>45027</v>
       </c>
       <c r="FJ5" s="9">
         <f t="shared" si="25"/>
-        <v>45007</v>
+        <v>45028</v>
       </c>
       <c r="FK5" s="9">
         <f t="shared" si="25"/>
-        <v>45008</v>
+        <v>45029</v>
       </c>
       <c r="FL5" s="9">
         <f t="shared" si="25"/>
-        <v>45009</v>
+        <v>45030</v>
       </c>
       <c r="FM5" s="9">
         <f t="shared" si="25"/>
-        <v>45010</v>
+        <v>45031</v>
       </c>
       <c r="FN5" s="11">
         <f t="shared" si="25"/>
-        <v>45011</v>
+        <v>45032</v>
       </c>
     </row>
-    <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>21</v>
       </c>
@@ -4341,7 +4316,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>26</v>
       </c>
@@ -4513,9 +4488,9 @@
       <c r="FM7" s="22"/>
       <c r="FN7" s="22"/>
     </row>
-    <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="93"/>
@@ -4684,12 +4659,12 @@
       <c r="FM8" s="22"/>
       <c r="FN8" s="22"/>
     </row>
-    <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="47"/>
@@ -4865,15 +4840,15 @@
       <c r="FM9" s="22"/>
       <c r="FN9" s="22"/>
     </row>
-    <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="48">
         <v>0</v>
@@ -4881,11 +4856,11 @@
       <c r="E10" s="40"/>
       <c r="F10" s="75">
         <f>Project_Start</f>
-        <v>44851</v>
+        <v>44872</v>
       </c>
       <c r="G10" s="75">
         <f t="shared" ref="G10:G15" si="43">F10</f>
-        <v>44851</v>
+        <v>44872</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15">
@@ -5054,15 +5029,15 @@
       <c r="FM10" s="22"/>
       <c r="FN10" s="22"/>
     </row>
-    <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="48">
         <v>0</v>
@@ -5070,11 +5045,11 @@
       <c r="E11" s="41"/>
       <c r="F11" s="75">
         <f>G10</f>
-        <v>44851</v>
+        <v>44872</v>
       </c>
       <c r="G11" s="75">
         <f t="shared" si="43"/>
-        <v>44851</v>
+        <v>44872</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15">
@@ -5243,25 +5218,25 @@
       <c r="FM11" s="22"/>
       <c r="FN11" s="22"/>
     </row>
-    <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="48">
         <v>0</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="75">
-        <f>G11 + 1</f>
-        <v>44852</v>
+        <f>G11</f>
+        <v>44872</v>
       </c>
       <c r="G12" s="75">
         <f t="shared" si="43"/>
-        <v>44852</v>
+        <v>44872</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15">
@@ -5430,13 +5405,13 @@
       <c r="FM12" s="22"/>
       <c r="FN12" s="22"/>
     </row>
-    <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="48">
         <v>0</v>
@@ -5444,11 +5419,11 @@
       <c r="E13" s="41"/>
       <c r="F13" s="75">
         <f>G12 + 1</f>
-        <v>44853</v>
+        <v>44873</v>
       </c>
       <c r="G13" s="75">
         <f t="shared" si="43"/>
-        <v>44853</v>
+        <v>44873</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -5614,13 +5589,13 @@
       <c r="FM13" s="22"/>
       <c r="FN13" s="22"/>
     </row>
-    <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="48">
         <v>0</v>
@@ -5628,11 +5603,11 @@
       <c r="E14" s="41"/>
       <c r="F14" s="75">
         <f>G13 + 1</f>
-        <v>44854</v>
+        <v>44874</v>
       </c>
       <c r="G14" s="75">
-        <f t="shared" si="43"/>
-        <v>44854</v>
+        <f>F14 + 1</f>
+        <v>44875</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -5798,13 +5773,13 @@
       <c r="FM14" s="22"/>
       <c r="FN14" s="22"/>
     </row>
-    <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="48">
         <v>0</v>
@@ -5812,11 +5787,11 @@
       <c r="E15" s="41"/>
       <c r="F15" s="75">
         <f>G14 + 1</f>
-        <v>44855</v>
+        <v>44876</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" si="43"/>
-        <v>44855</v>
+        <v>44876</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -5982,13 +5957,13 @@
       <c r="FM15" s="22"/>
       <c r="FN15" s="22"/>
     </row>
-    <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="48">
         <v>0</v>
@@ -5996,11 +5971,11 @@
       <c r="E16" s="41"/>
       <c r="F16" s="75">
         <f>F13</f>
-        <v>44853</v>
+        <v>44873</v>
       </c>
       <c r="G16" s="75">
-        <f>F16 + 1</f>
-        <v>44854</v>
+        <f>F16</f>
+        <v>44873</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -6166,13 +6141,13 @@
       <c r="FM16" s="22"/>
       <c r="FN16" s="22"/>
     </row>
-    <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="97" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="48">
         <v>0</v>
@@ -6180,11 +6155,11 @@
       <c r="E17" s="41"/>
       <c r="F17" s="75">
         <f>G16 + 1</f>
-        <v>44855</v>
+        <v>44874</v>
       </c>
       <c r="G17" s="75">
-        <f>F17 + 1</f>
-        <v>44856</v>
+        <f>F17</f>
+        <v>44874</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -6350,25 +6325,25 @@
       <c r="FM17" s="22"/>
       <c r="FN17" s="22"/>
     </row>
-    <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="97" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="48">
         <v>0</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="75">
-        <f>G17 + 2</f>
-        <v>44858</v>
+        <f>G17 + 3</f>
+        <v>44877</v>
       </c>
       <c r="G18" s="75">
         <f>F18</f>
-        <v>44858</v>
+        <v>44877</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -6534,25 +6509,25 @@
       <c r="FM18" s="22"/>
       <c r="FN18" s="22"/>
     </row>
-    <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="48">
         <v>0</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="75">
-        <f>F12</f>
-        <v>44852</v>
+        <f>F12 + 1</f>
+        <v>44873</v>
       </c>
       <c r="G19" s="75">
-        <f>F19 + 1</f>
-        <v>44853</v>
+        <f>F19</f>
+        <v>44873</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -6718,12 +6693,12 @@
       <c r="FM19" s="22"/>
       <c r="FN19" s="22"/>
     </row>
-    <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="47"/>
@@ -6899,25 +6874,25 @@
       <c r="FM20" s="22"/>
       <c r="FN20" s="22"/>
     </row>
-    <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27"/>
       <c r="B21" s="97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="48">
         <v>0</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="75">
-        <f>F18 + 1</f>
-        <v>44859</v>
+        <f>F18 +  2</f>
+        <v>44879</v>
       </c>
       <c r="G21" s="75">
         <f t="shared" ref="G21:G25" si="44">F21</f>
-        <v>44859</v>
+        <v>44879</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15">
@@ -7086,13 +7061,13 @@
       <c r="FM21" s="22"/>
       <c r="FN21" s="22"/>
     </row>
-    <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="97" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -7100,11 +7075,11 @@
       <c r="E22" s="41"/>
       <c r="F22" s="75">
         <f>G21 + 1</f>
-        <v>44860</v>
+        <v>44880</v>
       </c>
       <c r="G22" s="75">
         <f t="shared" si="44"/>
-        <v>44860</v>
+        <v>44880</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15">
@@ -7273,25 +7248,25 @@
       <c r="FM22" s="22"/>
       <c r="FN22" s="22"/>
     </row>
-    <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
       <c r="B23" s="97" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="48">
         <v>0</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="75">
-        <f>G22 + 1</f>
-        <v>44861</v>
+        <f>G22</f>
+        <v>44880</v>
       </c>
       <c r="G23" s="75">
         <f t="shared" si="44"/>
-        <v>44861</v>
+        <v>44880</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15">
@@ -7460,13 +7435,13 @@
       <c r="FM23" s="22"/>
       <c r="FN23" s="22"/>
     </row>
-    <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -7474,11 +7449,11 @@
       <c r="E24" s="41"/>
       <c r="F24" s="75">
         <f>G23 + 1</f>
-        <v>44862</v>
+        <v>44881</v>
       </c>
       <c r="G24" s="75">
         <f t="shared" si="44"/>
-        <v>44862</v>
+        <v>44881</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -7644,25 +7619,25 @@
       <c r="FM24" s="22"/>
       <c r="FN24" s="22"/>
     </row>
-    <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="48">
         <v>0</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="75">
-        <f>G24 + 1</f>
-        <v>44863</v>
+        <f>G23</f>
+        <v>44880</v>
       </c>
       <c r="G25" s="75">
         <f t="shared" si="44"/>
-        <v>44863</v>
+        <v>44880</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -7828,10 +7803,10 @@
       <c r="FM25" s="22"/>
       <c r="FN25" s="22"/>
     </row>
-    <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="47"/>
@@ -8004,16 +7979,22 @@
       <c r="FM26" s="22"/>
       <c r="FN26" s="22"/>
     </row>
-    <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="97" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="48"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
+      <c r="F27" s="75">
+        <f>G25 + 2</f>
+        <v>44882</v>
+      </c>
+      <c r="G27" s="75">
+        <f>F27</f>
+        <v>44882</v>
+      </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="22"/>
@@ -8178,18 +8159,24 @@
       <c r="FM27" s="22"/>
       <c r="FN27" s="22"/>
     </row>
-    <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="48"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
+      <c r="F28" s="75">
+        <f>G27 + 1</f>
+        <v>44883</v>
+      </c>
+      <c r="G28" s="75">
+        <f>F28</f>
+        <v>44883</v>
+      </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="22"/>
@@ -8354,16 +8341,22 @@
       <c r="FM28" s="22"/>
       <c r="FN28" s="22"/>
     </row>
-    <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="48"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="F29" s="75">
+        <f>G28</f>
+        <v>44883</v>
+      </c>
+      <c r="G29" s="75">
+        <f>F29</f>
+        <v>44883</v>
+      </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="22"/>
@@ -8528,16 +8521,22 @@
       <c r="FM29" s="22"/>
       <c r="FN29" s="22"/>
     </row>
-    <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="48"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
+      <c r="F30" s="75">
+        <f>G29</f>
+        <v>44883</v>
+      </c>
+      <c r="G30" s="75">
+        <f>F30</f>
+        <v>44883</v>
+      </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="22"/>
@@ -8702,16 +8701,22 @@
       <c r="FM30" s="22"/>
       <c r="FN30" s="22"/>
     </row>
-    <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
       <c r="B31" s="97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="48"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
+      <c r="F31" s="75">
+        <f>G30</f>
+        <v>44883</v>
+      </c>
+      <c r="G31" s="75">
+        <f>F31</f>
+        <v>44883</v>
+      </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="22"/>
@@ -8876,16 +8881,22 @@
       <c r="FM31" s="22"/>
       <c r="FN31" s="22"/>
     </row>
-    <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
       <c r="B32" s="97" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="48"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="F32" s="75">
+        <f>G31 + 1</f>
+        <v>44884</v>
+      </c>
+      <c r="G32" s="75">
+        <f>F32</f>
+        <v>44884</v>
+      </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="22"/>
@@ -9050,16 +9061,22 @@
       <c r="FM32" s="22"/>
       <c r="FN32" s="22"/>
     </row>
-    <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
       <c r="B33" s="97" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="48"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="F33" s="75">
+        <f>G31</f>
+        <v>44883</v>
+      </c>
+      <c r="G33" s="75">
+        <f>F33</f>
+        <v>44883</v>
+      </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="22"/>
@@ -9224,10 +9241,10 @@
       <c r="FM33" s="22"/>
       <c r="FN33" s="22"/>
     </row>
-    <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
       <c r="B34" s="86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="87"/>
       <c r="D34" s="88"/>
@@ -9398,12 +9415,12 @@
       <c r="FM34" s="22"/>
       <c r="FN34" s="22"/>
     </row>
-    <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="47"/>
@@ -9579,25 +9596,25 @@
       <c r="FM35" s="22"/>
       <c r="FN35" s="22"/>
     </row>
-    <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26"/>
       <c r="B36" s="97" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" s="48">
         <v>0</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="75">
-        <f>G23 + 4</f>
-        <v>44865</v>
+        <f>G33 + 3</f>
+        <v>44886</v>
       </c>
       <c r="G36" s="75">
         <f>F36</f>
-        <v>44865</v>
+        <v>44886</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15">
@@ -9766,13 +9783,13 @@
       <c r="FM36" s="22"/>
       <c r="FN36" s="22"/>
     </row>
-    <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="26"/>
       <c r="B37" s="97" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="48">
         <v>0</v>
@@ -9780,11 +9797,11 @@
       <c r="E37" s="41"/>
       <c r="F37" s="75">
         <f>G36</f>
-        <v>44865</v>
+        <v>44886</v>
       </c>
       <c r="G37" s="75">
         <f>F37</f>
-        <v>44865</v>
+        <v>44886</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15">
@@ -9953,25 +9970,25 @@
       <c r="FM37" s="22"/>
       <c r="FN37" s="22"/>
     </row>
-    <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="26"/>
       <c r="B38" s="97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="48">
         <v>0</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="75">
-        <f>G36</f>
-        <v>44865</v>
+        <f>G36 + 1</f>
+        <v>44887</v>
       </c>
       <c r="G38" s="75">
         <f>F38</f>
-        <v>44865</v>
+        <v>44887</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15">
@@ -10140,25 +10157,25 @@
       <c r="FM38" s="22"/>
       <c r="FN38" s="22"/>
     </row>
-    <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="26"/>
       <c r="B39" s="97" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39" s="48">
         <v>0</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="75">
-        <f>G38 + 1</f>
-        <v>44866</v>
+        <f>G38</f>
+        <v>44887</v>
       </c>
       <c r="G39" s="75">
         <f>F39</f>
-        <v>44866</v>
+        <v>44887</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -10324,13 +10341,13 @@
       <c r="FM39" s="22"/>
       <c r="FN39" s="22"/>
     </row>
-    <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="26"/>
       <c r="B40" s="97" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" s="48">
         <v>0</v>
@@ -10338,11 +10355,11 @@
       <c r="E40" s="41"/>
       <c r="F40" s="75">
         <f>G39 + 1</f>
-        <v>44867</v>
+        <v>44888</v>
       </c>
       <c r="G40" s="75">
-        <f>F40 + 1</f>
-        <v>44868</v>
+        <f>F40</f>
+        <v>44888</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -10508,25 +10525,25 @@
       <c r="FM40" s="22"/>
       <c r="FN40" s="22"/>
     </row>
-    <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="26"/>
       <c r="B41" s="97" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D41" s="48">
         <v>0</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="75">
-        <f>G40 + 1</f>
-        <v>44869</v>
+        <f>G39</f>
+        <v>44887</v>
       </c>
       <c r="G41" s="75">
         <f>F41</f>
-        <v>44869</v>
+        <v>44887</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
@@ -10692,25 +10709,25 @@
       <c r="FM41" s="22"/>
       <c r="FN41" s="22"/>
     </row>
-    <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="26"/>
       <c r="B42" s="97" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" s="48">
         <v>0</v>
       </c>
       <c r="E42" s="41"/>
-      <c r="F42" s="75" t="e">
-        <f>#REF! + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G42" s="75" t="e">
-        <f>F42 + 1</f>
-        <v>#REF!</v>
+      <c r="F42" s="75">
+        <f>G39</f>
+        <v>44887</v>
+      </c>
+      <c r="G42" s="75">
+        <f>F42</f>
+        <v>44887</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -10876,25 +10893,25 @@
       <c r="FM42" s="22"/>
       <c r="FN42" s="22"/>
     </row>
-    <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="26"/>
       <c r="B43" s="97" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" s="48">
         <v>0</v>
       </c>
       <c r="E43" s="41"/>
-      <c r="F43" s="75" t="e">
-        <f>G42 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G43" s="75" t="e">
+      <c r="F43" s="75">
+        <f>G42 + 2</f>
+        <v>44889</v>
+      </c>
+      <c r="G43" s="75">
         <f>F43</f>
-        <v>#REF!</v>
+        <v>44889</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
@@ -11060,25 +11077,25 @@
       <c r="FM43" s="22"/>
       <c r="FN43" s="22"/>
     </row>
-    <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="26"/>
       <c r="B44" s="97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44" s="48">
         <v>0</v>
       </c>
       <c r="E44" s="41"/>
-      <c r="F44" s="75" t="e">
-        <f>#REF! + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G44" s="75" t="e">
-        <f>F44 + 1</f>
-        <v>#REF!</v>
+      <c r="F44" s="75">
+        <f>G42</f>
+        <v>44887</v>
+      </c>
+      <c r="G44" s="75">
+        <f>F44</f>
+        <v>44887</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -11244,12 +11261,12 @@
       <c r="FM44" s="22"/>
       <c r="FN44" s="22"/>
     </row>
-    <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="47"/>
@@ -11425,30 +11442,30 @@
       <c r="FM45" s="22"/>
       <c r="FN45" s="22"/>
     </row>
-    <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="26"/>
       <c r="B46" s="97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" s="48">
         <v>0</v>
       </c>
       <c r="E46" s="41"/>
-      <c r="F46" s="75" t="e">
-        <f>G43 + 2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G46" s="75" t="e">
+      <c r="F46" s="75">
+        <f>G43 + 1</f>
+        <v>44890</v>
+      </c>
+      <c r="G46" s="75">
         <f>F46</f>
-        <v>#REF!</v>
+        <v>44890</v>
       </c>
       <c r="H46" s="15"/>
-      <c r="I46" s="15" t="e">
+      <c r="I46" s="15">
         <f t="shared" si="42"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
@@ -11612,30 +11629,30 @@
       <c r="FM46" s="22"/>
       <c r="FN46" s="22"/>
     </row>
-    <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26"/>
       <c r="B47" s="97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="48">
         <v>0</v>
       </c>
       <c r="E47" s="41"/>
-      <c r="F47" s="75" t="e">
-        <f>G46</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G47" s="75" t="e">
-        <f>G46</f>
-        <v>#REF!</v>
+      <c r="F47" s="75">
+        <f>G46 + 1</f>
+        <v>44891</v>
+      </c>
+      <c r="G47" s="75">
+        <f>F47</f>
+        <v>44891</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="15" t="e">
+      <c r="I47" s="15">
         <f t="shared" si="42"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
@@ -11799,30 +11816,30 @@
       <c r="FM47" s="22"/>
       <c r="FN47" s="22"/>
     </row>
-    <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="26"/>
       <c r="B48" s="97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D48" s="48">
         <v>0</v>
       </c>
       <c r="E48" s="41"/>
-      <c r="F48" s="75" t="e">
+      <c r="F48" s="75">
         <f>G46 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G48" s="75" t="e">
+        <v>44891</v>
+      </c>
+      <c r="G48" s="75">
         <f>F48</f>
-        <v>#REF!</v>
+        <v>44891</v>
       </c>
       <c r="H48" s="15"/>
-      <c r="I48" s="15" t="e">
+      <c r="I48" s="15">
         <f t="shared" si="42"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
@@ -11986,25 +12003,25 @@
       <c r="FM48" s="22"/>
       <c r="FN48" s="22"/>
     </row>
-    <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="26"/>
       <c r="B49" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49" s="48">
         <v>0</v>
       </c>
       <c r="E49" s="41"/>
-      <c r="F49" s="75" t="e">
+      <c r="F49" s="75">
         <f>G48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G49" s="75" t="e">
-        <f>F49 + 1</f>
-        <v>#REF!</v>
+        <v>44891</v>
+      </c>
+      <c r="G49" s="75">
+        <f>F49</f>
+        <v>44891</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
@@ -12170,25 +12187,25 @@
       <c r="FM49" s="22"/>
       <c r="FN49" s="22"/>
     </row>
-    <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="26"/>
       <c r="B50" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" s="48">
         <v>0</v>
       </c>
       <c r="E50" s="41"/>
-      <c r="F50" s="75" t="e">
-        <f>G49 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G50" s="75" t="e">
+      <c r="F50" s="75">
+        <f>G49</f>
+        <v>44891</v>
+      </c>
+      <c r="G50" s="75">
         <f>F50</f>
-        <v>#REF!</v>
+        <v>44891</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -12354,25 +12371,25 @@
       <c r="FM50" s="22"/>
       <c r="FN50" s="22"/>
     </row>
-    <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="26"/>
       <c r="B51" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" s="48">
         <v>0</v>
       </c>
       <c r="E51" s="41"/>
-      <c r="F51" s="75" t="e">
-        <f>F49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G51" s="75" t="e">
-        <f>F51 + 1</f>
-        <v>#REF!</v>
+      <c r="F51" s="75">
+        <f>F49 + 2</f>
+        <v>44893</v>
+      </c>
+      <c r="G51" s="75">
+        <f>F51</f>
+        <v>44893</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -12538,25 +12555,25 @@
       <c r="FM51" s="22"/>
       <c r="FN51" s="22"/>
     </row>
-    <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="26"/>
       <c r="B52" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D52" s="48">
         <v>0</v>
       </c>
       <c r="E52" s="41"/>
-      <c r="F52" s="75" t="e">
-        <f>G51 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G52" s="75" t="e">
-        <f>F52 + 1</f>
-        <v>#REF!</v>
+      <c r="F52" s="75">
+        <f>G48</f>
+        <v>44891</v>
+      </c>
+      <c r="G52" s="75">
+        <f>F52</f>
+        <v>44891</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -12722,10 +12739,10 @@
       <c r="FM52" s="22"/>
       <c r="FN52" s="22"/>
     </row>
-    <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="26"/>
       <c r="B53" s="65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="47"/>
@@ -12898,16 +12915,22 @@
       <c r="FM53" s="22"/>
       <c r="FN53" s="22"/>
     </row>
-    <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="26"/>
       <c r="B54" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="48"/>
       <c r="E54" s="41"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
+      <c r="F54" s="75">
+        <f>G52 + 3</f>
+        <v>44894</v>
+      </c>
+      <c r="G54" s="75">
+        <f>F54</f>
+        <v>44894</v>
+      </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="22"/>
@@ -13072,16 +13095,22 @@
       <c r="FM54" s="22"/>
       <c r="FN54" s="22"/>
     </row>
-    <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="26"/>
       <c r="B55" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="48"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
+      <c r="F55" s="75">
+        <f>G54 + 1</f>
+        <v>44895</v>
+      </c>
+      <c r="G55" s="75">
+        <f>F55</f>
+        <v>44895</v>
+      </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="22"/>
@@ -13246,16 +13275,22 @@
       <c r="FM55" s="22"/>
       <c r="FN55" s="22"/>
     </row>
-    <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="26"/>
       <c r="B56" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" s="31"/>
       <c r="D56" s="48"/>
       <c r="E56" s="41"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
+      <c r="F56" s="75">
+        <f>G55</f>
+        <v>44895</v>
+      </c>
+      <c r="G56" s="75">
+        <f>F56</f>
+        <v>44895</v>
+      </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="22"/>
@@ -13420,16 +13455,22 @@
       <c r="FM56" s="22"/>
       <c r="FN56" s="22"/>
     </row>
-    <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="26"/>
       <c r="B57" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="48"/>
       <c r="E57" s="41"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
+      <c r="F57" s="75">
+        <f>G56</f>
+        <v>44895</v>
+      </c>
+      <c r="G57" s="75">
+        <f>F57</f>
+        <v>44895</v>
+      </c>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="22"/>
@@ -13594,16 +13635,22 @@
       <c r="FM57" s="22"/>
       <c r="FN57" s="22"/>
     </row>
-    <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="26"/>
       <c r="B58" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="48"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
+      <c r="F58" s="75">
+        <f>G57</f>
+        <v>44895</v>
+      </c>
+      <c r="G58" s="75">
+        <f>F58</f>
+        <v>44895</v>
+      </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="22"/>
@@ -13768,16 +13815,22 @@
       <c r="FM58" s="22"/>
       <c r="FN58" s="22"/>
     </row>
-    <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26"/>
       <c r="B59" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="48"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
+      <c r="F59" s="75">
+        <f>G58 + 1</f>
+        <v>44896</v>
+      </c>
+      <c r="G59" s="75">
+        <f>F59</f>
+        <v>44896</v>
+      </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="22"/>
@@ -13942,16 +13995,22 @@
       <c r="FM59" s="22"/>
       <c r="FN59" s="22"/>
     </row>
-    <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26"/>
       <c r="B60" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="48"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
+      <c r="F60" s="75">
+        <f>G58</f>
+        <v>44895</v>
+      </c>
+      <c r="G60" s="75">
+        <f>F60</f>
+        <v>44895</v>
+      </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="22"/>
@@ -14116,10 +14175,10 @@
       <c r="FM60" s="22"/>
       <c r="FN60" s="22"/>
     </row>
-    <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26"/>
       <c r="B61" s="65" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="47"/>
@@ -14292,16 +14351,22 @@
       <c r="FM61" s="22"/>
       <c r="FN61" s="22"/>
     </row>
-    <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26"/>
       <c r="B62" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" s="31"/>
       <c r="D62" s="48"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
+      <c r="F62" s="75">
+        <f>G60  + 2</f>
+        <v>44897</v>
+      </c>
+      <c r="G62" s="75">
+        <f>F62</f>
+        <v>44897</v>
+      </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="22"/>
@@ -14466,16 +14531,22 @@
       <c r="FM62" s="22"/>
       <c r="FN62" s="22"/>
     </row>
-    <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26"/>
       <c r="B63" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C63" s="31"/>
       <c r="D63" s="48"/>
       <c r="E63" s="41"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
+      <c r="F63" s="75">
+        <f>G62 + 1</f>
+        <v>44898</v>
+      </c>
+      <c r="G63" s="75">
+        <f>F63</f>
+        <v>44898</v>
+      </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="22"/>
@@ -14640,16 +14711,22 @@
       <c r="FM63" s="22"/>
       <c r="FN63" s="22"/>
     </row>
-    <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26"/>
       <c r="B64" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="48"/>
       <c r="E64" s="41"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
+      <c r="F64" s="75">
+        <f>G63</f>
+        <v>44898</v>
+      </c>
+      <c r="G64" s="75">
+        <f>F64</f>
+        <v>44898</v>
+      </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="22"/>
@@ -14814,16 +14891,22 @@
       <c r="FM64" s="22"/>
       <c r="FN64" s="22"/>
     </row>
-    <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26"/>
       <c r="B65" s="97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="31"/>
       <c r="D65" s="48"/>
       <c r="E65" s="41"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
+      <c r="F65" s="75">
+        <f>G64</f>
+        <v>44898</v>
+      </c>
+      <c r="G65" s="75">
+        <f>F65</f>
+        <v>44898</v>
+      </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="22"/>
@@ -14988,16 +15071,22 @@
       <c r="FM65" s="22"/>
       <c r="FN65" s="22"/>
     </row>
-    <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="26"/>
       <c r="B66" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C66" s="31"/>
       <c r="D66" s="48"/>
       <c r="E66" s="41"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
+      <c r="F66" s="75">
+        <f>G65</f>
+        <v>44898</v>
+      </c>
+      <c r="G66" s="75">
+        <f>F66</f>
+        <v>44898</v>
+      </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="22"/>
@@ -15162,10 +15251,10 @@
       <c r="FM66" s="22"/>
       <c r="FN66" s="22"/>
     </row>
-    <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="26"/>
       <c r="B67" s="86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" s="87"/>
       <c r="D67" s="88"/>
@@ -15336,12 +15425,12 @@
       <c r="FM67" s="22"/>
       <c r="FN67" s="22"/>
     </row>
-    <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="76"/>
@@ -15517,25 +15606,25 @@
       <c r="FM68" s="22"/>
       <c r="FN68" s="22"/>
     </row>
-    <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="26"/>
       <c r="B69" s="66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D69" s="56">
         <v>0</v>
       </c>
       <c r="E69" s="57"/>
-      <c r="F69" s="58" t="e">
-        <f>#REF! + 2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G69" s="58" t="e">
+      <c r="F69" s="58">
+        <f>G66 + 2</f>
+        <v>44900</v>
+      </c>
+      <c r="G69" s="58">
         <f>F69</f>
-        <v>#REF!</v>
+        <v>44900</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
@@ -15701,25 +15790,25 @@
       <c r="FM69" s="22"/>
       <c r="FN69" s="22"/>
     </row>
-    <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26"/>
       <c r="B70" s="66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D70" s="56">
         <v>0</v>
       </c>
       <c r="E70" s="57"/>
-      <c r="F70" s="58" t="e">
+      <c r="F70" s="58">
         <f>G69</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G70" s="58" t="e">
+        <v>44900</v>
+      </c>
+      <c r="G70" s="58">
         <f>G69</f>
-        <v>#REF!</v>
+        <v>44900</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
@@ -15885,25 +15974,25 @@
       <c r="FM70" s="22"/>
       <c r="FN70" s="22"/>
     </row>
-    <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26"/>
       <c r="B71" s="66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D71" s="56">
         <v>0</v>
       </c>
       <c r="E71" s="57"/>
-      <c r="F71" s="58" t="e">
+      <c r="F71" s="58">
         <f>G69 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G71" s="58" t="e">
+        <v>44901</v>
+      </c>
+      <c r="G71" s="58">
         <f t="shared" ref="G71:G77" si="45">F71</f>
-        <v>#REF!</v>
+        <v>44901</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
@@ -16069,16 +16158,22 @@
       <c r="FM71" s="22"/>
       <c r="FN71" s="22"/>
     </row>
-    <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="26"/>
       <c r="B72" s="66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="56"/>
       <c r="E72" s="57"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
+      <c r="F72" s="58">
+        <f>G71</f>
+        <v>44901</v>
+      </c>
+      <c r="G72" s="58">
+        <f>F72</f>
+        <v>44901</v>
+      </c>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="22"/>
@@ -16243,25 +16338,25 @@
       <c r="FM72" s="22"/>
       <c r="FN72" s="22"/>
     </row>
-    <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="26"/>
       <c r="B73" s="66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D73" s="56">
         <v>0</v>
       </c>
       <c r="E73" s="57"/>
-      <c r="F73" s="58" t="e">
-        <f>G71</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G73" s="58" t="e">
+      <c r="F73" s="58">
+        <f>G71 + 1</f>
+        <v>44902</v>
+      </c>
+      <c r="G73" s="58">
         <f t="shared" si="45"/>
-        <v>#REF!</v>
+        <v>44902</v>
       </c>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
@@ -16427,25 +16522,25 @@
       <c r="FM73" s="22"/>
       <c r="FN73" s="22"/>
     </row>
-    <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="26"/>
       <c r="B74" s="66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D74" s="56">
         <v>0</v>
       </c>
       <c r="E74" s="57"/>
-      <c r="F74" s="58" t="e">
-        <f>G73 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G74" s="58" t="e">
+      <c r="F74" s="58">
+        <f>G72</f>
+        <v>44901</v>
+      </c>
+      <c r="G74" s="58">
         <f t="shared" si="45"/>
-        <v>#REF!</v>
+        <v>44901</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
@@ -16611,25 +16706,25 @@
       <c r="FM74" s="22"/>
       <c r="FN74" s="22"/>
     </row>
-    <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="26"/>
       <c r="B75" s="66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D75" s="56">
         <v>0</v>
       </c>
       <c r="E75" s="57"/>
-      <c r="F75" s="58" t="e">
-        <f>F73</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G75" s="58" t="e">
+      <c r="F75" s="58">
+        <f>G74</f>
+        <v>44901</v>
+      </c>
+      <c r="G75" s="58">
         <f t="shared" si="45"/>
-        <v>#REF!</v>
+        <v>44901</v>
       </c>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
@@ -16795,25 +16890,25 @@
       <c r="FM75" s="22"/>
       <c r="FN75" s="22"/>
     </row>
-    <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="26"/>
       <c r="B76" s="66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C76" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D76" s="56">
         <v>0</v>
       </c>
       <c r="E76" s="57"/>
-      <c r="F76" s="58" t="e">
-        <f>G75 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G76" s="58" t="e">
+      <c r="F76" s="58">
+        <f>G75 + 2</f>
+        <v>44903</v>
+      </c>
+      <c r="G76" s="58">
         <f t="shared" si="45"/>
-        <v>#REF!</v>
+        <v>44903</v>
       </c>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
@@ -16979,25 +17074,25 @@
       <c r="FM76" s="22"/>
       <c r="FN76" s="22"/>
     </row>
-    <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="26"/>
       <c r="B77" s="66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D77" s="56">
         <v>0</v>
       </c>
       <c r="E77" s="57"/>
-      <c r="F77" s="58" t="e">
-        <f>G76 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G77" s="58" t="e">
+      <c r="F77" s="58">
+        <f>G72</f>
+        <v>44901</v>
+      </c>
+      <c r="G77" s="58">
         <f t="shared" si="45"/>
-        <v>#REF!</v>
+        <v>44901</v>
       </c>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
@@ -17163,10 +17258,10 @@
       <c r="FM77" s="22"/>
       <c r="FN77" s="22"/>
     </row>
-    <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="26"/>
       <c r="B78" s="65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="53"/>
@@ -17339,25 +17434,25 @@
       <c r="FM78" s="22"/>
       <c r="FN78" s="22"/>
     </row>
-    <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="26"/>
       <c r="B79" s="66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D79" s="56">
         <v>0</v>
       </c>
       <c r="E79" s="57"/>
-      <c r="F79" s="58" t="e">
+      <c r="F79" s="58">
         <f>G71 + 3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G79" s="58" t="e">
+        <v>44904</v>
+      </c>
+      <c r="G79" s="58">
         <f t="shared" ref="G79:G85" si="46">F79</f>
-        <v>#REF!</v>
+        <v>44904</v>
       </c>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
@@ -17523,25 +17618,25 @@
       <c r="FM79" s="22"/>
       <c r="FN79" s="22"/>
     </row>
-    <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="26"/>
       <c r="B80" s="66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D80" s="56">
         <v>0</v>
       </c>
       <c r="E80" s="57"/>
-      <c r="F80" s="58" t="e">
-        <f>G79</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G80" s="58" t="e">
+      <c r="F80" s="58">
+        <f>G79 + 1</f>
+        <v>44905</v>
+      </c>
+      <c r="G80" s="58">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
+        <v>44905</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
@@ -17707,25 +17802,25 @@
       <c r="FM80" s="22"/>
       <c r="FN80" s="22"/>
     </row>
-    <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26"/>
       <c r="B81" s="66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D81" s="56">
         <v>0</v>
       </c>
       <c r="E81" s="57"/>
-      <c r="F81" s="58" t="e">
+      <c r="F81" s="58">
         <f>G79 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G81" s="58" t="e">
+        <v>44905</v>
+      </c>
+      <c r="G81" s="58">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
+        <v>44905</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
@@ -17891,25 +17986,25 @@
       <c r="FM81" s="22"/>
       <c r="FN81" s="22"/>
     </row>
-    <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="26"/>
       <c r="B82" s="66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D82" s="56">
         <v>0</v>
       </c>
       <c r="E82" s="57"/>
-      <c r="F82" s="58" t="e">
+      <c r="F82" s="58">
         <f>G81</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G82" s="58" t="e">
+        <v>44905</v>
+      </c>
+      <c r="G82" s="58">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
+        <v>44905</v>
       </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
@@ -18075,25 +18170,25 @@
       <c r="FM82" s="22"/>
       <c r="FN82" s="22"/>
     </row>
-    <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="26"/>
       <c r="B83" s="66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D83" s="56">
         <v>0</v>
       </c>
       <c r="E83" s="57"/>
-      <c r="F83" s="58" t="e">
-        <f>G82 + 2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G83" s="58" t="e">
+      <c r="F83" s="58">
+        <f>G82</f>
+        <v>44905</v>
+      </c>
+      <c r="G83" s="58">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
+        <v>44905</v>
       </c>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
@@ -18259,25 +18354,25 @@
       <c r="FM83" s="22"/>
       <c r="FN83" s="22"/>
     </row>
-    <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="26"/>
       <c r="B84" s="66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D84" s="56">
         <v>0</v>
       </c>
       <c r="E84" s="57"/>
-      <c r="F84" s="58" t="e">
-        <f>F82</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G84" s="58" t="e">
+      <c r="F84" s="58">
+        <f>F82 + 2</f>
+        <v>44907</v>
+      </c>
+      <c r="G84" s="58">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
+        <v>44907</v>
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
@@ -18443,25 +18538,25 @@
       <c r="FM84" s="22"/>
       <c r="FN84" s="22"/>
     </row>
-    <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="26"/>
       <c r="B85" s="66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D85" s="56">
         <v>0</v>
       </c>
       <c r="E85" s="57"/>
-      <c r="F85" s="58" t="e">
-        <f>G84 + 2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G85" s="58" t="e">
+      <c r="F85" s="58">
+        <f>G83</f>
+        <v>44905</v>
+      </c>
+      <c r="G85" s="58">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
+        <v>44905</v>
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
@@ -18627,10 +18722,10 @@
       <c r="FM85" s="22"/>
       <c r="FN85" s="22"/>
     </row>
-    <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="26"/>
       <c r="B86" s="65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C86" s="52"/>
       <c r="D86" s="53"/>
@@ -18803,25 +18898,25 @@
       <c r="FM86" s="22"/>
       <c r="FN86" s="22"/>
     </row>
-    <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="26"/>
       <c r="B87" s="66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D87" s="56">
         <v>0</v>
       </c>
       <c r="E87" s="57"/>
-      <c r="F87" s="58" t="e">
-        <f>#REF! + 3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G87" s="58" t="e">
+      <c r="F87" s="58">
+        <f>G85 + 3</f>
+        <v>44908</v>
+      </c>
+      <c r="G87" s="58">
         <f>F87</f>
-        <v>#REF!</v>
+        <v>44908</v>
       </c>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
@@ -18987,25 +19082,25 @@
       <c r="FM87" s="22"/>
       <c r="FN87" s="22"/>
     </row>
-    <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="26"/>
       <c r="B88" s="66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D88" s="56">
         <v>0</v>
       </c>
       <c r="E88" s="57"/>
-      <c r="F88" s="58" t="e">
-        <f>G87</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G88" s="58" t="e">
+      <c r="F88" s="58">
+        <f>G87  + 1</f>
+        <v>44909</v>
+      </c>
+      <c r="G88" s="58">
         <f>F88</f>
-        <v>#REF!</v>
+        <v>44909</v>
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
@@ -19171,25 +19266,25 @@
       <c r="FM88" s="22"/>
       <c r="FN88" s="22"/>
     </row>
-    <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="26"/>
       <c r="B89" s="66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D89" s="56">
         <v>0</v>
       </c>
       <c r="E89" s="57"/>
-      <c r="F89" s="58" t="e">
+      <c r="F89" s="58">
         <f>G87 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G89" s="58" t="e">
+        <v>44909</v>
+      </c>
+      <c r="G89" s="58">
         <f>F89</f>
-        <v>#REF!</v>
+        <v>44909</v>
       </c>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
@@ -19355,25 +19450,25 @@
       <c r="FM89" s="22"/>
       <c r="FN89" s="22"/>
     </row>
-    <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="26"/>
       <c r="B90" s="66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D90" s="56">
         <v>0</v>
       </c>
       <c r="E90" s="57"/>
-      <c r="F90" s="58" t="e">
-        <f>G89 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G90" s="58" t="e">
+      <c r="F90" s="58">
+        <f>G89</f>
+        <v>44909</v>
+      </c>
+      <c r="G90" s="58">
         <f>F90</f>
-        <v>#REF!</v>
+        <v>44909</v>
       </c>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
@@ -19539,25 +19634,25 @@
       <c r="FM90" s="22"/>
       <c r="FN90" s="22"/>
     </row>
-    <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="26"/>
       <c r="B91" s="66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D91" s="56">
         <v>0</v>
       </c>
       <c r="E91" s="57"/>
-      <c r="F91" s="58" t="e">
-        <f>G90 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G91" s="58" t="e">
+      <c r="F91" s="58">
+        <f>G90</f>
+        <v>44909</v>
+      </c>
+      <c r="G91" s="58">
         <f>F91</f>
-        <v>#REF!</v>
+        <v>44909</v>
       </c>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
@@ -19723,25 +19818,25 @@
       <c r="FM91" s="22"/>
       <c r="FN91" s="22"/>
     </row>
-    <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="26"/>
       <c r="B92" s="66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D92" s="56">
         <v>0</v>
       </c>
       <c r="E92" s="57"/>
-      <c r="F92" s="58" t="e">
-        <f>F89</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G92" s="58" t="e">
-        <f>F92 + 1</f>
-        <v>#REF!</v>
+      <c r="F92" s="58">
+        <f>F89 + 1</f>
+        <v>44910</v>
+      </c>
+      <c r="G92" s="58">
+        <f>F92</f>
+        <v>44910</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
@@ -19907,16 +20002,22 @@
       <c r="FM92" s="22"/>
       <c r="FN92" s="22"/>
     </row>
-    <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="26"/>
       <c r="B93" s="66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C93" s="55"/>
       <c r="D93" s="56"/>
       <c r="E93" s="57"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
+      <c r="F93" s="58">
+        <f>G91</f>
+        <v>44909</v>
+      </c>
+      <c r="G93" s="58">
+        <f>F93</f>
+        <v>44909</v>
+      </c>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="22"/>
@@ -20081,10 +20182,10 @@
       <c r="FM93" s="22"/>
       <c r="FN93" s="22"/>
     </row>
-    <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="26"/>
       <c r="B94" s="65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C94" s="52"/>
       <c r="D94" s="53"/>
@@ -20257,16 +20358,22 @@
       <c r="FM94" s="22"/>
       <c r="FN94" s="22"/>
     </row>
-    <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="26"/>
       <c r="B95" s="66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="56"/>
       <c r="E95" s="57"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58"/>
+      <c r="F95" s="58">
+        <f>G93 + 2</f>
+        <v>44911</v>
+      </c>
+      <c r="G95" s="58">
+        <f>F95</f>
+        <v>44911</v>
+      </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="22"/>
@@ -20431,16 +20538,22 @@
       <c r="FM95" s="22"/>
       <c r="FN95" s="22"/>
     </row>
-    <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="26"/>
       <c r="B96" s="66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C96" s="55"/>
       <c r="D96" s="56"/>
       <c r="E96" s="57"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
+      <c r="F96" s="58">
+        <f>G95 + 1</f>
+        <v>44912</v>
+      </c>
+      <c r="G96" s="58">
+        <f>F96</f>
+        <v>44912</v>
+      </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="22"/>
@@ -20605,16 +20718,22 @@
       <c r="FM96" s="22"/>
       <c r="FN96" s="22"/>
     </row>
-    <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="26"/>
       <c r="B97" s="66" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C97" s="55"/>
       <c r="D97" s="56"/>
       <c r="E97" s="57"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="58"/>
+      <c r="F97" s="58">
+        <f>G96</f>
+        <v>44912</v>
+      </c>
+      <c r="G97" s="58">
+        <f>F97</f>
+        <v>44912</v>
+      </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="22"/>
@@ -20779,16 +20898,22 @@
       <c r="FM97" s="22"/>
       <c r="FN97" s="22"/>
     </row>
-    <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="26"/>
       <c r="B98" s="66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="56"/>
       <c r="E98" s="57"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="58"/>
+      <c r="F98" s="58">
+        <f>G97</f>
+        <v>44912</v>
+      </c>
+      <c r="G98" s="58">
+        <f>F98</f>
+        <v>44912</v>
+      </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="22"/>
@@ -20953,16 +21078,22 @@
       <c r="FM98" s="22"/>
       <c r="FN98" s="22"/>
     </row>
-    <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="26"/>
       <c r="B99" s="66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C99" s="55"/>
       <c r="D99" s="56"/>
       <c r="E99" s="57"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
+      <c r="F99" s="58">
+        <f>G98</f>
+        <v>44912</v>
+      </c>
+      <c r="G99" s="58">
+        <f>F99</f>
+        <v>44912</v>
+      </c>
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="22"/>
@@ -21127,10 +21258,10 @@
       <c r="FM99" s="22"/>
       <c r="FN99" s="22"/>
     </row>
-    <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="26"/>
       <c r="B100" s="86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C100" s="87"/>
       <c r="D100" s="88"/>
@@ -21301,10 +21432,10 @@
       <c r="FM100" s="22"/>
       <c r="FN100" s="22"/>
     </row>
-    <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="26"/>
       <c r="B101" s="65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C101" s="52"/>
       <c r="D101" s="53"/>
@@ -21477,25 +21608,25 @@
       <c r="FM101" s="22"/>
       <c r="FN101" s="22"/>
     </row>
-    <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="26"/>
       <c r="B102" s="66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D102" s="56">
         <v>0</v>
       </c>
       <c r="E102" s="57"/>
-      <c r="F102" s="58" t="e">
-        <f>G92 + 3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G102" s="58" t="e">
+      <c r="F102" s="58">
+        <f>G99 + 2</f>
+        <v>44914</v>
+      </c>
+      <c r="G102" s="58">
         <f>F102</f>
-        <v>#REF!</v>
+        <v>44914</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
@@ -21661,25 +21792,25 @@
       <c r="FM102" s="22"/>
       <c r="FN102" s="22"/>
     </row>
-    <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="26"/>
       <c r="B103" s="66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D103" s="56">
         <v>0</v>
       </c>
       <c r="E103" s="57"/>
-      <c r="F103" s="58" t="e">
+      <c r="F103" s="58">
         <f>G102 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G103" s="58" t="e">
+        <v>44915</v>
+      </c>
+      <c r="G103" s="58">
         <f>F103</f>
-        <v>#REF!</v>
+        <v>44915</v>
       </c>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
@@ -21845,25 +21976,25 @@
       <c r="FM103" s="22"/>
       <c r="FN103" s="22"/>
     </row>
-    <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="26"/>
       <c r="B104" s="66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C104" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D104" s="56">
         <v>0</v>
       </c>
       <c r="E104" s="57"/>
-      <c r="F104" s="58" t="e">
-        <f>G103 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G104" s="58" t="e">
+      <c r="F104" s="58">
+        <f>G103</f>
+        <v>44915</v>
+      </c>
+      <c r="G104" s="58">
         <f>F104</f>
-        <v>#REF!</v>
+        <v>44915</v>
       </c>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
@@ -22029,25 +22160,25 @@
       <c r="FM104" s="22"/>
       <c r="FN104" s="22"/>
     </row>
-    <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="26"/>
       <c r="B105" s="66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C105" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D105" s="56">
         <v>0</v>
       </c>
       <c r="E105" s="57"/>
-      <c r="F105" s="58" t="e">
-        <f>G104 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G105" s="58" t="e">
-        <f>F105 + 1</f>
-        <v>#REF!</v>
+      <c r="F105" s="58">
+        <f>G104</f>
+        <v>44915</v>
+      </c>
+      <c r="G105" s="58">
+        <f>F105</f>
+        <v>44915</v>
       </c>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
@@ -22213,25 +22344,25 @@
       <c r="FM105" s="22"/>
       <c r="FN105" s="22"/>
     </row>
-    <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="26"/>
       <c r="B106" s="66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D106" s="56">
         <v>0</v>
       </c>
       <c r="E106" s="57"/>
-      <c r="F106" s="58" t="e">
-        <f>G105 +1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G106" s="58" t="e">
-        <f>F106 + 2</f>
-        <v>#REF!</v>
+      <c r="F106" s="58">
+        <f>G105</f>
+        <v>44915</v>
+      </c>
+      <c r="G106" s="58">
+        <f>F106</f>
+        <v>44915</v>
       </c>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
@@ -22397,25 +22528,25 @@
       <c r="FM106" s="22"/>
       <c r="FN106" s="22"/>
     </row>
-    <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="26"/>
       <c r="B107" s="66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D107" s="56">
         <v>0</v>
       </c>
       <c r="E107" s="57"/>
-      <c r="F107" s="58" t="e">
+      <c r="F107" s="58">
         <f>G106 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G107" s="58" t="e">
+        <v>44916</v>
+      </c>
+      <c r="G107" s="58">
         <f>F107</f>
-        <v>#REF!</v>
+        <v>44916</v>
       </c>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
@@ -22581,25 +22712,25 @@
       <c r="FM107" s="22"/>
       <c r="FN107" s="22"/>
     </row>
-    <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="26"/>
       <c r="B108" s="66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D108" s="56">
         <v>0</v>
       </c>
       <c r="E108" s="57"/>
-      <c r="F108" s="58" t="e">
-        <f>G107 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G108" s="58" t="e">
-        <f>F108 + 1</f>
-        <v>#REF!</v>
+      <c r="F108" s="58">
+        <f>G106</f>
+        <v>44915</v>
+      </c>
+      <c r="G108" s="58">
+        <f>F108</f>
+        <v>44915</v>
       </c>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
@@ -22765,10 +22896,10 @@
       <c r="FM108" s="22"/>
       <c r="FN108" s="22"/>
     </row>
-    <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="26"/>
       <c r="B109" s="65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="53"/>
@@ -22941,16 +23072,22 @@
       <c r="FM109" s="22"/>
       <c r="FN109" s="22"/>
     </row>
-    <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="26"/>
       <c r="B110" s="66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C110" s="55"/>
       <c r="D110" s="56"/>
       <c r="E110" s="57"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="58"/>
+      <c r="F110" s="58">
+        <f>G108 + 2</f>
+        <v>44917</v>
+      </c>
+      <c r="G110" s="58">
+        <f>F110</f>
+        <v>44917</v>
+      </c>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="22"/>
@@ -23115,16 +23252,22 @@
       <c r="FM110" s="22"/>
       <c r="FN110" s="22"/>
     </row>
-    <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="26"/>
       <c r="B111" s="66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C111" s="55"/>
       <c r="D111" s="56"/>
       <c r="E111" s="57"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="58"/>
+      <c r="F111" s="58">
+        <f>G110 + 1</f>
+        <v>44918</v>
+      </c>
+      <c r="G111" s="58">
+        <f>F111</f>
+        <v>44918</v>
+      </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="22"/>
@@ -23289,16 +23432,22 @@
       <c r="FM111" s="22"/>
       <c r="FN111" s="22"/>
     </row>
-    <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="26"/>
       <c r="B112" s="66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="56"/>
       <c r="E112" s="57"/>
-      <c r="F112" s="58"/>
-      <c r="G112" s="58"/>
+      <c r="F112" s="58">
+        <f>G111</f>
+        <v>44918</v>
+      </c>
+      <c r="G112" s="58">
+        <f>F112</f>
+        <v>44918</v>
+      </c>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="22"/>
@@ -23463,16 +23612,22 @@
       <c r="FM112" s="22"/>
       <c r="FN112" s="22"/>
     </row>
-    <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="26"/>
       <c r="B113" s="66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C113" s="55"/>
       <c r="D113" s="56"/>
       <c r="E113" s="57"/>
-      <c r="F113" s="58"/>
-      <c r="G113" s="58"/>
+      <c r="F113" s="58">
+        <f>G112</f>
+        <v>44918</v>
+      </c>
+      <c r="G113" s="58">
+        <f>F113</f>
+        <v>44918</v>
+      </c>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="22"/>
@@ -23637,16 +23792,22 @@
       <c r="FM113" s="22"/>
       <c r="FN113" s="22"/>
     </row>
-    <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="26"/>
       <c r="B114" s="66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C114" s="55"/>
       <c r="D114" s="56"/>
       <c r="E114" s="57"/>
-      <c r="F114" s="58"/>
-      <c r="G114" s="58"/>
+      <c r="F114" s="58">
+        <f>G113</f>
+        <v>44918</v>
+      </c>
+      <c r="G114" s="58">
+        <f>F114</f>
+        <v>44918</v>
+      </c>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="22"/>
@@ -23811,16 +23972,22 @@
       <c r="FM114" s="22"/>
       <c r="FN114" s="22"/>
     </row>
-    <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="26"/>
       <c r="B115" s="66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C115" s="55"/>
       <c r="D115" s="56"/>
       <c r="E115" s="57"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="58"/>
+      <c r="F115" s="58">
+        <f>G114 + 1</f>
+        <v>44919</v>
+      </c>
+      <c r="G115" s="58">
+        <f>F115</f>
+        <v>44919</v>
+      </c>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
       <c r="J115" s="22"/>
@@ -23985,16 +24152,22 @@
       <c r="FM115" s="22"/>
       <c r="FN115" s="22"/>
     </row>
-    <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="26"/>
       <c r="B116" s="66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C116" s="55"/>
       <c r="D116" s="56"/>
       <c r="E116" s="57"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
+      <c r="F116" s="58">
+        <f>G114</f>
+        <v>44918</v>
+      </c>
+      <c r="G116" s="58">
+        <f>F116</f>
+        <v>44918</v>
+      </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="22"/>
@@ -24159,10 +24332,10 @@
       <c r="FM116" s="22"/>
       <c r="FN116" s="22"/>
     </row>
-    <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="26"/>
       <c r="B117" s="65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="53"/>
@@ -24335,16 +24508,22 @@
       <c r="FM117" s="22"/>
       <c r="FN117" s="22"/>
     </row>
-    <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="26"/>
       <c r="B118" s="66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C118" s="55"/>
       <c r="D118" s="56"/>
       <c r="E118" s="57"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="58"/>
+      <c r="F118" s="58">
+        <f>G116 + 3</f>
+        <v>44921</v>
+      </c>
+      <c r="G118" s="58">
+        <f>F118</f>
+        <v>44921</v>
+      </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="22"/>
@@ -24509,16 +24688,22 @@
       <c r="FM118" s="22"/>
       <c r="FN118" s="22"/>
     </row>
-    <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="26"/>
       <c r="B119" s="66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C119" s="55"/>
       <c r="D119" s="56"/>
       <c r="E119" s="57"/>
-      <c r="F119" s="58"/>
-      <c r="G119" s="58"/>
+      <c r="F119" s="58">
+        <f>G118</f>
+        <v>44921</v>
+      </c>
+      <c r="G119" s="58">
+        <f>F119</f>
+        <v>44921</v>
+      </c>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="22"/>
@@ -24683,16 +24868,22 @@
       <c r="FM119" s="22"/>
       <c r="FN119" s="22"/>
     </row>
-    <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="26"/>
       <c r="B120" s="66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C120" s="55"/>
       <c r="D120" s="56"/>
       <c r="E120" s="57"/>
-      <c r="F120" s="58"/>
-      <c r="G120" s="58"/>
+      <c r="F120" s="58">
+        <f>G119 + 1</f>
+        <v>44922</v>
+      </c>
+      <c r="G120" s="58">
+        <f>F120</f>
+        <v>44922</v>
+      </c>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
       <c r="J120" s="22"/>
@@ -24857,16 +25048,22 @@
       <c r="FM120" s="22"/>
       <c r="FN120" s="22"/>
     </row>
-    <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="26"/>
       <c r="B121" s="66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C121" s="55"/>
       <c r="D121" s="56"/>
       <c r="E121" s="57"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="58"/>
+      <c r="F121" s="58">
+        <f>G120</f>
+        <v>44922</v>
+      </c>
+      <c r="G121" s="58">
+        <f>F121</f>
+        <v>44922</v>
+      </c>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="22"/>
@@ -25031,16 +25228,22 @@
       <c r="FM121" s="22"/>
       <c r="FN121" s="22"/>
     </row>
-    <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="26"/>
       <c r="B122" s="66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C122" s="55"/>
       <c r="D122" s="56"/>
       <c r="E122" s="57"/>
-      <c r="F122" s="58"/>
-      <c r="G122" s="58"/>
+      <c r="F122" s="58">
+        <f>G121 + 1</f>
+        <v>44923</v>
+      </c>
+      <c r="G122" s="58">
+        <f>F122</f>
+        <v>44923</v>
+      </c>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="22"/>
@@ -25205,18 +25408,24 @@
       <c r="FM122" s="22"/>
       <c r="FN122" s="22"/>
     </row>
-    <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B123" s="66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C123" s="55"/>
       <c r="D123" s="56"/>
       <c r="E123" s="57"/>
-      <c r="F123" s="58"/>
-      <c r="G123" s="58"/>
+      <c r="F123" s="58">
+        <f>G121</f>
+        <v>44922</v>
+      </c>
+      <c r="G123" s="58">
+        <f>F123</f>
+        <v>44922</v>
+      </c>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="22"/>
@@ -25381,16 +25590,22 @@
       <c r="FM123" s="22"/>
       <c r="FN123" s="22"/>
     </row>
-    <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="26"/>
       <c r="B124" s="66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C124" s="55"/>
       <c r="D124" s="56"/>
       <c r="E124" s="57"/>
-      <c r="F124" s="58"/>
-      <c r="G124" s="58"/>
+      <c r="F124" s="58">
+        <f>G123</f>
+        <v>44922</v>
+      </c>
+      <c r="G124" s="58">
+        <f>F124</f>
+        <v>44922</v>
+      </c>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="22"/>
@@ -25555,16 +25770,22 @@
       <c r="FM124" s="22"/>
       <c r="FN124" s="22"/>
     </row>
-    <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="26"/>
       <c r="B125" s="66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C125" s="55"/>
       <c r="D125" s="56"/>
       <c r="E125" s="57"/>
-      <c r="F125" s="58"/>
-      <c r="G125" s="58"/>
+      <c r="F125" s="58">
+        <f>G124 + 2</f>
+        <v>44924</v>
+      </c>
+      <c r="G125" s="58">
+        <f>F125</f>
+        <v>44924</v>
+      </c>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="22"/>
@@ -25729,16 +25950,22 @@
       <c r="FM125" s="22"/>
       <c r="FN125" s="22"/>
     </row>
-    <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="26"/>
       <c r="B126" s="66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C126" s="55"/>
       <c r="D126" s="56"/>
       <c r="E126" s="57"/>
-      <c r="F126" s="58"/>
-      <c r="G126" s="58"/>
+      <c r="F126" s="58">
+        <f>G124</f>
+        <v>44922</v>
+      </c>
+      <c r="G126" s="58">
+        <f>F126</f>
+        <v>44922</v>
+      </c>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="22"/>
@@ -25903,10 +26130,10 @@
       <c r="FM126" s="22"/>
       <c r="FN126" s="22"/>
     </row>
-    <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="26"/>
       <c r="B127" s="65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C127" s="52"/>
       <c r="D127" s="53"/>
@@ -26079,16 +26306,22 @@
       <c r="FM127" s="22"/>
       <c r="FN127" s="22"/>
     </row>
-    <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="26"/>
       <c r="B128" s="66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C128" s="55"/>
       <c r="D128" s="56"/>
       <c r="E128" s="57"/>
-      <c r="F128" s="58"/>
-      <c r="G128" s="58"/>
+      <c r="F128" s="58">
+        <f>G126 + 3</f>
+        <v>44925</v>
+      </c>
+      <c r="G128" s="58">
+        <f>F128</f>
+        <v>44925</v>
+      </c>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="22"/>
@@ -26253,16 +26486,22 @@
       <c r="FM128" s="22"/>
       <c r="FN128" s="22"/>
     </row>
-    <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="26"/>
       <c r="B129" s="66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C129" s="55"/>
       <c r="D129" s="56"/>
       <c r="E129" s="57"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="58"/>
+      <c r="F129" s="58">
+        <f>G128 + 1</f>
+        <v>44926</v>
+      </c>
+      <c r="G129" s="58">
+        <f>F129</f>
+        <v>44926</v>
+      </c>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
       <c r="J129" s="22"/>
@@ -26427,16 +26666,22 @@
       <c r="FM129" s="22"/>
       <c r="FN129" s="22"/>
     </row>
-    <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="26"/>
       <c r="B130" s="66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C130" s="55"/>
       <c r="D130" s="56"/>
       <c r="E130" s="57"/>
-      <c r="F130" s="58"/>
-      <c r="G130" s="58"/>
+      <c r="F130" s="58">
+        <f>G129</f>
+        <v>44926</v>
+      </c>
+      <c r="G130" s="58">
+        <f>F130</f>
+        <v>44926</v>
+      </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="22"/>
@@ -26601,16 +26846,22 @@
       <c r="FM130" s="22"/>
       <c r="FN130" s="22"/>
     </row>
-    <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="26"/>
       <c r="B131" s="66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C131" s="55"/>
       <c r="D131" s="56"/>
       <c r="E131" s="57"/>
-      <c r="F131" s="58"/>
-      <c r="G131" s="58"/>
+      <c r="F131" s="58">
+        <f>G130</f>
+        <v>44926</v>
+      </c>
+      <c r="G131" s="58">
+        <f>F131</f>
+        <v>44926</v>
+      </c>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
       <c r="J131" s="22"/>
@@ -26775,16 +27026,22 @@
       <c r="FM131" s="22"/>
       <c r="FN131" s="22"/>
     </row>
-    <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="26"/>
       <c r="B132" s="66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C132" s="55"/>
       <c r="D132" s="56"/>
       <c r="E132" s="57"/>
-      <c r="F132" s="58"/>
-      <c r="G132" s="58"/>
+      <c r="F132" s="58">
+        <f>G128</f>
+        <v>44925</v>
+      </c>
+      <c r="G132" s="58">
+        <f>F132</f>
+        <v>44925</v>
+      </c>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
       <c r="J132" s="22"/>
@@ -26949,10 +27206,10 @@
       <c r="FM132" s="22"/>
       <c r="FN132" s="22"/>
     </row>
-    <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="26"/>
       <c r="B133" s="86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C133" s="87"/>
       <c r="D133" s="88"/>
@@ -27123,10 +27380,10 @@
       <c r="FM133" s="22"/>
       <c r="FN133" s="22"/>
     </row>
-    <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="26"/>
       <c r="B134" s="65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="53"/>
@@ -27299,25 +27556,25 @@
       <c r="FM134" s="22"/>
       <c r="FN134" s="22"/>
     </row>
-    <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="26"/>
       <c r="B135" s="66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C135" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D135" s="56">
         <v>0</v>
       </c>
       <c r="E135" s="57"/>
-      <c r="F135" s="58" t="e">
-        <f>#REF! + 2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G135" s="58" t="e">
+      <c r="F135" s="58">
+        <f>G132 + 3</f>
+        <v>44928</v>
+      </c>
+      <c r="G135" s="58">
         <f t="shared" ref="G135:G141" si="47">F135</f>
-        <v>#REF!</v>
+        <v>44928</v>
       </c>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
@@ -27483,25 +27740,25 @@
       <c r="FM135" s="22"/>
       <c r="FN135" s="22"/>
     </row>
-    <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="26"/>
       <c r="B136" s="85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C136" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D136" s="56">
         <v>0</v>
       </c>
       <c r="E136" s="57"/>
-      <c r="F136" s="58" t="e">
-        <f>G135</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G136" s="58" t="e">
+      <c r="F136" s="58">
+        <f>G135 +1</f>
+        <v>44929</v>
+      </c>
+      <c r="G136" s="58">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>44929</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
@@ -27667,25 +27924,25 @@
       <c r="FM136" s="22"/>
       <c r="FN136" s="22"/>
     </row>
-    <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="26"/>
       <c r="B137" s="66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C137" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D137" s="56">
         <v>0</v>
       </c>
       <c r="E137" s="57"/>
-      <c r="F137" s="58" t="e">
+      <c r="F137" s="58">
         <f>G135 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G137" s="58" t="e">
+        <v>44929</v>
+      </c>
+      <c r="G137" s="58">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>44929</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
@@ -27851,25 +28108,25 @@
       <c r="FM137" s="22"/>
       <c r="FN137" s="22"/>
     </row>
-    <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26"/>
       <c r="B138" s="66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C138" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D138" s="56">
         <v>0</v>
       </c>
       <c r="E138" s="57"/>
-      <c r="F138" s="58" t="e">
+      <c r="F138" s="58">
         <f>G137</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G138" s="58" t="e">
+        <v>44929</v>
+      </c>
+      <c r="G138" s="58">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>44929</v>
       </c>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
@@ -28035,25 +28292,25 @@
       <c r="FM138" s="22"/>
       <c r="FN138" s="22"/>
     </row>
-    <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="26"/>
       <c r="B139" s="66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D139" s="56">
         <v>0</v>
       </c>
       <c r="E139" s="57"/>
-      <c r="F139" s="58" t="e">
-        <f>G138 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G139" s="58" t="e">
+      <c r="F139" s="58">
+        <f>G138</f>
+        <v>44929</v>
+      </c>
+      <c r="G139" s="58">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>44929</v>
       </c>
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
@@ -28219,25 +28476,25 @@
       <c r="FM139" s="22"/>
       <c r="FN139" s="22"/>
     </row>
-    <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="26"/>
       <c r="B140" s="66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C140" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D140" s="56">
         <v>0</v>
       </c>
       <c r="E140" s="57"/>
-      <c r="F140" s="58" t="e">
-        <f>G138</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G140" s="58" t="e">
+      <c r="F140" s="58">
+        <f>G138 + 1</f>
+        <v>44930</v>
+      </c>
+      <c r="G140" s="58">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>44930</v>
       </c>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
@@ -28403,25 +28660,25 @@
       <c r="FM140" s="22"/>
       <c r="FN140" s="22"/>
     </row>
-    <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="26"/>
       <c r="B141" s="66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C141" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D141" s="56">
         <v>0</v>
       </c>
       <c r="E141" s="57"/>
-      <c r="F141" s="58" t="e">
-        <f>G140 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G141" s="58" t="e">
+      <c r="F141" s="58">
+        <f>G139</f>
+        <v>44929</v>
+      </c>
+      <c r="G141" s="58">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>44929</v>
       </c>
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
@@ -28587,10 +28844,10 @@
       <c r="FM141" s="22"/>
       <c r="FN141" s="22"/>
     </row>
-    <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="26"/>
       <c r="B142" s="65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C142" s="52"/>
       <c r="D142" s="53"/>
@@ -28763,25 +29020,25 @@
       <c r="FM142" s="22"/>
       <c r="FN142" s="22"/>
     </row>
-    <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="26"/>
       <c r="B143" s="66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C143" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D143" s="56">
         <v>0</v>
       </c>
       <c r="E143" s="57"/>
-      <c r="F143" s="58" t="e">
-        <f>#REF! + 2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G143" s="58" t="e">
+      <c r="F143" s="58">
+        <f>G141 + 2</f>
+        <v>44931</v>
+      </c>
+      <c r="G143" s="58">
         <f t="shared" ref="G143:G149" si="48">F143</f>
-        <v>#REF!</v>
+        <v>44931</v>
       </c>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
@@ -28947,25 +29204,25 @@
       <c r="FM143" s="22"/>
       <c r="FN143" s="22"/>
     </row>
-    <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="26"/>
       <c r="B144" s="66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D144" s="56">
         <v>0</v>
       </c>
       <c r="E144" s="57"/>
-      <c r="F144" s="58" t="e">
-        <f>G143</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G144" s="58" t="e">
+      <c r="F144" s="58">
+        <f>G143 + 1</f>
+        <v>44932</v>
+      </c>
+      <c r="G144" s="58">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v>44932</v>
       </c>
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
@@ -29131,25 +29388,25 @@
       <c r="FM144" s="22"/>
       <c r="FN144" s="22"/>
     </row>
-    <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="26"/>
       <c r="B145" s="66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C145" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D145" s="56">
         <v>0</v>
       </c>
       <c r="E145" s="57"/>
-      <c r="F145" s="58" t="e">
+      <c r="F145" s="58">
         <f>G143 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G145" s="58" t="e">
+        <v>44932</v>
+      </c>
+      <c r="G145" s="58">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v>44932</v>
       </c>
       <c r="H145" s="15"/>
       <c r="I145" s="15"/>
@@ -29315,25 +29572,25 @@
       <c r="FM145" s="22"/>
       <c r="FN145" s="22"/>
     </row>
-    <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="26"/>
       <c r="B146" s="66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C146" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D146" s="56">
         <v>0</v>
       </c>
       <c r="E146" s="57"/>
-      <c r="F146" s="58" t="e">
+      <c r="F146" s="58">
         <f>G145</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G146" s="58" t="e">
+        <v>44932</v>
+      </c>
+      <c r="G146" s="58">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v>44932</v>
       </c>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
@@ -29499,25 +29756,25 @@
       <c r="FM146" s="22"/>
       <c r="FN146" s="22"/>
     </row>
-    <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="26"/>
       <c r="B147" s="66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C147" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D147" s="56">
         <v>0</v>
       </c>
       <c r="E147" s="57"/>
-      <c r="F147" s="58" t="e">
-        <f>G146 + 2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G147" s="58" t="e">
+      <c r="F147" s="58">
+        <f>G146</f>
+        <v>44932</v>
+      </c>
+      <c r="G147" s="58">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v>44932</v>
       </c>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
@@ -29683,25 +29940,25 @@
       <c r="FM147" s="22"/>
       <c r="FN147" s="22"/>
     </row>
-    <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="26"/>
       <c r="B148" s="66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C148" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D148" s="56">
         <v>0</v>
       </c>
       <c r="E148" s="57"/>
-      <c r="F148" s="58" t="e">
-        <f>G146</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G148" s="58" t="e">
+      <c r="F148" s="58">
+        <f>G146 + 1</f>
+        <v>44933</v>
+      </c>
+      <c r="G148" s="58">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v>44933</v>
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
@@ -29867,25 +30124,25 @@
       <c r="FM148" s="22"/>
       <c r="FN148" s="22"/>
     </row>
-    <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="26"/>
       <c r="B149" s="66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C149" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D149" s="56">
         <v>0</v>
       </c>
       <c r="E149" s="57"/>
-      <c r="F149" s="58" t="e">
-        <f>G148 + 2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G149" s="58" t="e">
+      <c r="F149" s="58">
+        <f>G147</f>
+        <v>44932</v>
+      </c>
+      <c r="G149" s="58">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v>44932</v>
       </c>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
@@ -30051,10 +30308,10 @@
       <c r="FM149" s="22"/>
       <c r="FN149" s="22"/>
     </row>
-    <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="26"/>
       <c r="B150" s="65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C150" s="52"/>
       <c r="D150" s="53"/>
@@ -30227,25 +30484,25 @@
       <c r="FM150" s="22"/>
       <c r="FN150" s="22"/>
     </row>
-    <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="26"/>
       <c r="B151" s="85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C151" s="96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D151" s="56">
         <v>0</v>
       </c>
       <c r="E151" s="57"/>
-      <c r="F151" s="58" t="e">
-        <f>#REF! + 2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G151" s="58" t="e">
+      <c r="F151" s="58">
+        <f>G149 + 3</f>
+        <v>44935</v>
+      </c>
+      <c r="G151" s="58">
         <f>F151</f>
-        <v>#REF!</v>
+        <v>44935</v>
       </c>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
@@ -30411,25 +30668,25 @@
       <c r="FM151" s="22"/>
       <c r="FN151" s="22"/>
     </row>
-    <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="26"/>
       <c r="B152" s="85" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C152" s="96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D152" s="56">
         <v>0</v>
       </c>
       <c r="E152" s="57"/>
-      <c r="F152" s="58" t="e">
-        <f>G151</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G152" s="58" t="e">
+      <c r="F152" s="58">
+        <f>G151 + 1</f>
+        <v>44936</v>
+      </c>
+      <c r="G152" s="58">
         <f>F152</f>
-        <v>#REF!</v>
+        <v>44936</v>
       </c>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
@@ -30595,25 +30852,25 @@
       <c r="FM152" s="22"/>
       <c r="FN152" s="22"/>
     </row>
-    <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="26"/>
       <c r="B153" s="85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C153" s="96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D153" s="56">
         <v>0</v>
       </c>
       <c r="E153" s="57"/>
-      <c r="F153" s="58" t="e">
-        <f>G152 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G153" s="58" t="e">
+      <c r="F153" s="58">
+        <f>G152</f>
+        <v>44936</v>
+      </c>
+      <c r="G153" s="58">
         <f>F153</f>
-        <v>#REF!</v>
+        <v>44936</v>
       </c>
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
@@ -30779,25 +31036,25 @@
       <c r="FM153" s="22"/>
       <c r="FN153" s="22"/>
     </row>
-    <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="26"/>
       <c r="B154" s="85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C154" s="96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D154" s="56">
         <v>0</v>
       </c>
       <c r="E154" s="57"/>
-      <c r="F154" s="58" t="e">
-        <f>G153 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G154" s="58" t="e">
+      <c r="F154" s="58">
+        <f>G153</f>
+        <v>44936</v>
+      </c>
+      <c r="G154" s="58">
         <f>F154</f>
-        <v>#REF!</v>
+        <v>44936</v>
       </c>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
@@ -30963,25 +31220,25 @@
       <c r="FM154" s="22"/>
       <c r="FN154" s="22"/>
     </row>
-    <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="26"/>
       <c r="B155" s="85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C155" s="96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D155" s="56">
         <v>0</v>
       </c>
       <c r="E155" s="57"/>
-      <c r="F155" s="58" t="e">
-        <f>G154 + 1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G155" s="58" t="e">
+      <c r="F155" s="58">
+        <f>G154</f>
+        <v>44936</v>
+      </c>
+      <c r="G155" s="58">
         <f>F155</f>
-        <v>#REF!</v>
+        <v>44936</v>
       </c>
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
@@ -31147,25 +31404,25 @@
       <c r="FM155" s="22"/>
       <c r="FN155" s="22"/>
     </row>
-    <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="26"/>
       <c r="B156" s="85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C156" s="96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D156" s="56">
         <v>0</v>
       </c>
       <c r="E156" s="57"/>
-      <c r="F156" s="58" t="e">
-        <f>F153</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G156" s="58" t="e">
+      <c r="F156" s="58">
+        <f>F153 + 1</f>
+        <v>44937</v>
+      </c>
+      <c r="G156" s="58">
         <f>F156 + 1</f>
-        <v>#REF!</v>
+        <v>44938</v>
       </c>
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
@@ -31331,16 +31588,22 @@
       <c r="FM156" s="22"/>
       <c r="FN156" s="22"/>
     </row>
-    <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="26"/>
       <c r="B157" s="85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C157" s="96"/>
       <c r="D157" s="56"/>
       <c r="E157" s="57"/>
-      <c r="F157" s="58"/>
-      <c r="G157" s="58"/>
+      <c r="F157" s="58">
+        <f>G155</f>
+        <v>44936</v>
+      </c>
+      <c r="G157" s="58">
+        <f>F157</f>
+        <v>44936</v>
+      </c>
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
       <c r="J157" s="22"/>
@@ -31505,10 +31768,10 @@
       <c r="FM157" s="22"/>
       <c r="FN157" s="22"/>
     </row>
-    <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="26"/>
       <c r="B158" s="65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C158" s="52"/>
       <c r="D158" s="53"/>
@@ -31681,16 +31944,22 @@
       <c r="FM158" s="22"/>
       <c r="FN158" s="22"/>
     </row>
-    <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="26"/>
       <c r="B159" s="85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C159" s="96"/>
       <c r="D159" s="56"/>
       <c r="E159" s="57"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="58"/>
+      <c r="F159" s="58">
+        <f>G157 + 2</f>
+        <v>44938</v>
+      </c>
+      <c r="G159" s="58">
+        <f>F159</f>
+        <v>44938</v>
+      </c>
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
       <c r="J159" s="22"/>
@@ -31855,16 +32124,22 @@
       <c r="FM159" s="22"/>
       <c r="FN159" s="22"/>
     </row>
-    <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="26"/>
       <c r="B160" s="85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C160" s="96"/>
       <c r="D160" s="56"/>
       <c r="E160" s="57"/>
-      <c r="F160" s="58"/>
-      <c r="G160" s="58"/>
+      <c r="F160" s="58">
+        <f>G159</f>
+        <v>44938</v>
+      </c>
+      <c r="G160" s="58">
+        <f>F160</f>
+        <v>44938</v>
+      </c>
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
       <c r="J160" s="22"/>
@@ -32029,16 +32304,22 @@
       <c r="FM160" s="22"/>
       <c r="FN160" s="22"/>
     </row>
-    <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="26"/>
       <c r="B161" s="85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C161" s="96"/>
       <c r="D161" s="56"/>
       <c r="E161" s="57"/>
-      <c r="F161" s="58"/>
-      <c r="G161" s="58"/>
+      <c r="F161" s="58">
+        <f>G160 + 1</f>
+        <v>44939</v>
+      </c>
+      <c r="G161" s="58">
+        <f>F161</f>
+        <v>44939</v>
+      </c>
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
       <c r="J161" s="22"/>
@@ -32203,16 +32484,22 @@
       <c r="FM161" s="22"/>
       <c r="FN161" s="22"/>
     </row>
-    <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="26"/>
       <c r="B162" s="85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C162" s="96"/>
       <c r="D162" s="56"/>
       <c r="E162" s="57"/>
-      <c r="F162" s="58"/>
-      <c r="G162" s="58"/>
+      <c r="F162" s="58">
+        <f>G161</f>
+        <v>44939</v>
+      </c>
+      <c r="G162" s="58">
+        <f>F162</f>
+        <v>44939</v>
+      </c>
       <c r="H162" s="15"/>
       <c r="I162" s="15"/>
       <c r="J162" s="22"/>
@@ -32377,16 +32664,22 @@
       <c r="FM162" s="22"/>
       <c r="FN162" s="22"/>
     </row>
-    <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="26"/>
       <c r="B163" s="85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C163" s="96"/>
       <c r="D163" s="56"/>
       <c r="E163" s="57"/>
-      <c r="F163" s="58"/>
-      <c r="G163" s="58"/>
+      <c r="F163" s="58">
+        <f>G162</f>
+        <v>44939</v>
+      </c>
+      <c r="G163" s="58">
+        <f>F163</f>
+        <v>44939</v>
+      </c>
       <c r="H163" s="15"/>
       <c r="I163" s="15"/>
       <c r="J163" s="22"/>
@@ -32551,16 +32844,22 @@
       <c r="FM163" s="22"/>
       <c r="FN163" s="22"/>
     </row>
-    <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="26"/>
       <c r="B164" s="85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C164" s="96"/>
       <c r="D164" s="56"/>
       <c r="E164" s="57"/>
-      <c r="F164" s="58"/>
-      <c r="G164" s="58"/>
+      <c r="F164" s="58">
+        <f>G163</f>
+        <v>44939</v>
+      </c>
+      <c r="G164" s="58">
+        <f>F164</f>
+        <v>44939</v>
+      </c>
       <c r="H164" s="15"/>
       <c r="I164" s="15"/>
       <c r="J164" s="22"/>
@@ -32725,16 +33024,22 @@
       <c r="FM164" s="22"/>
       <c r="FN164" s="22"/>
     </row>
-    <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="26"/>
       <c r="B165" s="85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C165" s="96"/>
       <c r="D165" s="56"/>
       <c r="E165" s="57"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="58"/>
+      <c r="F165" s="58">
+        <f>G164</f>
+        <v>44939</v>
+      </c>
+      <c r="G165" s="58">
+        <f>F165</f>
+        <v>44939</v>
+      </c>
       <c r="H165" s="15"/>
       <c r="I165" s="15"/>
       <c r="J165" s="22"/>
@@ -32899,16 +33204,22 @@
       <c r="FM165" s="22"/>
       <c r="FN165" s="22"/>
     </row>
-    <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="26"/>
       <c r="B166" s="85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C166" s="96"/>
       <c r="D166" s="56"/>
       <c r="E166" s="57"/>
-      <c r="F166" s="58"/>
-      <c r="G166" s="58"/>
+      <c r="F166" s="58">
+        <f>G165 + 1</f>
+        <v>44940</v>
+      </c>
+      <c r="G166" s="58">
+        <f>F166</f>
+        <v>44940</v>
+      </c>
       <c r="H166" s="15"/>
       <c r="I166" s="15"/>
       <c r="J166" s="22"/>
@@ -33073,16 +33384,22 @@
       <c r="FM166" s="22"/>
       <c r="FN166" s="22"/>
     </row>
-    <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="26"/>
       <c r="B167" s="85" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C167" s="96"/>
       <c r="D167" s="56"/>
       <c r="E167" s="57"/>
-      <c r="F167" s="58"/>
-      <c r="G167" s="58"/>
+      <c r="F167" s="58">
+        <f>G165</f>
+        <v>44939</v>
+      </c>
+      <c r="G167" s="58">
+        <f>F167</f>
+        <v>44939</v>
+      </c>
       <c r="H167" s="15"/>
       <c r="I167" s="15"/>
       <c r="J167" s="22"/>
@@ -33247,7 +33564,7 @@
       <c r="FM167" s="22"/>
       <c r="FN167" s="22"/>
     </row>
-    <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="27" t="s">
         <v>16</v>
       </c>
@@ -33426,14 +33743,14 @@
       <c r="FM168" s="24"/>
       <c r="FN168" s="24"/>
     </row>
-    <row r="169" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="13"/>
       <c r="G170" s="28"/>
     </row>
-    <row r="171" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="14"/>
     </row>
   </sheetData>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB5449-F665-48B0-B688-1BCB1A3C7153}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0EA441-1021-6649-BC94-ADF69C3EF01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="13" r:id="rId1"/>
@@ -30,6 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="204">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -50,9 +56,6 @@
   <si>
     <t>ASSIGNED
 TO</t>
-  </si>
-  <si>
-    <t>PROJECT TITLE</t>
   </si>
   <si>
     <t>START</t>
@@ -70,16 +73,7 @@
     <t>TASK</t>
   </si>
   <si>
-    <t>SIMPLE GANTT CHART by Vertex42.com</t>
-  </si>
-  <si>
     <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Project Lead</t>
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
@@ -170,16 +164,10 @@
     <t xml:space="preserve">End Date: </t>
   </si>
   <si>
-    <t>Ứng dụng tra cứu vé số online</t>
-  </si>
-  <si>
     <t>20/10/2022</t>
   </si>
   <si>
     <t>23/03/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANTT CHART </t>
   </si>
   <si>
     <r>
@@ -206,9 +194,6 @@
   </si>
   <si>
     <t>Description of Changes</t>
-  </si>
-  <si>
-    <t>This document has been generated from template ST-FunctionalTestCase-Template, version 1.1</t>
   </si>
   <si>
     <t>Document Name</t>
@@ -674,6 +659,48 @@
   </si>
   <si>
     <t>Sinh viên xóa câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>ỨNG DỤNG BLOG TRA CỨU HỌC TẬP CỦA KHOA CNTT</t>
+  </si>
+  <si>
+    <t>TEAM 05</t>
+  </si>
+  <si>
+    <t>Project Lead: NGUYỄN HOÀNG TẤN</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>Ứng dụng blog trao đổi học tập của khoa CNTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANTT CHART ver 0.9 </t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1390,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1564,9 +1591,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1687,15 +1711,22 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="22" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -2355,60 +2386,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="61.44140625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
+    <row r="1" spans="1:4" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
     </row>
-    <row r="2" spans="1:4" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
+    <row r="2" spans="1:4" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
     </row>
-    <row r="4" spans="1:4" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="74" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2428,172 +2459,170 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12" style="125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="79" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="81">
+        <v>44850</v>
+      </c>
+      <c r="C3" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="D3" s="82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="81">
+        <v>44851</v>
+      </c>
+      <c r="C4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D4" s="82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="124" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="81">
+        <v>44851</v>
+      </c>
+      <c r="C5" s="80" t="s">
         <v>40</v>
       </c>
+      <c r="D5" s="82" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="81">
-        <v>0.1</v>
-      </c>
-      <c r="B3" s="82">
-        <v>44850</v>
-      </c>
-      <c r="C3" s="81" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="81">
+        <v>44852</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="81">
+        <v>44852</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="83" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="124" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="81">
+        <v>44853</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="81">
+        <v>44853</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="124" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="81">
+        <v>44853</v>
+      </c>
+      <c r="C10" s="83" t="s">
         <v>48</v>
       </c>
+      <c r="D10" s="82" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="B4" s="82">
-        <v>44851</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>49</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="124" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="81">
+        <v>44854</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="81">
-        <v>0.3</v>
-      </c>
-      <c r="B5" s="82">
-        <v>44851</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="81">
-        <v>0.4</v>
-      </c>
-      <c r="B6" s="82">
-        <v>44852</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="B7" s="82">
-        <v>44852</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="81">
-        <v>0.6</v>
-      </c>
-      <c r="B8" s="82">
-        <v>44853</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="81">
-        <v>0.7</v>
-      </c>
-      <c r="B9" s="82">
-        <v>44853</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="B10" s="82">
-        <v>44853</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="81">
-        <v>0.9</v>
-      </c>
-      <c r="B11" s="82">
-        <v>44854</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2613,47 +2642,47 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="111"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="110"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="113"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="112"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="115"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="114"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="116"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="115"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="117"/>
-      <c r="B5" s="115"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="116"/>
+      <c r="B5" s="114"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="117"/>
-      <c r="B6" s="115"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="116"/>
+      <c r="B6" s="114"/>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2680,33 +2709,33 @@
   </sheetPr>
   <dimension ref="A1:FN171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="99.88671875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="99.83203125" style="62" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="45" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="121" width="2.5546875" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="121" width="2.5" customWidth="1"/>
     <col min="122" max="142" width="2.6640625" customWidth="1"/>
     <col min="143" max="170" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="44"/>
@@ -2714,284 +2743,280 @@
       <c r="F1" s="4"/>
       <c r="G1" s="25"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="50"/>
     </row>
-    <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="C3" s="121" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="122"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="123">
+      <c r="F3" s="120">
         <v>44872</v>
       </c>
-      <c r="G3" s="123"/>
+      <c r="G3" s="120"/>
     </row>
-    <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="36"/>
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="118">
+      <c r="J4" s="117">
         <f>J5</f>
         <v>44872</v>
       </c>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="118">
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="117">
         <f>Q5</f>
         <v>44879</v>
       </c>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="120"/>
-      <c r="X4" s="118">
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="117">
         <f>X5</f>
         <v>44886</v>
       </c>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="120"/>
-      <c r="AE4" s="118">
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="117">
         <f>AE5</f>
         <v>44893</v>
       </c>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="120"/>
-      <c r="AL4" s="118">
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="117">
         <f>AL5</f>
         <v>44900</v>
       </c>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="120"/>
-      <c r="AS4" s="118">
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="117">
         <f>AS5</f>
         <v>44907</v>
       </c>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="119"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="120"/>
-      <c r="AZ4" s="118">
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="117">
         <f>AZ5</f>
         <v>44914</v>
       </c>
-      <c r="BA4" s="119"/>
-      <c r="BB4" s="119"/>
-      <c r="BC4" s="119"/>
-      <c r="BD4" s="119"/>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="120"/>
-      <c r="BG4" s="118">
+      <c r="BA4" s="118"/>
+      <c r="BB4" s="118"/>
+      <c r="BC4" s="118"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="119"/>
+      <c r="BG4" s="117">
         <f>BG5</f>
         <v>44921</v>
       </c>
-      <c r="BH4" s="119"/>
-      <c r="BI4" s="119"/>
-      <c r="BJ4" s="119"/>
-      <c r="BK4" s="119"/>
-      <c r="BL4" s="119"/>
-      <c r="BM4" s="120"/>
-      <c r="BN4" s="118">
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="118"/>
+      <c r="BJ4" s="118"/>
+      <c r="BK4" s="118"/>
+      <c r="BL4" s="118"/>
+      <c r="BM4" s="119"/>
+      <c r="BN4" s="117">
         <f>BN5</f>
         <v>44928</v>
       </c>
-      <c r="BO4" s="119"/>
-      <c r="BP4" s="119"/>
-      <c r="BQ4" s="119"/>
-      <c r="BR4" s="119"/>
-      <c r="BS4" s="119"/>
-      <c r="BT4" s="120"/>
-      <c r="BU4" s="118">
+      <c r="BO4" s="118"/>
+      <c r="BP4" s="118"/>
+      <c r="BQ4" s="118"/>
+      <c r="BR4" s="118"/>
+      <c r="BS4" s="118"/>
+      <c r="BT4" s="119"/>
+      <c r="BU4" s="117">
         <f>BU5</f>
         <v>44935</v>
       </c>
-      <c r="BV4" s="119"/>
-      <c r="BW4" s="119"/>
-      <c r="BX4" s="119"/>
-      <c r="BY4" s="119"/>
-      <c r="BZ4" s="119"/>
-      <c r="CA4" s="120"/>
-      <c r="CB4" s="118">
+      <c r="BV4" s="118"/>
+      <c r="BW4" s="118"/>
+      <c r="BX4" s="118"/>
+      <c r="BY4" s="118"/>
+      <c r="BZ4" s="118"/>
+      <c r="CA4" s="119"/>
+      <c r="CB4" s="117">
         <f>CB5</f>
         <v>44942</v>
       </c>
-      <c r="CC4" s="119"/>
-      <c r="CD4" s="119"/>
-      <c r="CE4" s="119"/>
-      <c r="CF4" s="119"/>
-      <c r="CG4" s="119"/>
-      <c r="CH4" s="120"/>
-      <c r="CI4" s="118">
+      <c r="CC4" s="118"/>
+      <c r="CD4" s="118"/>
+      <c r="CE4" s="118"/>
+      <c r="CF4" s="118"/>
+      <c r="CG4" s="118"/>
+      <c r="CH4" s="119"/>
+      <c r="CI4" s="117">
         <f>CI5</f>
         <v>44949</v>
       </c>
-      <c r="CJ4" s="119"/>
-      <c r="CK4" s="119"/>
-      <c r="CL4" s="119"/>
-      <c r="CM4" s="119"/>
-      <c r="CN4" s="119"/>
-      <c r="CO4" s="120"/>
-      <c r="CP4" s="118">
+      <c r="CJ4" s="118"/>
+      <c r="CK4" s="118"/>
+      <c r="CL4" s="118"/>
+      <c r="CM4" s="118"/>
+      <c r="CN4" s="118"/>
+      <c r="CO4" s="119"/>
+      <c r="CP4" s="117">
         <f t="shared" ref="CP4" si="0">CP5</f>
         <v>44956</v>
       </c>
-      <c r="CQ4" s="119"/>
-      <c r="CR4" s="119"/>
-      <c r="CS4" s="119"/>
-      <c r="CT4" s="119"/>
-      <c r="CU4" s="119"/>
-      <c r="CV4" s="120"/>
-      <c r="CW4" s="118">
+      <c r="CQ4" s="118"/>
+      <c r="CR4" s="118"/>
+      <c r="CS4" s="118"/>
+      <c r="CT4" s="118"/>
+      <c r="CU4" s="118"/>
+      <c r="CV4" s="119"/>
+      <c r="CW4" s="117">
         <f t="shared" ref="CW4" si="1">CW5</f>
         <v>44963</v>
       </c>
-      <c r="CX4" s="119"/>
-      <c r="CY4" s="119"/>
-      <c r="CZ4" s="119"/>
-      <c r="DA4" s="119"/>
-      <c r="DB4" s="119"/>
-      <c r="DC4" s="120"/>
-      <c r="DD4" s="118">
+      <c r="CX4" s="118"/>
+      <c r="CY4" s="118"/>
+      <c r="CZ4" s="118"/>
+      <c r="DA4" s="118"/>
+      <c r="DB4" s="118"/>
+      <c r="DC4" s="119"/>
+      <c r="DD4" s="117">
         <f t="shared" ref="DD4" si="2">DD5</f>
         <v>44970</v>
       </c>
-      <c r="DE4" s="119"/>
-      <c r="DF4" s="119"/>
-      <c r="DG4" s="119"/>
-      <c r="DH4" s="119"/>
-      <c r="DI4" s="119"/>
-      <c r="DJ4" s="120"/>
-      <c r="DK4" s="118">
+      <c r="DE4" s="118"/>
+      <c r="DF4" s="118"/>
+      <c r="DG4" s="118"/>
+      <c r="DH4" s="118"/>
+      <c r="DI4" s="118"/>
+      <c r="DJ4" s="119"/>
+      <c r="DK4" s="117">
         <f t="shared" ref="DK4" si="3">DK5</f>
         <v>44977</v>
       </c>
-      <c r="DL4" s="119"/>
-      <c r="DM4" s="119"/>
-      <c r="DN4" s="119"/>
-      <c r="DO4" s="119"/>
-      <c r="DP4" s="119"/>
-      <c r="DQ4" s="120"/>
-      <c r="DR4" s="118">
+      <c r="DL4" s="118"/>
+      <c r="DM4" s="118"/>
+      <c r="DN4" s="118"/>
+      <c r="DO4" s="118"/>
+      <c r="DP4" s="118"/>
+      <c r="DQ4" s="119"/>
+      <c r="DR4" s="117">
         <f t="shared" ref="DR4" si="4">DR5</f>
         <v>44984</v>
       </c>
-      <c r="DS4" s="119"/>
-      <c r="DT4" s="119"/>
-      <c r="DU4" s="119"/>
-      <c r="DV4" s="119"/>
-      <c r="DW4" s="119"/>
-      <c r="DX4" s="120"/>
-      <c r="DY4" s="118">
+      <c r="DS4" s="118"/>
+      <c r="DT4" s="118"/>
+      <c r="DU4" s="118"/>
+      <c r="DV4" s="118"/>
+      <c r="DW4" s="118"/>
+      <c r="DX4" s="119"/>
+      <c r="DY4" s="117">
         <f t="shared" ref="DY4" si="5">DY5</f>
         <v>44991</v>
       </c>
-      <c r="DZ4" s="119"/>
-      <c r="EA4" s="119"/>
-      <c r="EB4" s="119"/>
-      <c r="EC4" s="119"/>
-      <c r="ED4" s="119"/>
-      <c r="EE4" s="120"/>
-      <c r="EF4" s="118">
+      <c r="DZ4" s="118"/>
+      <c r="EA4" s="118"/>
+      <c r="EB4" s="118"/>
+      <c r="EC4" s="118"/>
+      <c r="ED4" s="118"/>
+      <c r="EE4" s="119"/>
+      <c r="EF4" s="117">
         <f t="shared" ref="EF4" si="6">EF5</f>
         <v>44998</v>
       </c>
-      <c r="EG4" s="119"/>
-      <c r="EH4" s="119"/>
-      <c r="EI4" s="119"/>
-      <c r="EJ4" s="119"/>
-      <c r="EK4" s="119"/>
-      <c r="EL4" s="120"/>
-      <c r="EM4" s="118">
+      <c r="EG4" s="118"/>
+      <c r="EH4" s="118"/>
+      <c r="EI4" s="118"/>
+      <c r="EJ4" s="118"/>
+      <c r="EK4" s="118"/>
+      <c r="EL4" s="119"/>
+      <c r="EM4" s="117">
         <f t="shared" ref="EM4" si="7">EM5</f>
         <v>45005</v>
       </c>
-      <c r="EN4" s="119"/>
-      <c r="EO4" s="119"/>
-      <c r="EP4" s="119"/>
-      <c r="EQ4" s="119"/>
-      <c r="ER4" s="119"/>
-      <c r="ES4" s="120"/>
-      <c r="ET4" s="118">
+      <c r="EN4" s="118"/>
+      <c r="EO4" s="118"/>
+      <c r="EP4" s="118"/>
+      <c r="EQ4" s="118"/>
+      <c r="ER4" s="118"/>
+      <c r="ES4" s="119"/>
+      <c r="ET4" s="117">
         <f t="shared" ref="ET4" si="8">ET5</f>
         <v>45012</v>
       </c>
-      <c r="EU4" s="119"/>
-      <c r="EV4" s="119"/>
-      <c r="EW4" s="119"/>
-      <c r="EX4" s="119"/>
-      <c r="EY4" s="119"/>
-      <c r="EZ4" s="120"/>
-      <c r="FA4" s="118">
+      <c r="EU4" s="118"/>
+      <c r="EV4" s="118"/>
+      <c r="EW4" s="118"/>
+      <c r="EX4" s="118"/>
+      <c r="EY4" s="118"/>
+      <c r="EZ4" s="119"/>
+      <c r="FA4" s="117">
         <f t="shared" ref="FA4" si="9">FA5</f>
         <v>45019</v>
       </c>
-      <c r="FB4" s="119"/>
-      <c r="FC4" s="119"/>
-      <c r="FD4" s="119"/>
-      <c r="FE4" s="119"/>
-      <c r="FF4" s="119"/>
-      <c r="FG4" s="120"/>
-      <c r="FH4" s="118">
+      <c r="FB4" s="118"/>
+      <c r="FC4" s="118"/>
+      <c r="FD4" s="118"/>
+      <c r="FE4" s="118"/>
+      <c r="FF4" s="118"/>
+      <c r="FG4" s="119"/>
+      <c r="FH4" s="117">
         <f t="shared" ref="FH4" si="10">FH5</f>
         <v>45026</v>
       </c>
-      <c r="FI4" s="119"/>
-      <c r="FJ4" s="119"/>
-      <c r="FK4" s="119"/>
-      <c r="FL4" s="119"/>
-      <c r="FM4" s="119"/>
-      <c r="FN4" s="120"/>
+      <c r="FI4" s="118"/>
+      <c r="FJ4" s="118"/>
+      <c r="FK4" s="118"/>
+      <c r="FL4" s="118"/>
+      <c r="FM4" s="118"/>
+      <c r="FN4" s="119"/>
     </row>
-    <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="63"/>
       <c r="C5" s="32"/>
@@ -3645,12 +3670,12 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>3</v>
@@ -3659,17 +3684,17 @@
         <v>2</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>LEFT(TEXT(J5,"ddd"),1)</f>
@@ -4316,9 +4341,9 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="29"/>
       <c r="F7"/>
@@ -4488,15 +4513,15 @@
       <c r="FM7" s="22"/>
       <c r="FN7" s="22"/>
     </row>
-    <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
+    <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
@@ -4659,12 +4684,12 @@
       <c r="FM8" s="22"/>
       <c r="FN8" s="22"/>
     </row>
-    <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="47"/>
@@ -4840,15 +4865,15 @@
       <c r="FM9" s="22"/>
       <c r="FN9" s="22"/>
     </row>
-    <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>56</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D10" s="48">
         <v>0</v>
@@ -5029,15 +5054,15 @@
       <c r="FM10" s="22"/>
       <c r="FN10" s="22"/>
     </row>
-    <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="97" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>57</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D11" s="48">
         <v>0</v>
@@ -5218,13 +5243,13 @@
       <c r="FM11" s="22"/>
       <c r="FN11" s="22"/>
     </row>
-    <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
-      <c r="B12" s="97" t="s">
-        <v>65</v>
+      <c r="B12" s="96" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D12" s="48">
         <v>0</v>
@@ -5405,13 +5430,13 @@
       <c r="FM12" s="22"/>
       <c r="FN12" s="22"/>
     </row>
-    <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
-      <c r="B13" s="97" t="s">
-        <v>66</v>
+      <c r="B13" s="96" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" s="48">
         <v>0</v>
@@ -5589,13 +5614,13 @@
       <c r="FM13" s="22"/>
       <c r="FN13" s="22"/>
     </row>
-    <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
-      <c r="B14" s="97" t="s">
-        <v>67</v>
+      <c r="B14" s="96" t="s">
+        <v>60</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D14" s="48">
         <v>0</v>
@@ -5773,13 +5798,13 @@
       <c r="FM14" s="22"/>
       <c r="FN14" s="22"/>
     </row>
-    <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
-      <c r="B15" s="97" t="s">
-        <v>68</v>
+      <c r="B15" s="96" t="s">
+        <v>61</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D15" s="48">
         <v>0</v>
@@ -5957,13 +5982,13 @@
       <c r="FM15" s="22"/>
       <c r="FN15" s="22"/>
     </row>
-    <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="97" t="s">
-        <v>69</v>
+      <c r="B16" s="96" t="s">
+        <v>62</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" s="48">
         <v>0</v>
@@ -6141,13 +6166,13 @@
       <c r="FM16" s="22"/>
       <c r="FN16" s="22"/>
     </row>
-    <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="97" t="s">
-        <v>70</v>
+      <c r="B17" s="96" t="s">
+        <v>63</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D17" s="48">
         <v>0</v>
@@ -6325,13 +6350,13 @@
       <c r="FM17" s="22"/>
       <c r="FN17" s="22"/>
     </row>
-    <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="97" t="s">
-        <v>71</v>
+      <c r="B18" s="96" t="s">
+        <v>64</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D18" s="48">
         <v>0</v>
@@ -6509,13 +6534,13 @@
       <c r="FM18" s="22"/>
       <c r="FN18" s="22"/>
     </row>
-    <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="97" t="s">
-        <v>72</v>
+      <c r="B19" s="96" t="s">
+        <v>65</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19" s="48">
         <v>0</v>
@@ -6693,12 +6718,12 @@
       <c r="FM19" s="22"/>
       <c r="FN19" s="22"/>
     </row>
-    <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="47"/>
@@ -6874,13 +6899,13 @@
       <c r="FM20" s="22"/>
       <c r="FN20" s="22"/>
     </row>
-    <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
-      <c r="B21" s="97" t="s">
-        <v>74</v>
+      <c r="B21" s="96" t="s">
+        <v>67</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D21" s="48">
         <v>0</v>
@@ -7061,13 +7086,13 @@
       <c r="FM21" s="22"/>
       <c r="FN21" s="22"/>
     </row>
-    <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
-      <c r="B22" s="97" t="s">
-        <v>75</v>
+      <c r="B22" s="96" t="s">
+        <v>68</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -7248,13 +7273,13 @@
       <c r="FM22" s="22"/>
       <c r="FN22" s="22"/>
     </row>
-    <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="97" t="s">
-        <v>76</v>
+      <c r="B23" s="96" t="s">
+        <v>69</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D23" s="48">
         <v>0</v>
@@ -7435,13 +7460,13 @@
       <c r="FM23" s="22"/>
       <c r="FN23" s="22"/>
     </row>
-    <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
-      <c r="B24" s="97" t="s">
-        <v>77</v>
+      <c r="B24" s="96" t="s">
+        <v>70</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -7619,13 +7644,13 @@
       <c r="FM24" s="22"/>
       <c r="FN24" s="22"/>
     </row>
-    <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
-      <c r="B25" s="97" t="s">
-        <v>78</v>
+      <c r="B25" s="96" t="s">
+        <v>71</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D25" s="48">
         <v>0</v>
@@ -7803,10 +7828,10 @@
       <c r="FM25" s="22"/>
       <c r="FN25" s="22"/>
     </row>
-    <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="65" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="47"/>
@@ -7979,10 +8004,10 @@
       <c r="FM26" s="22"/>
       <c r="FN26" s="22"/>
     </row>
-    <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="97" t="s">
-        <v>80</v>
+      <c r="B27" s="96" t="s">
+        <v>73</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="48"/>
@@ -7992,7 +8017,7 @@
         <v>44882</v>
       </c>
       <c r="G27" s="75">
-        <f>F27</f>
+        <f t="shared" ref="G27:G33" si="45">F27</f>
         <v>44882</v>
       </c>
       <c r="H27" s="15"/>
@@ -8159,12 +8184,12 @@
       <c r="FM27" s="22"/>
       <c r="FN27" s="22"/>
     </row>
-    <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="97" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="B28" s="96" t="s">
+        <v>74</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="48"/>
@@ -8174,7 +8199,7 @@
         <v>44883</v>
       </c>
       <c r="G28" s="75">
-        <f>F28</f>
+        <f t="shared" si="45"/>
         <v>44883</v>
       </c>
       <c r="H28" s="15"/>
@@ -8341,10 +8366,10 @@
       <c r="FM28" s="22"/>
       <c r="FN28" s="22"/>
     </row>
-    <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
-      <c r="B29" s="97" t="s">
-        <v>82</v>
+      <c r="B29" s="96" t="s">
+        <v>75</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="48"/>
@@ -8354,7 +8379,7 @@
         <v>44883</v>
       </c>
       <c r="G29" s="75">
-        <f>F29</f>
+        <f t="shared" si="45"/>
         <v>44883</v>
       </c>
       <c r="H29" s="15"/>
@@ -8521,10 +8546,10 @@
       <c r="FM29" s="22"/>
       <c r="FN29" s="22"/>
     </row>
-    <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
-      <c r="B30" s="97" t="s">
-        <v>83</v>
+      <c r="B30" s="96" t="s">
+        <v>76</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="48"/>
@@ -8534,7 +8559,7 @@
         <v>44883</v>
       </c>
       <c r="G30" s="75">
-        <f>F30</f>
+        <f t="shared" si="45"/>
         <v>44883</v>
       </c>
       <c r="H30" s="15"/>
@@ -8701,10 +8726,10 @@
       <c r="FM30" s="22"/>
       <c r="FN30" s="22"/>
     </row>
-    <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
-      <c r="B31" s="97" t="s">
-        <v>84</v>
+      <c r="B31" s="96" t="s">
+        <v>77</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="48"/>
@@ -8714,7 +8739,7 @@
         <v>44883</v>
       </c>
       <c r="G31" s="75">
-        <f>F31</f>
+        <f t="shared" si="45"/>
         <v>44883</v>
       </c>
       <c r="H31" s="15"/>
@@ -8881,10 +8906,10 @@
       <c r="FM31" s="22"/>
       <c r="FN31" s="22"/>
     </row>
-    <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
-      <c r="B32" s="97" t="s">
-        <v>85</v>
+      <c r="B32" s="96" t="s">
+        <v>78</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="48"/>
@@ -8894,7 +8919,7 @@
         <v>44884</v>
       </c>
       <c r="G32" s="75">
-        <f>F32</f>
+        <f t="shared" si="45"/>
         <v>44884</v>
       </c>
       <c r="H32" s="15"/>
@@ -9061,10 +9086,10 @@
       <c r="FM32" s="22"/>
       <c r="FN32" s="22"/>
     </row>
-    <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
-      <c r="B33" s="97" t="s">
-        <v>86</v>
+      <c r="B33" s="96" t="s">
+        <v>79</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="48"/>
@@ -9074,7 +9099,7 @@
         <v>44883</v>
       </c>
       <c r="G33" s="75">
-        <f>F33</f>
+        <f t="shared" si="45"/>
         <v>44883</v>
       </c>
       <c r="H33" s="15"/>
@@ -9241,16 +9266,16 @@
       <c r="FM33" s="22"/>
       <c r="FN33" s="22"/>
     </row>
-    <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
-      <c r="B34" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
+      <c r="B34" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="22"/>
@@ -9415,12 +9440,12 @@
       <c r="FM34" s="22"/>
       <c r="FN34" s="22"/>
     </row>
-    <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="47"/>
@@ -9596,13 +9621,13 @@
       <c r="FM35" s="22"/>
       <c r="FN35" s="22"/>
     </row>
-    <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="97" t="s">
-        <v>88</v>
+      <c r="B36" s="96" t="s">
+        <v>81</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D36" s="48">
         <v>0</v>
@@ -9613,7 +9638,7 @@
         <v>44886</v>
       </c>
       <c r="G36" s="75">
-        <f>F36</f>
+        <f t="shared" ref="G36:G44" si="46">F36</f>
         <v>44886</v>
       </c>
       <c r="H36" s="15"/>
@@ -9783,13 +9808,13 @@
       <c r="FM36" s="22"/>
       <c r="FN36" s="22"/>
     </row>
-    <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="97" t="s">
-        <v>89</v>
+      <c r="B37" s="96" t="s">
+        <v>82</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D37" s="48">
         <v>0</v>
@@ -9800,7 +9825,7 @@
         <v>44886</v>
       </c>
       <c r="G37" s="75">
-        <f>F37</f>
+        <f t="shared" si="46"/>
         <v>44886</v>
       </c>
       <c r="H37" s="15"/>
@@ -9970,13 +9995,13 @@
       <c r="FM37" s="22"/>
       <c r="FN37" s="22"/>
     </row>
-    <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
-      <c r="B38" s="97" t="s">
-        <v>96</v>
+      <c r="B38" s="96" t="s">
+        <v>89</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D38" s="48">
         <v>0</v>
@@ -9987,7 +10012,7 @@
         <v>44887</v>
       </c>
       <c r="G38" s="75">
-        <f>F38</f>
+        <f t="shared" si="46"/>
         <v>44887</v>
       </c>
       <c r="H38" s="15"/>
@@ -10157,13 +10182,13 @@
       <c r="FM38" s="22"/>
       <c r="FN38" s="22"/>
     </row>
-    <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
-      <c r="B39" s="97" t="s">
-        <v>90</v>
+      <c r="B39" s="96" t="s">
+        <v>83</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D39" s="48">
         <v>0</v>
@@ -10174,7 +10199,7 @@
         <v>44887</v>
       </c>
       <c r="G39" s="75">
-        <f>F39</f>
+        <f t="shared" si="46"/>
         <v>44887</v>
       </c>
       <c r="H39" s="15"/>
@@ -10341,13 +10366,13 @@
       <c r="FM39" s="22"/>
       <c r="FN39" s="22"/>
     </row>
-    <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
-      <c r="B40" s="97" t="s">
-        <v>91</v>
+      <c r="B40" s="96" t="s">
+        <v>84</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D40" s="48">
         <v>0</v>
@@ -10358,7 +10383,7 @@
         <v>44888</v>
       </c>
       <c r="G40" s="75">
-        <f>F40</f>
+        <f t="shared" si="46"/>
         <v>44888</v>
       </c>
       <c r="H40" s="15"/>
@@ -10525,13 +10550,13 @@
       <c r="FM40" s="22"/>
       <c r="FN40" s="22"/>
     </row>
-    <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
-      <c r="B41" s="97" t="s">
-        <v>92</v>
+      <c r="B41" s="96" t="s">
+        <v>85</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D41" s="48">
         <v>0</v>
@@ -10542,7 +10567,7 @@
         <v>44887</v>
       </c>
       <c r="G41" s="75">
-        <f>F41</f>
+        <f t="shared" si="46"/>
         <v>44887</v>
       </c>
       <c r="H41" s="15"/>
@@ -10709,13 +10734,13 @@
       <c r="FM41" s="22"/>
       <c r="FN41" s="22"/>
     </row>
-    <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
-      <c r="B42" s="97" t="s">
-        <v>93</v>
+      <c r="B42" s="96" t="s">
+        <v>86</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D42" s="48">
         <v>0</v>
@@ -10726,7 +10751,7 @@
         <v>44887</v>
       </c>
       <c r="G42" s="75">
-        <f>F42</f>
+        <f t="shared" si="46"/>
         <v>44887</v>
       </c>
       <c r="H42" s="15"/>
@@ -10893,13 +10918,13 @@
       <c r="FM42" s="22"/>
       <c r="FN42" s="22"/>
     </row>
-    <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
-      <c r="B43" s="97" t="s">
-        <v>94</v>
+      <c r="B43" s="96" t="s">
+        <v>87</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D43" s="48">
         <v>0</v>
@@ -10910,7 +10935,7 @@
         <v>44889</v>
       </c>
       <c r="G43" s="75">
-        <f>F43</f>
+        <f t="shared" si="46"/>
         <v>44889</v>
       </c>
       <c r="H43" s="15"/>
@@ -11077,13 +11102,13 @@
       <c r="FM43" s="22"/>
       <c r="FN43" s="22"/>
     </row>
-    <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
-      <c r="B44" s="97" t="s">
-        <v>95</v>
+      <c r="B44" s="96" t="s">
+        <v>88</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D44" s="48">
         <v>0</v>
@@ -11094,7 +11119,7 @@
         <v>44887</v>
       </c>
       <c r="G44" s="75">
-        <f>F44</f>
+        <f t="shared" si="46"/>
         <v>44887</v>
       </c>
       <c r="H44" s="15"/>
@@ -11261,12 +11286,12 @@
       <c r="FM44" s="22"/>
       <c r="FN44" s="22"/>
     </row>
-    <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="47"/>
@@ -11442,13 +11467,13 @@
       <c r="FM45" s="22"/>
       <c r="FN45" s="22"/>
     </row>
-    <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
-      <c r="B46" s="97" t="s">
-        <v>98</v>
+      <c r="B46" s="96" t="s">
+        <v>91</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D46" s="48">
         <v>0</v>
@@ -11459,7 +11484,7 @@
         <v>44890</v>
       </c>
       <c r="G46" s="75">
-        <f>F46</f>
+        <f t="shared" ref="G46:G52" si="47">F46</f>
         <v>44890</v>
       </c>
       <c r="H46" s="15"/>
@@ -11629,13 +11654,13 @@
       <c r="FM46" s="22"/>
       <c r="FN46" s="22"/>
     </row>
-    <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
-      <c r="B47" s="97" t="s">
-        <v>99</v>
+      <c r="B47" s="96" t="s">
+        <v>92</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D47" s="48">
         <v>0</v>
@@ -11646,7 +11671,7 @@
         <v>44891</v>
       </c>
       <c r="G47" s="75">
-        <f>F47</f>
+        <f t="shared" si="47"/>
         <v>44891</v>
       </c>
       <c r="H47" s="15"/>
@@ -11816,13 +11841,13 @@
       <c r="FM47" s="22"/>
       <c r="FN47" s="22"/>
     </row>
-    <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
-      <c r="B48" s="97" t="s">
-        <v>100</v>
+      <c r="B48" s="96" t="s">
+        <v>93</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D48" s="48">
         <v>0</v>
@@ -11833,7 +11858,7 @@
         <v>44891</v>
       </c>
       <c r="G48" s="75">
-        <f>F48</f>
+        <f t="shared" si="47"/>
         <v>44891</v>
       </c>
       <c r="H48" s="15"/>
@@ -12003,13 +12028,13 @@
       <c r="FM48" s="22"/>
       <c r="FN48" s="22"/>
     </row>
-    <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
-      <c r="B49" s="97" t="s">
-        <v>101</v>
+      <c r="B49" s="96" t="s">
+        <v>94</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D49" s="48">
         <v>0</v>
@@ -12020,7 +12045,7 @@
         <v>44891</v>
       </c>
       <c r="G49" s="75">
-        <f>F49</f>
+        <f t="shared" si="47"/>
         <v>44891</v>
       </c>
       <c r="H49" s="15"/>
@@ -12187,13 +12212,13 @@
       <c r="FM49" s="22"/>
       <c r="FN49" s="22"/>
     </row>
-    <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
-      <c r="B50" s="97" t="s">
-        <v>102</v>
+      <c r="B50" s="96" t="s">
+        <v>95</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D50" s="48">
         <v>0</v>
@@ -12204,7 +12229,7 @@
         <v>44891</v>
       </c>
       <c r="G50" s="75">
-        <f>F50</f>
+        <f t="shared" si="47"/>
         <v>44891</v>
       </c>
       <c r="H50" s="15"/>
@@ -12371,13 +12396,13 @@
       <c r="FM50" s="22"/>
       <c r="FN50" s="22"/>
     </row>
-    <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
-      <c r="B51" s="97" t="s">
-        <v>103</v>
+      <c r="B51" s="96" t="s">
+        <v>96</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D51" s="48">
         <v>0</v>
@@ -12388,7 +12413,7 @@
         <v>44893</v>
       </c>
       <c r="G51" s="75">
-        <f>F51</f>
+        <f t="shared" si="47"/>
         <v>44893</v>
       </c>
       <c r="H51" s="15"/>
@@ -12555,13 +12580,13 @@
       <c r="FM51" s="22"/>
       <c r="FN51" s="22"/>
     </row>
-    <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
-      <c r="B52" s="97" t="s">
-        <v>104</v>
+      <c r="B52" s="96" t="s">
+        <v>97</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D52" s="48">
         <v>0</v>
@@ -12572,7 +12597,7 @@
         <v>44891</v>
       </c>
       <c r="G52" s="75">
-        <f>F52</f>
+        <f t="shared" si="47"/>
         <v>44891</v>
       </c>
       <c r="H52" s="15"/>
@@ -12739,10 +12764,10 @@
       <c r="FM52" s="22"/>
       <c r="FN52" s="22"/>
     </row>
-    <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="65" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="47"/>
@@ -12915,10 +12940,10 @@
       <c r="FM53" s="22"/>
       <c r="FN53" s="22"/>
     </row>
-    <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
-      <c r="B54" s="97" t="s">
-        <v>110</v>
+      <c r="B54" s="96" t="s">
+        <v>103</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="48"/>
@@ -12928,7 +12953,7 @@
         <v>44894</v>
       </c>
       <c r="G54" s="75">
-        <f>F54</f>
+        <f t="shared" ref="G54:G60" si="48">F54</f>
         <v>44894</v>
       </c>
       <c r="H54" s="15"/>
@@ -13095,10 +13120,10 @@
       <c r="FM54" s="22"/>
       <c r="FN54" s="22"/>
     </row>
-    <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
-      <c r="B55" s="97" t="s">
-        <v>106</v>
+      <c r="B55" s="96" t="s">
+        <v>99</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="48"/>
@@ -13108,7 +13133,7 @@
         <v>44895</v>
       </c>
       <c r="G55" s="75">
-        <f>F55</f>
+        <f t="shared" si="48"/>
         <v>44895</v>
       </c>
       <c r="H55" s="15"/>
@@ -13275,10 +13300,10 @@
       <c r="FM55" s="22"/>
       <c r="FN55" s="22"/>
     </row>
-    <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
-      <c r="B56" s="97" t="s">
-        <v>107</v>
+      <c r="B56" s="96" t="s">
+        <v>100</v>
       </c>
       <c r="C56" s="31"/>
       <c r="D56" s="48"/>
@@ -13288,7 +13313,7 @@
         <v>44895</v>
       </c>
       <c r="G56" s="75">
-        <f>F56</f>
+        <f t="shared" si="48"/>
         <v>44895</v>
       </c>
       <c r="H56" s="15"/>
@@ -13455,10 +13480,10 @@
       <c r="FM56" s="22"/>
       <c r="FN56" s="22"/>
     </row>
-    <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
-      <c r="B57" s="97" t="s">
-        <v>111</v>
+      <c r="B57" s="96" t="s">
+        <v>104</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="48"/>
@@ -13468,7 +13493,7 @@
         <v>44895</v>
       </c>
       <c r="G57" s="75">
-        <f>F57</f>
+        <f t="shared" si="48"/>
         <v>44895</v>
       </c>
       <c r="H57" s="15"/>
@@ -13635,10 +13660,10 @@
       <c r="FM57" s="22"/>
       <c r="FN57" s="22"/>
     </row>
-    <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
-      <c r="B58" s="97" t="s">
-        <v>108</v>
+      <c r="B58" s="96" t="s">
+        <v>101</v>
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="48"/>
@@ -13648,7 +13673,7 @@
         <v>44895</v>
       </c>
       <c r="G58" s="75">
-        <f>F58</f>
+        <f t="shared" si="48"/>
         <v>44895</v>
       </c>
       <c r="H58" s="15"/>
@@ -13815,10 +13840,10 @@
       <c r="FM58" s="22"/>
       <c r="FN58" s="22"/>
     </row>
-    <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
-      <c r="B59" s="97" t="s">
-        <v>109</v>
+      <c r="B59" s="96" t="s">
+        <v>102</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="48"/>
@@ -13828,7 +13853,7 @@
         <v>44896</v>
       </c>
       <c r="G59" s="75">
-        <f>F59</f>
+        <f t="shared" si="48"/>
         <v>44896</v>
       </c>
       <c r="H59" s="15"/>
@@ -13995,10 +14020,10 @@
       <c r="FM59" s="22"/>
       <c r="FN59" s="22"/>
     </row>
-    <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
-      <c r="B60" s="97" t="s">
-        <v>112</v>
+      <c r="B60" s="96" t="s">
+        <v>105</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="48"/>
@@ -14008,7 +14033,7 @@
         <v>44895</v>
       </c>
       <c r="G60" s="75">
-        <f>F60</f>
+        <f t="shared" si="48"/>
         <v>44895</v>
       </c>
       <c r="H60" s="15"/>
@@ -14175,10 +14200,10 @@
       <c r="FM60" s="22"/>
       <c r="FN60" s="22"/>
     </row>
-    <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="65" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="47"/>
@@ -14351,10 +14376,10 @@
       <c r="FM61" s="22"/>
       <c r="FN61" s="22"/>
     </row>
-    <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
-      <c r="B62" s="97" t="s">
-        <v>113</v>
+      <c r="B62" s="96" t="s">
+        <v>106</v>
       </c>
       <c r="C62" s="31"/>
       <c r="D62" s="48"/>
@@ -14531,10 +14556,10 @@
       <c r="FM62" s="22"/>
       <c r="FN62" s="22"/>
     </row>
-    <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
-      <c r="B63" s="97" t="s">
-        <v>114</v>
+      <c r="B63" s="96" t="s">
+        <v>107</v>
       </c>
       <c r="C63" s="31"/>
       <c r="D63" s="48"/>
@@ -14711,10 +14736,10 @@
       <c r="FM63" s="22"/>
       <c r="FN63" s="22"/>
     </row>
-    <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
-      <c r="B64" s="97" t="s">
-        <v>115</v>
+      <c r="B64" s="96" t="s">
+        <v>108</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="48"/>
@@ -14891,10 +14916,10 @@
       <c r="FM64" s="22"/>
       <c r="FN64" s="22"/>
     </row>
-    <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
-      <c r="B65" s="97" t="s">
-        <v>116</v>
+      <c r="B65" s="96" t="s">
+        <v>109</v>
       </c>
       <c r="C65" s="31"/>
       <c r="D65" s="48"/>
@@ -15071,10 +15096,10 @@
       <c r="FM65" s="22"/>
       <c r="FN65" s="22"/>
     </row>
-    <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
-      <c r="B66" s="97" t="s">
-        <v>117</v>
+      <c r="B66" s="96" t="s">
+        <v>110</v>
       </c>
       <c r="C66" s="31"/>
       <c r="D66" s="48"/>
@@ -15251,16 +15276,16 @@
       <c r="FM66" s="22"/>
       <c r="FN66" s="22"/>
     </row>
-    <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
-      <c r="B67" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="87"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
+      <c r="B67" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="22"/>
@@ -15425,12 +15450,12 @@
       <c r="FM67" s="22"/>
       <c r="FN67" s="22"/>
     </row>
-    <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="76"/>
@@ -15606,13 +15631,13 @@
       <c r="FM68" s="22"/>
       <c r="FN68" s="22"/>
     </row>
-    <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="66" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D69" s="56">
         <v>0</v>
@@ -15790,13 +15815,13 @@
       <c r="FM69" s="22"/>
       <c r="FN69" s="22"/>
     </row>
-    <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
       <c r="B70" s="66" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D70" s="56">
         <v>0</v>
@@ -15974,13 +15999,13 @@
       <c r="FM70" s="22"/>
       <c r="FN70" s="22"/>
     </row>
-    <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="66" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D71" s="56">
         <v>0</v>
@@ -15991,7 +16016,7 @@
         <v>44901</v>
       </c>
       <c r="G71" s="58">
-        <f t="shared" ref="G71:G77" si="45">F71</f>
+        <f t="shared" ref="G71:G77" si="49">F71</f>
         <v>44901</v>
       </c>
       <c r="H71" s="15"/>
@@ -16158,10 +16183,10 @@
       <c r="FM71" s="22"/>
       <c r="FN71" s="22"/>
     </row>
-    <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
       <c r="B72" s="66" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="56"/>
@@ -16338,13 +16363,13 @@
       <c r="FM72" s="22"/>
       <c r="FN72" s="22"/>
     </row>
-    <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="66" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D73" s="56">
         <v>0</v>
@@ -16355,7 +16380,7 @@
         <v>44902</v>
       </c>
       <c r="G73" s="58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>44902</v>
       </c>
       <c r="H73" s="15"/>
@@ -16522,13 +16547,13 @@
       <c r="FM73" s="22"/>
       <c r="FN73" s="22"/>
     </row>
-    <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="66" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D74" s="56">
         <v>0</v>
@@ -16539,7 +16564,7 @@
         <v>44901</v>
       </c>
       <c r="G74" s="58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>44901</v>
       </c>
       <c r="H74" s="15"/>
@@ -16706,13 +16731,13 @@
       <c r="FM74" s="22"/>
       <c r="FN74" s="22"/>
     </row>
-    <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26"/>
       <c r="B75" s="66" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D75" s="56">
         <v>0</v>
@@ -16723,7 +16748,7 @@
         <v>44901</v>
       </c>
       <c r="G75" s="58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>44901</v>
       </c>
       <c r="H75" s="15"/>
@@ -16890,13 +16915,13 @@
       <c r="FM75" s="22"/>
       <c r="FN75" s="22"/>
     </row>
-    <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="66" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C76" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D76" s="56">
         <v>0</v>
@@ -16907,7 +16932,7 @@
         <v>44903</v>
       </c>
       <c r="G76" s="58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>44903</v>
       </c>
       <c r="H76" s="15"/>
@@ -17074,13 +17099,13 @@
       <c r="FM76" s="22"/>
       <c r="FN76" s="22"/>
     </row>
-    <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="66" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D77" s="56">
         <v>0</v>
@@ -17091,7 +17116,7 @@
         <v>44901</v>
       </c>
       <c r="G77" s="58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>44901</v>
       </c>
       <c r="H77" s="15"/>
@@ -17258,10 +17283,10 @@
       <c r="FM77" s="22"/>
       <c r="FN77" s="22"/>
     </row>
-    <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="65" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="53"/>
@@ -17434,13 +17459,13 @@
       <c r="FM78" s="22"/>
       <c r="FN78" s="22"/>
     </row>
-    <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26"/>
       <c r="B79" s="66" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D79" s="56">
         <v>0</v>
@@ -17451,7 +17476,7 @@
         <v>44904</v>
       </c>
       <c r="G79" s="58">
-        <f t="shared" ref="G79:G85" si="46">F79</f>
+        <f t="shared" ref="G79:G85" si="50">F79</f>
         <v>44904</v>
       </c>
       <c r="H79" s="15"/>
@@ -17618,13 +17643,13 @@
       <c r="FM79" s="22"/>
       <c r="FN79" s="22"/>
     </row>
-    <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="66" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D80" s="56">
         <v>0</v>
@@ -17635,7 +17660,7 @@
         <v>44905</v>
       </c>
       <c r="G80" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44905</v>
       </c>
       <c r="H80" s="15"/>
@@ -17802,13 +17827,13 @@
       <c r="FM80" s="22"/>
       <c r="FN80" s="22"/>
     </row>
-    <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="66" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D81" s="56">
         <v>0</v>
@@ -17819,7 +17844,7 @@
         <v>44905</v>
       </c>
       <c r="G81" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44905</v>
       </c>
       <c r="H81" s="15"/>
@@ -17986,13 +18011,13 @@
       <c r="FM81" s="22"/>
       <c r="FN81" s="22"/>
     </row>
-    <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="66" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D82" s="56">
         <v>0</v>
@@ -18003,7 +18028,7 @@
         <v>44905</v>
       </c>
       <c r="G82" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44905</v>
       </c>
       <c r="H82" s="15"/>
@@ -18170,13 +18195,13 @@
       <c r="FM82" s="22"/>
       <c r="FN82" s="22"/>
     </row>
-    <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="66" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D83" s="56">
         <v>0</v>
@@ -18187,7 +18212,7 @@
         <v>44905</v>
       </c>
       <c r="G83" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44905</v>
       </c>
       <c r="H83" s="15"/>
@@ -18354,13 +18379,13 @@
       <c r="FM83" s="22"/>
       <c r="FN83" s="22"/>
     </row>
-    <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26"/>
       <c r="B84" s="66" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D84" s="56">
         <v>0</v>
@@ -18371,7 +18396,7 @@
         <v>44907</v>
       </c>
       <c r="G84" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44907</v>
       </c>
       <c r="H84" s="15"/>
@@ -18538,13 +18563,13 @@
       <c r="FM84" s="22"/>
       <c r="FN84" s="22"/>
     </row>
-    <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26"/>
       <c r="B85" s="66" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D85" s="56">
         <v>0</v>
@@ -18555,7 +18580,7 @@
         <v>44905</v>
       </c>
       <c r="G85" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>44905</v>
       </c>
       <c r="H85" s="15"/>
@@ -18722,10 +18747,10 @@
       <c r="FM85" s="22"/>
       <c r="FN85" s="22"/>
     </row>
-    <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="65" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C86" s="52"/>
       <c r="D86" s="53"/>
@@ -18898,13 +18923,13 @@
       <c r="FM86" s="22"/>
       <c r="FN86" s="22"/>
     </row>
-    <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26"/>
       <c r="B87" s="66" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D87" s="56">
         <v>0</v>
@@ -18915,7 +18940,7 @@
         <v>44908</v>
       </c>
       <c r="G87" s="58">
-        <f>F87</f>
+        <f t="shared" ref="G87:G93" si="51">F87</f>
         <v>44908</v>
       </c>
       <c r="H87" s="15"/>
@@ -19082,13 +19107,13 @@
       <c r="FM87" s="22"/>
       <c r="FN87" s="22"/>
     </row>
-    <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
       <c r="B88" s="66" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D88" s="56">
         <v>0</v>
@@ -19099,7 +19124,7 @@
         <v>44909</v>
       </c>
       <c r="G88" s="58">
-        <f>F88</f>
+        <f t="shared" si="51"/>
         <v>44909</v>
       </c>
       <c r="H88" s="15"/>
@@ -19266,13 +19291,13 @@
       <c r="FM88" s="22"/>
       <c r="FN88" s="22"/>
     </row>
-    <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="66" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D89" s="56">
         <v>0</v>
@@ -19283,7 +19308,7 @@
         <v>44909</v>
       </c>
       <c r="G89" s="58">
-        <f>F89</f>
+        <f t="shared" si="51"/>
         <v>44909</v>
       </c>
       <c r="H89" s="15"/>
@@ -19450,13 +19475,13 @@
       <c r="FM89" s="22"/>
       <c r="FN89" s="22"/>
     </row>
-    <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26"/>
       <c r="B90" s="66" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D90" s="56">
         <v>0</v>
@@ -19467,7 +19492,7 @@
         <v>44909</v>
       </c>
       <c r="G90" s="58">
-        <f>F90</f>
+        <f t="shared" si="51"/>
         <v>44909</v>
       </c>
       <c r="H90" s="15"/>
@@ -19634,13 +19659,13 @@
       <c r="FM90" s="22"/>
       <c r="FN90" s="22"/>
     </row>
-    <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
       <c r="B91" s="66" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D91" s="56">
         <v>0</v>
@@ -19651,7 +19676,7 @@
         <v>44909</v>
       </c>
       <c r="G91" s="58">
-        <f>F91</f>
+        <f t="shared" si="51"/>
         <v>44909</v>
       </c>
       <c r="H91" s="15"/>
@@ -19818,13 +19843,13 @@
       <c r="FM91" s="22"/>
       <c r="FN91" s="22"/>
     </row>
-    <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26"/>
       <c r="B92" s="66" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D92" s="56">
         <v>0</v>
@@ -19835,7 +19860,7 @@
         <v>44910</v>
       </c>
       <c r="G92" s="58">
-        <f>F92</f>
+        <f t="shared" si="51"/>
         <v>44910</v>
       </c>
       <c r="H92" s="15"/>
@@ -20002,10 +20027,10 @@
       <c r="FM92" s="22"/>
       <c r="FN92" s="22"/>
     </row>
-    <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="66" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C93" s="55"/>
       <c r="D93" s="56"/>
@@ -20015,7 +20040,7 @@
         <v>44909</v>
       </c>
       <c r="G93" s="58">
-        <f>F93</f>
+        <f t="shared" si="51"/>
         <v>44909</v>
       </c>
       <c r="H93" s="15"/>
@@ -20182,10 +20207,10 @@
       <c r="FM93" s="22"/>
       <c r="FN93" s="22"/>
     </row>
-    <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="65" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C94" s="52"/>
       <c r="D94" s="53"/>
@@ -20358,10 +20383,10 @@
       <c r="FM94" s="22"/>
       <c r="FN94" s="22"/>
     </row>
-    <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26"/>
       <c r="B95" s="66" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="56"/>
@@ -20538,10 +20563,10 @@
       <c r="FM95" s="22"/>
       <c r="FN95" s="22"/>
     </row>
-    <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
       <c r="B96" s="66" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C96" s="55"/>
       <c r="D96" s="56"/>
@@ -20718,10 +20743,10 @@
       <c r="FM96" s="22"/>
       <c r="FN96" s="22"/>
     </row>
-    <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="66" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C97" s="55"/>
       <c r="D97" s="56"/>
@@ -20898,10 +20923,10 @@
       <c r="FM97" s="22"/>
       <c r="FN97" s="22"/>
     </row>
-    <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="66" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="56"/>
@@ -21078,10 +21103,10 @@
       <c r="FM98" s="22"/>
       <c r="FN98" s="22"/>
     </row>
-    <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="66" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C99" s="55"/>
       <c r="D99" s="56"/>
@@ -21258,16 +21283,16 @@
       <c r="FM99" s="22"/>
       <c r="FN99" s="22"/>
     </row>
-    <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
-      <c r="B100" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C100" s="87"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="89"/>
-      <c r="F100" s="90"/>
-      <c r="G100" s="90"/>
+      <c r="B100" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="86"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="88"/>
+      <c r="F100" s="89"/>
+      <c r="G100" s="89"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="22"/>
@@ -21432,10 +21457,10 @@
       <c r="FM100" s="22"/>
       <c r="FN100" s="22"/>
     </row>
-    <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="65" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C101" s="52"/>
       <c r="D101" s="53"/>
@@ -21608,13 +21633,13 @@
       <c r="FM101" s="22"/>
       <c r="FN101" s="22"/>
     </row>
-    <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" s="66" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D102" s="56">
         <v>0</v>
@@ -21625,7 +21650,7 @@
         <v>44914</v>
       </c>
       <c r="G102" s="58">
-        <f>F102</f>
+        <f t="shared" ref="G102:G108" si="52">F102</f>
         <v>44914</v>
       </c>
       <c r="H102" s="15"/>
@@ -21792,13 +21817,13 @@
       <c r="FM102" s="22"/>
       <c r="FN102" s="22"/>
     </row>
-    <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D103" s="56">
         <v>0</v>
@@ -21809,7 +21834,7 @@
         <v>44915</v>
       </c>
       <c r="G103" s="58">
-        <f>F103</f>
+        <f t="shared" si="52"/>
         <v>44915</v>
       </c>
       <c r="H103" s="15"/>
@@ -21976,13 +22001,13 @@
       <c r="FM103" s="22"/>
       <c r="FN103" s="22"/>
     </row>
-    <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" s="66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C104" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D104" s="56">
         <v>0</v>
@@ -21993,7 +22018,7 @@
         <v>44915</v>
       </c>
       <c r="G104" s="58">
-        <f>F104</f>
+        <f t="shared" si="52"/>
         <v>44915</v>
       </c>
       <c r="H104" s="15"/>
@@ -22160,13 +22185,13 @@
       <c r="FM104" s="22"/>
       <c r="FN104" s="22"/>
     </row>
-    <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="66" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C105" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D105" s="56">
         <v>0</v>
@@ -22177,7 +22202,7 @@
         <v>44915</v>
       </c>
       <c r="G105" s="58">
-        <f>F105</f>
+        <f t="shared" si="52"/>
         <v>44915</v>
       </c>
       <c r="H105" s="15"/>
@@ -22344,13 +22369,13 @@
       <c r="FM105" s="22"/>
       <c r="FN105" s="22"/>
     </row>
-    <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="66" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D106" s="56">
         <v>0</v>
@@ -22361,7 +22386,7 @@
         <v>44915</v>
       </c>
       <c r="G106" s="58">
-        <f>F106</f>
+        <f t="shared" si="52"/>
         <v>44915</v>
       </c>
       <c r="H106" s="15"/>
@@ -22528,13 +22553,13 @@
       <c r="FM106" s="22"/>
       <c r="FN106" s="22"/>
     </row>
-    <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="66" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D107" s="56">
         <v>0</v>
@@ -22545,7 +22570,7 @@
         <v>44916</v>
       </c>
       <c r="G107" s="58">
-        <f>F107</f>
+        <f t="shared" si="52"/>
         <v>44916</v>
       </c>
       <c r="H107" s="15"/>
@@ -22712,13 +22737,13 @@
       <c r="FM107" s="22"/>
       <c r="FN107" s="22"/>
     </row>
-    <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="66" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D108" s="56">
         <v>0</v>
@@ -22729,7 +22754,7 @@
         <v>44915</v>
       </c>
       <c r="G108" s="58">
-        <f>F108</f>
+        <f t="shared" si="52"/>
         <v>44915</v>
       </c>
       <c r="H108" s="15"/>
@@ -22896,10 +22921,10 @@
       <c r="FM108" s="22"/>
       <c r="FN108" s="22"/>
     </row>
-    <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="65" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="53"/>
@@ -23072,10 +23097,10 @@
       <c r="FM109" s="22"/>
       <c r="FN109" s="22"/>
     </row>
-    <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="66" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C110" s="55"/>
       <c r="D110" s="56"/>
@@ -23085,7 +23110,7 @@
         <v>44917</v>
       </c>
       <c r="G110" s="58">
-        <f>F110</f>
+        <f t="shared" ref="G110:G116" si="53">F110</f>
         <v>44917</v>
       </c>
       <c r="H110" s="15"/>
@@ -23252,10 +23277,10 @@
       <c r="FM110" s="22"/>
       <c r="FN110" s="22"/>
     </row>
-    <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="66" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C111" s="55"/>
       <c r="D111" s="56"/>
@@ -23265,7 +23290,7 @@
         <v>44918</v>
       </c>
       <c r="G111" s="58">
-        <f>F111</f>
+        <f t="shared" si="53"/>
         <v>44918</v>
       </c>
       <c r="H111" s="15"/>
@@ -23432,10 +23457,10 @@
       <c r="FM111" s="22"/>
       <c r="FN111" s="22"/>
     </row>
-    <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="66" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="56"/>
@@ -23445,7 +23470,7 @@
         <v>44918</v>
       </c>
       <c r="G112" s="58">
-        <f>F112</f>
+        <f t="shared" si="53"/>
         <v>44918</v>
       </c>
       <c r="H112" s="15"/>
@@ -23612,10 +23637,10 @@
       <c r="FM112" s="22"/>
       <c r="FN112" s="22"/>
     </row>
-    <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26"/>
       <c r="B113" s="66" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C113" s="55"/>
       <c r="D113" s="56"/>
@@ -23625,7 +23650,7 @@
         <v>44918</v>
       </c>
       <c r="G113" s="58">
-        <f>F113</f>
+        <f t="shared" si="53"/>
         <v>44918</v>
       </c>
       <c r="H113" s="15"/>
@@ -23792,10 +23817,10 @@
       <c r="FM113" s="22"/>
       <c r="FN113" s="22"/>
     </row>
-    <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26"/>
       <c r="B114" s="66" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C114" s="55"/>
       <c r="D114" s="56"/>
@@ -23805,7 +23830,7 @@
         <v>44918</v>
       </c>
       <c r="G114" s="58">
-        <f>F114</f>
+        <f t="shared" si="53"/>
         <v>44918</v>
       </c>
       <c r="H114" s="15"/>
@@ -23972,10 +23997,10 @@
       <c r="FM114" s="22"/>
       <c r="FN114" s="22"/>
     </row>
-    <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26"/>
       <c r="B115" s="66" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C115" s="55"/>
       <c r="D115" s="56"/>
@@ -23985,7 +24010,7 @@
         <v>44919</v>
       </c>
       <c r="G115" s="58">
-        <f>F115</f>
+        <f t="shared" si="53"/>
         <v>44919</v>
       </c>
       <c r="H115" s="15"/>
@@ -24152,10 +24177,10 @@
       <c r="FM115" s="22"/>
       <c r="FN115" s="22"/>
     </row>
-    <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="66" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C116" s="55"/>
       <c r="D116" s="56"/>
@@ -24165,7 +24190,7 @@
         <v>44918</v>
       </c>
       <c r="G116" s="58">
-        <f>F116</f>
+        <f t="shared" si="53"/>
         <v>44918</v>
       </c>
       <c r="H116" s="15"/>
@@ -24332,10 +24357,10 @@
       <c r="FM116" s="22"/>
       <c r="FN116" s="22"/>
     </row>
-    <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="65" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="53"/>
@@ -24508,10 +24533,10 @@
       <c r="FM117" s="22"/>
       <c r="FN117" s="22"/>
     </row>
-    <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="66" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C118" s="55"/>
       <c r="D118" s="56"/>
@@ -24521,7 +24546,7 @@
         <v>44921</v>
       </c>
       <c r="G118" s="58">
-        <f>F118</f>
+        <f t="shared" ref="G118:G126" si="54">F118</f>
         <v>44921</v>
       </c>
       <c r="H118" s="15"/>
@@ -24688,10 +24713,10 @@
       <c r="FM118" s="22"/>
       <c r="FN118" s="22"/>
     </row>
-    <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="66" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C119" s="55"/>
       <c r="D119" s="56"/>
@@ -24701,7 +24726,7 @@
         <v>44921</v>
       </c>
       <c r="G119" s="58">
-        <f>F119</f>
+        <f t="shared" si="54"/>
         <v>44921</v>
       </c>
       <c r="H119" s="15"/>
@@ -24868,10 +24893,10 @@
       <c r="FM119" s="22"/>
       <c r="FN119" s="22"/>
     </row>
-    <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="66" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C120" s="55"/>
       <c r="D120" s="56"/>
@@ -24881,7 +24906,7 @@
         <v>44922</v>
       </c>
       <c r="G120" s="58">
-        <f>F120</f>
+        <f t="shared" si="54"/>
         <v>44922</v>
       </c>
       <c r="H120" s="15"/>
@@ -25048,10 +25073,10 @@
       <c r="FM120" s="22"/>
       <c r="FN120" s="22"/>
     </row>
-    <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="66" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C121" s="55"/>
       <c r="D121" s="56"/>
@@ -25061,7 +25086,7 @@
         <v>44922</v>
       </c>
       <c r="G121" s="58">
-        <f>F121</f>
+        <f t="shared" si="54"/>
         <v>44922</v>
       </c>
       <c r="H121" s="15"/>
@@ -25228,10 +25253,10 @@
       <c r="FM121" s="22"/>
       <c r="FN121" s="22"/>
     </row>
-    <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="66" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C122" s="55"/>
       <c r="D122" s="56"/>
@@ -25241,7 +25266,7 @@
         <v>44923</v>
       </c>
       <c r="G122" s="58">
-        <f>F122</f>
+        <f t="shared" si="54"/>
         <v>44923</v>
       </c>
       <c r="H122" s="15"/>
@@ -25408,12 +25433,12 @@
       <c r="FM122" s="22"/>
       <c r="FN122" s="22"/>
     </row>
-    <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B123" s="66" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C123" s="55"/>
       <c r="D123" s="56"/>
@@ -25423,7 +25448,7 @@
         <v>44922</v>
       </c>
       <c r="G123" s="58">
-        <f>F123</f>
+        <f t="shared" si="54"/>
         <v>44922</v>
       </c>
       <c r="H123" s="15"/>
@@ -25590,10 +25615,10 @@
       <c r="FM123" s="22"/>
       <c r="FN123" s="22"/>
     </row>
-    <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="66" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C124" s="55"/>
       <c r="D124" s="56"/>
@@ -25603,7 +25628,7 @@
         <v>44922</v>
       </c>
       <c r="G124" s="58">
-        <f>F124</f>
+        <f t="shared" si="54"/>
         <v>44922</v>
       </c>
       <c r="H124" s="15"/>
@@ -25770,10 +25795,10 @@
       <c r="FM124" s="22"/>
       <c r="FN124" s="22"/>
     </row>
-    <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="66" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C125" s="55"/>
       <c r="D125" s="56"/>
@@ -25783,7 +25808,7 @@
         <v>44924</v>
       </c>
       <c r="G125" s="58">
-        <f>F125</f>
+        <f t="shared" si="54"/>
         <v>44924</v>
       </c>
       <c r="H125" s="15"/>
@@ -25950,10 +25975,10 @@
       <c r="FM125" s="22"/>
       <c r="FN125" s="22"/>
     </row>
-    <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="66" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C126" s="55"/>
       <c r="D126" s="56"/>
@@ -25963,7 +25988,7 @@
         <v>44922</v>
       </c>
       <c r="G126" s="58">
-        <f>F126</f>
+        <f t="shared" si="54"/>
         <v>44922</v>
       </c>
       <c r="H126" s="15"/>
@@ -26130,10 +26155,10 @@
       <c r="FM126" s="22"/>
       <c r="FN126" s="22"/>
     </row>
-    <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="26"/>
       <c r="B127" s="65" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C127" s="52"/>
       <c r="D127" s="53"/>
@@ -26306,10 +26331,10 @@
       <c r="FM127" s="22"/>
       <c r="FN127" s="22"/>
     </row>
-    <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26"/>
       <c r="B128" s="66" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C128" s="55"/>
       <c r="D128" s="56"/>
@@ -26486,10 +26511,10 @@
       <c r="FM128" s="22"/>
       <c r="FN128" s="22"/>
     </row>
-    <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="26"/>
       <c r="B129" s="66" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C129" s="55"/>
       <c r="D129" s="56"/>
@@ -26666,10 +26691,10 @@
       <c r="FM129" s="22"/>
       <c r="FN129" s="22"/>
     </row>
-    <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="66" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C130" s="55"/>
       <c r="D130" s="56"/>
@@ -26846,10 +26871,10 @@
       <c r="FM130" s="22"/>
       <c r="FN130" s="22"/>
     </row>
-    <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="66" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C131" s="55"/>
       <c r="D131" s="56"/>
@@ -27026,10 +27051,10 @@
       <c r="FM131" s="22"/>
       <c r="FN131" s="22"/>
     </row>
-    <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="66" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C132" s="55"/>
       <c r="D132" s="56"/>
@@ -27206,16 +27231,16 @@
       <c r="FM132" s="22"/>
       <c r="FN132" s="22"/>
     </row>
-    <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
-      <c r="B133" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C133" s="87"/>
-      <c r="D133" s="88"/>
-      <c r="E133" s="89"/>
-      <c r="F133" s="90"/>
-      <c r="G133" s="90"/>
+      <c r="B133" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="86"/>
+      <c r="D133" s="87"/>
+      <c r="E133" s="88"/>
+      <c r="F133" s="89"/>
+      <c r="G133" s="89"/>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
       <c r="J133" s="22"/>
@@ -27380,10 +27405,10 @@
       <c r="FM133" s="22"/>
       <c r="FN133" s="22"/>
     </row>
-    <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="65" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="53"/>
@@ -27556,13 +27581,13 @@
       <c r="FM134" s="22"/>
       <c r="FN134" s="22"/>
     </row>
-    <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="66" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C135" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D135" s="56">
         <v>0</v>
@@ -27573,7 +27598,7 @@
         <v>44928</v>
       </c>
       <c r="G135" s="58">
-        <f t="shared" ref="G135:G141" si="47">F135</f>
+        <f t="shared" ref="G135:G141" si="55">F135</f>
         <v>44928</v>
       </c>
       <c r="H135" s="15"/>
@@ -27740,13 +27765,13 @@
       <c r="FM135" s="22"/>
       <c r="FN135" s="22"/>
     </row>
-    <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
-      <c r="B136" s="85" t="s">
-        <v>171</v>
+      <c r="B136" s="84" t="s">
+        <v>164</v>
       </c>
       <c r="C136" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D136" s="56">
         <v>0</v>
@@ -27757,7 +27782,7 @@
         <v>44929</v>
       </c>
       <c r="G136" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44929</v>
       </c>
       <c r="H136" s="15"/>
@@ -27924,13 +27949,13 @@
       <c r="FM136" s="22"/>
       <c r="FN136" s="22"/>
     </row>
-    <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
       <c r="B137" s="66" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C137" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D137" s="56">
         <v>0</v>
@@ -27941,7 +27966,7 @@
         <v>44929</v>
       </c>
       <c r="G137" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44929</v>
       </c>
       <c r="H137" s="15"/>
@@ -28108,13 +28133,13 @@
       <c r="FM137" s="22"/>
       <c r="FN137" s="22"/>
     </row>
-    <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="26"/>
       <c r="B138" s="66" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C138" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D138" s="56">
         <v>0</v>
@@ -28125,7 +28150,7 @@
         <v>44929</v>
       </c>
       <c r="G138" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44929</v>
       </c>
       <c r="H138" s="15"/>
@@ -28292,13 +28317,13 @@
       <c r="FM138" s="22"/>
       <c r="FN138" s="22"/>
     </row>
-    <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
       <c r="B139" s="66" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D139" s="56">
         <v>0</v>
@@ -28309,7 +28334,7 @@
         <v>44929</v>
       </c>
       <c r="G139" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44929</v>
       </c>
       <c r="H139" s="15"/>
@@ -28476,13 +28501,13 @@
       <c r="FM139" s="22"/>
       <c r="FN139" s="22"/>
     </row>
-    <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="26"/>
       <c r="B140" s="66" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C140" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D140" s="56">
         <v>0</v>
@@ -28493,7 +28518,7 @@
         <v>44930</v>
       </c>
       <c r="G140" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44930</v>
       </c>
       <c r="H140" s="15"/>
@@ -28660,13 +28685,13 @@
       <c r="FM140" s="22"/>
       <c r="FN140" s="22"/>
     </row>
-    <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="26"/>
       <c r="B141" s="66" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C141" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D141" s="56">
         <v>0</v>
@@ -28677,7 +28702,7 @@
         <v>44929</v>
       </c>
       <c r="G141" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>44929</v>
       </c>
       <c r="H141" s="15"/>
@@ -28844,10 +28869,10 @@
       <c r="FM141" s="22"/>
       <c r="FN141" s="22"/>
     </row>
-    <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="26"/>
       <c r="B142" s="65" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C142" s="52"/>
       <c r="D142" s="53"/>
@@ -29020,13 +29045,13 @@
       <c r="FM142" s="22"/>
       <c r="FN142" s="22"/>
     </row>
-    <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="26"/>
       <c r="B143" s="66" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C143" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D143" s="56">
         <v>0</v>
@@ -29037,7 +29062,7 @@
         <v>44931</v>
       </c>
       <c r="G143" s="58">
-        <f t="shared" ref="G143:G149" si="48">F143</f>
+        <f t="shared" ref="G143:G149" si="56">F143</f>
         <v>44931</v>
       </c>
       <c r="H143" s="15"/>
@@ -29204,13 +29229,13 @@
       <c r="FM143" s="22"/>
       <c r="FN143" s="22"/>
     </row>
-    <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="26"/>
       <c r="B144" s="66" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D144" s="56">
         <v>0</v>
@@ -29221,7 +29246,7 @@
         <v>44932</v>
       </c>
       <c r="G144" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44932</v>
       </c>
       <c r="H144" s="15"/>
@@ -29388,13 +29413,13 @@
       <c r="FM144" s="22"/>
       <c r="FN144" s="22"/>
     </row>
-    <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="26"/>
       <c r="B145" s="66" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C145" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D145" s="56">
         <v>0</v>
@@ -29405,7 +29430,7 @@
         <v>44932</v>
       </c>
       <c r="G145" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44932</v>
       </c>
       <c r="H145" s="15"/>
@@ -29572,13 +29597,13 @@
       <c r="FM145" s="22"/>
       <c r="FN145" s="22"/>
     </row>
-    <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="26"/>
       <c r="B146" s="66" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C146" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D146" s="56">
         <v>0</v>
@@ -29589,7 +29614,7 @@
         <v>44932</v>
       </c>
       <c r="G146" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44932</v>
       </c>
       <c r="H146" s="15"/>
@@ -29756,13 +29781,13 @@
       <c r="FM146" s="22"/>
       <c r="FN146" s="22"/>
     </row>
-    <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="26"/>
       <c r="B147" s="66" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C147" s="55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D147" s="56">
         <v>0</v>
@@ -29773,7 +29798,7 @@
         <v>44932</v>
       </c>
       <c r="G147" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44932</v>
       </c>
       <c r="H147" s="15"/>
@@ -29940,13 +29965,13 @@
       <c r="FM147" s="22"/>
       <c r="FN147" s="22"/>
     </row>
-    <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="26"/>
       <c r="B148" s="66" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C148" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D148" s="56">
         <v>0</v>
@@ -29957,7 +29982,7 @@
         <v>44933</v>
       </c>
       <c r="G148" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44933</v>
       </c>
       <c r="H148" s="15"/>
@@ -30124,13 +30149,13 @@
       <c r="FM148" s="22"/>
       <c r="FN148" s="22"/>
     </row>
-    <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="26"/>
       <c r="B149" s="66" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C149" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D149" s="56">
         <v>0</v>
@@ -30141,7 +30166,7 @@
         <v>44932</v>
       </c>
       <c r="G149" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>44932</v>
       </c>
       <c r="H149" s="15"/>
@@ -30308,10 +30333,10 @@
       <c r="FM149" s="22"/>
       <c r="FN149" s="22"/>
     </row>
-    <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="26"/>
       <c r="B150" s="65" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C150" s="52"/>
       <c r="D150" s="53"/>
@@ -30484,13 +30509,13 @@
       <c r="FM150" s="22"/>
       <c r="FN150" s="22"/>
     </row>
-    <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="26"/>
-      <c r="B151" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="C151" s="96" t="s">
-        <v>46</v>
+      <c r="B151" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C151" s="95" t="s">
+        <v>39</v>
       </c>
       <c r="D151" s="56">
         <v>0</v>
@@ -30668,13 +30693,13 @@
       <c r="FM151" s="22"/>
       <c r="FN151" s="22"/>
     </row>
-    <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="26"/>
-      <c r="B152" s="85" t="s">
-        <v>180</v>
-      </c>
-      <c r="C152" s="96" t="s">
-        <v>46</v>
+      <c r="B152" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C152" s="95" t="s">
+        <v>39</v>
       </c>
       <c r="D152" s="56">
         <v>0</v>
@@ -30852,13 +30877,13 @@
       <c r="FM152" s="22"/>
       <c r="FN152" s="22"/>
     </row>
-    <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="26"/>
-      <c r="B153" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="C153" s="96" t="s">
-        <v>45</v>
+      <c r="B153" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C153" s="95" t="s">
+        <v>38</v>
       </c>
       <c r="D153" s="56">
         <v>0</v>
@@ -31036,13 +31061,13 @@
       <c r="FM153" s="22"/>
       <c r="FN153" s="22"/>
     </row>
-    <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="26"/>
-      <c r="B154" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="C154" s="96" t="s">
-        <v>45</v>
+      <c r="B154" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="C154" s="95" t="s">
+        <v>38</v>
       </c>
       <c r="D154" s="56">
         <v>0</v>
@@ -31220,13 +31245,13 @@
       <c r="FM154" s="22"/>
       <c r="FN154" s="22"/>
     </row>
-    <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="26"/>
-      <c r="B155" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="C155" s="96" t="s">
-        <v>47</v>
+      <c r="B155" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C155" s="95" t="s">
+        <v>40</v>
       </c>
       <c r="D155" s="56">
         <v>0</v>
@@ -31404,13 +31429,13 @@
       <c r="FM155" s="22"/>
       <c r="FN155" s="22"/>
     </row>
-    <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="26"/>
-      <c r="B156" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="C156" s="96" t="s">
-        <v>46</v>
+      <c r="B156" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="C156" s="95" t="s">
+        <v>39</v>
       </c>
       <c r="D156" s="56">
         <v>0</v>
@@ -31588,12 +31613,12 @@
       <c r="FM156" s="22"/>
       <c r="FN156" s="22"/>
     </row>
-    <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="26"/>
-      <c r="B157" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="C157" s="96"/>
+      <c r="B157" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C157" s="95"/>
       <c r="D157" s="56"/>
       <c r="E157" s="57"/>
       <c r="F157" s="58">
@@ -31768,10 +31793,10 @@
       <c r="FM157" s="22"/>
       <c r="FN157" s="22"/>
     </row>
-    <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="26"/>
       <c r="B158" s="65" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C158" s="52"/>
       <c r="D158" s="53"/>
@@ -31944,12 +31969,12 @@
       <c r="FM158" s="22"/>
       <c r="FN158" s="22"/>
     </row>
-    <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
-      <c r="B159" s="85" t="s">
-        <v>187</v>
-      </c>
-      <c r="C159" s="96"/>
+      <c r="B159" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C159" s="95"/>
       <c r="D159" s="56"/>
       <c r="E159" s="57"/>
       <c r="F159" s="58">
@@ -31957,7 +31982,7 @@
         <v>44938</v>
       </c>
       <c r="G159" s="58">
-        <f>F159</f>
+        <f t="shared" ref="G159:G167" si="57">F159</f>
         <v>44938</v>
       </c>
       <c r="H159" s="15"/>
@@ -32124,12 +32149,12 @@
       <c r="FM159" s="22"/>
       <c r="FN159" s="22"/>
     </row>
-    <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="26"/>
-      <c r="B160" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="C160" s="96"/>
+      <c r="B160" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C160" s="95"/>
       <c r="D160" s="56"/>
       <c r="E160" s="57"/>
       <c r="F160" s="58">
@@ -32137,7 +32162,7 @@
         <v>44938</v>
       </c>
       <c r="G160" s="58">
-        <f>F160</f>
+        <f t="shared" si="57"/>
         <v>44938</v>
       </c>
       <c r="H160" s="15"/>
@@ -32304,12 +32329,12 @@
       <c r="FM160" s="22"/>
       <c r="FN160" s="22"/>
     </row>
-    <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="26"/>
-      <c r="B161" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="C161" s="96"/>
+      <c r="B161" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C161" s="95"/>
       <c r="D161" s="56"/>
       <c r="E161" s="57"/>
       <c r="F161" s="58">
@@ -32317,7 +32342,7 @@
         <v>44939</v>
       </c>
       <c r="G161" s="58">
-        <f>F161</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H161" s="15"/>
@@ -32484,12 +32509,12 @@
       <c r="FM161" s="22"/>
       <c r="FN161" s="22"/>
     </row>
-    <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="26"/>
-      <c r="B162" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C162" s="96"/>
+      <c r="B162" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C162" s="95"/>
       <c r="D162" s="56"/>
       <c r="E162" s="57"/>
       <c r="F162" s="58">
@@ -32497,7 +32522,7 @@
         <v>44939</v>
       </c>
       <c r="G162" s="58">
-        <f>F162</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H162" s="15"/>
@@ -32664,12 +32689,12 @@
       <c r="FM162" s="22"/>
       <c r="FN162" s="22"/>
     </row>
-    <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
-      <c r="B163" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="C163" s="96"/>
+      <c r="B163" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="C163" s="95"/>
       <c r="D163" s="56"/>
       <c r="E163" s="57"/>
       <c r="F163" s="58">
@@ -32677,7 +32702,7 @@
         <v>44939</v>
       </c>
       <c r="G163" s="58">
-        <f>F163</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H163" s="15"/>
@@ -32844,12 +32869,12 @@
       <c r="FM163" s="22"/>
       <c r="FN163" s="22"/>
     </row>
-    <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="26"/>
-      <c r="B164" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="C164" s="96"/>
+      <c r="B164" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="C164" s="95"/>
       <c r="D164" s="56"/>
       <c r="E164" s="57"/>
       <c r="F164" s="58">
@@ -32857,7 +32882,7 @@
         <v>44939</v>
       </c>
       <c r="G164" s="58">
-        <f>F164</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H164" s="15"/>
@@ -33024,12 +33049,12 @@
       <c r="FM164" s="22"/>
       <c r="FN164" s="22"/>
     </row>
-    <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="26"/>
-      <c r="B165" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="C165" s="96"/>
+      <c r="B165" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C165" s="95"/>
       <c r="D165" s="56"/>
       <c r="E165" s="57"/>
       <c r="F165" s="58">
@@ -33037,7 +33062,7 @@
         <v>44939</v>
       </c>
       <c r="G165" s="58">
-        <f>F165</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H165" s="15"/>
@@ -33204,12 +33229,12 @@
       <c r="FM165" s="22"/>
       <c r="FN165" s="22"/>
     </row>
-    <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="26"/>
-      <c r="B166" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="C166" s="96"/>
+      <c r="B166" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C166" s="95"/>
       <c r="D166" s="56"/>
       <c r="E166" s="57"/>
       <c r="F166" s="58">
@@ -33217,7 +33242,7 @@
         <v>44940</v>
       </c>
       <c r="G166" s="58">
-        <f>F166</f>
+        <f t="shared" si="57"/>
         <v>44940</v>
       </c>
       <c r="H166" s="15"/>
@@ -33384,12 +33409,12 @@
       <c r="FM166" s="22"/>
       <c r="FN166" s="22"/>
     </row>
-    <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="26"/>
-      <c r="B167" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C167" s="96"/>
+      <c r="B167" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C167" s="95"/>
       <c r="D167" s="56"/>
       <c r="E167" s="57"/>
       <c r="F167" s="58">
@@ -33397,7 +33422,7 @@
         <v>44939</v>
       </c>
       <c r="G167" s="58">
-        <f>F167</f>
+        <f t="shared" si="57"/>
         <v>44939</v>
       </c>
       <c r="H167" s="15"/>
@@ -33564,9 +33589,9 @@
       <c r="FM167" s="22"/>
       <c r="FN167" s="22"/>
     </row>
-    <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B168" s="67" t="s">
         <v>0</v>
@@ -33743,44 +33768,44 @@
       <c r="FM168" s="24"/>
       <c r="FN168" s="24"/>
     </row>
-    <row r="169" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="13"/>
       <c r="G170" s="28"/>
     </row>
-    <row r="171" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
+    <mergeCell ref="FH4:FN4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="BU4:CA4"/>
+    <mergeCell ref="CB4:CH4"/>
+    <mergeCell ref="CI4:CO4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
-    <mergeCell ref="BN4:BT4"/>
-    <mergeCell ref="BU4:CA4"/>
-    <mergeCell ref="CB4:CH4"/>
-    <mergeCell ref="CI4:CO4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
-    <mergeCell ref="FH4:FN4"/>
   </mergeCells>
   <conditionalFormatting sqref="D168:E168 D7:E25 D27:E52 D54:E60 D62:E66">
     <cfRule type="dataBar" priority="47">
@@ -34061,13 +34086,9 @@
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="J1" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0EA441-1021-6649-BC94-ADF69C3EF01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="13" r:id="rId1"/>
     <sheet name="Histories" sheetId="14" r:id="rId2"/>
     <sheet name="References" sheetId="15" r:id="rId3"/>
-    <sheet name="ProjectSchedule" sheetId="11" r:id="rId4"/>
+    <sheet name="Project Schedule" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Display_Week">ProjectSchedule!$F$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">ProjectSchedule!$4:$6</definedName>
-    <definedName name="Project_Start">ProjectSchedule!$F$3</definedName>
-    <definedName name="task_end" localSheetId="3">ProjectSchedule!$G1</definedName>
-    <definedName name="task_progress" localSheetId="3">ProjectSchedule!$D1</definedName>
-    <definedName name="task_start" localSheetId="3">ProjectSchedule!$F1</definedName>
+    <definedName name="Display_Week">'Project Schedule'!$F$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Project Schedule'!$4:$6</definedName>
+    <definedName name="Project_Start">'Project Schedule'!$F$3</definedName>
+    <definedName name="task_end" localSheetId="3">'Project Schedule'!$G1</definedName>
+    <definedName name="task_progress" localSheetId="3">'Project Schedule'!$D1</definedName>
+    <definedName name="task_start" localSheetId="3">'Project Schedule'!$F1</definedName>
     <definedName name="today" localSheetId="3">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="204">
-  <si>
-    <t>Insert new rows ABOVE this one</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="199">
   <si>
     <t>Project Start:</t>
   </si>
@@ -71,9 +61,6 @@
   </si>
   <si>
     <t>TASK</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
@@ -158,18 +145,6 @@
     <t xml:space="preserve">Project Name: </t>
   </si>
   <si>
-    <t xml:space="preserve">Start Date: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Date: </t>
-  </si>
-  <si>
-    <t>20/10/2022</t>
-  </si>
-  <si>
-    <t>23/03/2023</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Document History </t>
     </r>
@@ -214,25 +189,10 @@
     <t>Nguyễn Hoàng Tấn</t>
   </si>
   <si>
-    <t>Viết task Quản trị viên hệ thống và Quản lý danh sách tỉnh/thành phố</t>
-  </si>
-  <si>
-    <t>Viết Task Quản lý kết quả sổ xố</t>
-  </si>
-  <si>
-    <t>Viết task Quản lý chính sách đổi thưởng và Chức năng người dùng</t>
-  </si>
-  <si>
     <t>Tạo sheet Cover, Histories, References và cập nhật các sheet</t>
   </si>
   <si>
-    <t>Chỉnh sửa task Quản trị viên hệ thống và Chức năng người dùng</t>
-  </si>
-  <si>
     <t>Cập nhật lại Histories</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa point của task Quản lý danh sách tỉnh/thành phố và cập nhật lại Histories</t>
   </si>
   <si>
     <t>Bùi Nhật Hào, Nguyễn Hoàng Tấn, Lê Chí Huy</t>
@@ -242,9 +202,6 @@
   </si>
   <si>
     <t>Cập nhật lại start day, end day và cập nhật histories</t>
-  </si>
-  <si>
-    <t>Sprint 2 (31/10/2022 - 12/11/2022)</t>
   </si>
   <si>
     <t>Sprint 1</t>
@@ -661,52 +618,73 @@
     <t>Sinh viên xóa câu hỏi của mình</t>
   </si>
   <si>
-    <t>ỨNG DỤNG BLOG TRA CỨU HỌC TẬP CỦA KHOA CNTT</t>
+    <t>bùi Nhật Hào</t>
   </si>
   <si>
-    <t>TEAM 05</t>
+    <t>Tạo bảng Student và Teacher trong database</t>
   </si>
   <si>
-    <t>Project Lead: NGUYỄN HOÀNG TẤN</t>
+    <t>Sprint 2</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>ỨNG DỤNG BLOG TRẢO ĐỔI HỌC TẬP CỦA KHOA CNTT</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>TEAM 5</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.9</t>
+    <t>Project lead: Nguyễn Hoàng Tấn</t>
   </si>
   <si>
     <t>Ứng dụng blog trao đổi học tập của khoa CNTT</t>
   </si>
   <si>
-    <t xml:space="preserve">GANTT CHART ver 0.9 </t>
+    <t>Tạo template file Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viết các chức năng của ứng dụng </t>
+  </si>
+  <si>
+    <t>Viết task sinh viên và giảng viên đăng nhập thông qua tài khoản Outlook, sinh viên và giảng viên đăng xuất tài khoản và sinh viên và giảng viên xem hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Viết task sinh viên đặt câu hỏi và sinh viên xem danh sách câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>Viết task cho sinh viên chỉnh sửa câu hỏi của mình và sinh viên xóa câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>Cập nhật và chỉnh sửa lại task sinh viên và giảng viên đăng xuất tài khoản và sinh viên và giảng viên xem hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Cập nhật và chỉnh sửa lại task sinh viên đặt câu hỏi</t>
+  </si>
+  <si>
+    <t>Cập nhật và chỉnh sửa task sinh viên chỉnh sửa câu hỏi của mình và sinh viên xóa câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Viết task sinh viên xóa câu hỏi của mình, giảng viên trả lời câu hỏi trên hệ thống, giảng viên xem danh sách câu trả lời của mình và giảng viên chỉnh sửa câu trả lời của mình</t>
+  </si>
+  <si>
+    <t>Viết task giảng viên xóa câu trả lời của mình, sinh viên và giảng viên xem danh sách câu hỏi trên hệ thống và giảng viên phê duyệt câu hỏi của sinh viên trên hệ thống</t>
+  </si>
+  <si>
+    <t>Viết task giảng viên đăng bài viết, giảng viên xem danh sách bài viết của mình và giảng viên chỉnh sửa bài viết của mình</t>
+  </si>
+  <si>
+    <t>Viết task Giảng viên xóa bài viết của mình, sinh viên xem danh sách bài viết trên hệ thống và sinh viên bookmark bài viết trên hệ thống</t>
+  </si>
+  <si>
+    <t>GANTT CHART ver 1.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
@@ -714,7 +692,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,13 +862,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
@@ -906,13 +877,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF262626"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -994,7 +958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1198,51 +1162,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1307,19 +1226,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1390,7 +1296,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1570,18 +1476,6 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1591,28 +1485,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
@@ -1627,7 +1524,7 @@
     <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1642,10 +1539,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1666,40 +1572,34 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1711,37 +1611,30 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Date" xfId="10"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Name" xfId="11"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Task" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Project Start" xfId="9"/>
+    <cellStyle name="Task" xfId="12"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1857,7 +1750,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
@@ -1965,13 +1858,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2013,13 +1906,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2099,7 +1992,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="91440"/>
-          <a:ext cx="3603923" cy="822960"/>
+          <a:ext cx="3550583" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2383,64 +2276,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="97"/>
       <c r="B1" s="98"/>
       <c r="C1" s="99"/>
       <c r="D1" s="100"/>
     </row>
-    <row r="2" spans="1:4" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
       <c r="D2" s="101"/>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
     </row>
-    <row r="4" spans="1:4" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C4" s="103"/>
       <c r="D4" s="104"/>
-    </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2455,179 +2334,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12" style="96" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="69.33203125" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
       <c r="D1" s="106"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="78" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="78">
+        <v>44868</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="D3" s="79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="78">
+        <v>44870</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D4" s="79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="77">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="78">
+        <v>44873</v>
+      </c>
+      <c r="C5" s="77" t="s">
         <v>34</v>
       </c>
+      <c r="D5" s="94" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="124" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="78">
+        <v>44874</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="78">
+        <v>44874</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="77">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="78">
+        <v>44875</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="77">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="78">
+        <v>44875</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="78">
+        <v>44876</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="78">
+        <v>44876</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="81">
-        <v>44850</v>
-      </c>
-      <c r="C3" s="80" t="s">
+      <c r="B12" s="78">
+        <v>44876</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="77">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13" s="78">
+        <v>44877</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="77">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="78">
+        <v>44877</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="77">
+        <v>1.3</v>
+      </c>
+      <c r="B15" s="78">
+        <v>44878</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="77">
+        <v>1.4</v>
+      </c>
+      <c r="B16" s="78">
+        <v>44879</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="77">
+        <v>1.5</v>
+      </c>
+      <c r="B17" s="78">
+        <v>44879</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="77">
+        <v>1.6</v>
+      </c>
+      <c r="B18" s="78">
+        <v>44880</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="82" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="124" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="81">
-        <v>44851</v>
-      </c>
-      <c r="C4" s="80" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="77">
+        <v>1.7</v>
+      </c>
+      <c r="B19" s="78">
+        <v>44880</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="82" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="124" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="81">
-        <v>44851</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="81">
-        <v>44852</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="124" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="81">
-        <v>44852</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="81">
-        <v>44853</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="124" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="81">
-        <v>44853</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="124" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="81">
-        <v>44853</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="124" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="81">
-        <v>44854</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2635,54 +2619,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="110"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="108"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="112"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="110"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="114"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="112"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="115"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="111"/>
+      <c r="B4" s="113"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="114"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="114"/>
+      <c r="B5" s="112"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="116"/>
-      <c r="B6" s="114"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="114"/>
+      <c r="B6" s="112"/>
     </row>
-    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2694,48 +2676,44 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A4:B4" r:id="rId2" display="Individual Estimate.xlsx" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:FN171"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="6" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="99.83203125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="121" width="2.5" customWidth="1"/>
-    <col min="122" max="142" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="99.85546875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="121" width="2.5703125" customWidth="1"/>
+    <col min="122" max="142" width="2.7109375" customWidth="1"/>
     <col min="143" max="170" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="44"/>
@@ -2745,278 +2723,278 @@
       <c r="I1" s="2"/>
       <c r="J1" s="33"/>
     </row>
-    <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J2" s="50"/>
     </row>
-    <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="122"/>
+        <v>183</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="119"/>
       <c r="E3" s="36"/>
       <c r="F3" s="120">
         <v>44872</v>
       </c>
       <c r="G3" s="120"/>
     </row>
-    <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="121" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="122"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="119"/>
       <c r="E4" s="36"/>
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="117">
+      <c r="J4" s="115">
         <f>J5</f>
         <v>44872</v>
       </c>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="117">
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="115">
         <f>Q5</f>
         <v>44879</v>
       </c>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="117">
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="115">
         <f>X5</f>
         <v>44886</v>
       </c>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="117">
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="115">
         <f>AE5</f>
         <v>44893</v>
       </c>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="117">
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="115">
         <f>AL5</f>
         <v>44900</v>
       </c>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="117">
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="115">
         <f>AS5</f>
         <v>44907</v>
       </c>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="117">
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="117"/>
+      <c r="AZ4" s="115">
         <f>AZ5</f>
         <v>44914</v>
       </c>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="117">
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="116"/>
+      <c r="BE4" s="116"/>
+      <c r="BF4" s="117"/>
+      <c r="BG4" s="115">
         <f>BG5</f>
         <v>44921</v>
       </c>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="118"/>
-      <c r="BM4" s="119"/>
-      <c r="BN4" s="117">
+      <c r="BH4" s="116"/>
+      <c r="BI4" s="116"/>
+      <c r="BJ4" s="116"/>
+      <c r="BK4" s="116"/>
+      <c r="BL4" s="116"/>
+      <c r="BM4" s="117"/>
+      <c r="BN4" s="115">
         <f>BN5</f>
         <v>44928</v>
       </c>
-      <c r="BO4" s="118"/>
-      <c r="BP4" s="118"/>
-      <c r="BQ4" s="118"/>
-      <c r="BR4" s="118"/>
-      <c r="BS4" s="118"/>
-      <c r="BT4" s="119"/>
-      <c r="BU4" s="117">
+      <c r="BO4" s="116"/>
+      <c r="BP4" s="116"/>
+      <c r="BQ4" s="116"/>
+      <c r="BR4" s="116"/>
+      <c r="BS4" s="116"/>
+      <c r="BT4" s="117"/>
+      <c r="BU4" s="115">
         <f>BU5</f>
         <v>44935</v>
       </c>
-      <c r="BV4" s="118"/>
-      <c r="BW4" s="118"/>
-      <c r="BX4" s="118"/>
-      <c r="BY4" s="118"/>
-      <c r="BZ4" s="118"/>
-      <c r="CA4" s="119"/>
-      <c r="CB4" s="117">
+      <c r="BV4" s="116"/>
+      <c r="BW4" s="116"/>
+      <c r="BX4" s="116"/>
+      <c r="BY4" s="116"/>
+      <c r="BZ4" s="116"/>
+      <c r="CA4" s="117"/>
+      <c r="CB4" s="115">
         <f>CB5</f>
         <v>44942</v>
       </c>
-      <c r="CC4" s="118"/>
-      <c r="CD4" s="118"/>
-      <c r="CE4" s="118"/>
-      <c r="CF4" s="118"/>
-      <c r="CG4" s="118"/>
-      <c r="CH4" s="119"/>
-      <c r="CI4" s="117">
+      <c r="CC4" s="116"/>
+      <c r="CD4" s="116"/>
+      <c r="CE4" s="116"/>
+      <c r="CF4" s="116"/>
+      <c r="CG4" s="116"/>
+      <c r="CH4" s="117"/>
+      <c r="CI4" s="115">
         <f>CI5</f>
         <v>44949</v>
       </c>
-      <c r="CJ4" s="118"/>
-      <c r="CK4" s="118"/>
-      <c r="CL4" s="118"/>
-      <c r="CM4" s="118"/>
-      <c r="CN4" s="118"/>
-      <c r="CO4" s="119"/>
-      <c r="CP4" s="117">
+      <c r="CJ4" s="116"/>
+      <c r="CK4" s="116"/>
+      <c r="CL4" s="116"/>
+      <c r="CM4" s="116"/>
+      <c r="CN4" s="116"/>
+      <c r="CO4" s="117"/>
+      <c r="CP4" s="115">
         <f t="shared" ref="CP4" si="0">CP5</f>
         <v>44956</v>
       </c>
-      <c r="CQ4" s="118"/>
-      <c r="CR4" s="118"/>
-      <c r="CS4" s="118"/>
-      <c r="CT4" s="118"/>
-      <c r="CU4" s="118"/>
-      <c r="CV4" s="119"/>
-      <c r="CW4" s="117">
+      <c r="CQ4" s="116"/>
+      <c r="CR4" s="116"/>
+      <c r="CS4" s="116"/>
+      <c r="CT4" s="116"/>
+      <c r="CU4" s="116"/>
+      <c r="CV4" s="117"/>
+      <c r="CW4" s="115">
         <f t="shared" ref="CW4" si="1">CW5</f>
         <v>44963</v>
       </c>
-      <c r="CX4" s="118"/>
-      <c r="CY4" s="118"/>
-      <c r="CZ4" s="118"/>
-      <c r="DA4" s="118"/>
-      <c r="DB4" s="118"/>
-      <c r="DC4" s="119"/>
-      <c r="DD4" s="117">
+      <c r="CX4" s="116"/>
+      <c r="CY4" s="116"/>
+      <c r="CZ4" s="116"/>
+      <c r="DA4" s="116"/>
+      <c r="DB4" s="116"/>
+      <c r="DC4" s="117"/>
+      <c r="DD4" s="115">
         <f t="shared" ref="DD4" si="2">DD5</f>
         <v>44970</v>
       </c>
-      <c r="DE4" s="118"/>
-      <c r="DF4" s="118"/>
-      <c r="DG4" s="118"/>
-      <c r="DH4" s="118"/>
-      <c r="DI4" s="118"/>
-      <c r="DJ4" s="119"/>
-      <c r="DK4" s="117">
+      <c r="DE4" s="116"/>
+      <c r="DF4" s="116"/>
+      <c r="DG4" s="116"/>
+      <c r="DH4" s="116"/>
+      <c r="DI4" s="116"/>
+      <c r="DJ4" s="117"/>
+      <c r="DK4" s="115">
         <f t="shared" ref="DK4" si="3">DK5</f>
         <v>44977</v>
       </c>
-      <c r="DL4" s="118"/>
-      <c r="DM4" s="118"/>
-      <c r="DN4" s="118"/>
-      <c r="DO4" s="118"/>
-      <c r="DP4" s="118"/>
-      <c r="DQ4" s="119"/>
-      <c r="DR4" s="117">
+      <c r="DL4" s="116"/>
+      <c r="DM4" s="116"/>
+      <c r="DN4" s="116"/>
+      <c r="DO4" s="116"/>
+      <c r="DP4" s="116"/>
+      <c r="DQ4" s="117"/>
+      <c r="DR4" s="115">
         <f t="shared" ref="DR4" si="4">DR5</f>
         <v>44984</v>
       </c>
-      <c r="DS4" s="118"/>
-      <c r="DT4" s="118"/>
-      <c r="DU4" s="118"/>
-      <c r="DV4" s="118"/>
-      <c r="DW4" s="118"/>
-      <c r="DX4" s="119"/>
-      <c r="DY4" s="117">
+      <c r="DS4" s="116"/>
+      <c r="DT4" s="116"/>
+      <c r="DU4" s="116"/>
+      <c r="DV4" s="116"/>
+      <c r="DW4" s="116"/>
+      <c r="DX4" s="117"/>
+      <c r="DY4" s="115">
         <f t="shared" ref="DY4" si="5">DY5</f>
         <v>44991</v>
       </c>
-      <c r="DZ4" s="118"/>
-      <c r="EA4" s="118"/>
-      <c r="EB4" s="118"/>
-      <c r="EC4" s="118"/>
-      <c r="ED4" s="118"/>
-      <c r="EE4" s="119"/>
-      <c r="EF4" s="117">
+      <c r="DZ4" s="116"/>
+      <c r="EA4" s="116"/>
+      <c r="EB4" s="116"/>
+      <c r="EC4" s="116"/>
+      <c r="ED4" s="116"/>
+      <c r="EE4" s="117"/>
+      <c r="EF4" s="115">
         <f t="shared" ref="EF4" si="6">EF5</f>
         <v>44998</v>
       </c>
-      <c r="EG4" s="118"/>
-      <c r="EH4" s="118"/>
-      <c r="EI4" s="118"/>
-      <c r="EJ4" s="118"/>
-      <c r="EK4" s="118"/>
-      <c r="EL4" s="119"/>
-      <c r="EM4" s="117">
+      <c r="EG4" s="116"/>
+      <c r="EH4" s="116"/>
+      <c r="EI4" s="116"/>
+      <c r="EJ4" s="116"/>
+      <c r="EK4" s="116"/>
+      <c r="EL4" s="117"/>
+      <c r="EM4" s="115">
         <f t="shared" ref="EM4" si="7">EM5</f>
         <v>45005</v>
       </c>
-      <c r="EN4" s="118"/>
-      <c r="EO4" s="118"/>
-      <c r="EP4" s="118"/>
-      <c r="EQ4" s="118"/>
-      <c r="ER4" s="118"/>
-      <c r="ES4" s="119"/>
-      <c r="ET4" s="117">
+      <c r="EN4" s="116"/>
+      <c r="EO4" s="116"/>
+      <c r="EP4" s="116"/>
+      <c r="EQ4" s="116"/>
+      <c r="ER4" s="116"/>
+      <c r="ES4" s="117"/>
+      <c r="ET4" s="115">
         <f t="shared" ref="ET4" si="8">ET5</f>
         <v>45012</v>
       </c>
-      <c r="EU4" s="118"/>
-      <c r="EV4" s="118"/>
-      <c r="EW4" s="118"/>
-      <c r="EX4" s="118"/>
-      <c r="EY4" s="118"/>
-      <c r="EZ4" s="119"/>
-      <c r="FA4" s="117">
+      <c r="EU4" s="116"/>
+      <c r="EV4" s="116"/>
+      <c r="EW4" s="116"/>
+      <c r="EX4" s="116"/>
+      <c r="EY4" s="116"/>
+      <c r="EZ4" s="117"/>
+      <c r="FA4" s="115">
         <f t="shared" ref="FA4" si="9">FA5</f>
         <v>45019</v>
       </c>
-      <c r="FB4" s="118"/>
-      <c r="FC4" s="118"/>
-      <c r="FD4" s="118"/>
-      <c r="FE4" s="118"/>
-      <c r="FF4" s="118"/>
-      <c r="FG4" s="119"/>
-      <c r="FH4" s="117">
+      <c r="FB4" s="116"/>
+      <c r="FC4" s="116"/>
+      <c r="FD4" s="116"/>
+      <c r="FE4" s="116"/>
+      <c r="FF4" s="116"/>
+      <c r="FG4" s="117"/>
+      <c r="FH4" s="115">
         <f t="shared" ref="FH4" si="10">FH5</f>
         <v>45026</v>
       </c>
-      <c r="FI4" s="118"/>
-      <c r="FJ4" s="118"/>
-      <c r="FK4" s="118"/>
-      <c r="FL4" s="118"/>
-      <c r="FM4" s="118"/>
-      <c r="FN4" s="119"/>
+      <c r="FI4" s="116"/>
+      <c r="FJ4" s="116"/>
+      <c r="FK4" s="116"/>
+      <c r="FL4" s="116"/>
+      <c r="FM4" s="116"/>
+      <c r="FN4" s="117"/>
     </row>
-    <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:170" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="63"/>
       <c r="C5" s="32"/>
@@ -3670,31 +3648,31 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>LEFT(TEXT(J5,"ddd"),1)</f>
@@ -4341,9 +4319,9 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:170" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="29"/>
       <c r="F7"/>
@@ -4513,15 +4491,15 @@
       <c r="FM7" s="22"/>
       <c r="FN7" s="22"/>
     </row>
-    <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
+    <row r="8" spans="1:170" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
@@ -4684,17 +4662,17 @@
       <c r="FM8" s="22"/>
       <c r="FN8" s="22"/>
     </row>
-    <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="47"/>
       <c r="E9" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -4865,25 +4843,25 @@
       <c r="FM9" s="22"/>
       <c r="FN9" s="22"/>
     </row>
-    <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="96" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>179</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10" s="48">
         <v>0</v>
       </c>
       <c r="E10" s="40"/>
-      <c r="F10" s="75">
+      <c r="F10" s="71">
         <f>Project_Start</f>
         <v>44872</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="71">
         <f t="shared" ref="G10:G15" si="43">F10</f>
         <v>44872</v>
       </c>
@@ -5054,25 +5032,25 @@
       <c r="FM10" s="22"/>
       <c r="FN10" s="22"/>
     </row>
-    <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11" s="48">
         <v>0</v>
       </c>
       <c r="E11" s="41"/>
-      <c r="F11" s="75">
+      <c r="F11" s="71">
         <f>G10</f>
         <v>44872</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="71">
         <f t="shared" si="43"/>
         <v>44872</v>
       </c>
@@ -5243,23 +5221,23 @@
       <c r="FM11" s="22"/>
       <c r="FN11" s="22"/>
     </row>
-    <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
-      <c r="B12" s="96" t="s">
-        <v>58</v>
+      <c r="B12" s="93" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D12" s="48">
         <v>0</v>
       </c>
       <c r="E12" s="41"/>
-      <c r="F12" s="75">
+      <c r="F12" s="71">
         <f>G11</f>
         <v>44872</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="71">
         <f t="shared" si="43"/>
         <v>44872</v>
       </c>
@@ -5430,23 +5408,23 @@
       <c r="FM12" s="22"/>
       <c r="FN12" s="22"/>
     </row>
-    <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
-      <c r="B13" s="96" t="s">
-        <v>59</v>
+      <c r="B13" s="93" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D13" s="48">
         <v>0</v>
       </c>
       <c r="E13" s="41"/>
-      <c r="F13" s="75">
+      <c r="F13" s="71">
         <f>G12 + 1</f>
         <v>44873</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="71">
         <f t="shared" si="43"/>
         <v>44873</v>
       </c>
@@ -5614,23 +5592,23 @@
       <c r="FM13" s="22"/>
       <c r="FN13" s="22"/>
     </row>
-    <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="B14" s="96" t="s">
-        <v>60</v>
+      <c r="B14" s="93" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="48">
         <v>0</v>
       </c>
       <c r="E14" s="41"/>
-      <c r="F14" s="75">
+      <c r="F14" s="71">
         <f>G13 + 1</f>
         <v>44874</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="71">
         <f>F14 + 1</f>
         <v>44875</v>
       </c>
@@ -5798,23 +5776,23 @@
       <c r="FM14" s="22"/>
       <c r="FN14" s="22"/>
     </row>
-    <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
-      <c r="B15" s="96" t="s">
-        <v>61</v>
+      <c r="B15" s="93" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D15" s="48">
         <v>0</v>
       </c>
       <c r="E15" s="41"/>
-      <c r="F15" s="75">
+      <c r="F15" s="71">
         <f>G14 + 1</f>
         <v>44876</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="71">
         <f t="shared" si="43"/>
         <v>44876</v>
       </c>
@@ -5982,23 +5960,23 @@
       <c r="FM15" s="22"/>
       <c r="FN15" s="22"/>
     </row>
-    <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
-      <c r="B16" s="96" t="s">
-        <v>62</v>
+      <c r="B16" s="93" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16" s="48">
         <v>0</v>
       </c>
       <c r="E16" s="41"/>
-      <c r="F16" s="75">
+      <c r="F16" s="71">
         <f>F13</f>
         <v>44873</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="71">
         <f>F16</f>
         <v>44873</v>
       </c>
@@ -6166,23 +6144,23 @@
       <c r="FM16" s="22"/>
       <c r="FN16" s="22"/>
     </row>
-    <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
-      <c r="B17" s="96" t="s">
-        <v>63</v>
+      <c r="B17" s="93" t="s">
+        <v>51</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D17" s="48">
         <v>0</v>
       </c>
       <c r="E17" s="41"/>
-      <c r="F17" s="75">
+      <c r="F17" s="71">
         <f>G16 + 1</f>
         <v>44874</v>
       </c>
-      <c r="G17" s="75">
+      <c r="G17" s="71">
         <f>F17</f>
         <v>44874</v>
       </c>
@@ -6350,23 +6328,23 @@
       <c r="FM17" s="22"/>
       <c r="FN17" s="22"/>
     </row>
-    <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
-      <c r="B18" s="96" t="s">
-        <v>64</v>
+      <c r="B18" s="93" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18" s="48">
         <v>0</v>
       </c>
       <c r="E18" s="41"/>
-      <c r="F18" s="75">
+      <c r="F18" s="71">
         <f>G17 + 3</f>
         <v>44877</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="71">
         <f>F18</f>
         <v>44877</v>
       </c>
@@ -6534,23 +6512,23 @@
       <c r="FM18" s="22"/>
       <c r="FN18" s="22"/>
     </row>
-    <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
-      <c r="B19" s="96" t="s">
-        <v>65</v>
+      <c r="B19" s="93" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D19" s="48">
         <v>0</v>
       </c>
       <c r="E19" s="41"/>
-      <c r="F19" s="75">
+      <c r="F19" s="71">
         <f>F12 + 1</f>
         <v>44873</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="71">
         <f>F19</f>
         <v>44873</v>
       </c>
@@ -6718,12 +6696,12 @@
       <c r="FM19" s="22"/>
       <c r="FN19" s="22"/>
     </row>
-    <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="47"/>
@@ -6899,23 +6877,23 @@
       <c r="FM20" s="22"/>
       <c r="FN20" s="22"/>
     </row>
-    <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
-      <c r="B21" s="96" t="s">
-        <v>67</v>
+      <c r="B21" s="93" t="s">
+        <v>55</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" s="48">
         <v>0</v>
       </c>
       <c r="E21" s="41"/>
-      <c r="F21" s="75">
+      <c r="F21" s="71">
         <f>F18 +  2</f>
         <v>44879</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="71">
         <f t="shared" ref="G21:G25" si="44">F21</f>
         <v>44879</v>
       </c>
@@ -7086,23 +7064,23 @@
       <c r="FM21" s="22"/>
       <c r="FN21" s="22"/>
     </row>
-    <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
-      <c r="B22" s="96" t="s">
-        <v>68</v>
+      <c r="B22" s="93" t="s">
+        <v>56</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
       </c>
       <c r="E22" s="41"/>
-      <c r="F22" s="75">
+      <c r="F22" s="71">
         <f>G21 + 1</f>
         <v>44880</v>
       </c>
-      <c r="G22" s="75">
+      <c r="G22" s="71">
         <f t="shared" si="44"/>
         <v>44880</v>
       </c>
@@ -7273,23 +7251,23 @@
       <c r="FM22" s="22"/>
       <c r="FN22" s="22"/>
     </row>
-    <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
-      <c r="B23" s="96" t="s">
-        <v>69</v>
+      <c r="B23" s="93" t="s">
+        <v>57</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D23" s="48">
         <v>0</v>
       </c>
       <c r="E23" s="41"/>
-      <c r="F23" s="75">
+      <c r="F23" s="71">
         <f>G22</f>
         <v>44880</v>
       </c>
-      <c r="G23" s="75">
+      <c r="G23" s="71">
         <f t="shared" si="44"/>
         <v>44880</v>
       </c>
@@ -7460,23 +7438,23 @@
       <c r="FM23" s="22"/>
       <c r="FN23" s="22"/>
     </row>
-    <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
-      <c r="B24" s="96" t="s">
-        <v>70</v>
+      <c r="B24" s="93" t="s">
+        <v>58</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
       </c>
       <c r="E24" s="41"/>
-      <c r="F24" s="75">
+      <c r="F24" s="71">
         <f>G23 + 1</f>
         <v>44881</v>
       </c>
-      <c r="G24" s="75">
+      <c r="G24" s="71">
         <f t="shared" si="44"/>
         <v>44881</v>
       </c>
@@ -7644,23 +7622,23 @@
       <c r="FM24" s="22"/>
       <c r="FN24" s="22"/>
     </row>
-    <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
-      <c r="B25" s="96" t="s">
-        <v>71</v>
+      <c r="B25" s="93" t="s">
+        <v>59</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D25" s="48">
         <v>0</v>
       </c>
       <c r="E25" s="41"/>
-      <c r="F25" s="75">
+      <c r="F25" s="71">
         <f>G23</f>
         <v>44880</v>
       </c>
-      <c r="G25" s="75">
+      <c r="G25" s="71">
         <f t="shared" si="44"/>
         <v>44880</v>
       </c>
@@ -7828,15 +7806,15 @@
       <c r="FM25" s="22"/>
       <c r="FN25" s="22"/>
     </row>
-    <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="65" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="47"/>
       <c r="E26" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
@@ -8004,19 +7982,23 @@
       <c r="FM26" s="22"/>
       <c r="FN26" s="22"/>
     </row>
-    <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
-      <c r="B27" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="48"/>
+      <c r="B27" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="48">
+        <v>0</v>
+      </c>
       <c r="E27" s="41"/>
-      <c r="F27" s="75">
+      <c r="F27" s="71">
         <f>G25 + 2</f>
         <v>44882</v>
       </c>
-      <c r="G27" s="75">
+      <c r="G27" s="71">
         <f t="shared" ref="G27:G33" si="45">F27</f>
         <v>44882</v>
       </c>
@@ -8184,21 +8166,25 @@
       <c r="FM27" s="22"/>
       <c r="FN27" s="22"/>
     </row>
-    <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="48"/>
+        <v>62</v>
+      </c>
+      <c r="B28" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="48">
+        <v>0</v>
+      </c>
       <c r="E28" s="41"/>
-      <c r="F28" s="75">
+      <c r="F28" s="71">
         <f>G27 + 1</f>
         <v>44883</v>
       </c>
-      <c r="G28" s="75">
+      <c r="G28" s="71">
         <f t="shared" si="45"/>
         <v>44883</v>
       </c>
@@ -8366,19 +8352,23 @@
       <c r="FM28" s="22"/>
       <c r="FN28" s="22"/>
     </row>
-    <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
-      <c r="B29" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="48"/>
+      <c r="B29" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="48">
+        <v>0</v>
+      </c>
       <c r="E29" s="41"/>
-      <c r="F29" s="75">
+      <c r="F29" s="71">
         <f>G28</f>
         <v>44883</v>
       </c>
-      <c r="G29" s="75">
+      <c r="G29" s="71">
         <f t="shared" si="45"/>
         <v>44883</v>
       </c>
@@ -8546,19 +8536,23 @@
       <c r="FM29" s="22"/>
       <c r="FN29" s="22"/>
     </row>
-    <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
-      <c r="B30" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="48"/>
+      <c r="B30" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="48">
+        <v>0</v>
+      </c>
       <c r="E30" s="41"/>
-      <c r="F30" s="75">
+      <c r="F30" s="71">
         <f>G29</f>
         <v>44883</v>
       </c>
-      <c r="G30" s="75">
+      <c r="G30" s="71">
         <f t="shared" si="45"/>
         <v>44883</v>
       </c>
@@ -8726,19 +8720,23 @@
       <c r="FM30" s="22"/>
       <c r="FN30" s="22"/>
     </row>
-    <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
-      <c r="B31" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="48"/>
+      <c r="B31" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="48">
+        <v>0</v>
+      </c>
       <c r="E31" s="41"/>
-      <c r="F31" s="75">
+      <c r="F31" s="71">
         <f>G30</f>
         <v>44883</v>
       </c>
-      <c r="G31" s="75">
+      <c r="G31" s="71">
         <f t="shared" si="45"/>
         <v>44883</v>
       </c>
@@ -8906,19 +8904,23 @@
       <c r="FM31" s="22"/>
       <c r="FN31" s="22"/>
     </row>
-    <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
-      <c r="B32" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="48"/>
+      <c r="B32" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="48">
+        <v>0</v>
+      </c>
       <c r="E32" s="41"/>
-      <c r="F32" s="75">
+      <c r="F32" s="71">
         <f>G31 + 1</f>
         <v>44884</v>
       </c>
-      <c r="G32" s="75">
+      <c r="G32" s="71">
         <f t="shared" si="45"/>
         <v>44884</v>
       </c>
@@ -9086,19 +9088,23 @@
       <c r="FM32" s="22"/>
       <c r="FN32" s="22"/>
     </row>
-    <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
-      <c r="B33" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="48"/>
+      <c r="B33" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="48">
+        <v>0</v>
+      </c>
       <c r="E33" s="41"/>
-      <c r="F33" s="75">
+      <c r="F33" s="71">
         <f>G31</f>
         <v>44883</v>
       </c>
-      <c r="G33" s="75">
+      <c r="G33" s="71">
         <f t="shared" si="45"/>
         <v>44883</v>
       </c>
@@ -9266,16 +9272,16 @@
       <c r="FM33" s="22"/>
       <c r="FN33" s="22"/>
     </row>
-    <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
-      <c r="B34" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
+      <c r="B34" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="22"/>
@@ -9440,17 +9446,17 @@
       <c r="FM34" s="22"/>
       <c r="FN34" s="22"/>
     </row>
-    <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="47"/>
       <c r="E35" s="39">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
@@ -9621,23 +9627,23 @@
       <c r="FM35" s="22"/>
       <c r="FN35" s="22"/>
     </row>
-    <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
-      <c r="B36" s="96" t="s">
-        <v>81</v>
+      <c r="B36" s="93" t="s">
+        <v>69</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D36" s="48">
         <v>0</v>
       </c>
       <c r="E36" s="41"/>
-      <c r="F36" s="75">
+      <c r="F36" s="71">
         <f>G33 + 3</f>
         <v>44886</v>
       </c>
-      <c r="G36" s="75">
+      <c r="G36" s="71">
         <f t="shared" ref="G36:G44" si="46">F36</f>
         <v>44886</v>
       </c>
@@ -9808,23 +9814,23 @@
       <c r="FM36" s="22"/>
       <c r="FN36" s="22"/>
     </row>
-    <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
-      <c r="B37" s="96" t="s">
-        <v>82</v>
+      <c r="B37" s="93" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D37" s="48">
         <v>0</v>
       </c>
       <c r="E37" s="41"/>
-      <c r="F37" s="75">
+      <c r="F37" s="71">
         <f>G36</f>
         <v>44886</v>
       </c>
-      <c r="G37" s="75">
+      <c r="G37" s="71">
         <f t="shared" si="46"/>
         <v>44886</v>
       </c>
@@ -9995,23 +10001,23 @@
       <c r="FM37" s="22"/>
       <c r="FN37" s="22"/>
     </row>
-    <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
-      <c r="B38" s="96" t="s">
-        <v>89</v>
+      <c r="B38" s="93" t="s">
+        <v>77</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D38" s="48">
         <v>0</v>
       </c>
       <c r="E38" s="41"/>
-      <c r="F38" s="75">
+      <c r="F38" s="71">
         <f>G36 + 1</f>
         <v>44887</v>
       </c>
-      <c r="G38" s="75">
+      <c r="G38" s="71">
         <f t="shared" si="46"/>
         <v>44887</v>
       </c>
@@ -10182,23 +10188,23 @@
       <c r="FM38" s="22"/>
       <c r="FN38" s="22"/>
     </row>
-    <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
-      <c r="B39" s="96" t="s">
-        <v>83</v>
+      <c r="B39" s="93" t="s">
+        <v>71</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D39" s="48">
         <v>0</v>
       </c>
       <c r="E39" s="41"/>
-      <c r="F39" s="75">
+      <c r="F39" s="71">
         <f>G38</f>
         <v>44887</v>
       </c>
-      <c r="G39" s="75">
+      <c r="G39" s="71">
         <f t="shared" si="46"/>
         <v>44887</v>
       </c>
@@ -10366,23 +10372,23 @@
       <c r="FM39" s="22"/>
       <c r="FN39" s="22"/>
     </row>
-    <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
-      <c r="B40" s="96" t="s">
-        <v>84</v>
+      <c r="B40" s="93" t="s">
+        <v>72</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D40" s="48">
         <v>0</v>
       </c>
       <c r="E40" s="41"/>
-      <c r="F40" s="75">
+      <c r="F40" s="71">
         <f>G39 + 1</f>
         <v>44888</v>
       </c>
-      <c r="G40" s="75">
+      <c r="G40" s="71">
         <f t="shared" si="46"/>
         <v>44888</v>
       </c>
@@ -10550,23 +10556,23 @@
       <c r="FM40" s="22"/>
       <c r="FN40" s="22"/>
     </row>
-    <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
-      <c r="B41" s="96" t="s">
-        <v>85</v>
+      <c r="B41" s="93" t="s">
+        <v>73</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D41" s="48">
         <v>0</v>
       </c>
       <c r="E41" s="41"/>
-      <c r="F41" s="75">
+      <c r="F41" s="71">
         <f>G39</f>
         <v>44887</v>
       </c>
-      <c r="G41" s="75">
+      <c r="G41" s="71">
         <f t="shared" si="46"/>
         <v>44887</v>
       </c>
@@ -10734,23 +10740,23 @@
       <c r="FM41" s="22"/>
       <c r="FN41" s="22"/>
     </row>
-    <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
-      <c r="B42" s="96" t="s">
-        <v>86</v>
+      <c r="B42" s="93" t="s">
+        <v>74</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D42" s="48">
         <v>0</v>
       </c>
       <c r="E42" s="41"/>
-      <c r="F42" s="75">
+      <c r="F42" s="71">
         <f>G39</f>
         <v>44887</v>
       </c>
-      <c r="G42" s="75">
+      <c r="G42" s="71">
         <f t="shared" si="46"/>
         <v>44887</v>
       </c>
@@ -10918,23 +10924,23 @@
       <c r="FM42" s="22"/>
       <c r="FN42" s="22"/>
     </row>
-    <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
-      <c r="B43" s="96" t="s">
-        <v>87</v>
+      <c r="B43" s="93" t="s">
+        <v>75</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D43" s="48">
         <v>0</v>
       </c>
       <c r="E43" s="41"/>
-      <c r="F43" s="75">
+      <c r="F43" s="71">
         <f>G42 + 2</f>
         <v>44889</v>
       </c>
-      <c r="G43" s="75">
+      <c r="G43" s="71">
         <f t="shared" si="46"/>
         <v>44889</v>
       </c>
@@ -11102,23 +11108,23 @@
       <c r="FM43" s="22"/>
       <c r="FN43" s="22"/>
     </row>
-    <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
-      <c r="B44" s="96" t="s">
-        <v>88</v>
+      <c r="B44" s="93" t="s">
+        <v>76</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D44" s="48">
         <v>0</v>
       </c>
       <c r="E44" s="41"/>
-      <c r="F44" s="75">
+      <c r="F44" s="71">
         <f>G42</f>
         <v>44887</v>
       </c>
-      <c r="G44" s="75">
+      <c r="G44" s="71">
         <f t="shared" si="46"/>
         <v>44887</v>
       </c>
@@ -11286,17 +11292,17 @@
       <c r="FM44" s="22"/>
       <c r="FN44" s="22"/>
     </row>
-    <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="47"/>
       <c r="E45" s="39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="17"/>
@@ -11467,23 +11473,23 @@
       <c r="FM45" s="22"/>
       <c r="FN45" s="22"/>
     </row>
-    <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
-      <c r="B46" s="96" t="s">
-        <v>91</v>
+      <c r="B46" s="93" t="s">
+        <v>79</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D46" s="48">
         <v>0</v>
       </c>
       <c r="E46" s="41"/>
-      <c r="F46" s="75">
+      <c r="F46" s="71">
         <f>G43 + 1</f>
         <v>44890</v>
       </c>
-      <c r="G46" s="75">
+      <c r="G46" s="71">
         <f t="shared" ref="G46:G52" si="47">F46</f>
         <v>44890</v>
       </c>
@@ -11654,23 +11660,23 @@
       <c r="FM46" s="22"/>
       <c r="FN46" s="22"/>
     </row>
-    <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
-      <c r="B47" s="96" t="s">
-        <v>92</v>
+      <c r="B47" s="93" t="s">
+        <v>80</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D47" s="48">
         <v>0</v>
       </c>
       <c r="E47" s="41"/>
-      <c r="F47" s="75">
+      <c r="F47" s="71">
         <f>G46 + 1</f>
         <v>44891</v>
       </c>
-      <c r="G47" s="75">
+      <c r="G47" s="71">
         <f t="shared" si="47"/>
         <v>44891</v>
       </c>
@@ -11841,23 +11847,23 @@
       <c r="FM47" s="22"/>
       <c r="FN47" s="22"/>
     </row>
-    <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
-      <c r="B48" s="96" t="s">
-        <v>93</v>
+      <c r="B48" s="93" t="s">
+        <v>81</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D48" s="48">
         <v>0</v>
       </c>
       <c r="E48" s="41"/>
-      <c r="F48" s="75">
+      <c r="F48" s="71">
         <f>G46 + 1</f>
         <v>44891</v>
       </c>
-      <c r="G48" s="75">
+      <c r="G48" s="71">
         <f t="shared" si="47"/>
         <v>44891</v>
       </c>
@@ -12028,23 +12034,23 @@
       <c r="FM48" s="22"/>
       <c r="FN48" s="22"/>
     </row>
-    <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
-      <c r="B49" s="96" t="s">
-        <v>94</v>
+      <c r="B49" s="93" t="s">
+        <v>82</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D49" s="48">
         <v>0</v>
       </c>
       <c r="E49" s="41"/>
-      <c r="F49" s="75">
+      <c r="F49" s="71">
         <f>G48</f>
         <v>44891</v>
       </c>
-      <c r="G49" s="75">
+      <c r="G49" s="71">
         <f t="shared" si="47"/>
         <v>44891</v>
       </c>
@@ -12212,23 +12218,23 @@
       <c r="FM49" s="22"/>
       <c r="FN49" s="22"/>
     </row>
-    <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26"/>
-      <c r="B50" s="96" t="s">
-        <v>95</v>
+      <c r="B50" s="93" t="s">
+        <v>83</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D50" s="48">
         <v>0</v>
       </c>
       <c r="E50" s="41"/>
-      <c r="F50" s="75">
+      <c r="F50" s="71">
         <f>G49</f>
         <v>44891</v>
       </c>
-      <c r="G50" s="75">
+      <c r="G50" s="71">
         <f t="shared" si="47"/>
         <v>44891</v>
       </c>
@@ -12396,23 +12402,23 @@
       <c r="FM50" s="22"/>
       <c r="FN50" s="22"/>
     </row>
-    <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
-      <c r="B51" s="96" t="s">
-        <v>96</v>
+      <c r="B51" s="93" t="s">
+        <v>84</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D51" s="48">
         <v>0</v>
       </c>
       <c r="E51" s="41"/>
-      <c r="F51" s="75">
+      <c r="F51" s="71">
         <f>F49 + 2</f>
         <v>44893</v>
       </c>
-      <c r="G51" s="75">
+      <c r="G51" s="71">
         <f t="shared" si="47"/>
         <v>44893</v>
       </c>
@@ -12580,23 +12586,23 @@
       <c r="FM51" s="22"/>
       <c r="FN51" s="22"/>
     </row>
-    <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
-      <c r="B52" s="96" t="s">
-        <v>97</v>
+      <c r="B52" s="93" t="s">
+        <v>85</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D52" s="48">
         <v>0</v>
       </c>
       <c r="E52" s="41"/>
-      <c r="F52" s="75">
+      <c r="F52" s="71">
         <f>G48</f>
         <v>44891</v>
       </c>
-      <c r="G52" s="75">
+      <c r="G52" s="71">
         <f t="shared" si="47"/>
         <v>44891</v>
       </c>
@@ -12764,15 +12770,15 @@
       <c r="FM52" s="22"/>
       <c r="FN52" s="22"/>
     </row>
-    <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
       <c r="B53" s="65" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="47"/>
       <c r="E53" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="17"/>
@@ -12940,19 +12946,23 @@
       <c r="FM53" s="22"/>
       <c r="FN53" s="22"/>
     </row>
-    <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
-      <c r="B54" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="48"/>
+      <c r="B54" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="48">
+        <v>0</v>
+      </c>
       <c r="E54" s="41"/>
-      <c r="F54" s="75">
+      <c r="F54" s="71">
         <f>G52 + 3</f>
         <v>44894</v>
       </c>
-      <c r="G54" s="75">
+      <c r="G54" s="71">
         <f t="shared" ref="G54:G60" si="48">F54</f>
         <v>44894</v>
       </c>
@@ -13120,19 +13130,23 @@
       <c r="FM54" s="22"/>
       <c r="FN54" s="22"/>
     </row>
-    <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26"/>
-      <c r="B55" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="48"/>
+      <c r="B55" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="48">
+        <v>0</v>
+      </c>
       <c r="E55" s="41"/>
-      <c r="F55" s="75">
+      <c r="F55" s="71">
         <f>G54 + 1</f>
         <v>44895</v>
       </c>
-      <c r="G55" s="75">
+      <c r="G55" s="71">
         <f t="shared" si="48"/>
         <v>44895</v>
       </c>
@@ -13300,19 +13314,23 @@
       <c r="FM55" s="22"/>
       <c r="FN55" s="22"/>
     </row>
-    <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26"/>
-      <c r="B56" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="48"/>
+      <c r="B56" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="48">
+        <v>0</v>
+      </c>
       <c r="E56" s="41"/>
-      <c r="F56" s="75">
+      <c r="F56" s="71">
         <f>G55</f>
         <v>44895</v>
       </c>
-      <c r="G56" s="75">
+      <c r="G56" s="71">
         <f t="shared" si="48"/>
         <v>44895</v>
       </c>
@@ -13480,19 +13498,23 @@
       <c r="FM56" s="22"/>
       <c r="FN56" s="22"/>
     </row>
-    <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26"/>
-      <c r="B57" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="48"/>
+      <c r="B57" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="48">
+        <v>0</v>
+      </c>
       <c r="E57" s="41"/>
-      <c r="F57" s="75">
+      <c r="F57" s="71">
         <f>G56</f>
         <v>44895</v>
       </c>
-      <c r="G57" s="75">
+      <c r="G57" s="71">
         <f t="shared" si="48"/>
         <v>44895</v>
       </c>
@@ -13660,19 +13682,23 @@
       <c r="FM57" s="22"/>
       <c r="FN57" s="22"/>
     </row>
-    <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26"/>
-      <c r="B58" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="48"/>
+      <c r="B58" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="48">
+        <v>0</v>
+      </c>
       <c r="E58" s="41"/>
-      <c r="F58" s="75">
+      <c r="F58" s="71">
         <f>G57</f>
         <v>44895</v>
       </c>
-      <c r="G58" s="75">
+      <c r="G58" s="71">
         <f t="shared" si="48"/>
         <v>44895</v>
       </c>
@@ -13840,19 +13866,23 @@
       <c r="FM58" s="22"/>
       <c r="FN58" s="22"/>
     </row>
-    <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26"/>
-      <c r="B59" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="48"/>
+      <c r="B59" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="48">
+        <v>0</v>
+      </c>
       <c r="E59" s="41"/>
-      <c r="F59" s="75">
+      <c r="F59" s="71">
         <f>G58 + 1</f>
         <v>44896</v>
       </c>
-      <c r="G59" s="75">
+      <c r="G59" s="71">
         <f t="shared" si="48"/>
         <v>44896</v>
       </c>
@@ -14020,19 +14050,23 @@
       <c r="FM59" s="22"/>
       <c r="FN59" s="22"/>
     </row>
-    <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26"/>
-      <c r="B60" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="48"/>
+      <c r="B60" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="48">
+        <v>0</v>
+      </c>
       <c r="E60" s="41"/>
-      <c r="F60" s="75">
+      <c r="F60" s="71">
         <f>G58</f>
         <v>44895</v>
       </c>
-      <c r="G60" s="75">
+      <c r="G60" s="71">
         <f t="shared" si="48"/>
         <v>44895</v>
       </c>
@@ -14200,15 +14234,15 @@
       <c r="FM60" s="22"/>
       <c r="FN60" s="22"/>
     </row>
-    <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26"/>
       <c r="B61" s="65" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="47"/>
       <c r="E61" s="39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="17"/>
@@ -14376,19 +14410,23 @@
       <c r="FM61" s="22"/>
       <c r="FN61" s="22"/>
     </row>
-    <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26"/>
-      <c r="B62" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="48"/>
+      <c r="B62" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="48">
+        <v>0</v>
+      </c>
       <c r="E62" s="41"/>
-      <c r="F62" s="75">
+      <c r="F62" s="71">
         <f>G60  + 2</f>
         <v>44897</v>
       </c>
-      <c r="G62" s="75">
+      <c r="G62" s="71">
         <f>F62</f>
         <v>44897</v>
       </c>
@@ -14556,19 +14594,23 @@
       <c r="FM62" s="22"/>
       <c r="FN62" s="22"/>
     </row>
-    <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="26"/>
-      <c r="B63" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="48"/>
+      <c r="B63" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="48">
+        <v>0</v>
+      </c>
       <c r="E63" s="41"/>
-      <c r="F63" s="75">
+      <c r="F63" s="71">
         <f>G62 + 1</f>
         <v>44898</v>
       </c>
-      <c r="G63" s="75">
+      <c r="G63" s="71">
         <f>F63</f>
         <v>44898</v>
       </c>
@@ -14736,19 +14778,23 @@
       <c r="FM63" s="22"/>
       <c r="FN63" s="22"/>
     </row>
-    <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26"/>
-      <c r="B64" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="48"/>
+      <c r="B64" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="48">
+        <v>0</v>
+      </c>
       <c r="E64" s="41"/>
-      <c r="F64" s="75">
+      <c r="F64" s="71">
         <f>G63</f>
         <v>44898</v>
       </c>
-      <c r="G64" s="75">
+      <c r="G64" s="71">
         <f>F64</f>
         <v>44898</v>
       </c>
@@ -14916,19 +14962,23 @@
       <c r="FM64" s="22"/>
       <c r="FN64" s="22"/>
     </row>
-    <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26"/>
-      <c r="B65" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="48"/>
+      <c r="B65" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="48">
+        <v>0</v>
+      </c>
       <c r="E65" s="41"/>
-      <c r="F65" s="75">
+      <c r="F65" s="71">
         <f>G64</f>
         <v>44898</v>
       </c>
-      <c r="G65" s="75">
+      <c r="G65" s="71">
         <f>F65</f>
         <v>44898</v>
       </c>
@@ -15096,19 +15146,23 @@
       <c r="FM65" s="22"/>
       <c r="FN65" s="22"/>
     </row>
-    <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="26"/>
-      <c r="B66" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="48"/>
+      <c r="B66" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="48">
+        <v>0</v>
+      </c>
       <c r="E66" s="41"/>
-      <c r="F66" s="75">
+      <c r="F66" s="71">
         <f>G65</f>
         <v>44898</v>
       </c>
-      <c r="G66" s="75">
+      <c r="G66" s="71">
         <f>F66</f>
         <v>44898</v>
       </c>
@@ -15276,16 +15330,16 @@
       <c r="FM66" s="22"/>
       <c r="FN66" s="22"/>
     </row>
-    <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="26"/>
-      <c r="B67" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="86"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
+      <c r="B67" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="83"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="22"/>
@@ -15450,20 +15504,20 @@
       <c r="FM67" s="22"/>
       <c r="FN67" s="22"/>
     </row>
-    <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C68" s="51"/>
-      <c r="D68" s="76"/>
+      <c r="D68" s="72"/>
       <c r="E68" s="39">
         <v>5</v>
       </c>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15" t="str">
         <f t="shared" si="42"/>
@@ -15631,13 +15685,13 @@
       <c r="FM68" s="22"/>
       <c r="FN68" s="22"/>
     </row>
-    <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="26"/>
       <c r="B69" s="66" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D69" s="56">
         <v>0</v>
@@ -15815,13 +15869,13 @@
       <c r="FM69" s="22"/>
       <c r="FN69" s="22"/>
     </row>
-    <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26"/>
       <c r="B70" s="66" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D70" s="56">
         <v>0</v>
@@ -15999,13 +16053,13 @@
       <c r="FM70" s="22"/>
       <c r="FN70" s="22"/>
     </row>
-    <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="26"/>
       <c r="B71" s="66" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D71" s="56">
         <v>0</v>
@@ -16183,13 +16237,17 @@
       <c r="FM71" s="22"/>
       <c r="FN71" s="22"/>
     </row>
-    <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="26"/>
       <c r="B72" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
+        <v>102</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="56">
+        <v>0</v>
+      </c>
       <c r="E72" s="57"/>
       <c r="F72" s="58">
         <f>G71</f>
@@ -16363,13 +16421,13 @@
       <c r="FM72" s="22"/>
       <c r="FN72" s="22"/>
     </row>
-    <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="26"/>
       <c r="B73" s="66" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D73" s="56">
         <v>0</v>
@@ -16547,13 +16605,13 @@
       <c r="FM73" s="22"/>
       <c r="FN73" s="22"/>
     </row>
-    <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26"/>
       <c r="B74" s="66" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D74" s="56">
         <v>0</v>
@@ -16731,13 +16789,13 @@
       <c r="FM74" s="22"/>
       <c r="FN74" s="22"/>
     </row>
-    <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="26"/>
       <c r="B75" s="66" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D75" s="56">
         <v>0</v>
@@ -16915,13 +16973,13 @@
       <c r="FM75" s="22"/>
       <c r="FN75" s="22"/>
     </row>
-    <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="26"/>
       <c r="B76" s="66" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C76" s="55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D76" s="56">
         <v>0</v>
@@ -17099,13 +17157,13 @@
       <c r="FM76" s="22"/>
       <c r="FN76" s="22"/>
     </row>
-    <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="26"/>
       <c r="B77" s="66" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D77" s="56">
         <v>0</v>
@@ -17283,15 +17341,15 @@
       <c r="FM77" s="22"/>
       <c r="FN77" s="22"/>
     </row>
-    <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="26"/>
       <c r="B78" s="65" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="53"/>
       <c r="E78" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F78" s="52"/>
       <c r="G78" s="52"/>
@@ -17459,13 +17517,13 @@
       <c r="FM78" s="22"/>
       <c r="FN78" s="22"/>
     </row>
-    <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="26"/>
       <c r="B79" s="66" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D79" s="56">
         <v>0</v>
@@ -17643,13 +17701,13 @@
       <c r="FM79" s="22"/>
       <c r="FN79" s="22"/>
     </row>
-    <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="26"/>
       <c r="B80" s="66" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D80" s="56">
         <v>0</v>
@@ -17827,13 +17885,13 @@
       <c r="FM80" s="22"/>
       <c r="FN80" s="22"/>
     </row>
-    <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="26"/>
       <c r="B81" s="66" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D81" s="56">
         <v>0</v>
@@ -18011,13 +18069,13 @@
       <c r="FM81" s="22"/>
       <c r="FN81" s="22"/>
     </row>
-    <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="26"/>
       <c r="B82" s="66" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D82" s="56">
         <v>0</v>
@@ -18195,13 +18253,13 @@
       <c r="FM82" s="22"/>
       <c r="FN82" s="22"/>
     </row>
-    <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="26"/>
       <c r="B83" s="66" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D83" s="56">
         <v>0</v>
@@ -18379,13 +18437,13 @@
       <c r="FM83" s="22"/>
       <c r="FN83" s="22"/>
     </row>
-    <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="26"/>
       <c r="B84" s="66" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D84" s="56">
         <v>0</v>
@@ -18563,13 +18621,13 @@
       <c r="FM84" s="22"/>
       <c r="FN84" s="22"/>
     </row>
-    <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="26"/>
       <c r="B85" s="66" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D85" s="56">
         <v>0</v>
@@ -18747,10 +18805,10 @@
       <c r="FM85" s="22"/>
       <c r="FN85" s="22"/>
     </row>
-    <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="26"/>
       <c r="B86" s="65" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C86" s="52"/>
       <c r="D86" s="53"/>
@@ -18923,13 +18981,13 @@
       <c r="FM86" s="22"/>
       <c r="FN86" s="22"/>
     </row>
-    <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="26"/>
       <c r="B87" s="66" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D87" s="56">
         <v>0</v>
@@ -19107,13 +19165,13 @@
       <c r="FM87" s="22"/>
       <c r="FN87" s="22"/>
     </row>
-    <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26"/>
       <c r="B88" s="66" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D88" s="56">
         <v>0</v>
@@ -19291,13 +19349,13 @@
       <c r="FM88" s="22"/>
       <c r="FN88" s="22"/>
     </row>
-    <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26"/>
       <c r="B89" s="66" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D89" s="56">
         <v>0</v>
@@ -19475,13 +19533,13 @@
       <c r="FM89" s="22"/>
       <c r="FN89" s="22"/>
     </row>
-    <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26"/>
       <c r="B90" s="66" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D90" s="56">
         <v>0</v>
@@ -19659,13 +19717,13 @@
       <c r="FM90" s="22"/>
       <c r="FN90" s="22"/>
     </row>
-    <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26"/>
       <c r="B91" s="66" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D91" s="56">
         <v>0</v>
@@ -19843,13 +19901,13 @@
       <c r="FM91" s="22"/>
       <c r="FN91" s="22"/>
     </row>
-    <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26"/>
       <c r="B92" s="66" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D92" s="56">
         <v>0</v>
@@ -20027,13 +20085,17 @@
       <c r="FM92" s="22"/>
       <c r="FN92" s="22"/>
     </row>
-    <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="26"/>
       <c r="B93" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="55"/>
-      <c r="D93" s="56"/>
+        <v>85</v>
+      </c>
+      <c r="C93" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="56">
+        <v>0</v>
+      </c>
       <c r="E93" s="57"/>
       <c r="F93" s="58">
         <f>G91</f>
@@ -20207,15 +20269,15 @@
       <c r="FM93" s="22"/>
       <c r="FN93" s="22"/>
     </row>
-    <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="26"/>
       <c r="B94" s="65" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C94" s="52"/>
       <c r="D94" s="53"/>
       <c r="E94" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F94" s="54"/>
       <c r="G94" s="54"/>
@@ -20383,13 +20445,17 @@
       <c r="FM94" s="22"/>
       <c r="FN94" s="22"/>
     </row>
-    <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="26"/>
       <c r="B95" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="C95" s="55"/>
-      <c r="D95" s="56"/>
+        <v>94</v>
+      </c>
+      <c r="C95" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="56">
+        <v>0</v>
+      </c>
       <c r="E95" s="57"/>
       <c r="F95" s="58">
         <f>G93 + 2</f>
@@ -20563,13 +20629,17 @@
       <c r="FM95" s="22"/>
       <c r="FN95" s="22"/>
     </row>
-    <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="26"/>
       <c r="B96" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
+        <v>95</v>
+      </c>
+      <c r="C96" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="56">
+        <v>0</v>
+      </c>
       <c r="E96" s="57"/>
       <c r="F96" s="58">
         <f>G95 + 1</f>
@@ -20743,13 +20813,17 @@
       <c r="FM96" s="22"/>
       <c r="FN96" s="22"/>
     </row>
-    <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="26"/>
       <c r="B97" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="55"/>
-      <c r="D97" s="56"/>
+        <v>96</v>
+      </c>
+      <c r="C97" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="56">
+        <v>0</v>
+      </c>
       <c r="E97" s="57"/>
       <c r="F97" s="58">
         <f>G96</f>
@@ -20923,13 +20997,17 @@
       <c r="FM97" s="22"/>
       <c r="FN97" s="22"/>
     </row>
-    <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="26"/>
       <c r="B98" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="55"/>
-      <c r="D98" s="56"/>
+        <v>97</v>
+      </c>
+      <c r="C98" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="56">
+        <v>0</v>
+      </c>
       <c r="E98" s="57"/>
       <c r="F98" s="58">
         <f>G97</f>
@@ -21103,13 +21181,17 @@
       <c r="FM98" s="22"/>
       <c r="FN98" s="22"/>
     </row>
-    <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="26"/>
       <c r="B99" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="56"/>
+        <v>98</v>
+      </c>
+      <c r="C99" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="56">
+        <v>0</v>
+      </c>
       <c r="E99" s="57"/>
       <c r="F99" s="58">
         <f>G98</f>
@@ -21283,16 +21365,16 @@
       <c r="FM99" s="22"/>
       <c r="FN99" s="22"/>
     </row>
-    <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="26"/>
-      <c r="B100" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="C100" s="86"/>
-      <c r="D100" s="87"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="89"/>
-      <c r="G100" s="89"/>
+      <c r="B100" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="83"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="86"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="22"/>
@@ -21457,15 +21539,15 @@
       <c r="FM100" s="22"/>
       <c r="FN100" s="22"/>
     </row>
-    <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="26"/>
       <c r="B101" s="65" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C101" s="52"/>
       <c r="D101" s="53"/>
       <c r="E101" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
@@ -21633,13 +21715,13 @@
       <c r="FM101" s="22"/>
       <c r="FN101" s="22"/>
     </row>
-    <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="26"/>
       <c r="B102" s="66" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D102" s="56">
         <v>0</v>
@@ -21817,13 +21899,13 @@
       <c r="FM102" s="22"/>
       <c r="FN102" s="22"/>
     </row>
-    <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="26"/>
       <c r="B103" s="66" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D103" s="56">
         <v>0</v>
@@ -22001,13 +22083,13 @@
       <c r="FM103" s="22"/>
       <c r="FN103" s="22"/>
     </row>
-    <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="26"/>
       <c r="B104" s="66" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C104" s="55" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D104" s="56">
         <v>0</v>
@@ -22185,13 +22267,13 @@
       <c r="FM104" s="22"/>
       <c r="FN104" s="22"/>
     </row>
-    <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="26"/>
       <c r="B105" s="66" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C105" s="55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D105" s="56">
         <v>0</v>
@@ -22369,13 +22451,13 @@
       <c r="FM105" s="22"/>
       <c r="FN105" s="22"/>
     </row>
-    <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="26"/>
       <c r="B106" s="66" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D106" s="56">
         <v>0</v>
@@ -22553,13 +22635,13 @@
       <c r="FM106" s="22"/>
       <c r="FN106" s="22"/>
     </row>
-    <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="26"/>
       <c r="B107" s="66" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D107" s="56">
         <v>0</v>
@@ -22737,13 +22819,13 @@
       <c r="FM107" s="22"/>
       <c r="FN107" s="22"/>
     </row>
-    <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="26"/>
       <c r="B108" s="66" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D108" s="56">
         <v>0</v>
@@ -22921,15 +23003,15 @@
       <c r="FM108" s="22"/>
       <c r="FN108" s="22"/>
     </row>
-    <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="26"/>
       <c r="B109" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="53"/>
       <c r="E109" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F109" s="54"/>
       <c r="G109" s="54"/>
@@ -23097,13 +23179,17 @@
       <c r="FM109" s="22"/>
       <c r="FN109" s="22"/>
     </row>
-    <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="26"/>
       <c r="B110" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="C110" s="55"/>
-      <c r="D110" s="56"/>
+        <v>127</v>
+      </c>
+      <c r="C110" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="56">
+        <v>0</v>
+      </c>
       <c r="E110" s="57"/>
       <c r="F110" s="58">
         <f>G108 + 2</f>
@@ -23277,13 +23363,17 @@
       <c r="FM110" s="22"/>
       <c r="FN110" s="22"/>
     </row>
-    <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="26"/>
       <c r="B111" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C111" s="55"/>
-      <c r="D111" s="56"/>
+        <v>128</v>
+      </c>
+      <c r="C111" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" s="56">
+        <v>0</v>
+      </c>
       <c r="E111" s="57"/>
       <c r="F111" s="58">
         <f>G110 + 1</f>
@@ -23457,13 +23547,17 @@
       <c r="FM111" s="22"/>
       <c r="FN111" s="22"/>
     </row>
-    <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="26"/>
       <c r="B112" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="C112" s="55"/>
-      <c r="D112" s="56"/>
+        <v>129</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D112" s="56">
+        <v>0</v>
+      </c>
       <c r="E112" s="57"/>
       <c r="F112" s="58">
         <f>G111</f>
@@ -23637,13 +23731,17 @@
       <c r="FM112" s="22"/>
       <c r="FN112" s="22"/>
     </row>
-    <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="26"/>
       <c r="B113" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C113" s="55"/>
-      <c r="D113" s="56"/>
+        <v>130</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="56">
+        <v>0</v>
+      </c>
       <c r="E113" s="57"/>
       <c r="F113" s="58">
         <f>G112</f>
@@ -23817,13 +23915,17 @@
       <c r="FM113" s="22"/>
       <c r="FN113" s="22"/>
     </row>
-    <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="26"/>
       <c r="B114" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C114" s="55"/>
-      <c r="D114" s="56"/>
+        <v>131</v>
+      </c>
+      <c r="C114" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="56">
+        <v>0</v>
+      </c>
       <c r="E114" s="57"/>
       <c r="F114" s="58">
         <f>G113</f>
@@ -23997,13 +24099,17 @@
       <c r="FM114" s="22"/>
       <c r="FN114" s="22"/>
     </row>
-    <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="26"/>
       <c r="B115" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C115" s="55"/>
-      <c r="D115" s="56"/>
+        <v>132</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="56">
+        <v>0</v>
+      </c>
       <c r="E115" s="57"/>
       <c r="F115" s="58">
         <f>G114 + 1</f>
@@ -24177,13 +24283,17 @@
       <c r="FM115" s="22"/>
       <c r="FN115" s="22"/>
     </row>
-    <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="26"/>
       <c r="B116" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C116" s="55"/>
-      <c r="D116" s="56"/>
+        <v>133</v>
+      </c>
+      <c r="C116" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="56">
+        <v>0</v>
+      </c>
       <c r="E116" s="57"/>
       <c r="F116" s="58">
         <f>G114</f>
@@ -24357,15 +24467,15 @@
       <c r="FM116" s="22"/>
       <c r="FN116" s="22"/>
     </row>
-    <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="26"/>
       <c r="B117" s="65" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="53"/>
       <c r="E117" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F117" s="54"/>
       <c r="G117" s="54"/>
@@ -24533,13 +24643,17 @@
       <c r="FM117" s="22"/>
       <c r="FN117" s="22"/>
     </row>
-    <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="26"/>
       <c r="B118" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C118" s="55"/>
-      <c r="D118" s="56"/>
+        <v>135</v>
+      </c>
+      <c r="C118" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="56">
+        <v>0</v>
+      </c>
       <c r="E118" s="57"/>
       <c r="F118" s="58">
         <f>G116 + 3</f>
@@ -24713,13 +24827,17 @@
       <c r="FM118" s="22"/>
       <c r="FN118" s="22"/>
     </row>
-    <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="26"/>
       <c r="B119" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C119" s="55"/>
-      <c r="D119" s="56"/>
+        <v>136</v>
+      </c>
+      <c r="C119" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="56">
+        <v>0</v>
+      </c>
       <c r="E119" s="57"/>
       <c r="F119" s="58">
         <f>G118</f>
@@ -24893,13 +25011,17 @@
       <c r="FM119" s="22"/>
       <c r="FN119" s="22"/>
     </row>
-    <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="26"/>
       <c r="B120" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="C120" s="55"/>
-      <c r="D120" s="56"/>
+        <v>137</v>
+      </c>
+      <c r="C120" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="56">
+        <v>0</v>
+      </c>
       <c r="E120" s="57"/>
       <c r="F120" s="58">
         <f>G119 + 1</f>
@@ -25073,13 +25195,17 @@
       <c r="FM120" s="22"/>
       <c r="FN120" s="22"/>
     </row>
-    <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="26"/>
       <c r="B121" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C121" s="55"/>
-      <c r="D121" s="56"/>
+        <v>138</v>
+      </c>
+      <c r="C121" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="56">
+        <v>0</v>
+      </c>
       <c r="E121" s="57"/>
       <c r="F121" s="58">
         <f>G120</f>
@@ -25253,13 +25379,17 @@
       <c r="FM121" s="22"/>
       <c r="FN121" s="22"/>
     </row>
-    <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="26"/>
       <c r="B122" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="C122" s="55"/>
-      <c r="D122" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="C122" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="56">
+        <v>0</v>
+      </c>
       <c r="E122" s="57"/>
       <c r="F122" s="58">
         <f>G121 + 1</f>
@@ -25433,15 +25563,19 @@
       <c r="FM122" s="22"/>
       <c r="FN122" s="22"/>
     </row>
-    <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B123" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C123" s="55"/>
-      <c r="D123" s="56"/>
+        <v>140</v>
+      </c>
+      <c r="C123" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="56">
+        <v>0</v>
+      </c>
       <c r="E123" s="57"/>
       <c r="F123" s="58">
         <f>G121</f>
@@ -25615,13 +25749,17 @@
       <c r="FM123" s="22"/>
       <c r="FN123" s="22"/>
     </row>
-    <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="26"/>
       <c r="B124" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C124" s="55"/>
-      <c r="D124" s="56"/>
+        <v>141</v>
+      </c>
+      <c r="C124" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="56">
+        <v>0</v>
+      </c>
       <c r="E124" s="57"/>
       <c r="F124" s="58">
         <f>G123</f>
@@ -25795,13 +25933,17 @@
       <c r="FM124" s="22"/>
       <c r="FN124" s="22"/>
     </row>
-    <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="26"/>
       <c r="B125" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C125" s="55"/>
-      <c r="D125" s="56"/>
+        <v>142</v>
+      </c>
+      <c r="C125" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="56">
+        <v>0</v>
+      </c>
       <c r="E125" s="57"/>
       <c r="F125" s="58">
         <f>G124 + 2</f>
@@ -25975,13 +26117,17 @@
       <c r="FM125" s="22"/>
       <c r="FN125" s="22"/>
     </row>
-    <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="26"/>
       <c r="B126" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="C126" s="55"/>
-      <c r="D126" s="56"/>
+        <v>143</v>
+      </c>
+      <c r="C126" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" s="56">
+        <v>0</v>
+      </c>
       <c r="E126" s="57"/>
       <c r="F126" s="58">
         <f>G124</f>
@@ -26155,15 +26301,15 @@
       <c r="FM126" s="22"/>
       <c r="FN126" s="22"/>
     </row>
-    <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="26"/>
       <c r="B127" s="65" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C127" s="52"/>
       <c r="D127" s="53"/>
       <c r="E127" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F127" s="54"/>
       <c r="G127" s="54"/>
@@ -26331,13 +26477,17 @@
       <c r="FM127" s="22"/>
       <c r="FN127" s="22"/>
     </row>
-    <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="26"/>
       <c r="B128" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="55"/>
-      <c r="D128" s="56"/>
+        <v>145</v>
+      </c>
+      <c r="C128" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="56">
+        <v>0</v>
+      </c>
       <c r="E128" s="57"/>
       <c r="F128" s="58">
         <f>G126 + 3</f>
@@ -26511,13 +26661,17 @@
       <c r="FM128" s="22"/>
       <c r="FN128" s="22"/>
     </row>
-    <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="26"/>
       <c r="B129" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C129" s="55"/>
-      <c r="D129" s="56"/>
+        <v>146</v>
+      </c>
+      <c r="C129" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129" s="56">
+        <v>0</v>
+      </c>
       <c r="E129" s="57"/>
       <c r="F129" s="58">
         <f>G128 + 1</f>
@@ -26691,13 +26845,17 @@
       <c r="FM129" s="22"/>
       <c r="FN129" s="22"/>
     </row>
-    <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="26"/>
       <c r="B130" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C130" s="55"/>
-      <c r="D130" s="56"/>
+        <v>147</v>
+      </c>
+      <c r="C130" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D130" s="56">
+        <v>0</v>
+      </c>
       <c r="E130" s="57"/>
       <c r="F130" s="58">
         <f>G129</f>
@@ -26871,13 +27029,17 @@
       <c r="FM130" s="22"/>
       <c r="FN130" s="22"/>
     </row>
-    <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="26"/>
       <c r="B131" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C131" s="55"/>
-      <c r="D131" s="56"/>
+        <v>148</v>
+      </c>
+      <c r="C131" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="56">
+        <v>0</v>
+      </c>
       <c r="E131" s="57"/>
       <c r="F131" s="58">
         <f>G130</f>
@@ -27051,13 +27213,17 @@
       <c r="FM131" s="22"/>
       <c r="FN131" s="22"/>
     </row>
-    <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="26"/>
       <c r="B132" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="C132" s="55"/>
-      <c r="D132" s="56"/>
+        <v>149</v>
+      </c>
+      <c r="C132" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="56">
+        <v>0</v>
+      </c>
       <c r="E132" s="57"/>
       <c r="F132" s="58">
         <f>G128</f>
@@ -27231,16 +27397,16 @@
       <c r="FM132" s="22"/>
       <c r="FN132" s="22"/>
     </row>
-    <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="26"/>
-      <c r="B133" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C133" s="86"/>
-      <c r="D133" s="87"/>
-      <c r="E133" s="88"/>
-      <c r="F133" s="89"/>
-      <c r="G133" s="89"/>
+      <c r="B133" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" s="83"/>
+      <c r="D133" s="84"/>
+      <c r="E133" s="85"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86"/>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
       <c r="J133" s="22"/>
@@ -27405,15 +27571,15 @@
       <c r="FM133" s="22"/>
       <c r="FN133" s="22"/>
     </row>
-    <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="26"/>
       <c r="B134" s="65" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="53"/>
       <c r="E134" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F134" s="54"/>
       <c r="G134" s="54"/>
@@ -27581,13 +27747,13 @@
       <c r="FM134" s="22"/>
       <c r="FN134" s="22"/>
     </row>
-    <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="26"/>
       <c r="B135" s="66" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C135" s="55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D135" s="56">
         <v>0</v>
@@ -27765,13 +27931,13 @@
       <c r="FM135" s="22"/>
       <c r="FN135" s="22"/>
     </row>
-    <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="26"/>
-      <c r="B136" s="84" t="s">
-        <v>164</v>
+      <c r="B136" s="81" t="s">
+        <v>152</v>
       </c>
       <c r="C136" s="55" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D136" s="56">
         <v>0</v>
@@ -27949,13 +28115,13 @@
       <c r="FM136" s="22"/>
       <c r="FN136" s="22"/>
     </row>
-    <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="26"/>
       <c r="B137" s="66" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C137" s="55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D137" s="56">
         <v>0</v>
@@ -28133,13 +28299,13 @@
       <c r="FM137" s="22"/>
       <c r="FN137" s="22"/>
     </row>
-    <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26"/>
       <c r="B138" s="66" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C138" s="55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D138" s="56">
         <v>0</v>
@@ -28317,13 +28483,13 @@
       <c r="FM138" s="22"/>
       <c r="FN138" s="22"/>
     </row>
-    <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26"/>
       <c r="B139" s="66" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D139" s="56">
         <v>0</v>
@@ -28501,13 +28667,13 @@
       <c r="FM139" s="22"/>
       <c r="FN139" s="22"/>
     </row>
-    <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26"/>
       <c r="B140" s="66" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C140" s="55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D140" s="56">
         <v>0</v>
@@ -28685,13 +28851,13 @@
       <c r="FM140" s="22"/>
       <c r="FN140" s="22"/>
     </row>
-    <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26"/>
       <c r="B141" s="66" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C141" s="55" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D141" s="56">
         <v>0</v>
@@ -28869,10 +29035,10 @@
       <c r="FM141" s="22"/>
       <c r="FN141" s="22"/>
     </row>
-    <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26"/>
       <c r="B142" s="65" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C142" s="52"/>
       <c r="D142" s="53"/>
@@ -29045,13 +29211,13 @@
       <c r="FM142" s="22"/>
       <c r="FN142" s="22"/>
     </row>
-    <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26"/>
       <c r="B143" s="66" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C143" s="55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D143" s="56">
         <v>0</v>
@@ -29229,13 +29395,13 @@
       <c r="FM143" s="22"/>
       <c r="FN143" s="22"/>
     </row>
-    <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="26"/>
       <c r="B144" s="66" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D144" s="56">
         <v>0</v>
@@ -29413,13 +29579,13 @@
       <c r="FM144" s="22"/>
       <c r="FN144" s="22"/>
     </row>
-    <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="26"/>
       <c r="B145" s="66" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C145" s="55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D145" s="56">
         <v>0</v>
@@ -29597,13 +29763,13 @@
       <c r="FM145" s="22"/>
       <c r="FN145" s="22"/>
     </row>
-    <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="26"/>
       <c r="B146" s="66" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C146" s="55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D146" s="56">
         <v>0</v>
@@ -29781,13 +29947,13 @@
       <c r="FM146" s="22"/>
       <c r="FN146" s="22"/>
     </row>
-    <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="26"/>
       <c r="B147" s="66" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C147" s="55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D147" s="56">
         <v>0</v>
@@ -29965,13 +30131,13 @@
       <c r="FM147" s="22"/>
       <c r="FN147" s="22"/>
     </row>
-    <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="26"/>
       <c r="B148" s="66" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C148" s="55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D148" s="56">
         <v>0</v>
@@ -30149,13 +30315,13 @@
       <c r="FM148" s="22"/>
       <c r="FN148" s="22"/>
     </row>
-    <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="26"/>
       <c r="B149" s="66" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C149" s="55" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D149" s="56">
         <v>0</v>
@@ -30333,15 +30499,15 @@
       <c r="FM149" s="22"/>
       <c r="FN149" s="22"/>
     </row>
-    <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="26"/>
       <c r="B150" s="65" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C150" s="52"/>
       <c r="D150" s="53"/>
       <c r="E150" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F150" s="54"/>
       <c r="G150" s="54"/>
@@ -30509,13 +30675,13 @@
       <c r="FM150" s="22"/>
       <c r="FN150" s="22"/>
     </row>
-    <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="26"/>
-      <c r="B151" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="C151" s="95" t="s">
-        <v>39</v>
+      <c r="B151" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" s="92" t="s">
+        <v>33</v>
       </c>
       <c r="D151" s="56">
         <v>0</v>
@@ -30693,13 +30859,13 @@
       <c r="FM151" s="22"/>
       <c r="FN151" s="22"/>
     </row>
-    <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="26"/>
-      <c r="B152" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="C152" s="95" t="s">
-        <v>39</v>
+      <c r="B152" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" s="92" t="s">
+        <v>32</v>
       </c>
       <c r="D152" s="56">
         <v>0</v>
@@ -30877,13 +31043,13 @@
       <c r="FM152" s="22"/>
       <c r="FN152" s="22"/>
     </row>
-    <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="26"/>
-      <c r="B153" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="C153" s="95" t="s">
-        <v>38</v>
+      <c r="B153" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C153" s="92" t="s">
+        <v>32</v>
       </c>
       <c r="D153" s="56">
         <v>0</v>
@@ -31061,13 +31227,13 @@
       <c r="FM153" s="22"/>
       <c r="FN153" s="22"/>
     </row>
-    <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="26"/>
-      <c r="B154" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="C154" s="95" t="s">
-        <v>38</v>
+      <c r="B154" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C154" s="92" t="s">
+        <v>34</v>
       </c>
       <c r="D154" s="56">
         <v>0</v>
@@ -31245,13 +31411,13 @@
       <c r="FM154" s="22"/>
       <c r="FN154" s="22"/>
     </row>
-    <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="26"/>
-      <c r="B155" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="C155" s="95" t="s">
-        <v>40</v>
+      <c r="B155" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C155" s="92" t="s">
+        <v>34</v>
       </c>
       <c r="D155" s="56">
         <v>0</v>
@@ -31429,13 +31595,13 @@
       <c r="FM155" s="22"/>
       <c r="FN155" s="22"/>
     </row>
-    <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="26"/>
-      <c r="B156" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="C156" s="95" t="s">
-        <v>39</v>
+      <c r="B156" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C156" s="92" t="s">
+        <v>34</v>
       </c>
       <c r="D156" s="56">
         <v>0</v>
@@ -31613,13 +31779,17 @@
       <c r="FM156" s="22"/>
       <c r="FN156" s="22"/>
     </row>
-    <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="26"/>
-      <c r="B157" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="C157" s="95"/>
-      <c r="D157" s="56"/>
+      <c r="B157" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C157" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" s="56">
+        <v>0</v>
+      </c>
       <c r="E157" s="57"/>
       <c r="F157" s="58">
         <f>G155</f>
@@ -31793,15 +31963,15 @@
       <c r="FM157" s="22"/>
       <c r="FN157" s="22"/>
     </row>
-    <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="26"/>
       <c r="B158" s="65" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C158" s="52"/>
-      <c r="D158" s="53"/>
+      <c r="D158" s="52"/>
       <c r="E158" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F158" s="54"/>
       <c r="G158" s="54"/>
@@ -31969,13 +32139,17 @@
       <c r="FM158" s="22"/>
       <c r="FN158" s="22"/>
     </row>
-    <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="26"/>
-      <c r="B159" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="C159" s="95"/>
-      <c r="D159" s="56"/>
+      <c r="B159" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D159" s="56">
+        <v>0</v>
+      </c>
       <c r="E159" s="57"/>
       <c r="F159" s="58">
         <f>G157 + 2</f>
@@ -32149,13 +32323,17 @@
       <c r="FM159" s="22"/>
       <c r="FN159" s="22"/>
     </row>
-    <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="26"/>
-      <c r="B160" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="C160" s="95"/>
-      <c r="D160" s="56"/>
+      <c r="B160" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" s="56">
+        <v>0</v>
+      </c>
       <c r="E160" s="57"/>
       <c r="F160" s="58">
         <f>G159</f>
@@ -32329,13 +32507,17 @@
       <c r="FM160" s="22"/>
       <c r="FN160" s="22"/>
     </row>
-    <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="26"/>
-      <c r="B161" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="C161" s="95"/>
-      <c r="D161" s="56"/>
+      <c r="B161" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D161" s="56">
+        <v>0</v>
+      </c>
       <c r="E161" s="57"/>
       <c r="F161" s="58">
         <f>G160 + 1</f>
@@ -32509,13 +32691,17 @@
       <c r="FM161" s="22"/>
       <c r="FN161" s="22"/>
     </row>
-    <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="26"/>
-      <c r="B162" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C162" s="95"/>
-      <c r="D162" s="56"/>
+      <c r="B162" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="56">
+        <v>0</v>
+      </c>
       <c r="E162" s="57"/>
       <c r="F162" s="58">
         <f>G161</f>
@@ -32689,13 +32875,17 @@
       <c r="FM162" s="22"/>
       <c r="FN162" s="22"/>
     </row>
-    <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="26"/>
-      <c r="B163" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C163" s="95"/>
-      <c r="D163" s="56"/>
+      <c r="B163" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" s="56">
+        <v>0</v>
+      </c>
       <c r="E163" s="57"/>
       <c r="F163" s="58">
         <f>G162</f>
@@ -32869,13 +33059,17 @@
       <c r="FM163" s="22"/>
       <c r="FN163" s="22"/>
     </row>
-    <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="26"/>
-      <c r="B164" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="C164" s="95"/>
-      <c r="D164" s="56"/>
+      <c r="B164" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="56">
+        <v>0</v>
+      </c>
       <c r="E164" s="57"/>
       <c r="F164" s="58">
         <f>G163</f>
@@ -33049,13 +33243,17 @@
       <c r="FM164" s="22"/>
       <c r="FN164" s="22"/>
     </row>
-    <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="26"/>
-      <c r="B165" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="C165" s="95"/>
-      <c r="D165" s="56"/>
+      <c r="B165" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C165" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" s="56">
+        <v>0</v>
+      </c>
       <c r="E165" s="57"/>
       <c r="F165" s="58">
         <f>G164</f>
@@ -33229,13 +33427,17 @@
       <c r="FM165" s="22"/>
       <c r="FN165" s="22"/>
     </row>
-    <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="26"/>
-      <c r="B166" s="84" t="s">
-        <v>187</v>
-      </c>
-      <c r="C166" s="95"/>
-      <c r="D166" s="56"/>
+      <c r="B166" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" s="56">
+        <v>0</v>
+      </c>
       <c r="E166" s="57"/>
       <c r="F166" s="58">
         <f>G165 + 1</f>
@@ -33409,13 +33611,17 @@
       <c r="FM166" s="22"/>
       <c r="FN166" s="22"/>
     </row>
-    <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="26"/>
-      <c r="B167" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="C167" s="95"/>
-      <c r="D167" s="56"/>
+      <c r="B167" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" s="56">
+        <v>0</v>
+      </c>
       <c r="E167" s="57"/>
       <c r="F167" s="58">
         <f>G165</f>
@@ -33589,13 +33795,11 @@
       <c r="FM167" s="22"/>
       <c r="FN167" s="22"/>
     </row>
-    <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:170" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B168" s="67" t="s">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B168" s="67"/>
       <c r="C168" s="18"/>
       <c r="D168" s="49"/>
       <c r="E168" s="42"/>
@@ -33768,46 +33972,46 @@
       <c r="FM168" s="24"/>
       <c r="FN168" s="24"/>
     </row>
-    <row r="169" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="13"/>
       <c r="G170" s="28"/>
     </row>
-    <row r="171" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:170" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
-    <mergeCell ref="FH4:FN4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="BN4:BT4"/>
-    <mergeCell ref="BU4:CA4"/>
-    <mergeCell ref="CB4:CH4"/>
-    <mergeCell ref="CI4:CO4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="BU4:CA4"/>
+    <mergeCell ref="CB4:CH4"/>
+    <mergeCell ref="CI4:CO4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
+    <mergeCell ref="FH4:FN4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D168:E168 D7:E25 D27:E52 D54:E60 D62:E66">
+  <conditionalFormatting sqref="D168:E168 D7:E25 D54:E60 D62:E66 D27:E52">
     <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -34082,7 +34286,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -34108,7 +34312,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D168:E168 D7:E25 D27:E52 D54:E60 D62:E66</xm:sqref>
+          <xm:sqref>D168:E168 D7:E25 D54:E60 D62:E66 D27:E52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8E3A6EF8-D40E-4278-B1FD-7133793CCB2F}">
